--- a/Assets/06.Table/MeditationTower.xlsx
+++ b/Assets/06.Table/MeditationTower.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7706BD-2D8B-42A5-B4C9-FD894ACC2F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BE9668-7495-4144-A5A7-94E2B4090E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MeditationTower" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="71">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,10 +326,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -339,6 +335,10 @@
   </si>
   <si>
     <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -934,11 +934,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1122,7 +1122,7 @@
         <v>2000</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G51" si="2">G3</f>
+        <f t="shared" ref="G4:G53" si="2">G3</f>
         <v>1</v>
       </c>
       <c r="H4" s="2">
@@ -1130,22 +1130,22 @@
         <v>1.0000000000000001E+44</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I51" si="3">I3</f>
+        <f t="shared" ref="I4:I53" si="3">I3</f>
         <v>1000</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J51" si="4">J3</f>
+        <f t="shared" ref="J4:J53" si="4">J3</f>
         <v>8</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K51" si="5">K3</f>
+        <f t="shared" ref="K4:K53" si="5">K3</f>
         <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>57</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M51" si="6">M3+200</f>
+        <f t="shared" ref="M4:M53" si="6">M3+200</f>
         <v>2400</v>
       </c>
       <c r="O4" s="23"/>
@@ -1591,7 +1591,7 @@
         <v>3250</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E51" si="8">E12</f>
+        <f t="shared" ref="E13:E53" si="8">E12</f>
         <v>9043</v>
       </c>
       <c r="F13">
@@ -3602,9 +3602,113 @@
         <v>11800</v>
       </c>
     </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="str">
+        <f t="shared" ref="B52:C52" si="47">B51</f>
+        <v>1-1</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="47"/>
+        <v>9043</v>
+      </c>
+      <c r="D52">
+        <f>VLOOKUP(A52,Balance!E:K,7,FALSE)</f>
+        <v>47500</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="8"/>
+        <v>9043</v>
+      </c>
+      <c r="F52">
+        <f>VLOOKUP(A52,Balance!E:L,8,)</f>
+        <v>95000</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H52" s="2">
+        <f>VLOOKUP(A52,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+140</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L52" t="s">
+        <v>57</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="6"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="str">
+        <f t="shared" ref="B53:C53" si="48">B52</f>
+        <v>1-1</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="48"/>
+        <v>9043</v>
+      </c>
+      <c r="D53">
+        <f>VLOOKUP(A53,Balance!E:K,7,FALSE)</f>
+        <v>50000</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="8"/>
+        <v>9043</v>
+      </c>
+      <c r="F53">
+        <f>VLOOKUP(A53,Balance!E:L,8,)</f>
+        <v>100000</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H53" s="2">
+        <f>VLOOKUP(A53,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+142</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L53" t="s">
+        <v>57</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="6"/>
+        <v>12200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 A2:E51 G13:M51">
+  <conditionalFormatting sqref="G2:N12 A2:E53 G13:M53">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -3618,8 +3722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
   <dimension ref="A1:AA69"/>
   <sheetViews>
-    <sheetView topLeftCell="D52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView topLeftCell="D38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5511,7 +5615,7 @@
         <v>승</v>
       </c>
       <c r="J41" s="16" t="str">
-        <f t="shared" ref="J41:J72" si="13">VLOOKUP(I41,O:R,4,FALSE)</f>
+        <f t="shared" ref="J41:J69" si="13">VLOOKUP(I41,O:R,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="K41" s="22">
@@ -5587,7 +5691,7 @@
       </c>
       <c r="N42" s="22"/>
       <c r="O42" s="16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P42" s="16">
         <v>140</v>
@@ -5647,7 +5751,7 @@
       </c>
       <c r="N43" s="22"/>
       <c r="O43" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P43" s="16">
         <v>144</v>
@@ -5707,17 +5811,17 @@
       </c>
       <c r="N44" s="22"/>
       <c r="O44" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P44" s="16">
         <v>148</v>
       </c>
       <c r="Q44" s="17">
-        <f t="shared" ref="Q44:Q48" si="16">POWER(10,P44)</f>
+        <f t="shared" ref="Q44:Q45" si="16">POWER(10,P44)</f>
         <v>1E+148</v>
       </c>
       <c r="R44" s="17" t="str">
-        <f t="shared" ref="R44:R48" si="17">RIGHT(Q44,P44)</f>
+        <f t="shared" ref="R44:R45" si="17">RIGHT(Q44,P44)</f>
         <v>1E+148</v>
       </c>
       <c r="S44" s="11"/>
@@ -5767,7 +5871,7 @@
       </c>
       <c r="N45" s="22"/>
       <c r="O45" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P45" s="16">
         <v>152</v>
@@ -6427,7 +6531,7 @@
       </c>
       <c r="F59" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>1a</v>
+        <v>1고</v>
       </c>
       <c r="G59" s="17">
         <f t="shared" si="3"/>
@@ -6439,7 +6543,7 @@
       </c>
       <c r="I59" s="16" t="str" cm="1">
         <f t="array" ref="I59">IF(AND(H58&gt;=100,H59&lt;2),INDEX(O:O,MATCH(I58,O:O,0)+1,0),I58)</f>
-        <v>a</v>
+        <v>고</v>
       </c>
       <c r="J59" s="16" t="str">
         <f t="shared" si="13"/>
@@ -6475,7 +6579,7 @@
       </c>
       <c r="F60" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>100a</v>
+        <v>100고</v>
       </c>
       <c r="G60" s="17">
         <f t="shared" si="3"/>
@@ -6487,7 +6591,7 @@
       </c>
       <c r="I60" s="16" t="str" cm="1">
         <f t="array" ref="I60">IF(AND(H59&gt;=100,H60&lt;2),INDEX(O:O,MATCH(I59,O:O,0)+1,0),I59)</f>
-        <v>a</v>
+        <v>고</v>
       </c>
       <c r="J60" s="16" t="str">
         <f t="shared" si="13"/>

--- a/Assets/06.Table/MeditationTower.xlsx
+++ b/Assets/06.Table/MeditationTower.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BE9668-7495-4144-A5A7-94E2B4090E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D21DA1-1399-489B-8A54-68FEE0BB473A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MeditationTower" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="71">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,10 +326,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -339,6 +335,10 @@
   </si>
   <si>
     <t>고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -934,11 +934,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L41" sqref="L41"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1122,7 +1122,7 @@
         <v>2000</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G53" si="2">G3</f>
+        <f t="shared" ref="G4:G55" si="2">G3</f>
         <v>1</v>
       </c>
       <c r="H4" s="2">
@@ -1130,22 +1130,22 @@
         <v>1.0000000000000001E+44</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I53" si="3">I3</f>
+        <f t="shared" ref="I4:I55" si="3">I3</f>
         <v>1000</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J53" si="4">J3</f>
+        <f t="shared" ref="J4:J55" si="4">J3</f>
         <v>8</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K53" si="5">K3</f>
+        <f t="shared" ref="K4:K55" si="5">K3</f>
         <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>57</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M53" si="6">M3+200</f>
+        <f t="shared" ref="M4:M55" si="6">M3+200</f>
         <v>2400</v>
       </c>
       <c r="O4" s="23"/>
@@ -1591,7 +1591,7 @@
         <v>3250</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E53" si="8">E12</f>
+        <f t="shared" ref="E13:E55" si="8">E12</f>
         <v>9043</v>
       </c>
       <c r="F13">
@@ -3706,9 +3706,113 @@
         <v>12200</v>
       </c>
     </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="str">
+        <f t="shared" ref="B54:C54" si="49">B53</f>
+        <v>1-1</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="49"/>
+        <v>9043</v>
+      </c>
+      <c r="D54">
+        <f>VLOOKUP(A54,Balance!E:K,7,FALSE)</f>
+        <v>52500</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="8"/>
+        <v>9043</v>
+      </c>
+      <c r="F54">
+        <f>VLOOKUP(A54,Balance!E:L,8,)</f>
+        <v>105000</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H54" s="2">
+        <f>VLOOKUP(A54,Balance!E:K,3,FALSE)</f>
+        <v>1E+144</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L54" t="s">
+        <v>57</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="6"/>
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="str">
+        <f t="shared" ref="B55:C55" si="50">B54</f>
+        <v>1-1</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="50"/>
+        <v>9043</v>
+      </c>
+      <c r="D55">
+        <f>VLOOKUP(A55,Balance!E:K,7,FALSE)</f>
+        <v>55000</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="8"/>
+        <v>9043</v>
+      </c>
+      <c r="F55">
+        <f>VLOOKUP(A55,Balance!E:L,8,)</f>
+        <v>110000</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H55" s="2">
+        <f>VLOOKUP(A55,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999993E+145</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L55" t="s">
+        <v>57</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="6"/>
+        <v>12600</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 A2:E53 G13:M53">
+  <conditionalFormatting sqref="G2:N12 A2:E55 G13:M55">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -3723,7 +3827,7 @@
   <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView topLeftCell="D38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5691,7 +5795,7 @@
       </c>
       <c r="N42" s="22"/>
       <c r="O42" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P42" s="16">
         <v>140</v>
@@ -5751,7 +5855,7 @@
       </c>
       <c r="N43" s="22"/>
       <c r="O43" s="16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P43" s="16">
         <v>144</v>
@@ -5811,7 +5915,7 @@
       </c>
       <c r="N44" s="22"/>
       <c r="O44" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P44" s="16">
         <v>148</v>
@@ -5871,7 +5975,7 @@
       </c>
       <c r="N45" s="22"/>
       <c r="O45" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P45" s="16">
         <v>152</v>
@@ -6627,7 +6731,7 @@
       </c>
       <c r="F61" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>1b</v>
+        <v>1화</v>
       </c>
       <c r="G61" s="17">
         <f t="shared" si="3"/>
@@ -6639,7 +6743,7 @@
       </c>
       <c r="I61" s="16" t="str" cm="1">
         <f t="array" ref="I61">IF(AND(H60&gt;=100,H61&lt;2),INDEX(O:O,MATCH(I60,O:O,0)+1,0),I60)</f>
-        <v>b</v>
+        <v>화</v>
       </c>
       <c r="J61" s="16" t="str">
         <f t="shared" si="13"/>
@@ -6675,7 +6779,7 @@
       </c>
       <c r="F62" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>100b</v>
+        <v>100화</v>
       </c>
       <c r="G62" s="17">
         <f t="shared" si="3"/>
@@ -6687,7 +6791,7 @@
       </c>
       <c r="I62" s="16" t="str" cm="1">
         <f t="array" ref="I62">IF(AND(H61&gt;=100,H62&lt;2),INDEX(O:O,MATCH(I61,O:O,0)+1,0),I61)</f>
-        <v>b</v>
+        <v>화</v>
       </c>
       <c r="J62" s="16" t="str">
         <f t="shared" si="13"/>

--- a/Assets/06.Table/MeditationTower.xlsx
+++ b/Assets/06.Table/MeditationTower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D21DA1-1399-489B-8A54-68FEE0BB473A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35DCD2E-0975-481B-A48B-23290766841C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MeditationTower" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="71">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,10 +326,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -339,6 +335,10 @@
   </si>
   <si>
     <t>화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -601,7 +601,29 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -934,11 +956,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M53" sqref="M53"/>
+      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1122,7 +1144,7 @@
         <v>2000</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G55" si="2">G3</f>
+        <f t="shared" ref="G4:G58" si="2">G3</f>
         <v>1</v>
       </c>
       <c r="H4" s="2">
@@ -1130,22 +1152,22 @@
         <v>1.0000000000000001E+44</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I55" si="3">I3</f>
+        <f t="shared" ref="I4:I58" si="3">I3</f>
         <v>1000</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J55" si="4">J3</f>
+        <f t="shared" ref="J4:J58" si="4">J3</f>
         <v>8</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K55" si="5">K3</f>
+        <f t="shared" ref="K4:K58" si="5">K3</f>
         <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>57</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M55" si="6">M3+200</f>
+        <f t="shared" ref="M4:M58" si="6">M3+200</f>
         <v>2400</v>
       </c>
       <c r="O4" s="23"/>
@@ -1591,7 +1613,7 @@
         <v>3250</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E55" si="8">E12</f>
+        <f t="shared" ref="E13:E58" si="8">E12</f>
         <v>9043</v>
       </c>
       <c r="F13">
@@ -3810,9 +3832,113 @@
         <v>12600</v>
       </c>
     </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="str">
+        <f t="shared" ref="B56:C56" si="51">B55</f>
+        <v>1-1</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="51"/>
+        <v>9043</v>
+      </c>
+      <c r="D56">
+        <f>VLOOKUP(A56,Balance!E:K,7,FALSE)</f>
+        <v>57500</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="8"/>
+        <v>9043</v>
+      </c>
+      <c r="F56">
+        <f>VLOOKUP(A56,Balance!E:L,8,)</f>
+        <v>115000</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H56" s="2">
+        <f>VLOOKUP(A56,Balance!E:K,3,FALSE)</f>
+        <v>1E+148</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L56" t="s">
+        <v>57</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="6"/>
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="str">
+        <f t="shared" ref="B57:C58" si="52">B56</f>
+        <v>1-1</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="52"/>
+        <v>9043</v>
+      </c>
+      <c r="D57">
+        <f>VLOOKUP(A57,Balance!E:K,7,FALSE)</f>
+        <v>60000</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="8"/>
+        <v>9043</v>
+      </c>
+      <c r="F57">
+        <f>VLOOKUP(A57,Balance!E:L,8,)</f>
+        <v>120000</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H57" s="2">
+        <f>VLOOKUP(A57,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999998E+149</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L57" t="s">
+        <v>57</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="6"/>
+        <v>13000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 A2:E55 G13:M55">
+  <conditionalFormatting sqref="G2:N12 A2:E57 G13:M57">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -3827,7 +3953,7 @@
   <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView topLeftCell="D38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5795,7 +5921,7 @@
       </c>
       <c r="N42" s="22"/>
       <c r="O42" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P42" s="16">
         <v>140</v>
@@ -5855,7 +5981,7 @@
       </c>
       <c r="N43" s="22"/>
       <c r="O43" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P43" s="16">
         <v>144</v>
@@ -5915,7 +6041,7 @@
       </c>
       <c r="N44" s="22"/>
       <c r="O44" s="16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P44" s="16">
         <v>148</v>
@@ -5975,7 +6101,7 @@
       </c>
       <c r="N45" s="22"/>
       <c r="O45" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P45" s="16">
         <v>152</v>
@@ -6827,7 +6953,7 @@
       </c>
       <c r="F63" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>1c</v>
+        <v>1명</v>
       </c>
       <c r="G63" s="17">
         <f t="shared" si="3"/>
@@ -6839,7 +6965,7 @@
       </c>
       <c r="I63" s="16" t="str" cm="1">
         <f t="array" ref="I63">IF(AND(H62&gt;=100,H63&lt;2),INDEX(O:O,MATCH(I62,O:O,0)+1,0),I62)</f>
-        <v>c</v>
+        <v>명</v>
       </c>
       <c r="J63" s="16" t="str">
         <f t="shared" si="13"/>
@@ -6875,7 +7001,7 @@
       </c>
       <c r="F64" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>100c</v>
+        <v>100명</v>
       </c>
       <c r="G64" s="17">
         <f t="shared" si="3"/>
@@ -6887,7 +7013,7 @@
       </c>
       <c r="I64" s="16" t="str" cm="1">
         <f t="array" ref="I64">IF(AND(H63&gt;=100,H64&lt;2),INDEX(O:O,MATCH(I63,O:O,0)+1,0),I63)</f>
-        <v>c</v>
+        <v>명</v>
       </c>
       <c r="J64" s="16" t="str">
         <f t="shared" si="13"/>

--- a/Assets/06.Table/MeditationTower.xlsx
+++ b/Assets/06.Table/MeditationTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35DCD2E-0975-481B-A48B-23290766841C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0809D3-E4F0-42BD-91DD-7B2B1477E8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="73">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,10 +326,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -339,6 +335,18 @@
   </si>
   <si>
     <t>명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -601,29 +609,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -956,11 +942,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
+      <selection pane="bottomLeft" activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1144,7 +1130,7 @@
         <v>2000</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G58" si="2">G3</f>
+        <f t="shared" ref="G4:G59" si="2">G3</f>
         <v>1</v>
       </c>
       <c r="H4" s="2">
@@ -1152,22 +1138,22 @@
         <v>1.0000000000000001E+44</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I58" si="3">I3</f>
+        <f t="shared" ref="I4:I59" si="3">I3</f>
         <v>1000</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J58" si="4">J3</f>
+        <f t="shared" ref="J4:J59" si="4">J3</f>
         <v>8</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K58" si="5">K3</f>
+        <f t="shared" ref="K4:K59" si="5">K3</f>
         <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>57</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M58" si="6">M3+200</f>
+        <f t="shared" ref="M4:M59" si="6">M3+200</f>
         <v>2400</v>
       </c>
       <c r="O4" s="23"/>
@@ -1613,7 +1599,7 @@
         <v>3250</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E58" si="8">E12</f>
+        <f t="shared" ref="E13:E59" si="8">E12</f>
         <v>9043</v>
       </c>
       <c r="F13">
@@ -3889,7 +3875,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="str">
-        <f t="shared" ref="B57:C58" si="52">B56</f>
+        <f t="shared" ref="B57:C57" si="52">B56</f>
         <v>1-1</v>
       </c>
       <c r="C57">
@@ -3936,9 +3922,113 @@
         <v>13000</v>
       </c>
     </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="str">
+        <f t="shared" ref="B58:C58" si="53">B57</f>
+        <v>1-1</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="53"/>
+        <v>9043</v>
+      </c>
+      <c r="D58">
+        <f>VLOOKUP(A58,Balance!E:K,7,FALSE)</f>
+        <v>62500</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="8"/>
+        <v>9043</v>
+      </c>
+      <c r="F58">
+        <f>VLOOKUP(A58,Balance!E:L,8,)</f>
+        <v>125000</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H58" s="2">
+        <f>VLOOKUP(A58,Balance!E:K,3,FALSE)</f>
+        <v>1E+152</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L58" t="s">
+        <v>57</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="6"/>
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="str">
+        <f t="shared" ref="B59:C59" si="54">B58</f>
+        <v>1-1</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="54"/>
+        <v>9043</v>
+      </c>
+      <c r="D59">
+        <f>VLOOKUP(A59,Balance!E:K,7,FALSE)</f>
+        <v>65000</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="8"/>
+        <v>9043</v>
+      </c>
+      <c r="F59">
+        <f>VLOOKUP(A59,Balance!E:L,8,)</f>
+        <v>130000</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H59" s="2">
+        <f>VLOOKUP(A59,Balance!E:K,3,FALSE)</f>
+        <v>1E+154</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L59" t="s">
+        <v>57</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="6"/>
+        <v>13400</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 A2:E57 G13:M57">
+  <conditionalFormatting sqref="G2:N12 A2:E59 G13:M59">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -3952,8 +4042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
   <dimension ref="A1:AA69"/>
   <sheetViews>
-    <sheetView topLeftCell="D38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5921,7 +6011,7 @@
       </c>
       <c r="N42" s="22"/>
       <c r="O42" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P42" s="16">
         <v>140</v>
@@ -5981,7 +6071,7 @@
       </c>
       <c r="N43" s="22"/>
       <c r="O43" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P43" s="16">
         <v>144</v>
@@ -6041,7 +6131,7 @@
       </c>
       <c r="N44" s="22"/>
       <c r="O44" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P44" s="16">
         <v>148</v>
@@ -6101,7 +6191,7 @@
       </c>
       <c r="N45" s="22"/>
       <c r="O45" s="16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P45" s="16">
         <v>152</v>
@@ -6160,10 +6250,20 @@
         <v>37</v>
       </c>
       <c r="N46" s="22"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
+      <c r="O46" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P46" s="16">
+        <v>156</v>
+      </c>
+      <c r="Q46" s="17">
+        <f t="shared" ref="Q46:Q47" si="18">POWER(10,P46)</f>
+        <v>9.9999999999999998E+155</v>
+      </c>
+      <c r="R46" s="17" t="str">
+        <f t="shared" ref="R46:R47" si="19">RIGHT(Q46,P46)</f>
+        <v>1E+156</v>
+      </c>
       <c r="S46" s="11"/>
       <c r="T46" s="11"/>
       <c r="U46" s="11"/>
@@ -6210,10 +6310,20 @@
         <v>38</v>
       </c>
       <c r="N47" s="22"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="17"/>
+      <c r="O47" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="P47" s="16">
+        <v>160</v>
+      </c>
+      <c r="Q47" s="17">
+        <f t="shared" si="18"/>
+        <v>1E+160</v>
+      </c>
+      <c r="R47" s="17" t="str">
+        <f t="shared" si="19"/>
+        <v>1E+160</v>
+      </c>
       <c r="S47" s="11"/>
       <c r="T47" s="11"/>
       <c r="U47" s="11"/>
@@ -6688,7 +6798,7 @@
         <v>42500</v>
       </c>
       <c r="L57" s="22">
-        <f t="shared" ref="L57:L69" si="18">L56+500+QUOTIENT(E57,15)*1500</f>
+        <f t="shared" ref="L57:L69" si="20">L56+500+QUOTIENT(E57,15)*1500</f>
         <v>85000</v>
       </c>
       <c r="M57" s="16">
@@ -6736,7 +6846,7 @@
         <v>45000</v>
       </c>
       <c r="L58" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>90000</v>
       </c>
       <c r="M58" s="16">
@@ -6784,7 +6894,7 @@
         <v>47500</v>
       </c>
       <c r="L59" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>95000</v>
       </c>
       <c r="M59" s="16">
@@ -6832,7 +6942,7 @@
         <v>50000</v>
       </c>
       <c r="L60" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100000</v>
       </c>
       <c r="M60" s="16">
@@ -6880,7 +6990,7 @@
         <v>52500</v>
       </c>
       <c r="L61" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>105000</v>
       </c>
       <c r="M61" s="16">
@@ -6928,7 +7038,7 @@
         <v>55000</v>
       </c>
       <c r="L62" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>110000</v>
       </c>
       <c r="M62" s="16">
@@ -6976,7 +7086,7 @@
         <v>57500</v>
       </c>
       <c r="L63" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>115000</v>
       </c>
       <c r="M63" s="16">
@@ -7024,7 +7134,7 @@
         <v>60000</v>
       </c>
       <c r="L64" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>120000</v>
       </c>
       <c r="M64" s="16">
@@ -7049,7 +7159,7 @@
       </c>
       <c r="F65" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>1d</v>
+        <v>1월</v>
       </c>
       <c r="G65" s="17">
         <f t="shared" si="3"/>
@@ -7061,7 +7171,7 @@
       </c>
       <c r="I65" s="16" t="str" cm="1">
         <f t="array" ref="I65">IF(AND(H64&gt;=100,H65&lt;2),INDEX(O:O,MATCH(I64,O:O,0)+1,0),I64)</f>
-        <v>d</v>
+        <v>월</v>
       </c>
       <c r="J65" s="16" t="str">
         <f t="shared" si="13"/>
@@ -7072,7 +7182,7 @@
         <v>62500</v>
       </c>
       <c r="L65" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>125000</v>
       </c>
       <c r="M65" s="16">
@@ -7097,7 +7207,7 @@
       </c>
       <c r="F66" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>100d</v>
+        <v>100월</v>
       </c>
       <c r="G66" s="17">
         <f t="shared" si="3"/>
@@ -7109,7 +7219,7 @@
       </c>
       <c r="I66" s="16" t="str" cm="1">
         <f t="array" ref="I66">IF(AND(H65&gt;=100,H66&lt;2),INDEX(O:O,MATCH(I65,O:O,0)+1,0),I65)</f>
-        <v>d</v>
+        <v>월</v>
       </c>
       <c r="J66" s="16" t="str">
         <f t="shared" si="13"/>
@@ -7120,7 +7230,7 @@
         <v>65000</v>
       </c>
       <c r="L66" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>130000</v>
       </c>
       <c r="M66" s="16">
@@ -7145,30 +7255,30 @@
       </c>
       <c r="F67" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="G67" s="17" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>1a</v>
+      </c>
+      <c r="G67" s="17">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999998E+155</v>
       </c>
       <c r="H67" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I67" s="16" cm="1">
+      <c r="I67" s="16" t="str" cm="1">
         <f t="array" ref="I67">IF(AND(H66&gt;=100,H67&lt;2),INDEX(O:O,MATCH(I66,O:O,0)+1,0),I66)</f>
-        <v>0</v>
-      </c>
-      <c r="J67" s="16" t="e">
+        <v>a</v>
+      </c>
+      <c r="J67" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
+        <v>1E+156</v>
       </c>
       <c r="K67" s="22">
         <f t="shared" si="2"/>
         <v>67500</v>
       </c>
       <c r="L67" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>135000</v>
       </c>
       <c r="M67" s="16">
@@ -7182,30 +7292,30 @@
       </c>
       <c r="F68" s="17" t="str">
         <f>H68&amp;I68</f>
-        <v>1000</v>
-      </c>
-      <c r="G68" s="17" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>100a</v>
+      </c>
+      <c r="G68" s="17">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999995E+157</v>
       </c>
       <c r="H68" s="17">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="I68" s="16" cm="1">
+      <c r="I68" s="16" t="str" cm="1">
         <f t="array" ref="I68">IF(AND(H67&gt;=100,H68&lt;2),INDEX(O:O,MATCH(I67,O:O,0)+1,0),I67)</f>
-        <v>0</v>
-      </c>
-      <c r="J68" s="16" t="e">
+        <v>a</v>
+      </c>
+      <c r="J68" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
+        <v>1E+156</v>
       </c>
       <c r="K68" s="22">
         <f t="shared" si="2"/>
         <v>70000</v>
       </c>
       <c r="L68" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>140000</v>
       </c>
       <c r="M68" s="16">
@@ -7217,32 +7327,32 @@
       <c r="E69" s="16">
         <v>60</v>
       </c>
-      <c r="F69" s="17" t="e">
-        <f t="shared" ref="F69" si="19">H69&amp;I69</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G69" s="17" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+      <c r="F69" s="17" t="str">
+        <f t="shared" ref="F69" si="21">H69&amp;I69</f>
+        <v>1b</v>
+      </c>
+      <c r="G69" s="17">
+        <f t="shared" si="3"/>
+        <v>1E+160</v>
       </c>
       <c r="H69" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I69" s="16" t="e" cm="1">
+      <c r="I69" s="16" t="str" cm="1">
         <f t="array" ref="I69">IF(AND(H68&gt;=100,H69&lt;2),INDEX(O:O,MATCH(I68,O:O,0)+1,0),I68)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J69" s="16" t="e">
+        <v>b</v>
+      </c>
+      <c r="J69" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
+        <v>1E+160</v>
       </c>
       <c r="K69" s="22">
         <f t="shared" si="2"/>
         <v>73250</v>
       </c>
       <c r="L69" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>146500</v>
       </c>
       <c r="M69" s="16">

--- a/Assets/06.Table/MeditationTower.xlsx
+++ b/Assets/06.Table/MeditationTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0809D3-E4F0-42BD-91DD-7B2B1477E8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A160C38-3C68-441A-9338-8BAFC8380830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="73">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,11 +342,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
+    <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
+    <t>후</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -942,11 +942,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J56" sqref="J56"/>
+      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1130,7 +1130,7 @@
         <v>2000</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G59" si="2">G3</f>
+        <f t="shared" ref="G4:G61" si="2">G3</f>
         <v>1</v>
       </c>
       <c r="H4" s="2">
@@ -1138,22 +1138,22 @@
         <v>1.0000000000000001E+44</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I59" si="3">I3</f>
+        <f t="shared" ref="I4:I61" si="3">I3</f>
         <v>1000</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J59" si="4">J3</f>
+        <f t="shared" ref="J4:J61" si="4">J3</f>
         <v>8</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K59" si="5">K3</f>
+        <f t="shared" ref="K4:K61" si="5">K3</f>
         <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>57</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M59" si="6">M3+200</f>
+        <f t="shared" ref="M4:M61" si="6">M3+200</f>
         <v>2400</v>
       </c>
       <c r="O4" s="23"/>
@@ -1599,7 +1599,7 @@
         <v>3250</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E59" si="8">E12</f>
+        <f t="shared" ref="E13:E61" si="8">E12</f>
         <v>9043</v>
       </c>
       <c r="F13">
@@ -4026,9 +4026,113 @@
         <v>13400</v>
       </c>
     </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="str">
+        <f t="shared" ref="B60:C60" si="55">B59</f>
+        <v>1-1</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="55"/>
+        <v>9043</v>
+      </c>
+      <c r="D60">
+        <f>VLOOKUP(A60,Balance!E:K,7,FALSE)</f>
+        <v>67500</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="8"/>
+        <v>9043</v>
+      </c>
+      <c r="F60">
+        <f>VLOOKUP(A60,Balance!E:L,8,)</f>
+        <v>135000</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H60" s="2">
+        <f>VLOOKUP(A60,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999998E+155</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L60" t="s">
+        <v>57</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="6"/>
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="str">
+        <f t="shared" ref="B61:C61" si="56">B60</f>
+        <v>1-1</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="56"/>
+        <v>9043</v>
+      </c>
+      <c r="D61">
+        <f>VLOOKUP(A61,Balance!E:K,7,FALSE)</f>
+        <v>70000</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="8"/>
+        <v>9043</v>
+      </c>
+      <c r="F61">
+        <f>VLOOKUP(A61,Balance!E:L,8,)</f>
+        <v>140000</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H61" s="2">
+        <f>VLOOKUP(A61,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999995E+157</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L61" t="s">
+        <v>57</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="6"/>
+        <v>13800</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 A2:E59 G13:M59">
+  <conditionalFormatting sqref="G2:N12 A2:E61 G13:M61">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -4042,8 +4146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
   <dimension ref="A1:AA69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView topLeftCell="B52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6251,7 +6355,7 @@
       </c>
       <c r="N46" s="22"/>
       <c r="O46" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P46" s="16">
         <v>156</v>
@@ -6311,7 +6415,7 @@
       </c>
       <c r="N47" s="22"/>
       <c r="O47" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P47" s="16">
         <v>160</v>
@@ -7255,7 +7359,7 @@
       </c>
       <c r="F67" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>1a</v>
+        <v>1후</v>
       </c>
       <c r="G67" s="17">
         <f t="shared" si="3"/>
@@ -7267,7 +7371,7 @@
       </c>
       <c r="I67" s="16" t="str" cm="1">
         <f t="array" ref="I67">IF(AND(H66&gt;=100,H67&lt;2),INDEX(O:O,MATCH(I66,O:O,0)+1,0),I66)</f>
-        <v>a</v>
+        <v>후</v>
       </c>
       <c r="J67" s="16" t="str">
         <f t="shared" si="13"/>
@@ -7292,7 +7396,7 @@
       </c>
       <c r="F68" s="17" t="str">
         <f>H68&amp;I68</f>
-        <v>100a</v>
+        <v>100후</v>
       </c>
       <c r="G68" s="17">
         <f t="shared" si="3"/>
@@ -7304,7 +7408,7 @@
       </c>
       <c r="I68" s="16" t="str" cm="1">
         <f t="array" ref="I68">IF(AND(H67&gt;=100,H68&lt;2),INDEX(O:O,MATCH(I67,O:O,0)+1,0),I67)</f>
-        <v>a</v>
+        <v>후</v>
       </c>
       <c r="J68" s="16" t="str">
         <f t="shared" si="13"/>

--- a/Assets/06.Table/MeditationTower.xlsx
+++ b/Assets/06.Table/MeditationTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A160C38-3C68-441A-9338-8BAFC8380830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1139304E-05DB-4218-BC76-F877081BF6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="75">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,6 +347,14 @@
   </si>
   <si>
     <t>후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -942,11 +950,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1130,7 +1138,7 @@
         <v>2000</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G61" si="2">G3</f>
+        <f t="shared" ref="G4:G63" si="2">G3</f>
         <v>1</v>
       </c>
       <c r="H4" s="2">
@@ -1138,22 +1146,22 @@
         <v>1.0000000000000001E+44</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I61" si="3">I3</f>
+        <f t="shared" ref="I4:I63" si="3">I3</f>
         <v>1000</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J61" si="4">J3</f>
+        <f t="shared" ref="J4:J63" si="4">J3</f>
         <v>8</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K61" si="5">K3</f>
+        <f t="shared" ref="K4:K63" si="5">K3</f>
         <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>57</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M61" si="6">M3+200</f>
+        <f t="shared" ref="M4:M63" si="6">M3+200</f>
         <v>2400</v>
       </c>
       <c r="O4" s="23"/>
@@ -1599,7 +1607,7 @@
         <v>3250</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E61" si="8">E12</f>
+        <f t="shared" ref="E13:E63" si="8">E12</f>
         <v>9043</v>
       </c>
       <c r="F13">
@@ -4130,9 +4138,113 @@
         <v>13800</v>
       </c>
     </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="str">
+        <f t="shared" ref="B62:C62" si="57">B61</f>
+        <v>1-1</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="57"/>
+        <v>9043</v>
+      </c>
+      <c r="D62">
+        <f>VLOOKUP(A62,Balance!E:K,7,FALSE)</f>
+        <v>73250</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="8"/>
+        <v>9043</v>
+      </c>
+      <c r="F62">
+        <f>VLOOKUP(A62,Balance!E:L,8,)</f>
+        <v>146500</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H62" s="2">
+        <f>VLOOKUP(A62,Balance!E:K,3,FALSE)</f>
+        <v>1E+160</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L62" t="s">
+        <v>57</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="6"/>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="str">
+        <f t="shared" ref="B63:C63" si="58">B62</f>
+        <v>1-1</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="58"/>
+        <v>9043</v>
+      </c>
+      <c r="D63">
+        <f>VLOOKUP(A63,Balance!E:K,7,FALSE)</f>
+        <v>76500</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="8"/>
+        <v>9043</v>
+      </c>
+      <c r="F63">
+        <f>VLOOKUP(A63,Balance!E:L,8,)</f>
+        <v>153000</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H63" s="2">
+        <f>VLOOKUP(A63,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999994E+161</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L63" t="s">
+        <v>57</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="6"/>
+        <v>14200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 A2:E61 G13:M61">
+  <conditionalFormatting sqref="G2:N12 A2:E63 G13:M63">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -4144,10 +4256,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:AA69"/>
+  <dimension ref="A1:AA70"/>
   <sheetViews>
-    <sheetView topLeftCell="B52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J69" sqref="J69"/>
+    <sheetView topLeftCell="B50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L66" sqref="L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4470,7 +4582,7 @@
         <v>1.0000000000000001E+46</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" ref="H12:H69" si="5">H10</f>
+        <f t="shared" ref="H12:H70" si="5">H10</f>
         <v>100</v>
       </c>
       <c r="I12" s="16" t="str" cm="1">
@@ -6415,7 +6527,7 @@
       </c>
       <c r="N47" s="22"/>
       <c r="O47" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P47" s="16">
         <v>160</v>
@@ -6474,10 +6586,20 @@
         <v>39</v>
       </c>
       <c r="N48" s="22"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="17"/>
+      <c r="O48" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="P48" s="16">
+        <v>164</v>
+      </c>
+      <c r="Q48" s="17">
+        <f t="shared" ref="Q48:Q49" si="20">POWER(10,P48)</f>
+        <v>1E+164</v>
+      </c>
+      <c r="R48" s="17" t="str">
+        <f t="shared" ref="R48:R49" si="21">RIGHT(Q48,P48)</f>
+        <v>1E+164</v>
+      </c>
       <c r="S48" s="11"/>
       <c r="T48" s="11"/>
       <c r="U48" s="11"/>
@@ -6524,8 +6646,20 @@
         <v>40</v>
       </c>
       <c r="N49" s="22"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
+      <c r="O49" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P49" s="16">
+        <v>168</v>
+      </c>
+      <c r="Q49" s="17">
+        <f t="shared" si="20"/>
+        <v>9.9999999999999993E+167</v>
+      </c>
+      <c r="R49" s="17" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+168</v>
+      </c>
       <c r="S49" s="11"/>
       <c r="T49" s="11"/>
       <c r="U49" s="11"/>
@@ -6902,7 +7036,7 @@
         <v>42500</v>
       </c>
       <c r="L57" s="22">
-        <f t="shared" ref="L57:L69" si="20">L56+500+QUOTIENT(E57,15)*1500</f>
+        <f t="shared" ref="L57:L69" si="22">L56+500+QUOTIENT(E57,15)*1500</f>
         <v>85000</v>
       </c>
       <c r="M57" s="16">
@@ -6950,7 +7084,7 @@
         <v>45000</v>
       </c>
       <c r="L58" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>90000</v>
       </c>
       <c r="M58" s="16">
@@ -6998,7 +7132,7 @@
         <v>47500</v>
       </c>
       <c r="L59" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>95000</v>
       </c>
       <c r="M59" s="16">
@@ -7046,7 +7180,7 @@
         <v>50000</v>
       </c>
       <c r="L60" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100000</v>
       </c>
       <c r="M60" s="16">
@@ -7094,7 +7228,7 @@
         <v>52500</v>
       </c>
       <c r="L61" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>105000</v>
       </c>
       <c r="M61" s="16">
@@ -7142,7 +7276,7 @@
         <v>55000</v>
       </c>
       <c r="L62" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>110000</v>
       </c>
       <c r="M62" s="16">
@@ -7190,7 +7324,7 @@
         <v>57500</v>
       </c>
       <c r="L63" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>115000</v>
       </c>
       <c r="M63" s="16">
@@ -7238,7 +7372,7 @@
         <v>60000</v>
       </c>
       <c r="L64" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>120000</v>
       </c>
       <c r="M64" s="16">
@@ -7286,7 +7420,7 @@
         <v>62500</v>
       </c>
       <c r="L65" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>125000</v>
       </c>
       <c r="M65" s="16">
@@ -7334,7 +7468,7 @@
         <v>65000</v>
       </c>
       <c r="L66" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>130000</v>
       </c>
       <c r="M66" s="16">
@@ -7382,7 +7516,7 @@
         <v>67500</v>
       </c>
       <c r="L67" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>135000</v>
       </c>
       <c r="M67" s="16">
@@ -7419,7 +7553,7 @@
         <v>70000</v>
       </c>
       <c r="L68" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>140000</v>
       </c>
       <c r="M68" s="16">
@@ -7432,8 +7566,8 @@
         <v>60</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" ref="F69" si="21">H69&amp;I69</f>
-        <v>1b</v>
+        <f t="shared" ref="F69" si="23">H69&amp;I69</f>
+        <v>1단</v>
       </c>
       <c r="G69" s="17">
         <f t="shared" si="3"/>
@@ -7445,7 +7579,7 @@
       </c>
       <c r="I69" s="16" t="str" cm="1">
         <f t="array" ref="I69">IF(AND(H68&gt;=100,H69&lt;2),INDEX(O:O,MATCH(I68,O:O,0)+1,0),I68)</f>
-        <v>b</v>
+        <v>단</v>
       </c>
       <c r="J69" s="16" t="str">
         <f t="shared" si="13"/>
@@ -7456,13 +7590,46 @@
         <v>73250</v>
       </c>
       <c r="L69" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>146500</v>
       </c>
       <c r="M69" s="16">
         <v>60</v>
       </c>
       <c r="N69" s="22"/>
+    </row>
+    <row r="70" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E70" s="16">
+        <v>61</v>
+      </c>
+      <c r="F70" s="17" t="str">
+        <f>H70&amp;I70</f>
+        <v>100단</v>
+      </c>
+      <c r="G70" s="17">
+        <f t="shared" ref="G70" si="24">H70*J70</f>
+        <v>9.9999999999999994E+161</v>
+      </c>
+      <c r="H70" s="17">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I70" s="16" t="str" cm="1">
+        <f t="array" ref="I70">IF(AND(H69&gt;=100,H70&lt;2),INDEX(O:O,MATCH(I69,O:O,0)+1,0),I69)</f>
+        <v>단</v>
+      </c>
+      <c r="J70" s="16" t="str">
+        <f t="shared" ref="J70" si="25">VLOOKUP(I70,O:R,4,FALSE)</f>
+        <v>1E+160</v>
+      </c>
+      <c r="K70" s="22">
+        <f t="shared" ref="K70" si="26">L70*0.5</f>
+        <v>76500</v>
+      </c>
+      <c r="L70" s="22">
+        <f t="shared" ref="L70" si="27">L69+500+QUOTIENT(E70,15)*1500</f>
+        <v>153000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assets/06.Table/MeditationTower.xlsx
+++ b/Assets/06.Table/MeditationTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1139304E-05DB-4218-BC76-F877081BF6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36B410A-78BA-4E3A-B87C-3B88896094E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="75">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -354,7 +354,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
+    <t>절</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -950,11 +950,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I63" sqref="I63"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1138,7 +1138,7 @@
         <v>2000</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G63" si="2">G3</f>
+        <f t="shared" ref="G4:G65" si="2">G3</f>
         <v>1</v>
       </c>
       <c r="H4" s="2">
@@ -1146,22 +1146,22 @@
         <v>1.0000000000000001E+44</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I63" si="3">I3</f>
+        <f t="shared" ref="I4:I65" si="3">I3</f>
         <v>1000</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J63" si="4">J3</f>
+        <f t="shared" ref="J4:J65" si="4">J3</f>
         <v>8</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K63" si="5">K3</f>
+        <f t="shared" ref="K4:K65" si="5">K3</f>
         <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>57</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M63" si="6">M3+200</f>
+        <f t="shared" ref="M4:M65" si="6">M3+200</f>
         <v>2400</v>
       </c>
       <c r="O4" s="23"/>
@@ -1607,7 +1607,7 @@
         <v>3250</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E63" si="8">E12</f>
+        <f t="shared" ref="E13:E65" si="8">E12</f>
         <v>9043</v>
       </c>
       <c r="F13">
@@ -4242,9 +4242,113 @@
         <v>14200</v>
       </c>
     </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="str">
+        <f t="shared" ref="B64:C64" si="59">B63</f>
+        <v>1-1</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="59"/>
+        <v>9043</v>
+      </c>
+      <c r="D64">
+        <f>VLOOKUP(A64,Balance!E:K,7,FALSE)</f>
+        <v>79750</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="8"/>
+        <v>9043</v>
+      </c>
+      <c r="F64">
+        <f>VLOOKUP(A64,Balance!E:L,8,)</f>
+        <v>159500</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H64" s="2">
+        <f>VLOOKUP(A64,Balance!E:K,3,FALSE)</f>
+        <v>1E+164</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L64" t="s">
+        <v>57</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="str">
+        <f t="shared" ref="B65:C65" si="60">B64</f>
+        <v>1-1</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="60"/>
+        <v>9043</v>
+      </c>
+      <c r="D65">
+        <f>VLOOKUP(A65,Balance!E:K,7,FALSE)</f>
+        <v>83000</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="8"/>
+        <v>9043</v>
+      </c>
+      <c r="F65">
+        <f>VLOOKUP(A65,Balance!E:L,8,)</f>
+        <v>166000</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H65" s="2">
+        <f>VLOOKUP(A65,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999994E+165</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L65" t="s">
+        <v>57</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="6"/>
+        <v>14600</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 A2:E63 G13:M63">
+  <conditionalFormatting sqref="G2:N12 A2:E65 G13:M65">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -4256,10 +4360,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:AA70"/>
+  <dimension ref="A1:AA72"/>
   <sheetViews>
-    <sheetView topLeftCell="B50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L66" sqref="L66"/>
+    <sheetView topLeftCell="B53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4582,7 +4686,7 @@
         <v>1.0000000000000001E+46</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" ref="H12:H70" si="5">H10</f>
+        <f t="shared" ref="H12:H72" si="5">H10</f>
         <v>100</v>
       </c>
       <c r="I12" s="16" t="str" cm="1">
@@ -7607,7 +7711,7 @@
         <v>100단</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" ref="G70" si="24">H70*J70</f>
+        <f t="shared" ref="G70:G72" si="24">H70*J70</f>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="H70" s="17">
@@ -7619,16 +7723,82 @@
         <v>단</v>
       </c>
       <c r="J70" s="16" t="str">
-        <f t="shared" ref="J70" si="25">VLOOKUP(I70,O:R,4,FALSE)</f>
+        <f t="shared" ref="J70:J72" si="25">VLOOKUP(I70,O:R,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K70" s="22">
-        <f t="shared" ref="K70" si="26">L70*0.5</f>
+        <f t="shared" ref="K70:K72" si="26">L70*0.5</f>
         <v>76500</v>
       </c>
       <c r="L70" s="22">
-        <f t="shared" ref="L70" si="27">L69+500+QUOTIENT(E70,15)*1500</f>
+        <f t="shared" ref="L70:L72" si="27">L69+500+QUOTIENT(E70,15)*1500</f>
         <v>153000</v>
+      </c>
+    </row>
+    <row r="71" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E71" s="16">
+        <v>62</v>
+      </c>
+      <c r="F71" s="17" t="str">
+        <f t="shared" ref="F71:F72" si="28">H71&amp;I71</f>
+        <v>1절</v>
+      </c>
+      <c r="G71" s="17">
+        <f t="shared" si="24"/>
+        <v>1E+164</v>
+      </c>
+      <c r="H71" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I71" s="16" t="str" cm="1">
+        <f t="array" ref="I71">IF(AND(H70&gt;=100,H71&lt;2),INDEX(O:O,MATCH(I70,O:O,0)+1,0),I70)</f>
+        <v>절</v>
+      </c>
+      <c r="J71" s="16" t="str">
+        <f t="shared" si="25"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K71" s="22">
+        <f t="shared" si="26"/>
+        <v>79750</v>
+      </c>
+      <c r="L71" s="22">
+        <f t="shared" si="27"/>
+        <v>159500</v>
+      </c>
+    </row>
+    <row r="72" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E72" s="16">
+        <v>63</v>
+      </c>
+      <c r="F72" s="17" t="str">
+        <f t="shared" si="28"/>
+        <v>100절</v>
+      </c>
+      <c r="G72" s="17">
+        <f t="shared" si="24"/>
+        <v>9.9999999999999994E+165</v>
+      </c>
+      <c r="H72" s="17">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I72" s="16" t="str" cm="1">
+        <f t="array" ref="I72">IF(AND(H71&gt;=100,H72&lt;2),INDEX(O:O,MATCH(I71,O:O,0)+1,0),I71)</f>
+        <v>절</v>
+      </c>
+      <c r="J72" s="16" t="str">
+        <f t="shared" si="25"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K72" s="22">
+        <f t="shared" si="26"/>
+        <v>83000</v>
+      </c>
+      <c r="L72" s="22">
+        <f t="shared" si="27"/>
+        <v>166000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MeditationTower.xlsx
+++ b/Assets/06.Table/MeditationTower.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36B410A-78BA-4E3A-B87C-3B88896094E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBA2196-BED5-437F-9190-2304A335F7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MeditationTower" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="75">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,10 +342,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>후</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -355,6 +351,10 @@
   </si>
   <si>
     <t>절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -950,11 +950,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
+      <selection pane="bottomLeft" activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1138,7 +1138,7 @@
         <v>2000</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G65" si="2">G3</f>
+        <f t="shared" ref="G4:G67" si="2">G3</f>
         <v>1</v>
       </c>
       <c r="H4" s="2">
@@ -1146,22 +1146,22 @@
         <v>1.0000000000000001E+44</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I65" si="3">I3</f>
+        <f t="shared" ref="I4:I67" si="3">I3</f>
         <v>1000</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J65" si="4">J3</f>
+        <f t="shared" ref="J4:J67" si="4">J3</f>
         <v>8</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K65" si="5">K3</f>
+        <f t="shared" ref="K4:K67" si="5">K3</f>
         <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>57</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M65" si="6">M3+200</f>
+        <f t="shared" ref="M4:M67" si="6">M3+200</f>
         <v>2400</v>
       </c>
       <c r="O4" s="23"/>
@@ -1607,7 +1607,7 @@
         <v>3250</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E65" si="8">E12</f>
+        <f t="shared" ref="E13:E67" si="8">E12</f>
         <v>9043</v>
       </c>
       <c r="F13">
@@ -4346,9 +4346,113 @@
         <v>14600</v>
       </c>
     </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="str">
+        <f t="shared" ref="B66:C66" si="61">B65</f>
+        <v>1-1</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="61"/>
+        <v>9043</v>
+      </c>
+      <c r="D66">
+        <f>VLOOKUP(A66,Balance!E:K,7,FALSE)</f>
+        <v>86250</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="8"/>
+        <v>9043</v>
+      </c>
+      <c r="F66">
+        <f>VLOOKUP(A66,Balance!E:L,8,)</f>
+        <v>172500</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H66" s="2">
+        <f>VLOOKUP(A66,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999993E+167</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L66" t="s">
+        <v>57</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="6"/>
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="str">
+        <f t="shared" ref="B67:C67" si="62">B66</f>
+        <v>1-1</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="62"/>
+        <v>9043</v>
+      </c>
+      <c r="D67">
+        <f>VLOOKUP(A67,Balance!E:K,7,FALSE)</f>
+        <v>89500</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="8"/>
+        <v>9043</v>
+      </c>
+      <c r="F67">
+        <f>VLOOKUP(A67,Balance!E:L,8,)</f>
+        <v>179000</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H67" s="2">
+        <f>VLOOKUP(A67,Balance!E:K,3,FALSE)</f>
+        <v>9.999999999999999E+169</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L67" t="s">
+        <v>57</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="6"/>
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 A2:E65 G13:M65">
+  <conditionalFormatting sqref="G2:N12 A2:E67 G13:M67">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -4360,10 +4464,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:AA72"/>
+  <dimension ref="A1:AA74"/>
   <sheetViews>
-    <sheetView topLeftCell="B53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I71" sqref="I71"/>
+    <sheetView topLeftCell="B20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4686,7 +4790,7 @@
         <v>1.0000000000000001E+46</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" ref="H12:H72" si="5">H10</f>
+        <f t="shared" ref="H12:H74" si="5">H10</f>
         <v>100</v>
       </c>
       <c r="I12" s="16" t="str" cm="1">
@@ -6571,7 +6675,7 @@
       </c>
       <c r="N46" s="22"/>
       <c r="O46" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P46" s="16">
         <v>156</v>
@@ -6631,7 +6735,7 @@
       </c>
       <c r="N47" s="22"/>
       <c r="O47" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P47" s="16">
         <v>160</v>
@@ -6691,7 +6795,7 @@
       </c>
       <c r="N48" s="22"/>
       <c r="O48" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P48" s="16">
         <v>164</v>
@@ -6751,7 +6855,7 @@
       </c>
       <c r="N49" s="22"/>
       <c r="O49" s="16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P49" s="16">
         <v>168</v>
@@ -7801,6 +7905,72 @@
         <v>166000</v>
       </c>
     </row>
+    <row r="73" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E73" s="16">
+        <v>64</v>
+      </c>
+      <c r="F73" s="17" t="str">
+        <f t="shared" ref="F73:F74" si="29">H73&amp;I73</f>
+        <v>1격</v>
+      </c>
+      <c r="G73" s="17">
+        <f t="shared" ref="G73:G74" si="30">H73*J73</f>
+        <v>9.9999999999999993E+167</v>
+      </c>
+      <c r="H73" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I73" s="16" t="str" cm="1">
+        <f t="array" ref="I73">IF(AND(H72&gt;=100,H73&lt;2),INDEX(O:O,MATCH(I72,O:O,0)+1,0),I72)</f>
+        <v>격</v>
+      </c>
+      <c r="J73" s="16" t="str">
+        <f t="shared" ref="J73:J74" si="31">VLOOKUP(I73,O:R,4,FALSE)</f>
+        <v>1E+168</v>
+      </c>
+      <c r="K73" s="22">
+        <f t="shared" ref="K73:K74" si="32">L73*0.5</f>
+        <v>86250</v>
+      </c>
+      <c r="L73" s="22">
+        <f t="shared" ref="L73:L74" si="33">L72+500+QUOTIENT(E73,15)*1500</f>
+        <v>172500</v>
+      </c>
+    </row>
+    <row r="74" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E74" s="16">
+        <v>65</v>
+      </c>
+      <c r="F74" s="17" t="str">
+        <f t="shared" si="29"/>
+        <v>100격</v>
+      </c>
+      <c r="G74" s="17">
+        <f t="shared" si="30"/>
+        <v>9.999999999999999E+169</v>
+      </c>
+      <c r="H74" s="17">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I74" s="16" t="str" cm="1">
+        <f t="array" ref="I74">IF(AND(H73&gt;=100,H74&lt;2),INDEX(O:O,MATCH(I73,O:O,0)+1,0),I73)</f>
+        <v>격</v>
+      </c>
+      <c r="J74" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+168</v>
+      </c>
+      <c r="K74" s="22">
+        <f t="shared" si="32"/>
+        <v>89500</v>
+      </c>
+      <c r="L74" s="22">
+        <f t="shared" si="33"/>
+        <v>179000</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B2"/>

--- a/Assets/06.Table/MeditationTower.xlsx
+++ b/Assets/06.Table/MeditationTower.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBA2196-BED5-437F-9190-2304A335F7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63628A62-D3BC-4DC1-9E4A-BF1B23FCDEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MeditationTower" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="77">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,6 +355,14 @@
   </si>
   <si>
     <t>격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -950,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O67"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G70" sqref="G70"/>
+      <selection pane="bottomLeft" activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1138,7 +1146,7 @@
         <v>2000</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G67" si="2">G3</f>
+        <f t="shared" ref="G4:G68" si="2">G3</f>
         <v>1</v>
       </c>
       <c r="H4" s="2">
@@ -1146,22 +1154,22 @@
         <v>1.0000000000000001E+44</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I67" si="3">I3</f>
+        <f t="shared" ref="I4:I68" si="3">I3</f>
         <v>1000</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J67" si="4">J3</f>
+        <f t="shared" ref="J4:J68" si="4">J3</f>
         <v>8</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K67" si="5">K3</f>
+        <f t="shared" ref="K4:K68" si="5">K3</f>
         <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>57</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M67" si="6">M3+200</f>
+        <f t="shared" ref="M4:M68" si="6">M3+200</f>
         <v>2400</v>
       </c>
       <c r="O4" s="23"/>
@@ -1607,7 +1615,7 @@
         <v>3250</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E67" si="8">E12</f>
+        <f t="shared" ref="E13:E71" si="8">E12</f>
         <v>9043</v>
       </c>
       <c r="F13">
@@ -4450,9 +4458,217 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="str">
+        <f t="shared" ref="B68:C68" si="63">B67</f>
+        <v>1-1</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="63"/>
+        <v>9043</v>
+      </c>
+      <c r="D68">
+        <f>VLOOKUP(A68,Balance!E:K,7,FALSE)</f>
+        <v>92750</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="8"/>
+        <v>9043</v>
+      </c>
+      <c r="F68">
+        <f>VLOOKUP(A68,Balance!E:L,8,)</f>
+        <v>185500</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H68" s="2">
+        <f>VLOOKUP(A68,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+172</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L68" t="s">
+        <v>57</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="6"/>
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="str">
+        <f t="shared" ref="B69:C69" si="64">B68</f>
+        <v>1-1</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="64"/>
+        <v>9043</v>
+      </c>
+      <c r="D69">
+        <f>VLOOKUP(A69,Balance!E:K,7,FALSE)</f>
+        <v>96000</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="8"/>
+        <v>9043</v>
+      </c>
+      <c r="F69">
+        <f>VLOOKUP(A69,Balance!E:L,8,)</f>
+        <v>192000</v>
+      </c>
+      <c r="G69">
+        <f t="shared" ref="G69:G71" si="65">G68</f>
+        <v>1</v>
+      </c>
+      <c r="H69" s="2">
+        <f>VLOOKUP(A69,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+174</v>
+      </c>
+      <c r="I69">
+        <f t="shared" ref="I69:K71" si="66">I68</f>
+        <v>1000</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="66"/>
+        <v>8</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="L69" t="s">
+        <v>57</v>
+      </c>
+      <c r="M69">
+        <f t="shared" ref="M69:M71" si="67">M68+200</f>
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="str">
+        <f t="shared" ref="B70:C70" si="68">B69</f>
+        <v>1-1</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="68"/>
+        <v>9043</v>
+      </c>
+      <c r="D70">
+        <f>VLOOKUP(A70,Balance!E:K,7,FALSE)</f>
+        <v>99250</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="8"/>
+        <v>9043</v>
+      </c>
+      <c r="F70">
+        <f>VLOOKUP(A70,Balance!E:L,8,)</f>
+        <v>198500</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H70" s="2">
+        <f>VLOOKUP(A70,Balance!E:K,3,FALSE)</f>
+        <v>1E+176</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="66"/>
+        <v>1000</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="66"/>
+        <v>8</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="L70" t="s">
+        <v>57</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="67"/>
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="str">
+        <f t="shared" ref="B71:C71" si="69">B70</f>
+        <v>1-1</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="69"/>
+        <v>9043</v>
+      </c>
+      <c r="D71">
+        <f>VLOOKUP(A71,Balance!E:K,7,FALSE)</f>
+        <v>102500</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="8"/>
+        <v>9043</v>
+      </c>
+      <c r="F71">
+        <f>VLOOKUP(A71,Balance!E:L,8,)</f>
+        <v>205000</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H71" s="2">
+        <f>VLOOKUP(A71,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+178</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="66"/>
+        <v>1000</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="66"/>
+        <v>8</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="L71" t="s">
+        <v>57</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="67"/>
+        <v>15800</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 A2:E67 G13:M67">
+  <conditionalFormatting sqref="G2:N12 A2:E71 G13:M71">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -4464,10 +4680,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:AA74"/>
+  <dimension ref="A1:AA79"/>
   <sheetViews>
-    <sheetView topLeftCell="B20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O50" sqref="O50"/>
+    <sheetView topLeftCell="B50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79:L79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4790,7 +5006,7 @@
         <v>1.0000000000000001E+46</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" ref="H12:H74" si="5">H10</f>
+        <f t="shared" ref="H12:H79" si="5">H10</f>
         <v>100</v>
       </c>
       <c r="I12" s="16" t="str" cm="1">
@@ -6801,11 +7017,11 @@
         <v>164</v>
       </c>
       <c r="Q48" s="17">
-        <f t="shared" ref="Q48:Q49" si="20">POWER(10,P48)</f>
+        <f t="shared" ref="Q48:Q50" si="20">POWER(10,P48)</f>
         <v>1E+164</v>
       </c>
       <c r="R48" s="17" t="str">
-        <f t="shared" ref="R48:R49" si="21">RIGHT(Q48,P48)</f>
+        <f t="shared" ref="R48:R50" si="21">RIGHT(Q48,P48)</f>
         <v>1E+164</v>
       </c>
       <c r="S48" s="11"/>
@@ -6914,8 +7130,20 @@
         <v>41</v>
       </c>
       <c r="N50" s="22"/>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="11"/>
+      <c r="O50" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="P50" s="16">
+        <v>172</v>
+      </c>
+      <c r="Q50" s="17">
+        <f t="shared" ref="Q50:Q51" si="22">POWER(10,P50)</f>
+        <v>1.0000000000000001E+172</v>
+      </c>
+      <c r="R50" s="17" t="str">
+        <f t="shared" ref="R50:R51" si="23">RIGHT(Q50,P50)</f>
+        <v>1E+172</v>
+      </c>
       <c r="S50" s="11"/>
       <c r="T50" s="11"/>
       <c r="U50" s="11"/>
@@ -6962,8 +7190,20 @@
         <v>42</v>
       </c>
       <c r="N51" s="22"/>
-      <c r="Q51" s="11"/>
-      <c r="R51" s="11"/>
+      <c r="O51" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P51" s="16">
+        <v>176</v>
+      </c>
+      <c r="Q51" s="17">
+        <f t="shared" si="22"/>
+        <v>1E+176</v>
+      </c>
+      <c r="R51" s="17" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+176</v>
+      </c>
       <c r="S51" s="11"/>
       <c r="T51" s="11"/>
       <c r="U51" s="11"/>
@@ -7244,7 +7484,7 @@
         <v>42500</v>
       </c>
       <c r="L57" s="22">
-        <f t="shared" ref="L57:L69" si="22">L56+500+QUOTIENT(E57,15)*1500</f>
+        <f t="shared" ref="L57:L69" si="24">L56+500+QUOTIENT(E57,15)*1500</f>
         <v>85000</v>
       </c>
       <c r="M57" s="16">
@@ -7292,7 +7532,7 @@
         <v>45000</v>
       </c>
       <c r="L58" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>90000</v>
       </c>
       <c r="M58" s="16">
@@ -7340,7 +7580,7 @@
         <v>47500</v>
       </c>
       <c r="L59" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>95000</v>
       </c>
       <c r="M59" s="16">
@@ -7388,7 +7628,7 @@
         <v>50000</v>
       </c>
       <c r="L60" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100000</v>
       </c>
       <c r="M60" s="16">
@@ -7436,7 +7676,7 @@
         <v>52500</v>
       </c>
       <c r="L61" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>105000</v>
       </c>
       <c r="M61" s="16">
@@ -7484,7 +7724,7 @@
         <v>55000</v>
       </c>
       <c r="L62" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>110000</v>
       </c>
       <c r="M62" s="16">
@@ -7532,7 +7772,7 @@
         <v>57500</v>
       </c>
       <c r="L63" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>115000</v>
       </c>
       <c r="M63" s="16">
@@ -7580,7 +7820,7 @@
         <v>60000</v>
       </c>
       <c r="L64" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>120000</v>
       </c>
       <c r="M64" s="16">
@@ -7628,7 +7868,7 @@
         <v>62500</v>
       </c>
       <c r="L65" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>125000</v>
       </c>
       <c r="M65" s="16">
@@ -7676,7 +7916,7 @@
         <v>65000</v>
       </c>
       <c r="L66" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>130000</v>
       </c>
       <c r="M66" s="16">
@@ -7724,7 +7964,7 @@
         <v>67500</v>
       </c>
       <c r="L67" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>135000</v>
       </c>
       <c r="M67" s="16">
@@ -7761,7 +8001,7 @@
         <v>70000</v>
       </c>
       <c r="L68" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>140000</v>
       </c>
       <c r="M68" s="16">
@@ -7774,7 +8014,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" ref="F69" si="23">H69&amp;I69</f>
+        <f t="shared" ref="F69" si="25">H69&amp;I69</f>
         <v>1단</v>
       </c>
       <c r="G69" s="17">
@@ -7798,7 +8038,7 @@
         <v>73250</v>
       </c>
       <c r="L69" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>146500</v>
       </c>
       <c r="M69" s="16">
@@ -7815,7 +8055,7 @@
         <v>100단</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" ref="G70:G72" si="24">H70*J70</f>
+        <f t="shared" ref="G70:G72" si="26">H70*J70</f>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="H70" s="17">
@@ -7827,15 +8067,15 @@
         <v>단</v>
       </c>
       <c r="J70" s="16" t="str">
-        <f t="shared" ref="J70:J72" si="25">VLOOKUP(I70,O:R,4,FALSE)</f>
+        <f t="shared" ref="J70:J72" si="27">VLOOKUP(I70,O:R,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K70" s="22">
-        <f t="shared" ref="K70:K72" si="26">L70*0.5</f>
+        <f t="shared" ref="K70:K72" si="28">L70*0.5</f>
         <v>76500</v>
       </c>
       <c r="L70" s="22">
-        <f t="shared" ref="L70:L72" si="27">L69+500+QUOTIENT(E70,15)*1500</f>
+        <f t="shared" ref="L70:L72" si="29">L69+500+QUOTIENT(E70,15)*1500</f>
         <v>153000</v>
       </c>
     </row>
@@ -7844,11 +8084,11 @@
         <v>62</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" ref="F71:F72" si="28">H71&amp;I71</f>
+        <f t="shared" ref="F71:F72" si="30">H71&amp;I71</f>
         <v>1절</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E+164</v>
       </c>
       <c r="H71" s="17">
@@ -7860,15 +8100,15 @@
         <v>절</v>
       </c>
       <c r="J71" s="16" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+164</v>
       </c>
       <c r="K71" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>79750</v>
       </c>
       <c r="L71" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>159500</v>
       </c>
     </row>
@@ -7877,11 +8117,11 @@
         <v>63</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100절</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="H72" s="17">
@@ -7893,15 +8133,15 @@
         <v>절</v>
       </c>
       <c r="J72" s="16" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+164</v>
       </c>
       <c r="K72" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>83000</v>
       </c>
       <c r="L72" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>166000</v>
       </c>
     </row>
@@ -7910,11 +8150,11 @@
         <v>64</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F74" si="29">H73&amp;I73</f>
+        <f t="shared" ref="F73:F75" si="31">H73&amp;I73</f>
         <v>1격</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G74" si="30">H73*J73</f>
+        <f t="shared" ref="G73:G75" si="32">H73*J73</f>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="H73" s="17">
@@ -7926,15 +8166,15 @@
         <v>격</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J74" si="31">VLOOKUP(I73,O:R,4,FALSE)</f>
+        <f t="shared" ref="J73:J75" si="33">VLOOKUP(I73,O:R,4,FALSE)</f>
         <v>1E+168</v>
       </c>
       <c r="K73" s="22">
-        <f t="shared" ref="K73:K74" si="32">L73*0.5</f>
+        <f t="shared" ref="K73:K75" si="34">L73*0.5</f>
         <v>86250</v>
       </c>
       <c r="L73" s="22">
-        <f t="shared" ref="L73:L74" si="33">L72+500+QUOTIENT(E73,15)*1500</f>
+        <f t="shared" ref="L73:L75" si="35">L72+500+QUOTIENT(E73,15)*1500</f>
         <v>172500</v>
       </c>
     </row>
@@ -7943,11 +8183,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>100격</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="H74" s="17">
@@ -7959,17 +8199,159 @@
         <v>격</v>
       </c>
       <c r="J74" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+168</v>
+      </c>
+      <c r="K74" s="22">
+        <f t="shared" si="34"/>
+        <v>89500</v>
+      </c>
+      <c r="L74" s="22">
+        <f t="shared" si="35"/>
+        <v>179000</v>
+      </c>
+    </row>
+    <row r="75" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E75" s="16">
+        <v>66</v>
+      </c>
+      <c r="F75" s="17" t="str">
         <f t="shared" si="31"/>
-        <v>1E+168</v>
-      </c>
-      <c r="K74" s="22">
+        <v>1창</v>
+      </c>
+      <c r="G75" s="17">
         <f t="shared" si="32"/>
-        <v>89500</v>
-      </c>
-      <c r="L74" s="22">
+        <v>1.0000000000000001E+172</v>
+      </c>
+      <c r="H75" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I75" s="16" t="str" cm="1">
+        <f t="array" ref="I75">IF(AND(H74&gt;=100,H75&lt;2),INDEX(O:O,MATCH(I74,O:O,0)+1,0),I74)</f>
+        <v>창</v>
+      </c>
+      <c r="J75" s="16" t="str">
         <f t="shared" si="33"/>
-        <v>179000</v>
-      </c>
+        <v>1E+172</v>
+      </c>
+      <c r="K75" s="22">
+        <f t="shared" si="34"/>
+        <v>92750</v>
+      </c>
+      <c r="L75" s="22">
+        <f t="shared" si="35"/>
+        <v>185500</v>
+      </c>
+    </row>
+    <row r="76" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E76" s="16">
+        <v>67</v>
+      </c>
+      <c r="F76" s="17" t="str">
+        <f t="shared" ref="F76:F79" si="36">H76&amp;I76</f>
+        <v>100창</v>
+      </c>
+      <c r="G76" s="17">
+        <f t="shared" ref="G76:G79" si="37">H76*J76</f>
+        <v>1.0000000000000001E+174</v>
+      </c>
+      <c r="H76" s="17">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I76" s="16" t="str" cm="1">
+        <f t="array" ref="I76">IF(AND(H75&gt;=100,H76&lt;2),INDEX(O:O,MATCH(I75,O:O,0)+1,0),I75)</f>
+        <v>창</v>
+      </c>
+      <c r="J76" s="16" t="str">
+        <f t="shared" ref="J76:J79" si="38">VLOOKUP(I76,O:R,4,FALSE)</f>
+        <v>1E+172</v>
+      </c>
+      <c r="K76" s="22">
+        <f t="shared" ref="K76:K79" si="39">L76*0.5</f>
+        <v>96000</v>
+      </c>
+      <c r="L76" s="22">
+        <f t="shared" ref="L76:L79" si="40">L75+500+QUOTIENT(E76,15)*1500</f>
+        <v>192000</v>
+      </c>
+    </row>
+    <row r="77" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E77" s="16">
+        <v>68</v>
+      </c>
+      <c r="F77" s="17" t="str">
+        <f t="shared" si="36"/>
+        <v>1공</v>
+      </c>
+      <c r="G77" s="17">
+        <f t="shared" si="37"/>
+        <v>1E+176</v>
+      </c>
+      <c r="H77" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I77" s="16" t="str" cm="1">
+        <f t="array" ref="I77">IF(AND(H76&gt;=100,H77&lt;2),INDEX(O:O,MATCH(I76,O:O,0)+1,0),I76)</f>
+        <v>공</v>
+      </c>
+      <c r="J77" s="16" t="str">
+        <f t="shared" si="38"/>
+        <v>1E+176</v>
+      </c>
+      <c r="K77" s="22">
+        <f t="shared" si="39"/>
+        <v>99250</v>
+      </c>
+      <c r="L77" s="22">
+        <f t="shared" si="40"/>
+        <v>198500</v>
+      </c>
+    </row>
+    <row r="78" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E78" s="16">
+        <v>69</v>
+      </c>
+      <c r="F78" s="17" t="str">
+        <f t="shared" si="36"/>
+        <v>100공</v>
+      </c>
+      <c r="G78" s="17">
+        <f t="shared" si="37"/>
+        <v>1.0000000000000001E+178</v>
+      </c>
+      <c r="H78" s="17">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I78" s="16" t="str" cm="1">
+        <f t="array" ref="I78">IF(AND(H77&gt;=100,H78&lt;2),INDEX(O:O,MATCH(I77,O:O,0)+1,0),I77)</f>
+        <v>공</v>
+      </c>
+      <c r="J78" s="16" t="str">
+        <f t="shared" si="38"/>
+        <v>1E+176</v>
+      </c>
+      <c r="K78" s="22">
+        <f t="shared" si="39"/>
+        <v>102500</v>
+      </c>
+      <c r="L78" s="22">
+        <f t="shared" si="40"/>
+        <v>205000</v>
+      </c>
+    </row>
+    <row r="79" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E79" s="16"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assets/06.Table/MeditationTower.xlsx
+++ b/Assets/06.Table/MeditationTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63628A62-D3BC-4DC1-9E4A-BF1B23FCDEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625A4CA6-0CF9-436B-B064-3942B5473646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="79">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,6 +363,14 @@
   </si>
   <si>
     <t>공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -958,11 +966,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O71"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H69" sqref="H69"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1615,7 +1623,7 @@
         <v>3250</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E71" si="8">E12</f>
+        <f t="shared" ref="E13:E75" si="8">E12</f>
         <v>9043</v>
       </c>
       <c r="F13">
@@ -4535,7 +4543,7 @@
         <v>192000</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:G71" si="65">G68</f>
+        <f t="shared" ref="G69:G75" si="65">G68</f>
         <v>1</v>
       </c>
       <c r="H69" s="2">
@@ -4558,7 +4566,7 @@
         <v>57</v>
       </c>
       <c r="M69">
-        <f t="shared" ref="M69:M71" si="67">M68+200</f>
+        <f t="shared" ref="M69:M75" si="67">M68+200</f>
         <v>15400</v>
       </c>
     </row>
@@ -4666,9 +4674,217 @@
         <v>15800</v>
       </c>
     </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="str">
+        <f t="shared" ref="B72:C72" si="70">B71</f>
+        <v>1-1</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="70"/>
+        <v>9043</v>
+      </c>
+      <c r="D72">
+        <f>VLOOKUP(A72,Balance!E:K,7,FALSE)</f>
+        <v>105750</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="8"/>
+        <v>9043</v>
+      </c>
+      <c r="F72">
+        <f>VLOOKUP(A72,Balance!E:L,8,)</f>
+        <v>211500</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H72" s="2">
+        <f>VLOOKUP(A72,Balance!E:K,3,FALSE)</f>
+        <v>1E+180</v>
+      </c>
+      <c r="I72">
+        <f t="shared" ref="I72:K72" si="71">I71</f>
+        <v>1000</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="71"/>
+        <v>8</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="L72" t="s">
+        <v>57</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="67"/>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="str">
+        <f t="shared" ref="B73:C73" si="72">B72</f>
+        <v>1-1</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="72"/>
+        <v>9043</v>
+      </c>
+      <c r="D73">
+        <f>VLOOKUP(A73,Balance!E:K,7,FALSE)</f>
+        <v>109000</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="8"/>
+        <v>9043</v>
+      </c>
+      <c r="F73">
+        <f>VLOOKUP(A73,Balance!E:L,8,)</f>
+        <v>218000</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H73" s="2">
+        <f>VLOOKUP(A73,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+182</v>
+      </c>
+      <c r="I73">
+        <f t="shared" ref="I73:K73" si="73">I72</f>
+        <v>1000</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="73"/>
+        <v>8</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="L73" t="s">
+        <v>57</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="67"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="str">
+        <f t="shared" ref="B74:C74" si="74">B73</f>
+        <v>1-1</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="74"/>
+        <v>9043</v>
+      </c>
+      <c r="D74">
+        <f>VLOOKUP(A74,Balance!E:K,7,FALSE)</f>
+        <v>112250</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="8"/>
+        <v>9043</v>
+      </c>
+      <c r="F74">
+        <f>VLOOKUP(A74,Balance!E:L,8,)</f>
+        <v>224500</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H74" s="2">
+        <f>VLOOKUP(A74,Balance!E:K,3,FALSE)</f>
+        <v>1E+184</v>
+      </c>
+      <c r="I74">
+        <f t="shared" ref="I74:K74" si="75">I73</f>
+        <v>1000</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="75"/>
+        <v>8</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="L74" t="s">
+        <v>57</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="67"/>
+        <v>16400</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="str">
+        <f t="shared" ref="B75:C75" si="76">B74</f>
+        <v>1-1</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="76"/>
+        <v>9043</v>
+      </c>
+      <c r="D75">
+        <f>VLOOKUP(A75,Balance!E:K,7,FALSE)</f>
+        <v>115500</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="8"/>
+        <v>9043</v>
+      </c>
+      <c r="F75">
+        <f>VLOOKUP(A75,Balance!E:L,8,)</f>
+        <v>231000</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H75" s="2">
+        <f>VLOOKUP(A75,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999998E+185</v>
+      </c>
+      <c r="I75">
+        <f t="shared" ref="I75:K75" si="77">I74</f>
+        <v>1000</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="77"/>
+        <v>8</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="L75" t="s">
+        <v>57</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="67"/>
+        <v>16600</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 A2:E71 G13:M71">
+  <conditionalFormatting sqref="G2:N12 A2:E75 G13:M75">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -4680,10 +4896,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:AA79"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
-    <sheetView topLeftCell="B50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79:L79"/>
+    <sheetView topLeftCell="B59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5006,7 +5222,7 @@
         <v>1.0000000000000001E+46</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" ref="H12:H79" si="5">H10</f>
+        <f t="shared" ref="H12:H82" si="5">H10</f>
         <v>100</v>
       </c>
       <c r="I12" s="16" t="str" cm="1">
@@ -7017,11 +7233,11 @@
         <v>164</v>
       </c>
       <c r="Q48" s="17">
-        <f t="shared" ref="Q48:Q50" si="20">POWER(10,P48)</f>
+        <f t="shared" ref="Q48:Q49" si="20">POWER(10,P48)</f>
         <v>1E+164</v>
       </c>
       <c r="R48" s="17" t="str">
-        <f t="shared" ref="R48:R50" si="21">RIGHT(Q48,P48)</f>
+        <f t="shared" ref="R48:R49" si="21">RIGHT(Q48,P48)</f>
         <v>1E+164</v>
       </c>
       <c r="S48" s="11"/>
@@ -7250,8 +7466,20 @@
         <v>43</v>
       </c>
       <c r="N52" s="22"/>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="11"/>
+      <c r="O52" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="P52" s="16">
+        <v>180</v>
+      </c>
+      <c r="Q52" s="17">
+        <f t="shared" ref="Q52:Q53" si="24">POWER(10,P52)</f>
+        <v>1E+180</v>
+      </c>
+      <c r="R52" s="17" t="str">
+        <f t="shared" ref="R52:R53" si="25">RIGHT(Q52,P52)</f>
+        <v>1E+180</v>
+      </c>
       <c r="S52" s="11"/>
       <c r="T52" s="11"/>
       <c r="U52" s="11"/>
@@ -7298,8 +7526,20 @@
         <v>44</v>
       </c>
       <c r="N53" s="22"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
+      <c r="O53" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="P53" s="16">
+        <v>184</v>
+      </c>
+      <c r="Q53" s="17">
+        <f t="shared" si="24"/>
+        <v>1E+184</v>
+      </c>
+      <c r="R53" s="17" t="str">
+        <f t="shared" si="25"/>
+        <v>1E+184</v>
+      </c>
       <c r="S53" s="11"/>
       <c r="T53" s="11"/>
       <c r="U53" s="11"/>
@@ -7484,7 +7724,7 @@
         <v>42500</v>
       </c>
       <c r="L57" s="22">
-        <f t="shared" ref="L57:L69" si="24">L56+500+QUOTIENT(E57,15)*1500</f>
+        <f t="shared" ref="L57:L69" si="26">L56+500+QUOTIENT(E57,15)*1500</f>
         <v>85000</v>
       </c>
       <c r="M57" s="16">
@@ -7532,7 +7772,7 @@
         <v>45000</v>
       </c>
       <c r="L58" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>90000</v>
       </c>
       <c r="M58" s="16">
@@ -7580,7 +7820,7 @@
         <v>47500</v>
       </c>
       <c r="L59" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>95000</v>
       </c>
       <c r="M59" s="16">
@@ -7628,7 +7868,7 @@
         <v>50000</v>
       </c>
       <c r="L60" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>100000</v>
       </c>
       <c r="M60" s="16">
@@ -7676,7 +7916,7 @@
         <v>52500</v>
       </c>
       <c r="L61" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>105000</v>
       </c>
       <c r="M61" s="16">
@@ -7724,7 +7964,7 @@
         <v>55000</v>
       </c>
       <c r="L62" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>110000</v>
       </c>
       <c r="M62" s="16">
@@ -7772,7 +8012,7 @@
         <v>57500</v>
       </c>
       <c r="L63" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>115000</v>
       </c>
       <c r="M63" s="16">
@@ -7820,7 +8060,7 @@
         <v>60000</v>
       </c>
       <c r="L64" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>120000</v>
       </c>
       <c r="M64" s="16">
@@ -7868,7 +8108,7 @@
         <v>62500</v>
       </c>
       <c r="L65" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>125000</v>
       </c>
       <c r="M65" s="16">
@@ -7916,7 +8156,7 @@
         <v>65000</v>
       </c>
       <c r="L66" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>130000</v>
       </c>
       <c r="M66" s="16">
@@ -7964,7 +8204,7 @@
         <v>67500</v>
       </c>
       <c r="L67" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>135000</v>
       </c>
       <c r="M67" s="16">
@@ -8001,7 +8241,7 @@
         <v>70000</v>
       </c>
       <c r="L68" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>140000</v>
       </c>
       <c r="M68" s="16">
@@ -8014,7 +8254,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" ref="F69" si="25">H69&amp;I69</f>
+        <f t="shared" ref="F69" si="27">H69&amp;I69</f>
         <v>1단</v>
       </c>
       <c r="G69" s="17">
@@ -8038,7 +8278,7 @@
         <v>73250</v>
       </c>
       <c r="L69" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>146500</v>
       </c>
       <c r="M69" s="16">
@@ -8055,7 +8295,7 @@
         <v>100단</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" ref="G70:G72" si="26">H70*J70</f>
+        <f t="shared" ref="G70:G72" si="28">H70*J70</f>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="H70" s="17">
@@ -8067,15 +8307,15 @@
         <v>단</v>
       </c>
       <c r="J70" s="16" t="str">
-        <f t="shared" ref="J70:J72" si="27">VLOOKUP(I70,O:R,4,FALSE)</f>
+        <f t="shared" ref="J70:J72" si="29">VLOOKUP(I70,O:R,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K70" s="22">
-        <f t="shared" ref="K70:K72" si="28">L70*0.5</f>
+        <f t="shared" ref="K70:K72" si="30">L70*0.5</f>
         <v>76500</v>
       </c>
       <c r="L70" s="22">
-        <f t="shared" ref="L70:L72" si="29">L69+500+QUOTIENT(E70,15)*1500</f>
+        <f t="shared" ref="L70:L72" si="31">L69+500+QUOTIENT(E70,15)*1500</f>
         <v>153000</v>
       </c>
     </row>
@@ -8084,11 +8324,11 @@
         <v>62</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" ref="F71:F72" si="30">H71&amp;I71</f>
+        <f t="shared" ref="F71:F72" si="32">H71&amp;I71</f>
         <v>1절</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1E+164</v>
       </c>
       <c r="H71" s="17">
@@ -8100,15 +8340,15 @@
         <v>절</v>
       </c>
       <c r="J71" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+164</v>
       </c>
       <c r="K71" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>79750</v>
       </c>
       <c r="L71" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>159500</v>
       </c>
     </row>
@@ -8117,11 +8357,11 @@
         <v>63</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100절</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="H72" s="17">
@@ -8133,15 +8373,15 @@
         <v>절</v>
       </c>
       <c r="J72" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+164</v>
       </c>
       <c r="K72" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>83000</v>
       </c>
       <c r="L72" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>166000</v>
       </c>
     </row>
@@ -8150,11 +8390,11 @@
         <v>64</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F75" si="31">H73&amp;I73</f>
+        <f t="shared" ref="F73:F75" si="33">H73&amp;I73</f>
         <v>1격</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G75" si="32">H73*J73</f>
+        <f t="shared" ref="G73:G75" si="34">H73*J73</f>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="H73" s="17">
@@ -8166,15 +8406,15 @@
         <v>격</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J75" si="33">VLOOKUP(I73,O:R,4,FALSE)</f>
+        <f t="shared" ref="J73:J75" si="35">VLOOKUP(I73,O:R,4,FALSE)</f>
         <v>1E+168</v>
       </c>
       <c r="K73" s="22">
-        <f t="shared" ref="K73:K75" si="34">L73*0.5</f>
+        <f t="shared" ref="K73:K75" si="36">L73*0.5</f>
         <v>86250</v>
       </c>
       <c r="L73" s="22">
-        <f t="shared" ref="L73:L75" si="35">L72+500+QUOTIENT(E73,15)*1500</f>
+        <f t="shared" ref="L73:L75" si="37">L72+500+QUOTIENT(E73,15)*1500</f>
         <v>172500</v>
       </c>
     </row>
@@ -8183,11 +8423,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>100격</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="H74" s="17">
@@ -8199,15 +8439,15 @@
         <v>격</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+168</v>
       </c>
       <c r="K74" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>89500</v>
       </c>
       <c r="L74" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>179000</v>
       </c>
     </row>
@@ -8216,11 +8456,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1창</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="H75" s="17">
@@ -8232,15 +8472,15 @@
         <v>창</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+172</v>
       </c>
       <c r="K75" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>92750</v>
       </c>
       <c r="L75" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>185500</v>
       </c>
     </row>
@@ -8249,11 +8489,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" ref="F76:F79" si="36">H76&amp;I76</f>
+        <f t="shared" ref="F76:F80" si="38">H76&amp;I76</f>
         <v>100창</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" ref="G76:G79" si="37">H76*J76</f>
+        <f t="shared" ref="G76:G80" si="39">H76*J76</f>
         <v>1.0000000000000001E+174</v>
       </c>
       <c r="H76" s="17">
@@ -8265,15 +8505,15 @@
         <v>창</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" ref="J76:J79" si="38">VLOOKUP(I76,O:R,4,FALSE)</f>
+        <f t="shared" ref="J76:J80" si="40">VLOOKUP(I76,O:R,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K76" s="22">
-        <f t="shared" ref="K76:K79" si="39">L76*0.5</f>
+        <f t="shared" ref="K76:K80" si="41">L76*0.5</f>
         <v>96000</v>
       </c>
       <c r="L76" s="22">
-        <f t="shared" ref="L76:L79" si="40">L75+500+QUOTIENT(E76,15)*1500</f>
+        <f t="shared" ref="L76:L80" si="42">L75+500+QUOTIENT(E76,15)*1500</f>
         <v>192000</v>
       </c>
     </row>
@@ -8282,11 +8522,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1공</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+176</v>
       </c>
       <c r="H77" s="17">
@@ -8298,15 +8538,15 @@
         <v>공</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+176</v>
       </c>
       <c r="K77" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>99250</v>
       </c>
       <c r="L77" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>198500</v>
       </c>
     </row>
@@ -8315,11 +8555,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100공</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.0000000000000001E+178</v>
       </c>
       <c r="H78" s="17">
@@ -8331,27 +8571,149 @@
         <v>공</v>
       </c>
       <c r="J78" s="16" t="str">
+        <f t="shared" si="40"/>
+        <v>1E+176</v>
+      </c>
+      <c r="K78" s="22">
+        <f t="shared" si="41"/>
+        <v>102500</v>
+      </c>
+      <c r="L78" s="22">
+        <f t="shared" si="42"/>
+        <v>205000</v>
+      </c>
+    </row>
+    <row r="79" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E79" s="16">
+        <v>70</v>
+      </c>
+      <c r="F79" s="17" t="str">
         <f t="shared" si="38"/>
-        <v>1E+176</v>
-      </c>
-      <c r="K78" s="22">
+        <v>1채</v>
+      </c>
+      <c r="G79" s="17">
         <f t="shared" si="39"/>
-        <v>102500</v>
-      </c>
-      <c r="L78" s="22">
+        <v>1E+180</v>
+      </c>
+      <c r="H79" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I79" s="16" t="str" cm="1">
+        <f t="array" ref="I79">IF(AND(H78&gt;=100,H79&lt;2),INDEX(O:O,MATCH(I78,O:O,0)+1,0),I78)</f>
+        <v>채</v>
+      </c>
+      <c r="J79" s="16" t="str">
         <f t="shared" si="40"/>
-        <v>205000</v>
-      </c>
-    </row>
-    <row r="79" spans="5:27" x14ac:dyDescent="0.3">
-      <c r="E79" s="16"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="22"/>
-      <c r="L79" s="22"/>
+        <v>1E+180</v>
+      </c>
+      <c r="K79" s="22">
+        <f t="shared" si="41"/>
+        <v>105750</v>
+      </c>
+      <c r="L79" s="22">
+        <f t="shared" si="42"/>
+        <v>211500</v>
+      </c>
+    </row>
+    <row r="80" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E80" s="16">
+        <v>71</v>
+      </c>
+      <c r="F80" s="17" t="str">
+        <f t="shared" si="38"/>
+        <v>100채</v>
+      </c>
+      <c r="G80" s="17">
+        <f t="shared" si="39"/>
+        <v>1.0000000000000001E+182</v>
+      </c>
+      <c r="H80" s="17">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I80" s="16" t="str" cm="1">
+        <f t="array" ref="I80">IF(AND(H79&gt;=100,H80&lt;2),INDEX(O:O,MATCH(I79,O:O,0)+1,0),I79)</f>
+        <v>채</v>
+      </c>
+      <c r="J80" s="16" t="str">
+        <f t="shared" si="40"/>
+        <v>1E+180</v>
+      </c>
+      <c r="K80" s="22">
+        <f t="shared" si="41"/>
+        <v>109000</v>
+      </c>
+      <c r="L80" s="22">
+        <f t="shared" si="42"/>
+        <v>218000</v>
+      </c>
+    </row>
+    <row r="81" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E81" s="16">
+        <v>72</v>
+      </c>
+      <c r="F81" s="17" t="str">
+        <f t="shared" ref="F81:F82" si="43">H81&amp;I81</f>
+        <v>1연</v>
+      </c>
+      <c r="G81" s="17">
+        <f t="shared" ref="G81:G82" si="44">H81*J81</f>
+        <v>1E+184</v>
+      </c>
+      <c r="H81" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I81" s="16" t="str" cm="1">
+        <f t="array" ref="I81">IF(AND(H80&gt;=100,H81&lt;2),INDEX(O:O,MATCH(I80,O:O,0)+1,0),I80)</f>
+        <v>연</v>
+      </c>
+      <c r="J81" s="16" t="str">
+        <f t="shared" ref="J81:J82" si="45">VLOOKUP(I81,O:R,4,FALSE)</f>
+        <v>1E+184</v>
+      </c>
+      <c r="K81" s="22">
+        <f t="shared" ref="K81:K82" si="46">L81*0.5</f>
+        <v>112250</v>
+      </c>
+      <c r="L81" s="22">
+        <f t="shared" ref="L81:L82" si="47">L80+500+QUOTIENT(E81,15)*1500</f>
+        <v>224500</v>
+      </c>
+    </row>
+    <row r="82" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E82" s="16">
+        <v>73</v>
+      </c>
+      <c r="F82" s="17" t="str">
+        <f t="shared" si="43"/>
+        <v>100연</v>
+      </c>
+      <c r="G82" s="17">
+        <f t="shared" si="44"/>
+        <v>9.9999999999999998E+185</v>
+      </c>
+      <c r="H82" s="17">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I82" s="16" t="str" cm="1">
+        <f t="array" ref="I82">IF(AND(H81&gt;=100,H82&lt;2),INDEX(O:O,MATCH(I81,O:O,0)+1,0),I81)</f>
+        <v>연</v>
+      </c>
+      <c r="J82" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+184</v>
+      </c>
+      <c r="K82" s="22">
+        <f t="shared" si="46"/>
+        <v>115500</v>
+      </c>
+      <c r="L82" s="22">
+        <f t="shared" si="47"/>
+        <v>231000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assets/06.Table/MeditationTower.xlsx
+++ b/Assets/06.Table/MeditationTower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625A4CA6-0CF9-436B-B064-3942B5473646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A768354-0B80-410A-A3FF-F2D74A58C328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MeditationTower" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="80">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -370,7 +370,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>연</t>
+    <t>피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -966,11 +970,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
+      <selection pane="bottomLeft" activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1623,7 +1627,7 @@
         <v>3250</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E75" si="8">E12</f>
+        <f t="shared" ref="E13:E76" si="8">E12</f>
         <v>9043</v>
       </c>
       <c r="F13">
@@ -4543,7 +4547,7 @@
         <v>192000</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:G75" si="65">G68</f>
+        <f t="shared" ref="G69:G77" si="65">G68</f>
         <v>1</v>
       </c>
       <c r="H69" s="2">
@@ -4566,7 +4570,7 @@
         <v>57</v>
       </c>
       <c r="M69">
-        <f t="shared" ref="M69:M75" si="67">M68+200</f>
+        <f t="shared" ref="M69:M77" si="67">M68+200</f>
         <v>15400</v>
       </c>
     </row>
@@ -4882,9 +4886,113 @@
         <v>16600</v>
       </c>
     </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="str">
+        <f t="shared" ref="B76:C76" si="78">B75</f>
+        <v>1-1</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="78"/>
+        <v>9043</v>
+      </c>
+      <c r="D76">
+        <f>VLOOKUP(A76,Balance!E:K,7,FALSE)</f>
+        <v>118750</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="8"/>
+        <v>9043</v>
+      </c>
+      <c r="F76">
+        <f>VLOOKUP(A76,Balance!E:L,8,)</f>
+        <v>237500</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H76" s="2">
+        <f>VLOOKUP(A76,Balance!E:K,3,FALSE)</f>
+        <v>1E+188</v>
+      </c>
+      <c r="I76">
+        <f t="shared" ref="I76:K76" si="79">I75</f>
+        <v>1000</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="79"/>
+        <v>8</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="L76" t="s">
+        <v>57</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="67"/>
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="str">
+        <f t="shared" ref="B77:C77" si="80">B76</f>
+        <v>1-1</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="80"/>
+        <v>9043</v>
+      </c>
+      <c r="D77">
+        <f>VLOOKUP(A77,Balance!E:K,7,FALSE)</f>
+        <v>122750</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ref="E77" si="81">E76</f>
+        <v>9043</v>
+      </c>
+      <c r="F77">
+        <f>VLOOKUP(A77,Balance!E:L,8,)</f>
+        <v>245500</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H77" s="2">
+        <f>VLOOKUP(A77,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+190</v>
+      </c>
+      <c r="I77">
+        <f t="shared" ref="I77:K77" si="82">I76</f>
+        <v>1000</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="82"/>
+        <v>8</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="L77" t="s">
+        <v>57</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="67"/>
+        <v>17000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 A2:E75 G13:M75">
+  <conditionalFormatting sqref="G2:N12 A2:E77 G13:M77">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -4896,10 +5004,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:AA82"/>
+  <dimension ref="A1:AA84"/>
   <sheetViews>
-    <sheetView topLeftCell="B59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+    <sheetView topLeftCell="B66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5222,7 +5330,7 @@
         <v>1.0000000000000001E+46</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" ref="H12:H82" si="5">H10</f>
+        <f t="shared" ref="H12:H84" si="5">H10</f>
         <v>100</v>
       </c>
       <c r="I12" s="16" t="str" cm="1">
@@ -7586,8 +7694,20 @@
         <v>45</v>
       </c>
       <c r="N54" s="22"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
+      <c r="O54" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="P54" s="16">
+        <v>188</v>
+      </c>
+      <c r="Q54" s="17">
+        <f t="shared" ref="Q54" si="26">POWER(10,P54)</f>
+        <v>1E+188</v>
+      </c>
+      <c r="R54" s="17" t="str">
+        <f t="shared" ref="R54" si="27">RIGHT(Q54,P54)</f>
+        <v>1E+188</v>
+      </c>
       <c r="S54" s="11"/>
       <c r="T54" s="11"/>
       <c r="U54" s="11"/>
@@ -7724,7 +7844,7 @@
         <v>42500</v>
       </c>
       <c r="L57" s="22">
-        <f t="shared" ref="L57:L69" si="26">L56+500+QUOTIENT(E57,15)*1500</f>
+        <f t="shared" ref="L57:L69" si="28">L56+500+QUOTIENT(E57,15)*1500</f>
         <v>85000</v>
       </c>
       <c r="M57" s="16">
@@ -7772,7 +7892,7 @@
         <v>45000</v>
       </c>
       <c r="L58" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>90000</v>
       </c>
       <c r="M58" s="16">
@@ -7820,7 +7940,7 @@
         <v>47500</v>
       </c>
       <c r="L59" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>95000</v>
       </c>
       <c r="M59" s="16">
@@ -7868,7 +7988,7 @@
         <v>50000</v>
       </c>
       <c r="L60" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100000</v>
       </c>
       <c r="M60" s="16">
@@ -7916,7 +8036,7 @@
         <v>52500</v>
       </c>
       <c r="L61" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>105000</v>
       </c>
       <c r="M61" s="16">
@@ -7964,7 +8084,7 @@
         <v>55000</v>
       </c>
       <c r="L62" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>110000</v>
       </c>
       <c r="M62" s="16">
@@ -8012,7 +8132,7 @@
         <v>57500</v>
       </c>
       <c r="L63" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>115000</v>
       </c>
       <c r="M63" s="16">
@@ -8060,7 +8180,7 @@
         <v>60000</v>
       </c>
       <c r="L64" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>120000</v>
       </c>
       <c r="M64" s="16">
@@ -8108,7 +8228,7 @@
         <v>62500</v>
       </c>
       <c r="L65" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>125000</v>
       </c>
       <c r="M65" s="16">
@@ -8156,7 +8276,7 @@
         <v>65000</v>
       </c>
       <c r="L66" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>130000</v>
       </c>
       <c r="M66" s="16">
@@ -8204,7 +8324,7 @@
         <v>67500</v>
       </c>
       <c r="L67" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>135000</v>
       </c>
       <c r="M67" s="16">
@@ -8241,7 +8361,7 @@
         <v>70000</v>
       </c>
       <c r="L68" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>140000</v>
       </c>
       <c r="M68" s="16">
@@ -8254,7 +8374,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" ref="F69" si="27">H69&amp;I69</f>
+        <f t="shared" ref="F69" si="29">H69&amp;I69</f>
         <v>1단</v>
       </c>
       <c r="G69" s="17">
@@ -8278,7 +8398,7 @@
         <v>73250</v>
       </c>
       <c r="L69" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>146500</v>
       </c>
       <c r="M69" s="16">
@@ -8295,7 +8415,7 @@
         <v>100단</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" ref="G70:G72" si="28">H70*J70</f>
+        <f t="shared" ref="G70:G72" si="30">H70*J70</f>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="H70" s="17">
@@ -8307,15 +8427,15 @@
         <v>단</v>
       </c>
       <c r="J70" s="16" t="str">
-        <f t="shared" ref="J70:J72" si="29">VLOOKUP(I70,O:R,4,FALSE)</f>
+        <f t="shared" ref="J70:J72" si="31">VLOOKUP(I70,O:R,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K70" s="22">
-        <f t="shared" ref="K70:K72" si="30">L70*0.5</f>
+        <f t="shared" ref="K70:K72" si="32">L70*0.5</f>
         <v>76500</v>
       </c>
       <c r="L70" s="22">
-        <f t="shared" ref="L70:L72" si="31">L69+500+QUOTIENT(E70,15)*1500</f>
+        <f t="shared" ref="L70:L72" si="33">L69+500+QUOTIENT(E70,15)*1500</f>
         <v>153000</v>
       </c>
     </row>
@@ -8324,11 +8444,11 @@
         <v>62</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" ref="F71:F72" si="32">H71&amp;I71</f>
+        <f t="shared" ref="F71:F72" si="34">H71&amp;I71</f>
         <v>1절</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1E+164</v>
       </c>
       <c r="H71" s="17">
@@ -8340,15 +8460,15 @@
         <v>절</v>
       </c>
       <c r="J71" s="16" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+164</v>
       </c>
       <c r="K71" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>79750</v>
       </c>
       <c r="L71" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>159500</v>
       </c>
     </row>
@@ -8357,11 +8477,11 @@
         <v>63</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100절</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="H72" s="17">
@@ -8373,15 +8493,15 @@
         <v>절</v>
       </c>
       <c r="J72" s="16" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+164</v>
       </c>
       <c r="K72" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>83000</v>
       </c>
       <c r="L72" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>166000</v>
       </c>
     </row>
@@ -8390,11 +8510,11 @@
         <v>64</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F75" si="33">H73&amp;I73</f>
+        <f t="shared" ref="F73:F75" si="35">H73&amp;I73</f>
         <v>1격</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G75" si="34">H73*J73</f>
+        <f t="shared" ref="G73:G75" si="36">H73*J73</f>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="H73" s="17">
@@ -8406,15 +8526,15 @@
         <v>격</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J75" si="35">VLOOKUP(I73,O:R,4,FALSE)</f>
+        <f t="shared" ref="J73:J75" si="37">VLOOKUP(I73,O:R,4,FALSE)</f>
         <v>1E+168</v>
       </c>
       <c r="K73" s="22">
-        <f t="shared" ref="K73:K75" si="36">L73*0.5</f>
+        <f t="shared" ref="K73:K75" si="38">L73*0.5</f>
         <v>86250</v>
       </c>
       <c r="L73" s="22">
-        <f t="shared" ref="L73:L75" si="37">L72+500+QUOTIENT(E73,15)*1500</f>
+        <f t="shared" ref="L73:L75" si="39">L72+500+QUOTIENT(E73,15)*1500</f>
         <v>172500</v>
       </c>
     </row>
@@ -8423,11 +8543,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100격</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="H74" s="17">
@@ -8439,15 +8559,15 @@
         <v>격</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+168</v>
       </c>
       <c r="K74" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>89500</v>
       </c>
       <c r="L74" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>179000</v>
       </c>
     </row>
@@ -8456,11 +8576,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1창</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="H75" s="17">
@@ -8472,15 +8592,15 @@
         <v>창</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+172</v>
       </c>
       <c r="K75" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>92750</v>
       </c>
       <c r="L75" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>185500</v>
       </c>
     </row>
@@ -8489,11 +8609,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" ref="F76:F80" si="38">H76&amp;I76</f>
+        <f t="shared" ref="F76:F80" si="40">H76&amp;I76</f>
         <v>100창</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" ref="G76:G80" si="39">H76*J76</f>
+        <f t="shared" ref="G76:G80" si="41">H76*J76</f>
         <v>1.0000000000000001E+174</v>
       </c>
       <c r="H76" s="17">
@@ -8505,15 +8625,15 @@
         <v>창</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" ref="J76:J80" si="40">VLOOKUP(I76,O:R,4,FALSE)</f>
+        <f t="shared" ref="J76:J80" si="42">VLOOKUP(I76,O:R,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K76" s="22">
-        <f t="shared" ref="K76:K80" si="41">L76*0.5</f>
+        <f t="shared" ref="K76:K80" si="43">L76*0.5</f>
         <v>96000</v>
       </c>
       <c r="L76" s="22">
-        <f t="shared" ref="L76:L80" si="42">L75+500+QUOTIENT(E76,15)*1500</f>
+        <f t="shared" ref="L76:L80" si="44">L75+500+QUOTIENT(E76,15)*1500</f>
         <v>192000</v>
       </c>
     </row>
@@ -8522,11 +8642,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1공</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+176</v>
       </c>
       <c r="H77" s="17">
@@ -8538,15 +8658,15 @@
         <v>공</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+176</v>
       </c>
       <c r="K77" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>99250</v>
       </c>
       <c r="L77" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>198500</v>
       </c>
     </row>
@@ -8555,11 +8675,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100공</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.0000000000000001E+178</v>
       </c>
       <c r="H78" s="17">
@@ -8571,15 +8691,15 @@
         <v>공</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+176</v>
       </c>
       <c r="K78" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>102500</v>
       </c>
       <c r="L78" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>205000</v>
       </c>
     </row>
@@ -8588,11 +8708,11 @@
         <v>70</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1채</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+180</v>
       </c>
       <c r="H79" s="17">
@@ -8604,15 +8724,15 @@
         <v>채</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+180</v>
       </c>
       <c r="K79" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>105750</v>
       </c>
       <c r="L79" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>211500</v>
       </c>
     </row>
@@ -8621,11 +8741,11 @@
         <v>71</v>
       </c>
       <c r="F80" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100채</v>
       </c>
       <c r="G80" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.0000000000000001E+182</v>
       </c>
       <c r="H80" s="17">
@@ -8637,15 +8757,15 @@
         <v>채</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+180</v>
       </c>
       <c r="K80" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>109000</v>
       </c>
       <c r="L80" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>218000</v>
       </c>
     </row>
@@ -8654,11 +8774,11 @@
         <v>72</v>
       </c>
       <c r="F81" s="17" t="str">
-        <f t="shared" ref="F81:F82" si="43">H81&amp;I81</f>
-        <v>1연</v>
+        <f t="shared" ref="F81:F82" si="45">H81&amp;I81</f>
+        <v>1피</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" ref="G81:G82" si="44">H81*J81</f>
+        <f t="shared" ref="G81:G82" si="46">H81*J81</f>
         <v>1E+184</v>
       </c>
       <c r="H81" s="17">
@@ -8667,18 +8787,18 @@
       </c>
       <c r="I81" s="16" t="str" cm="1">
         <f t="array" ref="I81">IF(AND(H80&gt;=100,H81&lt;2),INDEX(O:O,MATCH(I80,O:O,0)+1,0),I80)</f>
-        <v>연</v>
+        <v>피</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" ref="J81:J82" si="45">VLOOKUP(I81,O:R,4,FALSE)</f>
+        <f t="shared" ref="J81:J82" si="47">VLOOKUP(I81,O:R,4,FALSE)</f>
         <v>1E+184</v>
       </c>
       <c r="K81" s="22">
-        <f t="shared" ref="K81:K82" si="46">L81*0.5</f>
+        <f t="shared" ref="K81:K82" si="48">L81*0.5</f>
         <v>112250</v>
       </c>
       <c r="L81" s="22">
-        <f t="shared" ref="L81:L82" si="47">L80+500+QUOTIENT(E81,15)*1500</f>
+        <f t="shared" ref="L81:L82" si="49">L80+500+QUOTIENT(E81,15)*1500</f>
         <v>224500</v>
       </c>
     </row>
@@ -8687,11 +8807,11 @@
         <v>73</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" si="43"/>
-        <v>100연</v>
+        <f t="shared" si="45"/>
+        <v>100피</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>9.9999999999999998E+185</v>
       </c>
       <c r="H82" s="17">
@@ -8700,19 +8820,85 @@
       </c>
       <c r="I82" s="16" t="str" cm="1">
         <f t="array" ref="I82">IF(AND(H81&gt;=100,H82&lt;2),INDEX(O:O,MATCH(I81,O:O,0)+1,0),I81)</f>
-        <v>연</v>
+        <v>피</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+184</v>
       </c>
       <c r="K82" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>115500</v>
       </c>
       <c r="L82" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>231000</v>
+      </c>
+    </row>
+    <row r="83" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E83" s="16">
+        <v>74</v>
+      </c>
+      <c r="F83" s="17" t="str">
+        <f t="shared" ref="F83:F84" si="50">H83&amp;I83</f>
+        <v>1동</v>
+      </c>
+      <c r="G83" s="17">
+        <f t="shared" ref="G83:G84" si="51">H83*J83</f>
+        <v>1E+188</v>
+      </c>
+      <c r="H83" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I83" s="16" t="str" cm="1">
+        <f t="array" ref="I83">IF(AND(H82&gt;=100,H83&lt;2),INDEX(O:O,MATCH(I82,O:O,0)+1,0),I82)</f>
+        <v>동</v>
+      </c>
+      <c r="J83" s="16" t="str">
+        <f t="shared" ref="J83:J84" si="52">VLOOKUP(I83,O:R,4,FALSE)</f>
+        <v>1E+188</v>
+      </c>
+      <c r="K83" s="22">
+        <f t="shared" ref="K83:K84" si="53">L83*0.5</f>
+        <v>118750</v>
+      </c>
+      <c r="L83" s="22">
+        <f t="shared" ref="L83:L84" si="54">L82+500+QUOTIENT(E83,15)*1500</f>
+        <v>237500</v>
+      </c>
+    </row>
+    <row r="84" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E84" s="16">
+        <v>75</v>
+      </c>
+      <c r="F84" s="17" t="str">
+        <f t="shared" si="50"/>
+        <v>100동</v>
+      </c>
+      <c r="G84" s="17">
+        <f t="shared" si="51"/>
+        <v>1.0000000000000001E+190</v>
+      </c>
+      <c r="H84" s="17">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I84" s="16" t="str" cm="1">
+        <f t="array" ref="I84">IF(AND(H83&gt;=100,H84&lt;2),INDEX(O:O,MATCH(I83,O:O,0)+1,0),I83)</f>
+        <v>동</v>
+      </c>
+      <c r="J84" s="16" t="str">
+        <f t="shared" si="52"/>
+        <v>1E+188</v>
+      </c>
+      <c r="K84" s="22">
+        <f t="shared" si="53"/>
+        <v>122750</v>
+      </c>
+      <c r="L84" s="22">
+        <f t="shared" si="54"/>
+        <v>245500</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MeditationTower.xlsx
+++ b/Assets/06.Table/MeditationTower.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A768354-0B80-410A-A3FF-F2D74A58C328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72306D42-A3D1-47BD-ABDC-FAD69EF234E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MeditationTower" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="81">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,6 +375,10 @@
   </si>
   <si>
     <t>동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -970,11 +974,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:O79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I73" sqref="I73"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="K78" sqref="K78"/>
+      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1627,7 +1632,7 @@
         <v>3250</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E76" si="8">E12</f>
+        <f t="shared" ref="E13:E78" si="8">E12</f>
         <v>9043</v>
       </c>
       <c r="F13">
@@ -4547,7 +4552,7 @@
         <v>192000</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:G77" si="65">G68</f>
+        <f t="shared" ref="G69:G79" si="65">G68</f>
         <v>1</v>
       </c>
       <c r="H69" s="2">
@@ -4570,7 +4575,7 @@
         <v>57</v>
       </c>
       <c r="M69">
-        <f t="shared" ref="M69:M77" si="67">M68+200</f>
+        <f t="shared" ref="M69:M79" si="67">M68+200</f>
         <v>15400</v>
       </c>
     </row>
@@ -4990,9 +4995,113 @@
         <v>17000</v>
       </c>
     </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="str">
+        <f t="shared" ref="B78:C78" si="83">B77</f>
+        <v>1-1</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="83"/>
+        <v>9043</v>
+      </c>
+      <c r="D78">
+        <f>VLOOKUP(A78,Balance!E:K,7,FALSE)</f>
+        <v>126750</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="8"/>
+        <v>9043</v>
+      </c>
+      <c r="F78">
+        <f>VLOOKUP(A78,Balance!E:L,8,)</f>
+        <v>253500</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H78" s="2">
+        <f>VLOOKUP(A78,Balance!E:K,3,FALSE)</f>
+        <v>1E+192</v>
+      </c>
+      <c r="I78">
+        <f t="shared" ref="I78:K78" si="84">I77</f>
+        <v>1000</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="84"/>
+        <v>8</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="L78" t="s">
+        <v>57</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="67"/>
+        <v>17200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="str">
+        <f t="shared" ref="B79:C79" si="85">B78</f>
+        <v>1-1</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="85"/>
+        <v>9043</v>
+      </c>
+      <c r="D79">
+        <f>VLOOKUP(A79,Balance!E:K,7,FALSE)</f>
+        <v>130750</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ref="E79" si="86">E78</f>
+        <v>9043</v>
+      </c>
+      <c r="F79">
+        <f>VLOOKUP(A79,Balance!E:L,8,)</f>
+        <v>261500</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H79" s="2">
+        <f>VLOOKUP(A79,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+194</v>
+      </c>
+      <c r="I79">
+        <f t="shared" ref="I79:K79" si="87">I78</f>
+        <v>1000</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="87"/>
+        <v>8</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="L79" t="s">
+        <v>57</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="67"/>
+        <v>17400</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 A2:E77 G13:M77">
+  <conditionalFormatting sqref="G2:N12 A2:E79 G13:M79">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -5004,10 +5113,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:AA84"/>
+  <dimension ref="A1:AA86"/>
   <sheetViews>
-    <sheetView topLeftCell="B66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J80" sqref="J80"/>
+    <sheetView topLeftCell="B39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5330,7 +5439,7 @@
         <v>1.0000000000000001E+46</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" ref="H12:H84" si="5">H10</f>
+        <f t="shared" ref="H12:H86" si="5">H10</f>
         <v>100</v>
       </c>
       <c r="I12" s="16" t="str" cm="1">
@@ -7754,8 +7863,20 @@
         <v>46</v>
       </c>
       <c r="N55" s="22"/>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11"/>
+      <c r="O55" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="P55" s="16">
+        <v>192</v>
+      </c>
+      <c r="Q55" s="17">
+        <f t="shared" ref="Q55" si="28">POWER(10,P55)</f>
+        <v>1E+192</v>
+      </c>
+      <c r="R55" s="17" t="str">
+        <f t="shared" ref="R55" si="29">RIGHT(Q55,P55)</f>
+        <v>1E+192</v>
+      </c>
       <c r="S55" s="11"/>
       <c r="T55" s="11"/>
       <c r="U55" s="11"/>
@@ -7844,7 +7965,7 @@
         <v>42500</v>
       </c>
       <c r="L57" s="22">
-        <f t="shared" ref="L57:L69" si="28">L56+500+QUOTIENT(E57,15)*1500</f>
+        <f t="shared" ref="L57:L69" si="30">L56+500+QUOTIENT(E57,15)*1500</f>
         <v>85000</v>
       </c>
       <c r="M57" s="16">
@@ -7892,7 +8013,7 @@
         <v>45000</v>
       </c>
       <c r="L58" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>90000</v>
       </c>
       <c r="M58" s="16">
@@ -7940,7 +8061,7 @@
         <v>47500</v>
       </c>
       <c r="L59" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>95000</v>
       </c>
       <c r="M59" s="16">
@@ -7988,7 +8109,7 @@
         <v>50000</v>
       </c>
       <c r="L60" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100000</v>
       </c>
       <c r="M60" s="16">
@@ -8036,7 +8157,7 @@
         <v>52500</v>
       </c>
       <c r="L61" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>105000</v>
       </c>
       <c r="M61" s="16">
@@ -8084,7 +8205,7 @@
         <v>55000</v>
       </c>
       <c r="L62" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>110000</v>
       </c>
       <c r="M62" s="16">
@@ -8132,7 +8253,7 @@
         <v>57500</v>
       </c>
       <c r="L63" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>115000</v>
       </c>
       <c r="M63" s="16">
@@ -8180,7 +8301,7 @@
         <v>60000</v>
       </c>
       <c r="L64" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>120000</v>
       </c>
       <c r="M64" s="16">
@@ -8228,7 +8349,7 @@
         <v>62500</v>
       </c>
       <c r="L65" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>125000</v>
       </c>
       <c r="M65" s="16">
@@ -8276,7 +8397,7 @@
         <v>65000</v>
       </c>
       <c r="L66" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>130000</v>
       </c>
       <c r="M66" s="16">
@@ -8324,7 +8445,7 @@
         <v>67500</v>
       </c>
       <c r="L67" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>135000</v>
       </c>
       <c r="M67" s="16">
@@ -8361,7 +8482,7 @@
         <v>70000</v>
       </c>
       <c r="L68" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>140000</v>
       </c>
       <c r="M68" s="16">
@@ -8374,7 +8495,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" ref="F69" si="29">H69&amp;I69</f>
+        <f t="shared" ref="F69" si="31">H69&amp;I69</f>
         <v>1단</v>
       </c>
       <c r="G69" s="17">
@@ -8398,7 +8519,7 @@
         <v>73250</v>
       </c>
       <c r="L69" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>146500</v>
       </c>
       <c r="M69" s="16">
@@ -8415,7 +8536,7 @@
         <v>100단</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" ref="G70:G72" si="30">H70*J70</f>
+        <f t="shared" ref="G70:G72" si="32">H70*J70</f>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="H70" s="17">
@@ -8427,15 +8548,15 @@
         <v>단</v>
       </c>
       <c r="J70" s="16" t="str">
-        <f t="shared" ref="J70:J72" si="31">VLOOKUP(I70,O:R,4,FALSE)</f>
+        <f t="shared" ref="J70:J72" si="33">VLOOKUP(I70,O:R,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K70" s="22">
-        <f t="shared" ref="K70:K72" si="32">L70*0.5</f>
+        <f t="shared" ref="K70:K72" si="34">L70*0.5</f>
         <v>76500</v>
       </c>
       <c r="L70" s="22">
-        <f t="shared" ref="L70:L72" si="33">L69+500+QUOTIENT(E70,15)*1500</f>
+        <f t="shared" ref="L70:L72" si="35">L69+500+QUOTIENT(E70,15)*1500</f>
         <v>153000</v>
       </c>
     </row>
@@ -8444,11 +8565,11 @@
         <v>62</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" ref="F71:F72" si="34">H71&amp;I71</f>
+        <f t="shared" ref="F71:F72" si="36">H71&amp;I71</f>
         <v>1절</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+164</v>
       </c>
       <c r="H71" s="17">
@@ -8460,15 +8581,15 @@
         <v>절</v>
       </c>
       <c r="J71" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+164</v>
       </c>
       <c r="K71" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>79750</v>
       </c>
       <c r="L71" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>159500</v>
       </c>
     </row>
@@ -8477,11 +8598,11 @@
         <v>63</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100절</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="H72" s="17">
@@ -8493,15 +8614,15 @@
         <v>절</v>
       </c>
       <c r="J72" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+164</v>
       </c>
       <c r="K72" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>83000</v>
       </c>
       <c r="L72" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>166000</v>
       </c>
     </row>
@@ -8510,11 +8631,11 @@
         <v>64</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F75" si="35">H73&amp;I73</f>
+        <f t="shared" ref="F73:F75" si="37">H73&amp;I73</f>
         <v>1격</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G75" si="36">H73*J73</f>
+        <f t="shared" ref="G73:G75" si="38">H73*J73</f>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="H73" s="17">
@@ -8526,15 +8647,15 @@
         <v>격</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J75" si="37">VLOOKUP(I73,O:R,4,FALSE)</f>
+        <f t="shared" ref="J73:J75" si="39">VLOOKUP(I73,O:R,4,FALSE)</f>
         <v>1E+168</v>
       </c>
       <c r="K73" s="22">
-        <f t="shared" ref="K73:K75" si="38">L73*0.5</f>
+        <f t="shared" ref="K73:K75" si="40">L73*0.5</f>
         <v>86250</v>
       </c>
       <c r="L73" s="22">
-        <f t="shared" ref="L73:L75" si="39">L72+500+QUOTIENT(E73,15)*1500</f>
+        <f t="shared" ref="L73:L75" si="41">L72+500+QUOTIENT(E73,15)*1500</f>
         <v>172500</v>
       </c>
     </row>
@@ -8543,11 +8664,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>100격</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="H74" s="17">
@@ -8559,15 +8680,15 @@
         <v>격</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+168</v>
       </c>
       <c r="K74" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>89500</v>
       </c>
       <c r="L74" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>179000</v>
       </c>
     </row>
@@ -8576,11 +8697,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1창</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="H75" s="17">
@@ -8592,15 +8713,15 @@
         <v>창</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+172</v>
       </c>
       <c r="K75" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>92750</v>
       </c>
       <c r="L75" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>185500</v>
       </c>
     </row>
@@ -8609,11 +8730,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" ref="F76:F80" si="40">H76&amp;I76</f>
+        <f t="shared" ref="F76:F80" si="42">H76&amp;I76</f>
         <v>100창</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" ref="G76:G80" si="41">H76*J76</f>
+        <f t="shared" ref="G76:G80" si="43">H76*J76</f>
         <v>1.0000000000000001E+174</v>
       </c>
       <c r="H76" s="17">
@@ -8625,15 +8746,15 @@
         <v>창</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" ref="J76:J80" si="42">VLOOKUP(I76,O:R,4,FALSE)</f>
+        <f t="shared" ref="J76:J80" si="44">VLOOKUP(I76,O:R,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K76" s="22">
-        <f t="shared" ref="K76:K80" si="43">L76*0.5</f>
+        <f t="shared" ref="K76:K80" si="45">L76*0.5</f>
         <v>96000</v>
       </c>
       <c r="L76" s="22">
-        <f t="shared" ref="L76:L80" si="44">L75+500+QUOTIENT(E76,15)*1500</f>
+        <f t="shared" ref="L76:L80" si="46">L75+500+QUOTIENT(E76,15)*1500</f>
         <v>192000</v>
       </c>
     </row>
@@ -8642,11 +8763,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1공</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+176</v>
       </c>
       <c r="H77" s="17">
@@ -8658,15 +8779,15 @@
         <v>공</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+176</v>
       </c>
       <c r="K77" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>99250</v>
       </c>
       <c r="L77" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>198500</v>
       </c>
     </row>
@@ -8675,11 +8796,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100공</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000001E+178</v>
       </c>
       <c r="H78" s="17">
@@ -8691,15 +8812,15 @@
         <v>공</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+176</v>
       </c>
       <c r="K78" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>102500</v>
       </c>
       <c r="L78" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>205000</v>
       </c>
     </row>
@@ -8708,11 +8829,11 @@
         <v>70</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1채</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+180</v>
       </c>
       <c r="H79" s="17">
@@ -8724,15 +8845,15 @@
         <v>채</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+180</v>
       </c>
       <c r="K79" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>105750</v>
       </c>
       <c r="L79" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>211500</v>
       </c>
     </row>
@@ -8741,11 +8862,11 @@
         <v>71</v>
       </c>
       <c r="F80" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100채</v>
       </c>
       <c r="G80" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000001E+182</v>
       </c>
       <c r="H80" s="17">
@@ -8757,15 +8878,15 @@
         <v>채</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+180</v>
       </c>
       <c r="K80" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>109000</v>
       </c>
       <c r="L80" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>218000</v>
       </c>
     </row>
@@ -8774,11 +8895,11 @@
         <v>72</v>
       </c>
       <c r="F81" s="17" t="str">
-        <f t="shared" ref="F81:F82" si="45">H81&amp;I81</f>
+        <f t="shared" ref="F81:F82" si="47">H81&amp;I81</f>
         <v>1피</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" ref="G81:G82" si="46">H81*J81</f>
+        <f t="shared" ref="G81:G82" si="48">H81*J81</f>
         <v>1E+184</v>
       </c>
       <c r="H81" s="17">
@@ -8790,15 +8911,15 @@
         <v>피</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" ref="J81:J82" si="47">VLOOKUP(I81,O:R,4,FALSE)</f>
+        <f t="shared" ref="J81:J82" si="49">VLOOKUP(I81,O:R,4,FALSE)</f>
         <v>1E+184</v>
       </c>
       <c r="K81" s="22">
-        <f t="shared" ref="K81:K82" si="48">L81*0.5</f>
+        <f t="shared" ref="K81:K82" si="50">L81*0.5</f>
         <v>112250</v>
       </c>
       <c r="L81" s="22">
-        <f t="shared" ref="L81:L82" si="49">L80+500+QUOTIENT(E81,15)*1500</f>
+        <f t="shared" ref="L81:L82" si="51">L80+500+QUOTIENT(E81,15)*1500</f>
         <v>224500</v>
       </c>
     </row>
@@ -8807,11 +8928,11 @@
         <v>73</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>100피</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>9.9999999999999998E+185</v>
       </c>
       <c r="H82" s="17">
@@ -8823,15 +8944,15 @@
         <v>피</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+184</v>
       </c>
       <c r="K82" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>115500</v>
       </c>
       <c r="L82" s="22">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>231000</v>
       </c>
     </row>
@@ -8840,11 +8961,11 @@
         <v>74</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" ref="F83:F84" si="50">H83&amp;I83</f>
+        <f t="shared" ref="F83:F86" si="52">H83&amp;I83</f>
         <v>1동</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" ref="G83:G84" si="51">H83*J83</f>
+        <f t="shared" ref="G83:G86" si="53">H83*J83</f>
         <v>1E+188</v>
       </c>
       <c r="H83" s="17">
@@ -8856,15 +8977,15 @@
         <v>동</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" ref="J83:J84" si="52">VLOOKUP(I83,O:R,4,FALSE)</f>
+        <f t="shared" ref="J83:J86" si="54">VLOOKUP(I83,O:R,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K83" s="22">
-        <f t="shared" ref="K83:K84" si="53">L83*0.5</f>
+        <f t="shared" ref="K83:K86" si="55">L83*0.5</f>
         <v>118750</v>
       </c>
       <c r="L83" s="22">
-        <f t="shared" ref="L83:L84" si="54">L82+500+QUOTIENT(E83,15)*1500</f>
+        <f t="shared" ref="L83:L86" si="56">L82+500+QUOTIENT(E83,15)*1500</f>
         <v>237500</v>
       </c>
     </row>
@@ -8873,11 +8994,11 @@
         <v>75</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>100동</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1.0000000000000001E+190</v>
       </c>
       <c r="H84" s="17">
@@ -8889,16 +9010,82 @@
         <v>동</v>
       </c>
       <c r="J84" s="16" t="str">
+        <f t="shared" si="54"/>
+        <v>1E+188</v>
+      </c>
+      <c r="K84" s="22">
+        <f t="shared" si="55"/>
+        <v>122750</v>
+      </c>
+      <c r="L84" s="22">
+        <f t="shared" si="56"/>
+        <v>245500</v>
+      </c>
+    </row>
+    <row r="85" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E85" s="16">
+        <v>76</v>
+      </c>
+      <c r="F85" s="17" t="str">
         <f t="shared" si="52"/>
-        <v>1E+188</v>
-      </c>
-      <c r="K84" s="22">
+        <v>1멸</v>
+      </c>
+      <c r="G85" s="17">
         <f t="shared" si="53"/>
-        <v>122750</v>
-      </c>
-      <c r="L84" s="22">
+        <v>1E+192</v>
+      </c>
+      <c r="H85" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I85" s="16" t="str" cm="1">
+        <f t="array" ref="I85">IF(AND(H84&gt;=100,H85&lt;2),INDEX(O:O,MATCH(I84,O:O,0)+1,0),I84)</f>
+        <v>멸</v>
+      </c>
+      <c r="J85" s="16" t="str">
         <f t="shared" si="54"/>
-        <v>245500</v>
+        <v>1E+192</v>
+      </c>
+      <c r="K85" s="22">
+        <f t="shared" si="55"/>
+        <v>126750</v>
+      </c>
+      <c r="L85" s="22">
+        <f t="shared" si="56"/>
+        <v>253500</v>
+      </c>
+    </row>
+    <row r="86" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E86" s="16">
+        <v>77</v>
+      </c>
+      <c r="F86" s="17" t="str">
+        <f t="shared" si="52"/>
+        <v>100멸</v>
+      </c>
+      <c r="G86" s="17">
+        <f t="shared" si="53"/>
+        <v>1.0000000000000001E+194</v>
+      </c>
+      <c r="H86" s="17">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I86" s="16" t="str" cm="1">
+        <f t="array" ref="I86">IF(AND(H85&gt;=100,H86&lt;2),INDEX(O:O,MATCH(I85,O:O,0)+1,0),I85)</f>
+        <v>멸</v>
+      </c>
+      <c r="J86" s="16" t="str">
+        <f t="shared" si="54"/>
+        <v>1E+192</v>
+      </c>
+      <c r="K86" s="22">
+        <f t="shared" si="55"/>
+        <v>130750</v>
+      </c>
+      <c r="L86" s="22">
+        <f t="shared" si="56"/>
+        <v>261500</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MeditationTower.xlsx
+++ b/Assets/06.Table/MeditationTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72306D42-A3D1-47BD-ABDC-FAD69EF234E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506734BA-513B-4473-85A1-DD82CC17DC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="83">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,6 +379,14 @@
   </si>
   <si>
     <t>멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -974,12 +982,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K78" sqref="K78"/>
-      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
+      <selection pane="bottomLeft" activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4552,7 +4560,7 @@
         <v>192000</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:G79" si="65">G68</f>
+        <f t="shared" ref="G69:G83" si="65">G68</f>
         <v>1</v>
       </c>
       <c r="H69" s="2">
@@ -4575,7 +4583,7 @@
         <v>57</v>
       </c>
       <c r="M69">
-        <f t="shared" ref="M69:M79" si="67">M68+200</f>
+        <f t="shared" ref="M69:M83" si="67">M68+200</f>
         <v>15400</v>
       </c>
     </row>
@@ -5064,7 +5072,7 @@
         <v>130750</v>
       </c>
       <c r="E79">
-        <f t="shared" ref="E79" si="86">E78</f>
+        <f t="shared" ref="E79:E83" si="86">E78</f>
         <v>9043</v>
       </c>
       <c r="F79">
@@ -5099,9 +5107,217 @@
         <v>17400</v>
       </c>
     </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="str">
+        <f t="shared" ref="B80:C80" si="88">B79</f>
+        <v>1-1</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="88"/>
+        <v>9043</v>
+      </c>
+      <c r="D80">
+        <f>VLOOKUP(A80,Balance!E:K,7,FALSE)</f>
+        <v>134750</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F80">
+        <f>VLOOKUP(A80,Balance!E:L,8,)</f>
+        <v>269500</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H80" s="2">
+        <f>VLOOKUP(A80,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999995E+195</v>
+      </c>
+      <c r="I80">
+        <f t="shared" ref="I80:K80" si="89">I79</f>
+        <v>1000</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="89"/>
+        <v>8</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="L80" t="s">
+        <v>57</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="67"/>
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="str">
+        <f t="shared" ref="B81:C81" si="90">B80</f>
+        <v>1-1</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="90"/>
+        <v>9043</v>
+      </c>
+      <c r="D81">
+        <f>VLOOKUP(A81,Balance!E:K,7,FALSE)</f>
+        <v>138750</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F81">
+        <f>VLOOKUP(A81,Balance!E:L,8,)</f>
+        <v>277500</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H81" s="2">
+        <f>VLOOKUP(A81,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999988E+197</v>
+      </c>
+      <c r="I81">
+        <f t="shared" ref="I81:K81" si="91">I80</f>
+        <v>1000</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="91"/>
+        <v>8</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="L81" t="s">
+        <v>57</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="67"/>
+        <v>17800</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="str">
+        <f t="shared" ref="B82:C82" si="92">B81</f>
+        <v>1-1</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="92"/>
+        <v>9043</v>
+      </c>
+      <c r="D82">
+        <f>VLOOKUP(A82,Balance!E:K,7,FALSE)</f>
+        <v>142750</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F82">
+        <f>VLOOKUP(A82,Balance!E:L,8,)</f>
+        <v>285500</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H82" s="2">
+        <f>VLOOKUP(A82,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999997E+199</v>
+      </c>
+      <c r="I82">
+        <f t="shared" ref="I82:K82" si="93">I81</f>
+        <v>1000</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="93"/>
+        <v>8</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="L82" t="s">
+        <v>57</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="67"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="str">
+        <f t="shared" ref="B83:C83" si="94">B82</f>
+        <v>1-1</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="94"/>
+        <v>9043</v>
+      </c>
+      <c r="D83">
+        <f>VLOOKUP(A83,Balance!E:K,7,FALSE)</f>
+        <v>146750</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F83">
+        <f>VLOOKUP(A83,Balance!E:L,8,)</f>
+        <v>293500</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H83" s="2">
+        <f>VLOOKUP(A83,Balance!E:K,3,FALSE)</f>
+        <v>9.999999999999999E+201</v>
+      </c>
+      <c r="I83">
+        <f t="shared" ref="I83:K83" si="95">I82</f>
+        <v>1000</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="95"/>
+        <v>8</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="L83" t="s">
+        <v>57</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="67"/>
+        <v>18200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 A2:E79 G13:M79">
+  <conditionalFormatting sqref="G2:N12 A2:E83 G13:M83">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -5113,10 +5329,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:AA86"/>
+  <dimension ref="A1:AA90"/>
   <sheetViews>
-    <sheetView topLeftCell="B39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K78" sqref="K78"/>
+    <sheetView topLeftCell="B68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5439,7 +5655,7 @@
         <v>1.0000000000000001E+46</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" ref="H12:H86" si="5">H10</f>
+        <f t="shared" ref="H12:H90" si="5">H10</f>
         <v>100</v>
       </c>
       <c r="I12" s="16" t="str" cm="1">
@@ -7924,8 +8140,20 @@
         <v>#VALUE!</v>
       </c>
       <c r="N56" s="22"/>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11"/>
+      <c r="O56" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="P56" s="16">
+        <v>196</v>
+      </c>
+      <c r="Q56" s="17">
+        <f t="shared" ref="Q56:Q57" si="30">POWER(10,P56)</f>
+        <v>9.9999999999999995E+195</v>
+      </c>
+      <c r="R56" s="17" t="str">
+        <f t="shared" ref="R56:R57" si="31">RIGHT(Q56,P56)</f>
+        <v>1E+196</v>
+      </c>
       <c r="S56" s="11"/>
       <c r="T56" s="11"/>
       <c r="U56" s="11"/>
@@ -7965,15 +8193,27 @@
         <v>42500</v>
       </c>
       <c r="L57" s="22">
-        <f t="shared" ref="L57:L69" si="30">L56+500+QUOTIENT(E57,15)*1500</f>
+        <f t="shared" ref="L57:L69" si="32">L56+500+QUOTIENT(E57,15)*1500</f>
         <v>85000</v>
       </c>
       <c r="M57" s="16">
         <v>48</v>
       </c>
       <c r="N57" s="22"/>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11"/>
+      <c r="O57" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P57" s="16">
+        <v>200</v>
+      </c>
+      <c r="Q57" s="17">
+        <f t="shared" si="30"/>
+        <v>9.9999999999999997E+199</v>
+      </c>
+      <c r="R57" s="17" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+200</v>
+      </c>
       <c r="S57" s="11"/>
       <c r="T57" s="11"/>
       <c r="U57" s="11"/>
@@ -8013,7 +8253,7 @@
         <v>45000</v>
       </c>
       <c r="L58" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>90000</v>
       </c>
       <c r="M58" s="16">
@@ -8061,7 +8301,7 @@
         <v>47500</v>
       </c>
       <c r="L59" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>95000</v>
       </c>
       <c r="M59" s="16">
@@ -8109,7 +8349,7 @@
         <v>50000</v>
       </c>
       <c r="L60" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100000</v>
       </c>
       <c r="M60" s="16">
@@ -8157,7 +8397,7 @@
         <v>52500</v>
       </c>
       <c r="L61" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>105000</v>
       </c>
       <c r="M61" s="16">
@@ -8205,7 +8445,7 @@
         <v>55000</v>
       </c>
       <c r="L62" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>110000</v>
       </c>
       <c r="M62" s="16">
@@ -8253,7 +8493,7 @@
         <v>57500</v>
       </c>
       <c r="L63" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>115000</v>
       </c>
       <c r="M63" s="16">
@@ -8301,7 +8541,7 @@
         <v>60000</v>
       </c>
       <c r="L64" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>120000</v>
       </c>
       <c r="M64" s="16">
@@ -8349,7 +8589,7 @@
         <v>62500</v>
       </c>
       <c r="L65" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>125000</v>
       </c>
       <c r="M65" s="16">
@@ -8397,7 +8637,7 @@
         <v>65000</v>
       </c>
       <c r="L66" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>130000</v>
       </c>
       <c r="M66" s="16">
@@ -8445,7 +8685,7 @@
         <v>67500</v>
       </c>
       <c r="L67" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>135000</v>
       </c>
       <c r="M67" s="16">
@@ -8482,7 +8722,7 @@
         <v>70000</v>
       </c>
       <c r="L68" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>140000</v>
       </c>
       <c r="M68" s="16">
@@ -8495,7 +8735,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" ref="F69" si="31">H69&amp;I69</f>
+        <f t="shared" ref="F69" si="33">H69&amp;I69</f>
         <v>1단</v>
       </c>
       <c r="G69" s="17">
@@ -8519,7 +8759,7 @@
         <v>73250</v>
       </c>
       <c r="L69" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>146500</v>
       </c>
       <c r="M69" s="16">
@@ -8536,7 +8776,7 @@
         <v>100단</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" ref="G70:G72" si="32">H70*J70</f>
+        <f t="shared" ref="G70:G72" si="34">H70*J70</f>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="H70" s="17">
@@ -8548,15 +8788,15 @@
         <v>단</v>
       </c>
       <c r="J70" s="16" t="str">
-        <f t="shared" ref="J70:J72" si="33">VLOOKUP(I70,O:R,4,FALSE)</f>
+        <f t="shared" ref="J70:J72" si="35">VLOOKUP(I70,O:R,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K70" s="22">
-        <f t="shared" ref="K70:K72" si="34">L70*0.5</f>
+        <f t="shared" ref="K70:K72" si="36">L70*0.5</f>
         <v>76500</v>
       </c>
       <c r="L70" s="22">
-        <f t="shared" ref="L70:L72" si="35">L69+500+QUOTIENT(E70,15)*1500</f>
+        <f t="shared" ref="L70:L72" si="37">L69+500+QUOTIENT(E70,15)*1500</f>
         <v>153000</v>
       </c>
     </row>
@@ -8565,11 +8805,11 @@
         <v>62</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" ref="F71:F72" si="36">H71&amp;I71</f>
+        <f t="shared" ref="F71:F72" si="38">H71&amp;I71</f>
         <v>1절</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+164</v>
       </c>
       <c r="H71" s="17">
@@ -8581,15 +8821,15 @@
         <v>절</v>
       </c>
       <c r="J71" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+164</v>
       </c>
       <c r="K71" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>79750</v>
       </c>
       <c r="L71" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>159500</v>
       </c>
     </row>
@@ -8598,11 +8838,11 @@
         <v>63</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100절</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="H72" s="17">
@@ -8614,15 +8854,15 @@
         <v>절</v>
       </c>
       <c r="J72" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+164</v>
       </c>
       <c r="K72" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>83000</v>
       </c>
       <c r="L72" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>166000</v>
       </c>
     </row>
@@ -8631,11 +8871,11 @@
         <v>64</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F75" si="37">H73&amp;I73</f>
+        <f t="shared" ref="F73:F75" si="39">H73&amp;I73</f>
         <v>1격</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G75" si="38">H73*J73</f>
+        <f t="shared" ref="G73:G75" si="40">H73*J73</f>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="H73" s="17">
@@ -8647,15 +8887,15 @@
         <v>격</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J75" si="39">VLOOKUP(I73,O:R,4,FALSE)</f>
+        <f t="shared" ref="J73:J75" si="41">VLOOKUP(I73,O:R,4,FALSE)</f>
         <v>1E+168</v>
       </c>
       <c r="K73" s="22">
-        <f t="shared" ref="K73:K75" si="40">L73*0.5</f>
+        <f t="shared" ref="K73:K75" si="42">L73*0.5</f>
         <v>86250</v>
       </c>
       <c r="L73" s="22">
-        <f t="shared" ref="L73:L75" si="41">L72+500+QUOTIENT(E73,15)*1500</f>
+        <f t="shared" ref="L73:L75" si="43">L72+500+QUOTIENT(E73,15)*1500</f>
         <v>172500</v>
       </c>
     </row>
@@ -8664,11 +8904,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100격</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="H74" s="17">
@@ -8680,15 +8920,15 @@
         <v>격</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+168</v>
       </c>
       <c r="K74" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>89500</v>
       </c>
       <c r="L74" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>179000</v>
       </c>
     </row>
@@ -8697,11 +8937,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1창</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="H75" s="17">
@@ -8713,15 +8953,15 @@
         <v>창</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+172</v>
       </c>
       <c r="K75" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>92750</v>
       </c>
       <c r="L75" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>185500</v>
       </c>
     </row>
@@ -8730,11 +8970,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" ref="F76:F80" si="42">H76&amp;I76</f>
+        <f t="shared" ref="F76:F80" si="44">H76&amp;I76</f>
         <v>100창</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" ref="G76:G80" si="43">H76*J76</f>
+        <f t="shared" ref="G76:G80" si="45">H76*J76</f>
         <v>1.0000000000000001E+174</v>
       </c>
       <c r="H76" s="17">
@@ -8746,15 +8986,15 @@
         <v>창</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" ref="J76:J80" si="44">VLOOKUP(I76,O:R,4,FALSE)</f>
+        <f t="shared" ref="J76:J80" si="46">VLOOKUP(I76,O:R,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K76" s="22">
-        <f t="shared" ref="K76:K80" si="45">L76*0.5</f>
+        <f t="shared" ref="K76:K80" si="47">L76*0.5</f>
         <v>96000</v>
       </c>
       <c r="L76" s="22">
-        <f t="shared" ref="L76:L80" si="46">L75+500+QUOTIENT(E76,15)*1500</f>
+        <f t="shared" ref="L76:L80" si="48">L75+500+QUOTIENT(E76,15)*1500</f>
         <v>192000</v>
       </c>
     </row>
@@ -8763,11 +9003,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1공</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+176</v>
       </c>
       <c r="H77" s="17">
@@ -8779,15 +9019,15 @@
         <v>공</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+176</v>
       </c>
       <c r="K77" s="22">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>99250</v>
       </c>
       <c r="L77" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>198500</v>
       </c>
     </row>
@@ -8796,11 +9036,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100공</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.0000000000000001E+178</v>
       </c>
       <c r="H78" s="17">
@@ -8812,15 +9052,15 @@
         <v>공</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+176</v>
       </c>
       <c r="K78" s="22">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>102500</v>
       </c>
       <c r="L78" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>205000</v>
       </c>
     </row>
@@ -8829,11 +9069,11 @@
         <v>70</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1채</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+180</v>
       </c>
       <c r="H79" s="17">
@@ -8845,15 +9085,15 @@
         <v>채</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+180</v>
       </c>
       <c r="K79" s="22">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>105750</v>
       </c>
       <c r="L79" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>211500</v>
       </c>
     </row>
@@ -8862,11 +9102,11 @@
         <v>71</v>
       </c>
       <c r="F80" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100채</v>
       </c>
       <c r="G80" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.0000000000000001E+182</v>
       </c>
       <c r="H80" s="17">
@@ -8878,15 +9118,15 @@
         <v>채</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+180</v>
       </c>
       <c r="K80" s="22">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>109000</v>
       </c>
       <c r="L80" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>218000</v>
       </c>
     </row>
@@ -8895,11 +9135,11 @@
         <v>72</v>
       </c>
       <c r="F81" s="17" t="str">
-        <f t="shared" ref="F81:F82" si="47">H81&amp;I81</f>
+        <f t="shared" ref="F81:F82" si="49">H81&amp;I81</f>
         <v>1피</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" ref="G81:G82" si="48">H81*J81</f>
+        <f t="shared" ref="G81:G82" si="50">H81*J81</f>
         <v>1E+184</v>
       </c>
       <c r="H81" s="17">
@@ -8911,15 +9151,15 @@
         <v>피</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" ref="J81:J82" si="49">VLOOKUP(I81,O:R,4,FALSE)</f>
+        <f t="shared" ref="J81:J82" si="51">VLOOKUP(I81,O:R,4,FALSE)</f>
         <v>1E+184</v>
       </c>
       <c r="K81" s="22">
-        <f t="shared" ref="K81:K82" si="50">L81*0.5</f>
+        <f t="shared" ref="K81:K82" si="52">L81*0.5</f>
         <v>112250</v>
       </c>
       <c r="L81" s="22">
-        <f t="shared" ref="L81:L82" si="51">L80+500+QUOTIENT(E81,15)*1500</f>
+        <f t="shared" ref="L81:L82" si="53">L80+500+QUOTIENT(E81,15)*1500</f>
         <v>224500</v>
       </c>
     </row>
@@ -8928,11 +9168,11 @@
         <v>73</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>100피</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>9.9999999999999998E+185</v>
       </c>
       <c r="H82" s="17">
@@ -8944,15 +9184,15 @@
         <v>피</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+184</v>
       </c>
       <c r="K82" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>115500</v>
       </c>
       <c r="L82" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>231000</v>
       </c>
     </row>
@@ -8961,11 +9201,11 @@
         <v>74</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" ref="F83:F86" si="52">H83&amp;I83</f>
+        <f t="shared" ref="F83:F86" si="54">H83&amp;I83</f>
         <v>1동</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" ref="G83:G86" si="53">H83*J83</f>
+        <f t="shared" ref="G83:G86" si="55">H83*J83</f>
         <v>1E+188</v>
       </c>
       <c r="H83" s="17">
@@ -8977,15 +9217,15 @@
         <v>동</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" ref="J83:J86" si="54">VLOOKUP(I83,O:R,4,FALSE)</f>
+        <f t="shared" ref="J83:J86" si="56">VLOOKUP(I83,O:R,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K83" s="22">
-        <f t="shared" ref="K83:K86" si="55">L83*0.5</f>
+        <f t="shared" ref="K83:K86" si="57">L83*0.5</f>
         <v>118750</v>
       </c>
       <c r="L83" s="22">
-        <f t="shared" ref="L83:L86" si="56">L82+500+QUOTIENT(E83,15)*1500</f>
+        <f t="shared" ref="L83:L86" si="58">L82+500+QUOTIENT(E83,15)*1500</f>
         <v>237500</v>
       </c>
     </row>
@@ -8994,11 +9234,11 @@
         <v>75</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>100동</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1.0000000000000001E+190</v>
       </c>
       <c r="H84" s="17">
@@ -9010,15 +9250,15 @@
         <v>동</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+188</v>
       </c>
       <c r="K84" s="22">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>122750</v>
       </c>
       <c r="L84" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>245500</v>
       </c>
     </row>
@@ -9027,11 +9267,11 @@
         <v>76</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1멸</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+192</v>
       </c>
       <c r="H85" s="17">
@@ -9043,15 +9283,15 @@
         <v>멸</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+192</v>
       </c>
       <c r="K85" s="22">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>126750</v>
       </c>
       <c r="L85" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>253500</v>
       </c>
     </row>
@@ -9060,11 +9300,11 @@
         <v>77</v>
       </c>
       <c r="F86" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>100멸</v>
       </c>
       <c r="G86" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1.0000000000000001E+194</v>
       </c>
       <c r="H86" s="17">
@@ -9076,16 +9316,148 @@
         <v>멸</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+192</v>
       </c>
       <c r="K86" s="22">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>130750</v>
       </c>
       <c r="L86" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>261500</v>
+      </c>
+    </row>
+    <row r="87" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E87" s="16">
+        <v>78</v>
+      </c>
+      <c r="F87" s="17" t="str">
+        <f t="shared" ref="F87:F90" si="59">H87&amp;I87</f>
+        <v>1향</v>
+      </c>
+      <c r="G87" s="17">
+        <f t="shared" ref="G87:G90" si="60">H87*J87</f>
+        <v>9.9999999999999995E+195</v>
+      </c>
+      <c r="H87" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I87" s="16" t="str" cm="1">
+        <f t="array" ref="I87">IF(AND(H86&gt;=100,H87&lt;2),INDEX(O:O,MATCH(I86,O:O,0)+1,0),I86)</f>
+        <v>향</v>
+      </c>
+      <c r="J87" s="16" t="str">
+        <f t="shared" ref="J87:J90" si="61">VLOOKUP(I87,O:R,4,FALSE)</f>
+        <v>1E+196</v>
+      </c>
+      <c r="K87" s="22">
+        <f t="shared" ref="K87:K90" si="62">L87*0.5</f>
+        <v>134750</v>
+      </c>
+      <c r="L87" s="22">
+        <f t="shared" ref="L87:L90" si="63">L86+500+QUOTIENT(E87,15)*1500</f>
+        <v>269500</v>
+      </c>
+    </row>
+    <row r="88" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E88" s="16">
+        <v>79</v>
+      </c>
+      <c r="F88" s="17" t="str">
+        <f t="shared" si="59"/>
+        <v>100향</v>
+      </c>
+      <c r="G88" s="17">
+        <f t="shared" si="60"/>
+        <v>9.9999999999999988E+197</v>
+      </c>
+      <c r="H88" s="17">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I88" s="16" t="str" cm="1">
+        <f t="array" ref="I88">IF(AND(H87&gt;=100,H88&lt;2),INDEX(O:O,MATCH(I87,O:O,0)+1,0),I87)</f>
+        <v>향</v>
+      </c>
+      <c r="J88" s="16" t="str">
+        <f t="shared" si="61"/>
+        <v>1E+196</v>
+      </c>
+      <c r="K88" s="22">
+        <f t="shared" si="62"/>
+        <v>138750</v>
+      </c>
+      <c r="L88" s="22">
+        <f t="shared" si="63"/>
+        <v>277500</v>
+      </c>
+    </row>
+    <row r="89" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E89" s="16">
+        <v>80</v>
+      </c>
+      <c r="F89" s="17" t="str">
+        <f t="shared" si="59"/>
+        <v>1증</v>
+      </c>
+      <c r="G89" s="17">
+        <f t="shared" si="60"/>
+        <v>9.9999999999999997E+199</v>
+      </c>
+      <c r="H89" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I89" s="16" t="str" cm="1">
+        <f t="array" ref="I89">IF(AND(H88&gt;=100,H89&lt;2),INDEX(O:O,MATCH(I88,O:O,0)+1,0),I88)</f>
+        <v>증</v>
+      </c>
+      <c r="J89" s="16" t="str">
+        <f t="shared" si="61"/>
+        <v>1E+200</v>
+      </c>
+      <c r="K89" s="22">
+        <f t="shared" si="62"/>
+        <v>142750</v>
+      </c>
+      <c r="L89" s="22">
+        <f t="shared" si="63"/>
+        <v>285500</v>
+      </c>
+    </row>
+    <row r="90" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E90" s="16">
+        <v>81</v>
+      </c>
+      <c r="F90" s="17" t="str">
+        <f t="shared" si="59"/>
+        <v>100증</v>
+      </c>
+      <c r="G90" s="17">
+        <f t="shared" si="60"/>
+        <v>9.999999999999999E+201</v>
+      </c>
+      <c r="H90" s="17">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I90" s="16" t="str" cm="1">
+        <f t="array" ref="I90">IF(AND(H89&gt;=100,H90&lt;2),INDEX(O:O,MATCH(I89,O:O,0)+1,0),I89)</f>
+        <v>증</v>
+      </c>
+      <c r="J90" s="16" t="str">
+        <f t="shared" si="61"/>
+        <v>1E+200</v>
+      </c>
+      <c r="K90" s="22">
+        <f t="shared" si="62"/>
+        <v>146750</v>
+      </c>
+      <c r="L90" s="22">
+        <f t="shared" si="63"/>
+        <v>293500</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MeditationTower.xlsx
+++ b/Assets/06.Table/MeditationTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506734BA-513B-4473-85A1-DD82CC17DC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CD2627-2A7A-45F5-AC8A-4140601CE180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="85">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -387,6 +387,14 @@
   </si>
   <si>
     <t>증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -982,12 +990,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O83"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K78" sqref="K78"/>
-      <selection pane="bottomLeft" activeCell="K79" sqref="K79"/>
+      <selection pane="bottomLeft" activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4560,7 +4568,7 @@
         <v>192000</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:G83" si="65">G68</f>
+        <f t="shared" ref="G69:G85" si="65">G68</f>
         <v>1</v>
       </c>
       <c r="H69" s="2">
@@ -4583,7 +4591,7 @@
         <v>57</v>
       </c>
       <c r="M69">
-        <f t="shared" ref="M69:M83" si="67">M68+200</f>
+        <f t="shared" ref="M69:M85" si="67">M68+200</f>
         <v>15400</v>
       </c>
     </row>
@@ -5072,7 +5080,7 @@
         <v>130750</v>
       </c>
       <c r="E79">
-        <f t="shared" ref="E79:E83" si="86">E78</f>
+        <f t="shared" ref="E79:E85" si="86">E78</f>
         <v>9043</v>
       </c>
       <c r="F79">
@@ -5315,9 +5323,113 @@
         <v>18200</v>
       </c>
     </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="str">
+        <f t="shared" ref="B84:C84" si="96">B83</f>
+        <v>1-1</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="96"/>
+        <v>9043</v>
+      </c>
+      <c r="D84">
+        <f>VLOOKUP(A84,Balance!E:K,7,FALSE)</f>
+        <v>150750</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F84">
+        <f>VLOOKUP(A84,Balance!E:L,8,)</f>
+        <v>301500</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H84" s="2">
+        <f>VLOOKUP(A84,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999999E+203</v>
+      </c>
+      <c r="I84">
+        <f t="shared" ref="I84:K84" si="97">I83</f>
+        <v>1000</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="97"/>
+        <v>8</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="L84" t="s">
+        <v>57</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="67"/>
+        <v>18400</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1" t="str">
+        <f t="shared" ref="B85:C85" si="98">B84</f>
+        <v>1-1</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="98"/>
+        <v>9043</v>
+      </c>
+      <c r="D85">
+        <f>VLOOKUP(A85,Balance!E:K,7,FALSE)</f>
+        <v>154750</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F85">
+        <f>VLOOKUP(A85,Balance!E:L,8,)</f>
+        <v>309500</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H85" s="2">
+        <f>VLOOKUP(A85,Balance!E:K,3,FALSE)</f>
+        <v>1E+206</v>
+      </c>
+      <c r="I85">
+        <f t="shared" ref="I85:K85" si="99">I84</f>
+        <v>1000</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="99"/>
+        <v>8</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="L85" t="s">
+        <v>57</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="67"/>
+        <v>18600</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 A2:E83 G13:M83">
+  <conditionalFormatting sqref="G2:N12 A2:E85 G13:M85">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -5329,10 +5441,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:AA90"/>
+  <dimension ref="A1:AA92"/>
   <sheetViews>
-    <sheetView topLeftCell="B68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I87" sqref="I87"/>
+    <sheetView topLeftCell="B74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5655,7 +5767,7 @@
         <v>1.0000000000000001E+46</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" ref="H12:H90" si="5">H10</f>
+        <f t="shared" ref="H12:H92" si="5">H10</f>
         <v>100</v>
       </c>
       <c r="I12" s="16" t="str" cm="1">
@@ -8260,8 +8372,20 @@
         <v>49</v>
       </c>
       <c r="N58" s="22"/>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
+      <c r="O58" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="P58" s="16">
+        <v>204</v>
+      </c>
+      <c r="Q58" s="17">
+        <f t="shared" ref="Q58:Q59" si="33">POWER(10,P58)</f>
+        <v>9.9999999999999999E+203</v>
+      </c>
+      <c r="R58" s="17" t="str">
+        <f t="shared" ref="R58:R59" si="34">RIGHT(Q58,P58)</f>
+        <v>1E+204</v>
+      </c>
       <c r="S58" s="11"/>
       <c r="T58" s="11"/>
       <c r="U58" s="11"/>
@@ -8308,8 +8432,20 @@
         <v>50</v>
       </c>
       <c r="N59" s="22"/>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11"/>
+      <c r="O59" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="P59" s="16">
+        <v>208</v>
+      </c>
+      <c r="Q59" s="17">
+        <f t="shared" si="33"/>
+        <v>9.9999999999999998E+207</v>
+      </c>
+      <c r="R59" s="17" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+208</v>
+      </c>
       <c r="S59" s="11"/>
       <c r="T59" s="11"/>
       <c r="U59" s="11"/>
@@ -8735,7 +8871,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" ref="F69" si="33">H69&amp;I69</f>
+        <f t="shared" ref="F69" si="35">H69&amp;I69</f>
         <v>1단</v>
       </c>
       <c r="G69" s="17">
@@ -8776,7 +8912,7 @@
         <v>100단</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" ref="G70:G72" si="34">H70*J70</f>
+        <f t="shared" ref="G70:G72" si="36">H70*J70</f>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="H70" s="17">
@@ -8788,15 +8924,15 @@
         <v>단</v>
       </c>
       <c r="J70" s="16" t="str">
-        <f t="shared" ref="J70:J72" si="35">VLOOKUP(I70,O:R,4,FALSE)</f>
+        <f t="shared" ref="J70:J72" si="37">VLOOKUP(I70,O:R,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K70" s="22">
-        <f t="shared" ref="K70:K72" si="36">L70*0.5</f>
+        <f t="shared" ref="K70:K72" si="38">L70*0.5</f>
         <v>76500</v>
       </c>
       <c r="L70" s="22">
-        <f t="shared" ref="L70:L72" si="37">L69+500+QUOTIENT(E70,15)*1500</f>
+        <f t="shared" ref="L70:L72" si="39">L69+500+QUOTIENT(E70,15)*1500</f>
         <v>153000</v>
       </c>
     </row>
@@ -8805,11 +8941,11 @@
         <v>62</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" ref="F71:F72" si="38">H71&amp;I71</f>
+        <f t="shared" ref="F71:F72" si="40">H71&amp;I71</f>
         <v>1절</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+164</v>
       </c>
       <c r="H71" s="17">
@@ -8821,15 +8957,15 @@
         <v>절</v>
       </c>
       <c r="J71" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+164</v>
       </c>
       <c r="K71" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>79750</v>
       </c>
       <c r="L71" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>159500</v>
       </c>
     </row>
@@ -8838,11 +8974,11 @@
         <v>63</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100절</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="H72" s="17">
@@ -8854,15 +8990,15 @@
         <v>절</v>
       </c>
       <c r="J72" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+164</v>
       </c>
       <c r="K72" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>83000</v>
       </c>
       <c r="L72" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>166000</v>
       </c>
     </row>
@@ -8871,11 +9007,11 @@
         <v>64</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F75" si="39">H73&amp;I73</f>
+        <f t="shared" ref="F73:F75" si="41">H73&amp;I73</f>
         <v>1격</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G75" si="40">H73*J73</f>
+        <f t="shared" ref="G73:G75" si="42">H73*J73</f>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="H73" s="17">
@@ -8887,15 +9023,15 @@
         <v>격</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J75" si="41">VLOOKUP(I73,O:R,4,FALSE)</f>
+        <f t="shared" ref="J73:J75" si="43">VLOOKUP(I73,O:R,4,FALSE)</f>
         <v>1E+168</v>
       </c>
       <c r="K73" s="22">
-        <f t="shared" ref="K73:K75" si="42">L73*0.5</f>
+        <f t="shared" ref="K73:K75" si="44">L73*0.5</f>
         <v>86250</v>
       </c>
       <c r="L73" s="22">
-        <f t="shared" ref="L73:L75" si="43">L72+500+QUOTIENT(E73,15)*1500</f>
+        <f t="shared" ref="L73:L75" si="45">L72+500+QUOTIENT(E73,15)*1500</f>
         <v>172500</v>
       </c>
     </row>
@@ -8904,11 +9040,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100격</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="H74" s="17">
@@ -8920,15 +9056,15 @@
         <v>격</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+168</v>
       </c>
       <c r="K74" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>89500</v>
       </c>
       <c r="L74" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>179000</v>
       </c>
     </row>
@@ -8937,11 +9073,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1창</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="H75" s="17">
@@ -8953,15 +9089,15 @@
         <v>창</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+172</v>
       </c>
       <c r="K75" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>92750</v>
       </c>
       <c r="L75" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>185500</v>
       </c>
     </row>
@@ -8970,11 +9106,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" ref="F76:F80" si="44">H76&amp;I76</f>
+        <f t="shared" ref="F76:F80" si="46">H76&amp;I76</f>
         <v>100창</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" ref="G76:G80" si="45">H76*J76</f>
+        <f t="shared" ref="G76:G80" si="47">H76*J76</f>
         <v>1.0000000000000001E+174</v>
       </c>
       <c r="H76" s="17">
@@ -8986,15 +9122,15 @@
         <v>창</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" ref="J76:J80" si="46">VLOOKUP(I76,O:R,4,FALSE)</f>
+        <f t="shared" ref="J76:J80" si="48">VLOOKUP(I76,O:R,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K76" s="22">
-        <f t="shared" ref="K76:K80" si="47">L76*0.5</f>
+        <f t="shared" ref="K76:K80" si="49">L76*0.5</f>
         <v>96000</v>
       </c>
       <c r="L76" s="22">
-        <f t="shared" ref="L76:L80" si="48">L75+500+QUOTIENT(E76,15)*1500</f>
+        <f t="shared" ref="L76:L80" si="50">L75+500+QUOTIENT(E76,15)*1500</f>
         <v>192000</v>
       </c>
     </row>
@@ -9003,11 +9139,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1공</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+176</v>
       </c>
       <c r="H77" s="17">
@@ -9019,15 +9155,15 @@
         <v>공</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+176</v>
       </c>
       <c r="K77" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>99250</v>
       </c>
       <c r="L77" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>198500</v>
       </c>
     </row>
@@ -9036,11 +9172,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>100공</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.0000000000000001E+178</v>
       </c>
       <c r="H78" s="17">
@@ -9052,15 +9188,15 @@
         <v>공</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+176</v>
       </c>
       <c r="K78" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>102500</v>
       </c>
       <c r="L78" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>205000</v>
       </c>
     </row>
@@ -9069,11 +9205,11 @@
         <v>70</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1채</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+180</v>
       </c>
       <c r="H79" s="17">
@@ -9085,15 +9221,15 @@
         <v>채</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+180</v>
       </c>
       <c r="K79" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>105750</v>
       </c>
       <c r="L79" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>211500</v>
       </c>
     </row>
@@ -9102,11 +9238,11 @@
         <v>71</v>
       </c>
       <c r="F80" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>100채</v>
       </c>
       <c r="G80" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.0000000000000001E+182</v>
       </c>
       <c r="H80" s="17">
@@ -9118,15 +9254,15 @@
         <v>채</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+180</v>
       </c>
       <c r="K80" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>109000</v>
       </c>
       <c r="L80" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>218000</v>
       </c>
     </row>
@@ -9135,11 +9271,11 @@
         <v>72</v>
       </c>
       <c r="F81" s="17" t="str">
-        <f t="shared" ref="F81:F82" si="49">H81&amp;I81</f>
+        <f t="shared" ref="F81:F82" si="51">H81&amp;I81</f>
         <v>1피</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" ref="G81:G82" si="50">H81*J81</f>
+        <f t="shared" ref="G81:G82" si="52">H81*J81</f>
         <v>1E+184</v>
       </c>
       <c r="H81" s="17">
@@ -9151,15 +9287,15 @@
         <v>피</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" ref="J81:J82" si="51">VLOOKUP(I81,O:R,4,FALSE)</f>
+        <f t="shared" ref="J81:J82" si="53">VLOOKUP(I81,O:R,4,FALSE)</f>
         <v>1E+184</v>
       </c>
       <c r="K81" s="22">
-        <f t="shared" ref="K81:K82" si="52">L81*0.5</f>
+        <f t="shared" ref="K81:K82" si="54">L81*0.5</f>
         <v>112250</v>
       </c>
       <c r="L81" s="22">
-        <f t="shared" ref="L81:L82" si="53">L80+500+QUOTIENT(E81,15)*1500</f>
+        <f t="shared" ref="L81:L82" si="55">L80+500+QUOTIENT(E81,15)*1500</f>
         <v>224500</v>
       </c>
     </row>
@@ -9168,11 +9304,11 @@
         <v>73</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>100피</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>9.9999999999999998E+185</v>
       </c>
       <c r="H82" s="17">
@@ -9184,15 +9320,15 @@
         <v>피</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+184</v>
       </c>
       <c r="K82" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>115500</v>
       </c>
       <c r="L82" s="22">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>231000</v>
       </c>
     </row>
@@ -9201,11 +9337,11 @@
         <v>74</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" ref="F83:F86" si="54">H83&amp;I83</f>
+        <f t="shared" ref="F83:F86" si="56">H83&amp;I83</f>
         <v>1동</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" ref="G83:G86" si="55">H83*J83</f>
+        <f t="shared" ref="G83:G86" si="57">H83*J83</f>
         <v>1E+188</v>
       </c>
       <c r="H83" s="17">
@@ -9217,15 +9353,15 @@
         <v>동</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" ref="J83:J86" si="56">VLOOKUP(I83,O:R,4,FALSE)</f>
+        <f t="shared" ref="J83:J86" si="58">VLOOKUP(I83,O:R,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K83" s="22">
-        <f t="shared" ref="K83:K86" si="57">L83*0.5</f>
+        <f t="shared" ref="K83:K86" si="59">L83*0.5</f>
         <v>118750</v>
       </c>
       <c r="L83" s="22">
-        <f t="shared" ref="L83:L86" si="58">L82+500+QUOTIENT(E83,15)*1500</f>
+        <f t="shared" ref="L83:L86" si="60">L82+500+QUOTIENT(E83,15)*1500</f>
         <v>237500</v>
       </c>
     </row>
@@ -9234,11 +9370,11 @@
         <v>75</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>100동</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1.0000000000000001E+190</v>
       </c>
       <c r="H84" s="17">
@@ -9250,15 +9386,15 @@
         <v>동</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+188</v>
       </c>
       <c r="K84" s="22">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>122750</v>
       </c>
       <c r="L84" s="22">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>245500</v>
       </c>
     </row>
@@ -9267,11 +9403,11 @@
         <v>76</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1멸</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1E+192</v>
       </c>
       <c r="H85" s="17">
@@ -9283,15 +9419,15 @@
         <v>멸</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+192</v>
       </c>
       <c r="K85" s="22">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>126750</v>
       </c>
       <c r="L85" s="22">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>253500</v>
       </c>
     </row>
@@ -9300,11 +9436,11 @@
         <v>77</v>
       </c>
       <c r="F86" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>100멸</v>
       </c>
       <c r="G86" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1.0000000000000001E+194</v>
       </c>
       <c r="H86" s="17">
@@ -9316,15 +9452,15 @@
         <v>멸</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+192</v>
       </c>
       <c r="K86" s="22">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>130750</v>
       </c>
       <c r="L86" s="22">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>261500</v>
       </c>
     </row>
@@ -9333,11 +9469,11 @@
         <v>78</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" ref="F87:F90" si="59">H87&amp;I87</f>
+        <f t="shared" ref="F87:F90" si="61">H87&amp;I87</f>
         <v>1향</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" ref="G87:G90" si="60">H87*J87</f>
+        <f t="shared" ref="G87:G90" si="62">H87*J87</f>
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="H87" s="17">
@@ -9349,15 +9485,15 @@
         <v>향</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" ref="J87:J90" si="61">VLOOKUP(I87,O:R,4,FALSE)</f>
+        <f t="shared" ref="J87:J90" si="63">VLOOKUP(I87,O:R,4,FALSE)</f>
         <v>1E+196</v>
       </c>
       <c r="K87" s="22">
-        <f t="shared" ref="K87:K90" si="62">L87*0.5</f>
+        <f t="shared" ref="K87:K90" si="64">L87*0.5</f>
         <v>134750</v>
       </c>
       <c r="L87" s="22">
-        <f t="shared" ref="L87:L90" si="63">L86+500+QUOTIENT(E87,15)*1500</f>
+        <f t="shared" ref="L87:L90" si="65">L86+500+QUOTIENT(E87,15)*1500</f>
         <v>269500</v>
       </c>
     </row>
@@ -9366,11 +9502,11 @@
         <v>79</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>100향</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>9.9999999999999988E+197</v>
       </c>
       <c r="H88" s="17">
@@ -9382,15 +9518,15 @@
         <v>향</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1E+196</v>
       </c>
       <c r="K88" s="22">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>138750</v>
       </c>
       <c r="L88" s="22">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>277500</v>
       </c>
     </row>
@@ -9399,11 +9535,11 @@
         <v>80</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1증</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>9.9999999999999997E+199</v>
       </c>
       <c r="H89" s="17">
@@ -9415,15 +9551,15 @@
         <v>증</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1E+200</v>
       </c>
       <c r="K89" s="22">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>142750</v>
       </c>
       <c r="L89" s="22">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>285500</v>
       </c>
     </row>
@@ -9432,11 +9568,11 @@
         <v>81</v>
       </c>
       <c r="F90" s="17" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>100증</v>
       </c>
       <c r="G90" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>9.999999999999999E+201</v>
       </c>
       <c r="H90" s="17">
@@ -9448,16 +9584,82 @@
         <v>증</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1E+200</v>
       </c>
       <c r="K90" s="22">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>146750</v>
       </c>
       <c r="L90" s="22">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>293500</v>
+      </c>
+    </row>
+    <row r="91" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E91" s="16">
+        <v>82</v>
+      </c>
+      <c r="F91" s="17" t="str">
+        <f t="shared" ref="F91:F92" si="66">H91&amp;I91</f>
+        <v>1쾌</v>
+      </c>
+      <c r="G91" s="17">
+        <f t="shared" ref="G91:G92" si="67">H91*J91</f>
+        <v>9.9999999999999999E+203</v>
+      </c>
+      <c r="H91" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I91" s="16" t="str" cm="1">
+        <f t="array" ref="I91">IF(AND(H90&gt;=100,H91&lt;2),INDEX(O:O,MATCH(I90,O:O,0)+1,0),I90)</f>
+        <v>쾌</v>
+      </c>
+      <c r="J91" s="16" t="str">
+        <f t="shared" ref="J91:J92" si="68">VLOOKUP(I91,O:R,4,FALSE)</f>
+        <v>1E+204</v>
+      </c>
+      <c r="K91" s="22">
+        <f t="shared" ref="K91:K92" si="69">L91*0.5</f>
+        <v>150750</v>
+      </c>
+      <c r="L91" s="22">
+        <f t="shared" ref="L91:L92" si="70">L90+500+QUOTIENT(E91,15)*1500</f>
+        <v>301500</v>
+      </c>
+    </row>
+    <row r="92" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E92" s="16">
+        <v>83</v>
+      </c>
+      <c r="F92" s="17" t="str">
+        <f t="shared" si="66"/>
+        <v>100쾌</v>
+      </c>
+      <c r="G92" s="17">
+        <f t="shared" si="67"/>
+        <v>1E+206</v>
+      </c>
+      <c r="H92" s="17">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I92" s="16" t="str" cm="1">
+        <f t="array" ref="I92">IF(AND(H91&gt;=100,H92&lt;2),INDEX(O:O,MATCH(I91,O:O,0)+1,0),I91)</f>
+        <v>쾌</v>
+      </c>
+      <c r="J92" s="16" t="str">
+        <f t="shared" si="68"/>
+        <v>1E+204</v>
+      </c>
+      <c r="K92" s="22">
+        <f t="shared" si="69"/>
+        <v>154750</v>
+      </c>
+      <c r="L92" s="22">
+        <f t="shared" si="70"/>
+        <v>309500</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MeditationTower.xlsx
+++ b/Assets/06.Table/MeditationTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CD2627-2A7A-45F5-AC8A-4140601CE180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56928FBA-C8CE-4EC9-B02A-2D8D033DC4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="86">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,6 +395,10 @@
   </si>
   <si>
     <t>우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -990,12 +994,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O85"/>
+  <dimension ref="A1:O87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K78" sqref="K78"/>
-      <selection pane="bottomLeft" activeCell="I83" sqref="I83"/>
+      <selection pane="bottomLeft" activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4568,7 +4572,7 @@
         <v>192000</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:G85" si="65">G68</f>
+        <f t="shared" ref="G69:G87" si="65">G68</f>
         <v>1</v>
       </c>
       <c r="H69" s="2">
@@ -4591,7 +4595,7 @@
         <v>57</v>
       </c>
       <c r="M69">
-        <f t="shared" ref="M69:M85" si="67">M68+200</f>
+        <f t="shared" ref="M69:M87" si="67">M68+200</f>
         <v>15400</v>
       </c>
     </row>
@@ -5080,7 +5084,7 @@
         <v>130750</v>
       </c>
       <c r="E79">
-        <f t="shared" ref="E79:E85" si="86">E78</f>
+        <f t="shared" ref="E79:E87" si="86">E78</f>
         <v>9043</v>
       </c>
       <c r="F79">
@@ -5427,9 +5431,113 @@
         <v>18600</v>
       </c>
     </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="str">
+        <f t="shared" ref="B86:C86" si="100">B85</f>
+        <v>1-1</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="100"/>
+        <v>9043</v>
+      </c>
+      <c r="D86">
+        <f>VLOOKUP(A86,Balance!E:K,7,FALSE)</f>
+        <v>158750</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F86">
+        <f>VLOOKUP(A86,Balance!E:L,8,)</f>
+        <v>317500</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H86" s="2">
+        <f>VLOOKUP(A86,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999998E+207</v>
+      </c>
+      <c r="I86">
+        <f t="shared" ref="I86:K86" si="101">I85</f>
+        <v>1000</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="101"/>
+        <v>8</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="L86" t="s">
+        <v>57</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="67"/>
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="str">
+        <f t="shared" ref="B87:C87" si="102">B86</f>
+        <v>1-1</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="102"/>
+        <v>9043</v>
+      </c>
+      <c r="D87">
+        <f>VLOOKUP(A87,Balance!E:K,7,FALSE)</f>
+        <v>162750</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F87">
+        <f>VLOOKUP(A87,Balance!E:L,8,)</f>
+        <v>325500</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H87" s="2">
+        <f>VLOOKUP(A87,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999993E+209</v>
+      </c>
+      <c r="I87">
+        <f t="shared" ref="I87:K87" si="103">I86</f>
+        <v>1000</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="103"/>
+        <v>8</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="L87" t="s">
+        <v>57</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="67"/>
+        <v>19000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 A2:E85 G13:M85">
+  <conditionalFormatting sqref="G2:N12 A2:E87 G13:M87">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -5441,10 +5549,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:AA92"/>
+  <dimension ref="A1:AA94"/>
   <sheetViews>
-    <sheetView topLeftCell="B74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I91" sqref="I91"/>
+    <sheetView topLeftCell="B78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5767,7 +5875,7 @@
         <v>1.0000000000000001E+46</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" ref="H12:H92" si="5">H10</f>
+        <f t="shared" ref="H12:H94" si="5">H10</f>
         <v>100</v>
       </c>
       <c r="I12" s="16" t="str" cm="1">
@@ -8492,8 +8600,20 @@
         <v>51</v>
       </c>
       <c r="N60" s="22"/>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="11"/>
+      <c r="O60" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="P60" s="16">
+        <v>212</v>
+      </c>
+      <c r="Q60" s="17">
+        <f t="shared" ref="Q60" si="35">POWER(10,P60)</f>
+        <v>9.9999999999999991E+211</v>
+      </c>
+      <c r="R60" s="17" t="str">
+        <f t="shared" ref="R60" si="36">RIGHT(Q60,P60)</f>
+        <v>1E+212</v>
+      </c>
       <c r="S60" s="11"/>
       <c r="T60" s="11"/>
       <c r="U60" s="11"/>
@@ -8871,7 +8991,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" ref="F69" si="35">H69&amp;I69</f>
+        <f t="shared" ref="F69" si="37">H69&amp;I69</f>
         <v>1단</v>
       </c>
       <c r="G69" s="17">
@@ -8912,7 +9032,7 @@
         <v>100단</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" ref="G70:G72" si="36">H70*J70</f>
+        <f t="shared" ref="G70:G72" si="38">H70*J70</f>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="H70" s="17">
@@ -8924,15 +9044,15 @@
         <v>단</v>
       </c>
       <c r="J70" s="16" t="str">
-        <f t="shared" ref="J70:J72" si="37">VLOOKUP(I70,O:R,4,FALSE)</f>
+        <f t="shared" ref="J70:J72" si="39">VLOOKUP(I70,O:R,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K70" s="22">
-        <f t="shared" ref="K70:K72" si="38">L70*0.5</f>
+        <f t="shared" ref="K70:K72" si="40">L70*0.5</f>
         <v>76500</v>
       </c>
       <c r="L70" s="22">
-        <f t="shared" ref="L70:L72" si="39">L69+500+QUOTIENT(E70,15)*1500</f>
+        <f t="shared" ref="L70:L72" si="41">L69+500+QUOTIENT(E70,15)*1500</f>
         <v>153000</v>
       </c>
     </row>
@@ -8941,11 +9061,11 @@
         <v>62</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" ref="F71:F72" si="40">H71&amp;I71</f>
+        <f t="shared" ref="F71:F72" si="42">H71&amp;I71</f>
         <v>1절</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+164</v>
       </c>
       <c r="H71" s="17">
@@ -8957,15 +9077,15 @@
         <v>절</v>
       </c>
       <c r="J71" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+164</v>
       </c>
       <c r="K71" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>79750</v>
       </c>
       <c r="L71" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>159500</v>
       </c>
     </row>
@@ -8974,11 +9094,11 @@
         <v>63</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100절</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="H72" s="17">
@@ -8990,15 +9110,15 @@
         <v>절</v>
       </c>
       <c r="J72" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+164</v>
       </c>
       <c r="K72" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>83000</v>
       </c>
       <c r="L72" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>166000</v>
       </c>
     </row>
@@ -9007,11 +9127,11 @@
         <v>64</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F75" si="41">H73&amp;I73</f>
+        <f t="shared" ref="F73:F75" si="43">H73&amp;I73</f>
         <v>1격</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G75" si="42">H73*J73</f>
+        <f t="shared" ref="G73:G75" si="44">H73*J73</f>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="H73" s="17">
@@ -9023,15 +9143,15 @@
         <v>격</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J75" si="43">VLOOKUP(I73,O:R,4,FALSE)</f>
+        <f t="shared" ref="J73:J75" si="45">VLOOKUP(I73,O:R,4,FALSE)</f>
         <v>1E+168</v>
       </c>
       <c r="K73" s="22">
-        <f t="shared" ref="K73:K75" si="44">L73*0.5</f>
+        <f t="shared" ref="K73:K75" si="46">L73*0.5</f>
         <v>86250</v>
       </c>
       <c r="L73" s="22">
-        <f t="shared" ref="L73:L75" si="45">L72+500+QUOTIENT(E73,15)*1500</f>
+        <f t="shared" ref="L73:L75" si="47">L72+500+QUOTIENT(E73,15)*1500</f>
         <v>172500</v>
       </c>
     </row>
@@ -9040,11 +9160,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>100격</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="H74" s="17">
@@ -9056,15 +9176,15 @@
         <v>격</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+168</v>
       </c>
       <c r="K74" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>89500</v>
       </c>
       <c r="L74" s="22">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>179000</v>
       </c>
     </row>
@@ -9073,11 +9193,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1창</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="H75" s="17">
@@ -9089,15 +9209,15 @@
         <v>창</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+172</v>
       </c>
       <c r="K75" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>92750</v>
       </c>
       <c r="L75" s="22">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>185500</v>
       </c>
     </row>
@@ -9106,11 +9226,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" ref="F76:F80" si="46">H76&amp;I76</f>
+        <f t="shared" ref="F76:F80" si="48">H76&amp;I76</f>
         <v>100창</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" ref="G76:G80" si="47">H76*J76</f>
+        <f t="shared" ref="G76:G80" si="49">H76*J76</f>
         <v>1.0000000000000001E+174</v>
       </c>
       <c r="H76" s="17">
@@ -9122,15 +9242,15 @@
         <v>창</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" ref="J76:J80" si="48">VLOOKUP(I76,O:R,4,FALSE)</f>
+        <f t="shared" ref="J76:J80" si="50">VLOOKUP(I76,O:R,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K76" s="22">
-        <f t="shared" ref="K76:K80" si="49">L76*0.5</f>
+        <f t="shared" ref="K76:K80" si="51">L76*0.5</f>
         <v>96000</v>
       </c>
       <c r="L76" s="22">
-        <f t="shared" ref="L76:L80" si="50">L75+500+QUOTIENT(E76,15)*1500</f>
+        <f t="shared" ref="L76:L80" si="52">L75+500+QUOTIENT(E76,15)*1500</f>
         <v>192000</v>
       </c>
     </row>
@@ -9139,11 +9259,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1공</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+176</v>
       </c>
       <c r="H77" s="17">
@@ -9155,15 +9275,15 @@
         <v>공</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+176</v>
       </c>
       <c r="K77" s="22">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>99250</v>
       </c>
       <c r="L77" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>198500</v>
       </c>
     </row>
@@ -9172,11 +9292,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>100공</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1.0000000000000001E+178</v>
       </c>
       <c r="H78" s="17">
@@ -9188,15 +9308,15 @@
         <v>공</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+176</v>
       </c>
       <c r="K78" s="22">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>102500</v>
       </c>
       <c r="L78" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>205000</v>
       </c>
     </row>
@@ -9205,11 +9325,11 @@
         <v>70</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1채</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+180</v>
       </c>
       <c r="H79" s="17">
@@ -9221,15 +9341,15 @@
         <v>채</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+180</v>
       </c>
       <c r="K79" s="22">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>105750</v>
       </c>
       <c r="L79" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>211500</v>
       </c>
     </row>
@@ -9238,11 +9358,11 @@
         <v>71</v>
       </c>
       <c r="F80" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>100채</v>
       </c>
       <c r="G80" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1.0000000000000001E+182</v>
       </c>
       <c r="H80" s="17">
@@ -9254,15 +9374,15 @@
         <v>채</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+180</v>
       </c>
       <c r="K80" s="22">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>109000</v>
       </c>
       <c r="L80" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>218000</v>
       </c>
     </row>
@@ -9271,11 +9391,11 @@
         <v>72</v>
       </c>
       <c r="F81" s="17" t="str">
-        <f t="shared" ref="F81:F82" si="51">H81&amp;I81</f>
+        <f t="shared" ref="F81:F82" si="53">H81&amp;I81</f>
         <v>1피</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" ref="G81:G82" si="52">H81*J81</f>
+        <f t="shared" ref="G81:G82" si="54">H81*J81</f>
         <v>1E+184</v>
       </c>
       <c r="H81" s="17">
@@ -9287,15 +9407,15 @@
         <v>피</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" ref="J81:J82" si="53">VLOOKUP(I81,O:R,4,FALSE)</f>
+        <f t="shared" ref="J81:J82" si="55">VLOOKUP(I81,O:R,4,FALSE)</f>
         <v>1E+184</v>
       </c>
       <c r="K81" s="22">
-        <f t="shared" ref="K81:K82" si="54">L81*0.5</f>
+        <f t="shared" ref="K81:K82" si="56">L81*0.5</f>
         <v>112250</v>
       </c>
       <c r="L81" s="22">
-        <f t="shared" ref="L81:L82" si="55">L80+500+QUOTIENT(E81,15)*1500</f>
+        <f t="shared" ref="L81:L82" si="57">L80+500+QUOTIENT(E81,15)*1500</f>
         <v>224500</v>
       </c>
     </row>
@@ -9304,11 +9424,11 @@
         <v>73</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>100피</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>9.9999999999999998E+185</v>
       </c>
       <c r="H82" s="17">
@@ -9320,15 +9440,15 @@
         <v>피</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+184</v>
       </c>
       <c r="K82" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>115500</v>
       </c>
       <c r="L82" s="22">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>231000</v>
       </c>
     </row>
@@ -9337,11 +9457,11 @@
         <v>74</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" ref="F83:F86" si="56">H83&amp;I83</f>
+        <f t="shared" ref="F83:F86" si="58">H83&amp;I83</f>
         <v>1동</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" ref="G83:G86" si="57">H83*J83</f>
+        <f t="shared" ref="G83:G86" si="59">H83*J83</f>
         <v>1E+188</v>
       </c>
       <c r="H83" s="17">
@@ -9353,15 +9473,15 @@
         <v>동</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" ref="J83:J86" si="58">VLOOKUP(I83,O:R,4,FALSE)</f>
+        <f t="shared" ref="J83:J86" si="60">VLOOKUP(I83,O:R,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K83" s="22">
-        <f t="shared" ref="K83:K86" si="59">L83*0.5</f>
+        <f t="shared" ref="K83:K86" si="61">L83*0.5</f>
         <v>118750</v>
       </c>
       <c r="L83" s="22">
-        <f t="shared" ref="L83:L86" si="60">L82+500+QUOTIENT(E83,15)*1500</f>
+        <f t="shared" ref="L83:L86" si="62">L82+500+QUOTIENT(E83,15)*1500</f>
         <v>237500</v>
       </c>
     </row>
@@ -9370,11 +9490,11 @@
         <v>75</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>100동</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1.0000000000000001E+190</v>
       </c>
       <c r="H84" s="17">
@@ -9386,15 +9506,15 @@
         <v>동</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+188</v>
       </c>
       <c r="K84" s="22">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>122750</v>
       </c>
       <c r="L84" s="22">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>245500</v>
       </c>
     </row>
@@ -9403,11 +9523,11 @@
         <v>76</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1멸</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1E+192</v>
       </c>
       <c r="H85" s="17">
@@ -9419,15 +9539,15 @@
         <v>멸</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+192</v>
       </c>
       <c r="K85" s="22">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>126750</v>
       </c>
       <c r="L85" s="22">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>253500</v>
       </c>
     </row>
@@ -9436,11 +9556,11 @@
         <v>77</v>
       </c>
       <c r="F86" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>100멸</v>
       </c>
       <c r="G86" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1.0000000000000001E+194</v>
       </c>
       <c r="H86" s="17">
@@ -9452,15 +9572,15 @@
         <v>멸</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+192</v>
       </c>
       <c r="K86" s="22">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>130750</v>
       </c>
       <c r="L86" s="22">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>261500</v>
       </c>
     </row>
@@ -9469,11 +9589,11 @@
         <v>78</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" ref="F87:F90" si="61">H87&amp;I87</f>
+        <f t="shared" ref="F87:F90" si="63">H87&amp;I87</f>
         <v>1향</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" ref="G87:G90" si="62">H87*J87</f>
+        <f t="shared" ref="G87:G90" si="64">H87*J87</f>
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="H87" s="17">
@@ -9485,15 +9605,15 @@
         <v>향</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" ref="J87:J90" si="63">VLOOKUP(I87,O:R,4,FALSE)</f>
+        <f t="shared" ref="J87:J90" si="65">VLOOKUP(I87,O:R,4,FALSE)</f>
         <v>1E+196</v>
       </c>
       <c r="K87" s="22">
-        <f t="shared" ref="K87:K90" si="64">L87*0.5</f>
+        <f t="shared" ref="K87:K90" si="66">L87*0.5</f>
         <v>134750</v>
       </c>
       <c r="L87" s="22">
-        <f t="shared" ref="L87:L90" si="65">L86+500+QUOTIENT(E87,15)*1500</f>
+        <f t="shared" ref="L87:L90" si="67">L86+500+QUOTIENT(E87,15)*1500</f>
         <v>269500</v>
       </c>
     </row>
@@ -9502,11 +9622,11 @@
         <v>79</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>100향</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>9.9999999999999988E+197</v>
       </c>
       <c r="H88" s="17">
@@ -9518,15 +9638,15 @@
         <v>향</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1E+196</v>
       </c>
       <c r="K88" s="22">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>138750</v>
       </c>
       <c r="L88" s="22">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>277500</v>
       </c>
     </row>
@@ -9535,11 +9655,11 @@
         <v>80</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1증</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>9.9999999999999997E+199</v>
       </c>
       <c r="H89" s="17">
@@ -9551,15 +9671,15 @@
         <v>증</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1E+200</v>
       </c>
       <c r="K89" s="22">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>142750</v>
       </c>
       <c r="L89" s="22">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>285500</v>
       </c>
     </row>
@@ -9568,11 +9688,11 @@
         <v>81</v>
       </c>
       <c r="F90" s="17" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>100증</v>
       </c>
       <c r="G90" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>9.999999999999999E+201</v>
       </c>
       <c r="H90" s="17">
@@ -9584,15 +9704,15 @@
         <v>증</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1E+200</v>
       </c>
       <c r="K90" s="22">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>146750</v>
       </c>
       <c r="L90" s="22">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>293500</v>
       </c>
     </row>
@@ -9601,11 +9721,11 @@
         <v>82</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" ref="F91:F92" si="66">H91&amp;I91</f>
+        <f t="shared" ref="F91:F94" si="68">H91&amp;I91</f>
         <v>1쾌</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" ref="G91:G92" si="67">H91*J91</f>
+        <f t="shared" ref="G91:G94" si="69">H91*J91</f>
         <v>9.9999999999999999E+203</v>
       </c>
       <c r="H91" s="17">
@@ -9617,15 +9737,15 @@
         <v>쾌</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" ref="J91:J92" si="68">VLOOKUP(I91,O:R,4,FALSE)</f>
+        <f t="shared" ref="J91:J94" si="70">VLOOKUP(I91,O:R,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K91" s="22">
-        <f t="shared" ref="K91:K92" si="69">L91*0.5</f>
+        <f t="shared" ref="K91:K94" si="71">L91*0.5</f>
         <v>150750</v>
       </c>
       <c r="L91" s="22">
-        <f t="shared" ref="L91:L92" si="70">L90+500+QUOTIENT(E91,15)*1500</f>
+        <f t="shared" ref="L91:L94" si="72">L90+500+QUOTIENT(E91,15)*1500</f>
         <v>301500</v>
       </c>
     </row>
@@ -9634,11 +9754,11 @@
         <v>83</v>
       </c>
       <c r="F92" s="17" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>100쾌</v>
       </c>
       <c r="G92" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1E+206</v>
       </c>
       <c r="H92" s="17">
@@ -9650,16 +9770,82 @@
         <v>쾌</v>
       </c>
       <c r="J92" s="16" t="str">
+        <f t="shared" si="70"/>
+        <v>1E+204</v>
+      </c>
+      <c r="K92" s="22">
+        <f t="shared" si="71"/>
+        <v>154750</v>
+      </c>
+      <c r="L92" s="22">
+        <f t="shared" si="72"/>
+        <v>309500</v>
+      </c>
+    </row>
+    <row r="93" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E93" s="16">
+        <v>84</v>
+      </c>
+      <c r="F93" s="17" t="str">
         <f t="shared" si="68"/>
-        <v>1E+204</v>
-      </c>
-      <c r="K92" s="22">
+        <v>1우</v>
+      </c>
+      <c r="G93" s="17">
         <f t="shared" si="69"/>
-        <v>154750</v>
-      </c>
-      <c r="L92" s="22">
+        <v>9.9999999999999998E+207</v>
+      </c>
+      <c r="H93" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I93" s="16" t="str" cm="1">
+        <f t="array" ref="I93">IF(AND(H92&gt;=100,H93&lt;2),INDEX(O:O,MATCH(I92,O:O,0)+1,0),I92)</f>
+        <v>우</v>
+      </c>
+      <c r="J93" s="16" t="str">
         <f t="shared" si="70"/>
-        <v>309500</v>
+        <v>1E+208</v>
+      </c>
+      <c r="K93" s="22">
+        <f t="shared" si="71"/>
+        <v>158750</v>
+      </c>
+      <c r="L93" s="22">
+        <f t="shared" si="72"/>
+        <v>317500</v>
+      </c>
+    </row>
+    <row r="94" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E94" s="16">
+        <v>85</v>
+      </c>
+      <c r="F94" s="17" t="str">
+        <f t="shared" si="68"/>
+        <v>100우</v>
+      </c>
+      <c r="G94" s="17">
+        <f t="shared" si="69"/>
+        <v>9.9999999999999993E+209</v>
+      </c>
+      <c r="H94" s="17">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I94" s="16" t="str" cm="1">
+        <f t="array" ref="I94">IF(AND(H93&gt;=100,H94&lt;2),INDEX(O:O,MATCH(I93,O:O,0)+1,0),I93)</f>
+        <v>우</v>
+      </c>
+      <c r="J94" s="16" t="str">
+        <f t="shared" si="70"/>
+        <v>1E+208</v>
+      </c>
+      <c r="K94" s="22">
+        <f t="shared" si="71"/>
+        <v>162750</v>
+      </c>
+      <c r="L94" s="22">
+        <f t="shared" si="72"/>
+        <v>325500</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MeditationTower.xlsx
+++ b/Assets/06.Table/MeditationTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56928FBA-C8CE-4EC9-B02A-2D8D033DC4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB67DC6-E10F-4153-B1EC-932978697F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="88">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -401,6 +401,14 @@
     <t>팽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -698,9 +706,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -738,7 +746,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -844,7 +852,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -986,7 +994,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -994,12 +1002,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O87"/>
+  <dimension ref="A1:O89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K78" sqref="K78"/>
-      <selection pane="bottomLeft" activeCell="I81" sqref="I81"/>
+      <selection pane="bottomLeft" activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4572,7 +4580,7 @@
         <v>192000</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:G87" si="65">G68</f>
+        <f t="shared" ref="G69:G89" si="65">G68</f>
         <v>1</v>
       </c>
       <c r="H69" s="2">
@@ -4595,7 +4603,7 @@
         <v>57</v>
       </c>
       <c r="M69">
-        <f t="shared" ref="M69:M87" si="67">M68+200</f>
+        <f t="shared" ref="M69:M89" si="67">M68+200</f>
         <v>15400</v>
       </c>
     </row>
@@ -5084,7 +5092,7 @@
         <v>130750</v>
       </c>
       <c r="E79">
-        <f t="shared" ref="E79:E87" si="86">E78</f>
+        <f t="shared" ref="E79:E89" si="86">E78</f>
         <v>9043</v>
       </c>
       <c r="F79">
@@ -5535,9 +5543,113 @@
         <v>19000</v>
       </c>
     </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1" t="str">
+        <f t="shared" ref="B88:C88" si="104">B87</f>
+        <v>1-1</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="104"/>
+        <v>9043</v>
+      </c>
+      <c r="D88">
+        <f>VLOOKUP(A88,Balance!E:K,7,FALSE)</f>
+        <v>166750</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F88">
+        <f>VLOOKUP(A88,Balance!E:L,8,)</f>
+        <v>333500</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H88" s="2">
+        <f>VLOOKUP(A88,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999991E+211</v>
+      </c>
+      <c r="I88">
+        <f t="shared" ref="I88:K88" si="105">I87</f>
+        <v>1000</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="105"/>
+        <v>8</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="L88" t="s">
+        <v>57</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="67"/>
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="str">
+        <f t="shared" ref="B89:C89" si="106">B88</f>
+        <v>1-1</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="106"/>
+        <v>9043</v>
+      </c>
+      <c r="D89">
+        <f>VLOOKUP(A89,Balance!E:K,7,FALSE)</f>
+        <v>170750</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F89">
+        <f>VLOOKUP(A89,Balance!E:L,8,)</f>
+        <v>341500</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H89" s="2">
+        <f>VLOOKUP(A89,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999995E+213</v>
+      </c>
+      <c r="I89">
+        <f t="shared" ref="I89:K89" si="107">I88</f>
+        <v>1000</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="107"/>
+        <v>8</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="L89" t="s">
+        <v>57</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="67"/>
+        <v>19400</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 A2:E87 G13:M87">
+  <conditionalFormatting sqref="G2:N12 A2:E89 G13:M89">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -5549,10 +5661,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:AA94"/>
+  <dimension ref="A1:AA96"/>
   <sheetViews>
-    <sheetView topLeftCell="B78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K88" sqref="K88"/>
+    <sheetView topLeftCell="D86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5875,7 +5987,7 @@
         <v>1.0000000000000001E+46</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" ref="H12:H94" si="5">H10</f>
+        <f t="shared" ref="H12:H96" si="5">H10</f>
         <v>100</v>
       </c>
       <c r="I12" s="16" t="str" cm="1">
@@ -8660,8 +8772,20 @@
         <v>52</v>
       </c>
       <c r="N61" s="22"/>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11"/>
+      <c r="O61" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="P61" s="16">
+        <v>216</v>
+      </c>
+      <c r="Q61" s="17">
+        <f t="shared" ref="Q61:Q62" si="37">POWER(10,P61)</f>
+        <v>1E+216</v>
+      </c>
+      <c r="R61" s="17" t="str">
+        <f t="shared" ref="R61:R62" si="38">RIGHT(Q61,P61)</f>
+        <v>1E+216</v>
+      </c>
       <c r="S61" s="11"/>
       <c r="T61" s="11"/>
       <c r="U61" s="11"/>
@@ -8708,8 +8832,20 @@
         <v>53</v>
       </c>
       <c r="N62" s="22"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
+      <c r="O62" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="P62" s="16">
+        <v>220</v>
+      </c>
+      <c r="Q62" s="17">
+        <f t="shared" si="37"/>
+        <v>1E+220</v>
+      </c>
+      <c r="R62" s="17" t="str">
+        <f t="shared" si="38"/>
+        <v>1E+220</v>
+      </c>
       <c r="S62" s="11"/>
       <c r="T62" s="11"/>
       <c r="U62" s="11"/>
@@ -8991,7 +9127,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" ref="F69" si="37">H69&amp;I69</f>
+        <f t="shared" ref="F69" si="39">H69&amp;I69</f>
         <v>1단</v>
       </c>
       <c r="G69" s="17">
@@ -9032,7 +9168,7 @@
         <v>100단</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" ref="G70:G72" si="38">H70*J70</f>
+        <f t="shared" ref="G70:G72" si="40">H70*J70</f>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="H70" s="17">
@@ -9044,15 +9180,15 @@
         <v>단</v>
       </c>
       <c r="J70" s="16" t="str">
-        <f t="shared" ref="J70:J72" si="39">VLOOKUP(I70,O:R,4,FALSE)</f>
+        <f t="shared" ref="J70:J72" si="41">VLOOKUP(I70,O:R,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K70" s="22">
-        <f t="shared" ref="K70:K72" si="40">L70*0.5</f>
+        <f t="shared" ref="K70:K72" si="42">L70*0.5</f>
         <v>76500</v>
       </c>
       <c r="L70" s="22">
-        <f t="shared" ref="L70:L72" si="41">L69+500+QUOTIENT(E70,15)*1500</f>
+        <f t="shared" ref="L70:L72" si="43">L69+500+QUOTIENT(E70,15)*1500</f>
         <v>153000</v>
       </c>
     </row>
@@ -9061,11 +9197,11 @@
         <v>62</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" ref="F71:F72" si="42">H71&amp;I71</f>
+        <f t="shared" ref="F71:F72" si="44">H71&amp;I71</f>
         <v>1절</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+164</v>
       </c>
       <c r="H71" s="17">
@@ -9077,15 +9213,15 @@
         <v>절</v>
       </c>
       <c r="J71" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+164</v>
       </c>
       <c r="K71" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>79750</v>
       </c>
       <c r="L71" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>159500</v>
       </c>
     </row>
@@ -9094,11 +9230,11 @@
         <v>63</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100절</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="H72" s="17">
@@ -9110,15 +9246,15 @@
         <v>절</v>
       </c>
       <c r="J72" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+164</v>
       </c>
       <c r="K72" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>83000</v>
       </c>
       <c r="L72" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>166000</v>
       </c>
     </row>
@@ -9127,11 +9263,11 @@
         <v>64</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F75" si="43">H73&amp;I73</f>
+        <f t="shared" ref="F73:F75" si="45">H73&amp;I73</f>
         <v>1격</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G75" si="44">H73*J73</f>
+        <f t="shared" ref="G73:G75" si="46">H73*J73</f>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="H73" s="17">
@@ -9143,15 +9279,15 @@
         <v>격</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J75" si="45">VLOOKUP(I73,O:R,4,FALSE)</f>
+        <f t="shared" ref="J73:J75" si="47">VLOOKUP(I73,O:R,4,FALSE)</f>
         <v>1E+168</v>
       </c>
       <c r="K73" s="22">
-        <f t="shared" ref="K73:K75" si="46">L73*0.5</f>
+        <f t="shared" ref="K73:K75" si="48">L73*0.5</f>
         <v>86250</v>
       </c>
       <c r="L73" s="22">
-        <f t="shared" ref="L73:L75" si="47">L72+500+QUOTIENT(E73,15)*1500</f>
+        <f t="shared" ref="L73:L75" si="49">L72+500+QUOTIENT(E73,15)*1500</f>
         <v>172500</v>
       </c>
     </row>
@@ -9160,11 +9296,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>100격</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="H74" s="17">
@@ -9176,15 +9312,15 @@
         <v>격</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+168</v>
       </c>
       <c r="K74" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>89500</v>
       </c>
       <c r="L74" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>179000</v>
       </c>
     </row>
@@ -9193,11 +9329,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1창</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="H75" s="17">
@@ -9209,15 +9345,15 @@
         <v>창</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+172</v>
       </c>
       <c r="K75" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>92750</v>
       </c>
       <c r="L75" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>185500</v>
       </c>
     </row>
@@ -9226,11 +9362,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" ref="F76:F80" si="48">H76&amp;I76</f>
+        <f t="shared" ref="F76:F80" si="50">H76&amp;I76</f>
         <v>100창</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" ref="G76:G80" si="49">H76*J76</f>
+        <f t="shared" ref="G76:G80" si="51">H76*J76</f>
         <v>1.0000000000000001E+174</v>
       </c>
       <c r="H76" s="17">
@@ -9242,15 +9378,15 @@
         <v>창</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" ref="J76:J80" si="50">VLOOKUP(I76,O:R,4,FALSE)</f>
+        <f t="shared" ref="J76:J80" si="52">VLOOKUP(I76,O:R,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K76" s="22">
-        <f t="shared" ref="K76:K80" si="51">L76*0.5</f>
+        <f t="shared" ref="K76:K80" si="53">L76*0.5</f>
         <v>96000</v>
       </c>
       <c r="L76" s="22">
-        <f t="shared" ref="L76:L80" si="52">L75+500+QUOTIENT(E76,15)*1500</f>
+        <f t="shared" ref="L76:L80" si="54">L75+500+QUOTIENT(E76,15)*1500</f>
         <v>192000</v>
       </c>
     </row>
@@ -9259,11 +9395,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1공</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+176</v>
       </c>
       <c r="H77" s="17">
@@ -9275,15 +9411,15 @@
         <v>공</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+176</v>
       </c>
       <c r="K77" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>99250</v>
       </c>
       <c r="L77" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>198500</v>
       </c>
     </row>
@@ -9292,11 +9428,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>100공</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1.0000000000000001E+178</v>
       </c>
       <c r="H78" s="17">
@@ -9308,15 +9444,15 @@
         <v>공</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+176</v>
       </c>
       <c r="K78" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>102500</v>
       </c>
       <c r="L78" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>205000</v>
       </c>
     </row>
@@ -9325,11 +9461,11 @@
         <v>70</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1채</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+180</v>
       </c>
       <c r="H79" s="17">
@@ -9341,15 +9477,15 @@
         <v>채</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+180</v>
       </c>
       <c r="K79" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>105750</v>
       </c>
       <c r="L79" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>211500</v>
       </c>
     </row>
@@ -9358,11 +9494,11 @@
         <v>71</v>
       </c>
       <c r="F80" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>100채</v>
       </c>
       <c r="G80" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1.0000000000000001E+182</v>
       </c>
       <c r="H80" s="17">
@@ -9374,15 +9510,15 @@
         <v>채</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+180</v>
       </c>
       <c r="K80" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>109000</v>
       </c>
       <c r="L80" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>218000</v>
       </c>
     </row>
@@ -9391,11 +9527,11 @@
         <v>72</v>
       </c>
       <c r="F81" s="17" t="str">
-        <f t="shared" ref="F81:F82" si="53">H81&amp;I81</f>
+        <f t="shared" ref="F81:F82" si="55">H81&amp;I81</f>
         <v>1피</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" ref="G81:G82" si="54">H81*J81</f>
+        <f t="shared" ref="G81:G82" si="56">H81*J81</f>
         <v>1E+184</v>
       </c>
       <c r="H81" s="17">
@@ -9407,15 +9543,15 @@
         <v>피</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" ref="J81:J82" si="55">VLOOKUP(I81,O:R,4,FALSE)</f>
+        <f t="shared" ref="J81:J82" si="57">VLOOKUP(I81,O:R,4,FALSE)</f>
         <v>1E+184</v>
       </c>
       <c r="K81" s="22">
-        <f t="shared" ref="K81:K82" si="56">L81*0.5</f>
+        <f t="shared" ref="K81:K82" si="58">L81*0.5</f>
         <v>112250</v>
       </c>
       <c r="L81" s="22">
-        <f t="shared" ref="L81:L82" si="57">L80+500+QUOTIENT(E81,15)*1500</f>
+        <f t="shared" ref="L81:L82" si="59">L80+500+QUOTIENT(E81,15)*1500</f>
         <v>224500</v>
       </c>
     </row>
@@ -9424,11 +9560,11 @@
         <v>73</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>100피</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>9.9999999999999998E+185</v>
       </c>
       <c r="H82" s="17">
@@ -9440,15 +9576,15 @@
         <v>피</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1E+184</v>
       </c>
       <c r="K82" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>115500</v>
       </c>
       <c r="L82" s="22">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>231000</v>
       </c>
     </row>
@@ -9457,11 +9593,11 @@
         <v>74</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" ref="F83:F86" si="58">H83&amp;I83</f>
+        <f t="shared" ref="F83:F86" si="60">H83&amp;I83</f>
         <v>1동</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" ref="G83:G86" si="59">H83*J83</f>
+        <f t="shared" ref="G83:G86" si="61">H83*J83</f>
         <v>1E+188</v>
       </c>
       <c r="H83" s="17">
@@ -9473,15 +9609,15 @@
         <v>동</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" ref="J83:J86" si="60">VLOOKUP(I83,O:R,4,FALSE)</f>
+        <f t="shared" ref="J83:J86" si="62">VLOOKUP(I83,O:R,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K83" s="22">
-        <f t="shared" ref="K83:K86" si="61">L83*0.5</f>
+        <f t="shared" ref="K83:K86" si="63">L83*0.5</f>
         <v>118750</v>
       </c>
       <c r="L83" s="22">
-        <f t="shared" ref="L83:L86" si="62">L82+500+QUOTIENT(E83,15)*1500</f>
+        <f t="shared" ref="L83:L86" si="64">L82+500+QUOTIENT(E83,15)*1500</f>
         <v>237500</v>
       </c>
     </row>
@@ -9490,11 +9626,11 @@
         <v>75</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>100동</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.0000000000000001E+190</v>
       </c>
       <c r="H84" s="17">
@@ -9506,15 +9642,15 @@
         <v>동</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+188</v>
       </c>
       <c r="K84" s="22">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>122750</v>
       </c>
       <c r="L84" s="22">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>245500</v>
       </c>
     </row>
@@ -9523,11 +9659,11 @@
         <v>76</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1멸</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1E+192</v>
       </c>
       <c r="H85" s="17">
@@ -9539,15 +9675,15 @@
         <v>멸</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+192</v>
       </c>
       <c r="K85" s="22">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>126750</v>
       </c>
       <c r="L85" s="22">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>253500</v>
       </c>
     </row>
@@ -9556,11 +9692,11 @@
         <v>77</v>
       </c>
       <c r="F86" s="17" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>100멸</v>
       </c>
       <c r="G86" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.0000000000000001E+194</v>
       </c>
       <c r="H86" s="17">
@@ -9572,15 +9708,15 @@
         <v>멸</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+192</v>
       </c>
       <c r="K86" s="22">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>130750</v>
       </c>
       <c r="L86" s="22">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>261500</v>
       </c>
     </row>
@@ -9589,11 +9725,11 @@
         <v>78</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" ref="F87:F90" si="63">H87&amp;I87</f>
+        <f t="shared" ref="F87:F90" si="65">H87&amp;I87</f>
         <v>1향</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" ref="G87:G90" si="64">H87*J87</f>
+        <f t="shared" ref="G87:G90" si="66">H87*J87</f>
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="H87" s="17">
@@ -9605,15 +9741,15 @@
         <v>향</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" ref="J87:J90" si="65">VLOOKUP(I87,O:R,4,FALSE)</f>
+        <f t="shared" ref="J87:J90" si="67">VLOOKUP(I87,O:R,4,FALSE)</f>
         <v>1E+196</v>
       </c>
       <c r="K87" s="22">
-        <f t="shared" ref="K87:K90" si="66">L87*0.5</f>
+        <f t="shared" ref="K87:K90" si="68">L87*0.5</f>
         <v>134750</v>
       </c>
       <c r="L87" s="22">
-        <f t="shared" ref="L87:L90" si="67">L86+500+QUOTIENT(E87,15)*1500</f>
+        <f t="shared" ref="L87:L90" si="69">L86+500+QUOTIENT(E87,15)*1500</f>
         <v>269500</v>
       </c>
     </row>
@@ -9622,11 +9758,11 @@
         <v>79</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>100향</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>9.9999999999999988E+197</v>
       </c>
       <c r="H88" s="17">
@@ -9638,15 +9774,15 @@
         <v>향</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1E+196</v>
       </c>
       <c r="K88" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>138750</v>
       </c>
       <c r="L88" s="22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>277500</v>
       </c>
     </row>
@@ -9655,11 +9791,11 @@
         <v>80</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1증</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>9.9999999999999997E+199</v>
       </c>
       <c r="H89" s="17">
@@ -9671,15 +9807,15 @@
         <v>증</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1E+200</v>
       </c>
       <c r="K89" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>142750</v>
       </c>
       <c r="L89" s="22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>285500</v>
       </c>
     </row>
@@ -9688,11 +9824,11 @@
         <v>81</v>
       </c>
       <c r="F90" s="17" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>100증</v>
       </c>
       <c r="G90" s="17">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>9.999999999999999E+201</v>
       </c>
       <c r="H90" s="17">
@@ -9704,15 +9840,15 @@
         <v>증</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1E+200</v>
       </c>
       <c r="K90" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>146750</v>
       </c>
       <c r="L90" s="22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>293500</v>
       </c>
     </row>
@@ -9721,11 +9857,11 @@
         <v>82</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" ref="F91:F94" si="68">H91&amp;I91</f>
+        <f t="shared" ref="F91:F94" si="70">H91&amp;I91</f>
         <v>1쾌</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" ref="G91:G94" si="69">H91*J91</f>
+        <f t="shared" ref="G91:G94" si="71">H91*J91</f>
         <v>9.9999999999999999E+203</v>
       </c>
       <c r="H91" s="17">
@@ -9737,15 +9873,15 @@
         <v>쾌</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" ref="J91:J94" si="70">VLOOKUP(I91,O:R,4,FALSE)</f>
+        <f t="shared" ref="J91:J94" si="72">VLOOKUP(I91,O:R,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K91" s="22">
-        <f t="shared" ref="K91:K94" si="71">L91*0.5</f>
+        <f t="shared" ref="K91:K94" si="73">L91*0.5</f>
         <v>150750</v>
       </c>
       <c r="L91" s="22">
-        <f t="shared" ref="L91:L94" si="72">L90+500+QUOTIENT(E91,15)*1500</f>
+        <f t="shared" ref="L91:L94" si="74">L90+500+QUOTIENT(E91,15)*1500</f>
         <v>301500</v>
       </c>
     </row>
@@ -9754,11 +9890,11 @@
         <v>83</v>
       </c>
       <c r="F92" s="17" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>100쾌</v>
       </c>
       <c r="G92" s="17">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1E+206</v>
       </c>
       <c r="H92" s="17">
@@ -9770,15 +9906,15 @@
         <v>쾌</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1E+204</v>
       </c>
       <c r="K92" s="22">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>154750</v>
       </c>
       <c r="L92" s="22">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>309500</v>
       </c>
     </row>
@@ -9787,11 +9923,11 @@
         <v>84</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1우</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>9.9999999999999998E+207</v>
       </c>
       <c r="H93" s="17">
@@ -9803,15 +9939,15 @@
         <v>우</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1E+208</v>
       </c>
       <c r="K93" s="22">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>158750</v>
       </c>
       <c r="L93" s="22">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>317500</v>
       </c>
     </row>
@@ -9820,11 +9956,11 @@
         <v>85</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>100우</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>9.9999999999999993E+209</v>
       </c>
       <c r="H94" s="17">
@@ -9836,16 +9972,82 @@
         <v>우</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1E+208</v>
       </c>
       <c r="K94" s="22">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>162750</v>
       </c>
       <c r="L94" s="22">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>325500</v>
+      </c>
+    </row>
+    <row r="95" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E95" s="16">
+        <v>86</v>
+      </c>
+      <c r="F95" s="17" t="str">
+        <f t="shared" ref="F95:F96" si="75">H95&amp;I95</f>
+        <v>1팽</v>
+      </c>
+      <c r="G95" s="17">
+        <f t="shared" ref="G95:G96" si="76">H95*J95</f>
+        <v>9.9999999999999991E+211</v>
+      </c>
+      <c r="H95" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I95" s="16" t="str" cm="1">
+        <f t="array" ref="I95">IF(AND(H94&gt;=100,H95&lt;2),INDEX(O:O,MATCH(I94,O:O,0)+1,0),I94)</f>
+        <v>팽</v>
+      </c>
+      <c r="J95" s="16" t="str">
+        <f t="shared" ref="J95:J96" si="77">VLOOKUP(I95,O:R,4,FALSE)</f>
+        <v>1E+212</v>
+      </c>
+      <c r="K95" s="22">
+        <f t="shared" ref="K95:K96" si="78">L95*0.5</f>
+        <v>166750</v>
+      </c>
+      <c r="L95" s="22">
+        <f t="shared" ref="L95:L96" si="79">L94+500+QUOTIENT(E95,15)*1500</f>
+        <v>333500</v>
+      </c>
+    </row>
+    <row r="96" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E96" s="16">
+        <v>87</v>
+      </c>
+      <c r="F96" s="17" t="str">
+        <f t="shared" si="75"/>
+        <v>100팽</v>
+      </c>
+      <c r="G96" s="17">
+        <f t="shared" si="76"/>
+        <v>9.9999999999999995E+213</v>
+      </c>
+      <c r="H96" s="17">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I96" s="16" t="str" cm="1">
+        <f t="array" ref="I96">IF(AND(H95&gt;=100,H96&lt;2),INDEX(O:O,MATCH(I95,O:O,0)+1,0),I95)</f>
+        <v>팽</v>
+      </c>
+      <c r="J96" s="16" t="str">
+        <f t="shared" si="77"/>
+        <v>1E+212</v>
+      </c>
+      <c r="K96" s="22">
+        <f t="shared" si="78"/>
+        <v>170750</v>
+      </c>
+      <c r="L96" s="22">
+        <f t="shared" si="79"/>
+        <v>341500</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MeditationTower.xlsx
+++ b/Assets/06.Table/MeditationTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB67DC6-E10F-4153-B1EC-932978697F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4763578-A601-460A-B3AF-7B62F3CBD0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="90">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -407,6 +407,14 @@
   </si>
   <si>
     <t>한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1002,12 +1010,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O89"/>
+  <dimension ref="A1:O93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K78" sqref="K78"/>
-      <selection pane="bottomLeft" activeCell="I84" sqref="I84"/>
+      <selection pane="bottomLeft" activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4580,7 +4588,7 @@
         <v>192000</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:G89" si="65">G68</f>
+        <f t="shared" ref="G69:G93" si="65">G68</f>
         <v>1</v>
       </c>
       <c r="H69" s="2">
@@ -4603,7 +4611,7 @@
         <v>57</v>
       </c>
       <c r="M69">
-        <f t="shared" ref="M69:M89" si="67">M68+200</f>
+        <f t="shared" ref="M69:M93" si="67">M68+200</f>
         <v>15400</v>
       </c>
     </row>
@@ -5092,7 +5100,7 @@
         <v>130750</v>
       </c>
       <c r="E79">
-        <f t="shared" ref="E79:E89" si="86">E78</f>
+        <f t="shared" ref="E79:E93" si="86">E78</f>
         <v>9043</v>
       </c>
       <c r="F79">
@@ -5647,9 +5655,217 @@
         <v>19400</v>
       </c>
     </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1" t="str">
+        <f t="shared" ref="B90:C90" si="108">B89</f>
+        <v>1-1</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="108"/>
+        <v>9043</v>
+      </c>
+      <c r="D90">
+        <f>VLOOKUP(A90,Balance!E:K,7,FALSE)</f>
+        <v>174750</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F90">
+        <f>VLOOKUP(A90,Balance!E:L,8,)</f>
+        <v>349500</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H90" s="2">
+        <f>VLOOKUP(A90,Balance!E:K,3,FALSE)</f>
+        <v>1E+216</v>
+      </c>
+      <c r="I90">
+        <f t="shared" ref="I90:K90" si="109">I89</f>
+        <v>1000</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="109"/>
+        <v>8</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="L90" t="s">
+        <v>57</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="67"/>
+        <v>19600</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="str">
+        <f t="shared" ref="B91:C91" si="110">B90</f>
+        <v>1-1</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="110"/>
+        <v>9043</v>
+      </c>
+      <c r="D91">
+        <f>VLOOKUP(A91,Balance!E:K,7,FALSE)</f>
+        <v>178750</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F91">
+        <f>VLOOKUP(A91,Balance!E:L,8,)</f>
+        <v>357500</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H91" s="2">
+        <f>VLOOKUP(A91,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+218</v>
+      </c>
+      <c r="I91">
+        <f t="shared" ref="I91:K91" si="111">I90</f>
+        <v>1000</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="111"/>
+        <v>8</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="L91" t="s">
+        <v>57</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="67"/>
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="str">
+        <f t="shared" ref="B92:C92" si="112">B91</f>
+        <v>1-1</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="112"/>
+        <v>9043</v>
+      </c>
+      <c r="D92">
+        <f>VLOOKUP(A92,Balance!E:K,7,FALSE)</f>
+        <v>183500</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F92">
+        <f>VLOOKUP(A92,Balance!E:L,8,)</f>
+        <v>367000</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H92" s="2">
+        <f>VLOOKUP(A92,Balance!E:K,3,FALSE)</f>
+        <v>1E+220</v>
+      </c>
+      <c r="I92">
+        <f t="shared" ref="I92:K92" si="113">I91</f>
+        <v>1000</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="113"/>
+        <v>8</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="L92" t="s">
+        <v>57</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="67"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="str">
+        <f t="shared" ref="B93:C93" si="114">B92</f>
+        <v>1-1</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="114"/>
+        <v>9043</v>
+      </c>
+      <c r="D93">
+        <f>VLOOKUP(A93,Balance!E:K,7,FALSE)</f>
+        <v>188250</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F93">
+        <f>VLOOKUP(A93,Balance!E:L,8,)</f>
+        <v>376500</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H93" s="2">
+        <f>VLOOKUP(A93,Balance!E:K,3,FALSE)</f>
+        <v>1E+222</v>
+      </c>
+      <c r="I93">
+        <f t="shared" ref="I93:K93" si="115">I92</f>
+        <v>1000</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="115"/>
+        <v>8</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="L93" t="s">
+        <v>57</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="67"/>
+        <v>20200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 A2:E89 G13:M89">
+  <conditionalFormatting sqref="G2:N12 A2:E93 G13:M93">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -5661,10 +5877,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:AA96"/>
+  <dimension ref="A1:AA100"/>
   <sheetViews>
-    <sheetView topLeftCell="D86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K95" sqref="K95"/>
+    <sheetView topLeftCell="D74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5987,7 +6203,7 @@
         <v>1.0000000000000001E+46</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" ref="H12:H96" si="5">H10</f>
+        <f t="shared" ref="H12:H100" si="5">H10</f>
         <v>100</v>
       </c>
       <c r="I12" s="16" t="str" cm="1">
@@ -8892,8 +9108,20 @@
         <v>54</v>
       </c>
       <c r="N63" s="22"/>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11"/>
+      <c r="O63" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P63" s="16">
+        <v>224</v>
+      </c>
+      <c r="Q63" s="17">
+        <f t="shared" ref="Q63:Q64" si="39">POWER(10,P63)</f>
+        <v>9.9999999999999997E+223</v>
+      </c>
+      <c r="R63" s="17" t="str">
+        <f t="shared" ref="R63:R64" si="40">RIGHT(Q63,P63)</f>
+        <v>1E+224</v>
+      </c>
       <c r="S63" s="11"/>
       <c r="T63" s="11"/>
       <c r="U63" s="11"/>
@@ -8940,8 +9168,20 @@
         <v>55</v>
       </c>
       <c r="N64" s="22"/>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11"/>
+      <c r="O64" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="P64" s="16">
+        <v>228</v>
+      </c>
+      <c r="Q64" s="17">
+        <f t="shared" si="39"/>
+        <v>9.9999999999999992E+227</v>
+      </c>
+      <c r="R64" s="17" t="str">
+        <f t="shared" si="40"/>
+        <v>1E+228</v>
+      </c>
       <c r="S64" s="11"/>
       <c r="T64" s="11"/>
       <c r="U64" s="11"/>
@@ -9127,7 +9367,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" ref="F69" si="39">H69&amp;I69</f>
+        <f t="shared" ref="F69" si="41">H69&amp;I69</f>
         <v>1단</v>
       </c>
       <c r="G69" s="17">
@@ -9168,7 +9408,7 @@
         <v>100단</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" ref="G70:G72" si="40">H70*J70</f>
+        <f t="shared" ref="G70:G72" si="42">H70*J70</f>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="H70" s="17">
@@ -9180,15 +9420,15 @@
         <v>단</v>
       </c>
       <c r="J70" s="16" t="str">
-        <f t="shared" ref="J70:J72" si="41">VLOOKUP(I70,O:R,4,FALSE)</f>
+        <f t="shared" ref="J70:J72" si="43">VLOOKUP(I70,O:R,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K70" s="22">
-        <f t="shared" ref="K70:K72" si="42">L70*0.5</f>
+        <f t="shared" ref="K70:K72" si="44">L70*0.5</f>
         <v>76500</v>
       </c>
       <c r="L70" s="22">
-        <f t="shared" ref="L70:L72" si="43">L69+500+QUOTIENT(E70,15)*1500</f>
+        <f t="shared" ref="L70:L72" si="45">L69+500+QUOTIENT(E70,15)*1500</f>
         <v>153000</v>
       </c>
     </row>
@@ -9197,11 +9437,11 @@
         <v>62</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" ref="F71:F72" si="44">H71&amp;I71</f>
+        <f t="shared" ref="F71:F72" si="46">H71&amp;I71</f>
         <v>1절</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+164</v>
       </c>
       <c r="H71" s="17">
@@ -9213,15 +9453,15 @@
         <v>절</v>
       </c>
       <c r="J71" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+164</v>
       </c>
       <c r="K71" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>79750</v>
       </c>
       <c r="L71" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>159500</v>
       </c>
     </row>
@@ -9230,11 +9470,11 @@
         <v>63</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>100절</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="H72" s="17">
@@ -9246,15 +9486,15 @@
         <v>절</v>
       </c>
       <c r="J72" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+164</v>
       </c>
       <c r="K72" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>83000</v>
       </c>
       <c r="L72" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>166000</v>
       </c>
     </row>
@@ -9263,11 +9503,11 @@
         <v>64</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F75" si="45">H73&amp;I73</f>
+        <f t="shared" ref="F73:F75" si="47">H73&amp;I73</f>
         <v>1격</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G75" si="46">H73*J73</f>
+        <f t="shared" ref="G73:G75" si="48">H73*J73</f>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="H73" s="17">
@@ -9279,15 +9519,15 @@
         <v>격</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J75" si="47">VLOOKUP(I73,O:R,4,FALSE)</f>
+        <f t="shared" ref="J73:J75" si="49">VLOOKUP(I73,O:R,4,FALSE)</f>
         <v>1E+168</v>
       </c>
       <c r="K73" s="22">
-        <f t="shared" ref="K73:K75" si="48">L73*0.5</f>
+        <f t="shared" ref="K73:K75" si="50">L73*0.5</f>
         <v>86250</v>
       </c>
       <c r="L73" s="22">
-        <f t="shared" ref="L73:L75" si="49">L72+500+QUOTIENT(E73,15)*1500</f>
+        <f t="shared" ref="L73:L75" si="51">L72+500+QUOTIENT(E73,15)*1500</f>
         <v>172500</v>
       </c>
     </row>
@@ -9296,11 +9536,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>100격</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="H74" s="17">
@@ -9312,15 +9552,15 @@
         <v>격</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+168</v>
       </c>
       <c r="K74" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>89500</v>
       </c>
       <c r="L74" s="22">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>179000</v>
       </c>
     </row>
@@ -9329,11 +9569,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1창</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="H75" s="17">
@@ -9345,15 +9585,15 @@
         <v>창</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+172</v>
       </c>
       <c r="K75" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>92750</v>
       </c>
       <c r="L75" s="22">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>185500</v>
       </c>
     </row>
@@ -9362,11 +9602,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" ref="F76:F80" si="50">H76&amp;I76</f>
+        <f t="shared" ref="F76:F80" si="52">H76&amp;I76</f>
         <v>100창</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" ref="G76:G80" si="51">H76*J76</f>
+        <f t="shared" ref="G76:G80" si="53">H76*J76</f>
         <v>1.0000000000000001E+174</v>
       </c>
       <c r="H76" s="17">
@@ -9378,15 +9618,15 @@
         <v>창</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" ref="J76:J80" si="52">VLOOKUP(I76,O:R,4,FALSE)</f>
+        <f t="shared" ref="J76:J80" si="54">VLOOKUP(I76,O:R,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K76" s="22">
-        <f t="shared" ref="K76:K80" si="53">L76*0.5</f>
+        <f t="shared" ref="K76:K80" si="55">L76*0.5</f>
         <v>96000</v>
       </c>
       <c r="L76" s="22">
-        <f t="shared" ref="L76:L80" si="54">L75+500+QUOTIENT(E76,15)*1500</f>
+        <f t="shared" ref="L76:L80" si="56">L75+500+QUOTIENT(E76,15)*1500</f>
         <v>192000</v>
       </c>
     </row>
@@ -9395,11 +9635,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1공</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+176</v>
       </c>
       <c r="H77" s="17">
@@ -9411,15 +9651,15 @@
         <v>공</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+176</v>
       </c>
       <c r="K77" s="22">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>99250</v>
       </c>
       <c r="L77" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>198500</v>
       </c>
     </row>
@@ -9428,11 +9668,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>100공</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1.0000000000000001E+178</v>
       </c>
       <c r="H78" s="17">
@@ -9444,15 +9684,15 @@
         <v>공</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+176</v>
       </c>
       <c r="K78" s="22">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>102500</v>
       </c>
       <c r="L78" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>205000</v>
       </c>
     </row>
@@ -9461,11 +9701,11 @@
         <v>70</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1채</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+180</v>
       </c>
       <c r="H79" s="17">
@@ -9477,15 +9717,15 @@
         <v>채</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+180</v>
       </c>
       <c r="K79" s="22">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>105750</v>
       </c>
       <c r="L79" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>211500</v>
       </c>
     </row>
@@ -9494,11 +9734,11 @@
         <v>71</v>
       </c>
       <c r="F80" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>100채</v>
       </c>
       <c r="G80" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1.0000000000000001E+182</v>
       </c>
       <c r="H80" s="17">
@@ -9510,15 +9750,15 @@
         <v>채</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+180</v>
       </c>
       <c r="K80" s="22">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>109000</v>
       </c>
       <c r="L80" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>218000</v>
       </c>
     </row>
@@ -9527,11 +9767,11 @@
         <v>72</v>
       </c>
       <c r="F81" s="17" t="str">
-        <f t="shared" ref="F81:F82" si="55">H81&amp;I81</f>
+        <f t="shared" ref="F81:F82" si="57">H81&amp;I81</f>
         <v>1피</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" ref="G81:G82" si="56">H81*J81</f>
+        <f t="shared" ref="G81:G82" si="58">H81*J81</f>
         <v>1E+184</v>
       </c>
       <c r="H81" s="17">
@@ -9543,15 +9783,15 @@
         <v>피</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" ref="J81:J82" si="57">VLOOKUP(I81,O:R,4,FALSE)</f>
+        <f t="shared" ref="J81:J82" si="59">VLOOKUP(I81,O:R,4,FALSE)</f>
         <v>1E+184</v>
       </c>
       <c r="K81" s="22">
-        <f t="shared" ref="K81:K82" si="58">L81*0.5</f>
+        <f t="shared" ref="K81:K82" si="60">L81*0.5</f>
         <v>112250</v>
       </c>
       <c r="L81" s="22">
-        <f t="shared" ref="L81:L82" si="59">L80+500+QUOTIENT(E81,15)*1500</f>
+        <f t="shared" ref="L81:L82" si="61">L80+500+QUOTIENT(E81,15)*1500</f>
         <v>224500</v>
       </c>
     </row>
@@ -9560,11 +9800,11 @@
         <v>73</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>100피</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>9.9999999999999998E+185</v>
       </c>
       <c r="H82" s="17">
@@ -9576,15 +9816,15 @@
         <v>피</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1E+184</v>
       </c>
       <c r="K82" s="22">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>115500</v>
       </c>
       <c r="L82" s="22">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>231000</v>
       </c>
     </row>
@@ -9593,11 +9833,11 @@
         <v>74</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" ref="F83:F86" si="60">H83&amp;I83</f>
+        <f t="shared" ref="F83:F86" si="62">H83&amp;I83</f>
         <v>1동</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" ref="G83:G86" si="61">H83*J83</f>
+        <f t="shared" ref="G83:G86" si="63">H83*J83</f>
         <v>1E+188</v>
       </c>
       <c r="H83" s="17">
@@ -9609,15 +9849,15 @@
         <v>동</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" ref="J83:J86" si="62">VLOOKUP(I83,O:R,4,FALSE)</f>
+        <f t="shared" ref="J83:J86" si="64">VLOOKUP(I83,O:R,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K83" s="22">
-        <f t="shared" ref="K83:K86" si="63">L83*0.5</f>
+        <f t="shared" ref="K83:K86" si="65">L83*0.5</f>
         <v>118750</v>
       </c>
       <c r="L83" s="22">
-        <f t="shared" ref="L83:L86" si="64">L82+500+QUOTIENT(E83,15)*1500</f>
+        <f t="shared" ref="L83:L86" si="66">L82+500+QUOTIENT(E83,15)*1500</f>
         <v>237500</v>
       </c>
     </row>
@@ -9626,11 +9866,11 @@
         <v>75</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>100동</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1.0000000000000001E+190</v>
       </c>
       <c r="H84" s="17">
@@ -9642,15 +9882,15 @@
         <v>동</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+188</v>
       </c>
       <c r="K84" s="22">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>122750</v>
       </c>
       <c r="L84" s="22">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>245500</v>
       </c>
     </row>
@@ -9659,11 +9899,11 @@
         <v>76</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1멸</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1E+192</v>
       </c>
       <c r="H85" s="17">
@@ -9675,15 +9915,15 @@
         <v>멸</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+192</v>
       </c>
       <c r="K85" s="22">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>126750</v>
       </c>
       <c r="L85" s="22">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>253500</v>
       </c>
     </row>
@@ -9692,11 +9932,11 @@
         <v>77</v>
       </c>
       <c r="F86" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>100멸</v>
       </c>
       <c r="G86" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1.0000000000000001E+194</v>
       </c>
       <c r="H86" s="17">
@@ -9708,15 +9948,15 @@
         <v>멸</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+192</v>
       </c>
       <c r="K86" s="22">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>130750</v>
       </c>
       <c r="L86" s="22">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>261500</v>
       </c>
     </row>
@@ -9725,11 +9965,11 @@
         <v>78</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" ref="F87:F90" si="65">H87&amp;I87</f>
+        <f t="shared" ref="F87:F90" si="67">H87&amp;I87</f>
         <v>1향</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" ref="G87:G90" si="66">H87*J87</f>
+        <f t="shared" ref="G87:G90" si="68">H87*J87</f>
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="H87" s="17">
@@ -9741,15 +9981,15 @@
         <v>향</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" ref="J87:J90" si="67">VLOOKUP(I87,O:R,4,FALSE)</f>
+        <f t="shared" ref="J87:J90" si="69">VLOOKUP(I87,O:R,4,FALSE)</f>
         <v>1E+196</v>
       </c>
       <c r="K87" s="22">
-        <f t="shared" ref="K87:K90" si="68">L87*0.5</f>
+        <f t="shared" ref="K87:K90" si="70">L87*0.5</f>
         <v>134750</v>
       </c>
       <c r="L87" s="22">
-        <f t="shared" ref="L87:L90" si="69">L86+500+QUOTIENT(E87,15)*1500</f>
+        <f t="shared" ref="L87:L90" si="71">L86+500+QUOTIENT(E87,15)*1500</f>
         <v>269500</v>
       </c>
     </row>
@@ -9758,11 +9998,11 @@
         <v>79</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>100향</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>9.9999999999999988E+197</v>
       </c>
       <c r="H88" s="17">
@@ -9774,15 +10014,15 @@
         <v>향</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1E+196</v>
       </c>
       <c r="K88" s="22">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>138750</v>
       </c>
       <c r="L88" s="22">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>277500</v>
       </c>
     </row>
@@ -9791,11 +10031,11 @@
         <v>80</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1증</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>9.9999999999999997E+199</v>
       </c>
       <c r="H89" s="17">
@@ -9807,15 +10047,15 @@
         <v>증</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1E+200</v>
       </c>
       <c r="K89" s="22">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>142750</v>
       </c>
       <c r="L89" s="22">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>285500</v>
       </c>
     </row>
@@ -9824,11 +10064,11 @@
         <v>81</v>
       </c>
       <c r="F90" s="17" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>100증</v>
       </c>
       <c r="G90" s="17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>9.999999999999999E+201</v>
       </c>
       <c r="H90" s="17">
@@ -9840,15 +10080,15 @@
         <v>증</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1E+200</v>
       </c>
       <c r="K90" s="22">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>146750</v>
       </c>
       <c r="L90" s="22">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>293500</v>
       </c>
     </row>
@@ -9857,11 +10097,11 @@
         <v>82</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" ref="F91:F94" si="70">H91&amp;I91</f>
+        <f t="shared" ref="F91:F94" si="72">H91&amp;I91</f>
         <v>1쾌</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" ref="G91:G94" si="71">H91*J91</f>
+        <f t="shared" ref="G91:G94" si="73">H91*J91</f>
         <v>9.9999999999999999E+203</v>
       </c>
       <c r="H91" s="17">
@@ -9873,15 +10113,15 @@
         <v>쾌</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" ref="J91:J94" si="72">VLOOKUP(I91,O:R,4,FALSE)</f>
+        <f t="shared" ref="J91:J94" si="74">VLOOKUP(I91,O:R,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K91" s="22">
-        <f t="shared" ref="K91:K94" si="73">L91*0.5</f>
+        <f t="shared" ref="K91:K94" si="75">L91*0.5</f>
         <v>150750</v>
       </c>
       <c r="L91" s="22">
-        <f t="shared" ref="L91:L94" si="74">L90+500+QUOTIENT(E91,15)*1500</f>
+        <f t="shared" ref="L91:L94" si="76">L90+500+QUOTIENT(E91,15)*1500</f>
         <v>301500</v>
       </c>
     </row>
@@ -9890,11 +10130,11 @@
         <v>83</v>
       </c>
       <c r="F92" s="17" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>100쾌</v>
       </c>
       <c r="G92" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1E+206</v>
       </c>
       <c r="H92" s="17">
@@ -9906,15 +10146,15 @@
         <v>쾌</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1E+204</v>
       </c>
       <c r="K92" s="22">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>154750</v>
       </c>
       <c r="L92" s="22">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>309500</v>
       </c>
     </row>
@@ -9923,11 +10163,11 @@
         <v>84</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1우</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>9.9999999999999998E+207</v>
       </c>
       <c r="H93" s="17">
@@ -9939,15 +10179,15 @@
         <v>우</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1E+208</v>
       </c>
       <c r="K93" s="22">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>158750</v>
       </c>
       <c r="L93" s="22">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>317500</v>
       </c>
     </row>
@@ -9956,11 +10196,11 @@
         <v>85</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>100우</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>9.9999999999999993E+209</v>
       </c>
       <c r="H94" s="17">
@@ -9972,15 +10212,15 @@
         <v>우</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1E+208</v>
       </c>
       <c r="K94" s="22">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>162750</v>
       </c>
       <c r="L94" s="22">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>325500</v>
       </c>
     </row>
@@ -9989,11 +10229,11 @@
         <v>86</v>
       </c>
       <c r="F95" s="17" t="str">
-        <f t="shared" ref="F95:F96" si="75">H95&amp;I95</f>
+        <f t="shared" ref="F95:F99" si="77">H95&amp;I95</f>
         <v>1팽</v>
       </c>
       <c r="G95" s="17">
-        <f t="shared" ref="G95:G96" si="76">H95*J95</f>
+        <f t="shared" ref="G95:G99" si="78">H95*J95</f>
         <v>9.9999999999999991E+211</v>
       </c>
       <c r="H95" s="17">
@@ -10005,15 +10245,15 @@
         <v>팽</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" ref="J95:J96" si="77">VLOOKUP(I95,O:R,4,FALSE)</f>
+        <f t="shared" ref="J95:J99" si="79">VLOOKUP(I95,O:R,4,FALSE)</f>
         <v>1E+212</v>
       </c>
       <c r="K95" s="22">
-        <f t="shared" ref="K95:K96" si="78">L95*0.5</f>
+        <f t="shared" ref="K95:K99" si="80">L95*0.5</f>
         <v>166750</v>
       </c>
       <c r="L95" s="22">
-        <f t="shared" ref="L95:L96" si="79">L94+500+QUOTIENT(E95,15)*1500</f>
+        <f t="shared" ref="L95:L99" si="81">L94+500+QUOTIENT(E95,15)*1500</f>
         <v>333500</v>
       </c>
     </row>
@@ -10022,11 +10262,11 @@
         <v>87</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>100팽</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>9.9999999999999995E+213</v>
       </c>
       <c r="H96" s="17">
@@ -10038,16 +10278,148 @@
         <v>팽</v>
       </c>
       <c r="J96" s="16" t="str">
+        <f t="shared" si="79"/>
+        <v>1E+212</v>
+      </c>
+      <c r="K96" s="22">
+        <f t="shared" si="80"/>
+        <v>170750</v>
+      </c>
+      <c r="L96" s="22">
+        <f t="shared" si="81"/>
+        <v>341500</v>
+      </c>
+    </row>
+    <row r="97" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E97" s="16">
+        <v>88</v>
+      </c>
+      <c r="F97" s="17" t="str">
         <f t="shared" si="77"/>
-        <v>1E+212</v>
-      </c>
-      <c r="K96" s="22">
+        <v>1관</v>
+      </c>
+      <c r="G97" s="17">
         <f t="shared" si="78"/>
-        <v>170750</v>
-      </c>
-      <c r="L96" s="22">
+        <v>1E+216</v>
+      </c>
+      <c r="H97" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I97" s="16" t="str" cm="1">
+        <f t="array" ref="I97">IF(AND(H96&gt;=100,H97&lt;2),INDEX(O:O,MATCH(I96,O:O,0)+1,0),I96)</f>
+        <v>관</v>
+      </c>
+      <c r="J97" s="16" t="str">
         <f t="shared" si="79"/>
-        <v>341500</v>
+        <v>1E+216</v>
+      </c>
+      <c r="K97" s="22">
+        <f t="shared" si="80"/>
+        <v>174750</v>
+      </c>
+      <c r="L97" s="22">
+        <f t="shared" si="81"/>
+        <v>349500</v>
+      </c>
+    </row>
+    <row r="98" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E98" s="16">
+        <v>89</v>
+      </c>
+      <c r="F98" s="17" t="str">
+        <f t="shared" si="77"/>
+        <v>100관</v>
+      </c>
+      <c r="G98" s="17">
+        <f t="shared" si="78"/>
+        <v>1.0000000000000001E+218</v>
+      </c>
+      <c r="H98" s="17">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I98" s="16" t="str" cm="1">
+        <f t="array" ref="I98">IF(AND(H97&gt;=100,H98&lt;2),INDEX(O:O,MATCH(I97,O:O,0)+1,0),I97)</f>
+        <v>관</v>
+      </c>
+      <c r="J98" s="16" t="str">
+        <f t="shared" si="79"/>
+        <v>1E+216</v>
+      </c>
+      <c r="K98" s="22">
+        <f t="shared" si="80"/>
+        <v>178750</v>
+      </c>
+      <c r="L98" s="22">
+        <f t="shared" si="81"/>
+        <v>357500</v>
+      </c>
+    </row>
+    <row r="99" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E99" s="16">
+        <v>90</v>
+      </c>
+      <c r="F99" s="17" t="str">
+        <f t="shared" si="77"/>
+        <v>1한</v>
+      </c>
+      <c r="G99" s="17">
+        <f t="shared" si="78"/>
+        <v>1E+220</v>
+      </c>
+      <c r="H99" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I99" s="16" t="str" cm="1">
+        <f t="array" ref="I99">IF(AND(H98&gt;=100,H99&lt;2),INDEX(O:O,MATCH(I98,O:O,0)+1,0),I98)</f>
+        <v>한</v>
+      </c>
+      <c r="J99" s="16" t="str">
+        <f t="shared" si="79"/>
+        <v>1E+220</v>
+      </c>
+      <c r="K99" s="22">
+        <f t="shared" si="80"/>
+        <v>183500</v>
+      </c>
+      <c r="L99" s="22">
+        <f t="shared" si="81"/>
+        <v>367000</v>
+      </c>
+    </row>
+    <row r="100" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E100" s="16">
+        <v>91</v>
+      </c>
+      <c r="F100" s="17" t="str">
+        <f t="shared" ref="F100" si="82">H100&amp;I100</f>
+        <v>100한</v>
+      </c>
+      <c r="G100" s="17">
+        <f t="shared" ref="G100" si="83">H100*J100</f>
+        <v>1E+222</v>
+      </c>
+      <c r="H100" s="17">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I100" s="16" t="str" cm="1">
+        <f t="array" ref="I100">IF(AND(H99&gt;=100,H100&lt;2),INDEX(O:O,MATCH(I99,O:O,0)+1,0),I99)</f>
+        <v>한</v>
+      </c>
+      <c r="J100" s="16" t="str">
+        <f t="shared" ref="J100" si="84">VLOOKUP(I100,O:R,4,FALSE)</f>
+        <v>1E+220</v>
+      </c>
+      <c r="K100" s="22">
+        <f t="shared" ref="K100" si="85">L100*0.5</f>
+        <v>188250</v>
+      </c>
+      <c r="L100" s="22">
+        <f t="shared" ref="L100" si="86">L99+500+QUOTIENT(E100,15)*1500</f>
+        <v>376500</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MeditationTower.xlsx
+++ b/Assets/06.Table/MeditationTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4763578-A601-460A-B3AF-7B62F3CBD0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBD8C71-6E95-470F-98BF-A14F4847D4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="90">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1010,12 +1010,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O93"/>
+  <dimension ref="A1:O95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K78" sqref="K78"/>
-      <selection pane="bottomLeft" activeCell="G88" sqref="G88"/>
+      <selection pane="bottomLeft" activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4588,7 +4588,7 @@
         <v>192000</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:G93" si="65">G68</f>
+        <f t="shared" ref="G69:G95" si="65">G68</f>
         <v>1</v>
       </c>
       <c r="H69" s="2">
@@ -4611,7 +4611,7 @@
         <v>57</v>
       </c>
       <c r="M69">
-        <f t="shared" ref="M69:M93" si="67">M68+200</f>
+        <f t="shared" ref="M69:M95" si="67">M68+200</f>
         <v>15400</v>
       </c>
     </row>
@@ -5100,7 +5100,7 @@
         <v>130750</v>
       </c>
       <c r="E79">
-        <f t="shared" ref="E79:E93" si="86">E78</f>
+        <f t="shared" ref="E79:E95" si="86">E78</f>
         <v>9043</v>
       </c>
       <c r="F79">
@@ -5863,9 +5863,113 @@
         <v>20200</v>
       </c>
     </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1" t="str">
+        <f t="shared" ref="B94:C94" si="116">B93</f>
+        <v>1-1</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="116"/>
+        <v>9043</v>
+      </c>
+      <c r="D94">
+        <f>VLOOKUP(A94,Balance!E:K,7,FALSE)</f>
+        <v>193000</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F94">
+        <f>VLOOKUP(A94,Balance!E:L,8,)</f>
+        <v>386000</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H94" s="2">
+        <f>VLOOKUP(A94,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999997E+223</v>
+      </c>
+      <c r="I94">
+        <f t="shared" ref="I94:K94" si="117">I93</f>
+        <v>1000</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="117"/>
+        <v>8</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="L94" t="s">
+        <v>57</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="67"/>
+        <v>20400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1" t="str">
+        <f t="shared" ref="B95:C95" si="118">B94</f>
+        <v>1-1</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="118"/>
+        <v>9043</v>
+      </c>
+      <c r="D95">
+        <f>VLOOKUP(A95,Balance!E:K,7,FALSE)</f>
+        <v>197750</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F95">
+        <f>VLOOKUP(A95,Balance!E:L,8,)</f>
+        <v>395500</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H95" s="2">
+        <f>VLOOKUP(A95,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999996E+225</v>
+      </c>
+      <c r="I95">
+        <f t="shared" ref="I95:K95" si="119">I94</f>
+        <v>1000</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="119"/>
+        <v>8</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="L95" t="s">
+        <v>57</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="67"/>
+        <v>20600</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 A2:E93 G13:M93">
+  <conditionalFormatting sqref="G2:N12 A2:E95 G13:M95">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -5877,10 +5981,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:AA100"/>
+  <dimension ref="A1:AA102"/>
   <sheetViews>
-    <sheetView topLeftCell="D74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K94" sqref="K94"/>
+    <sheetView topLeftCell="D92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L98" sqref="L98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6203,7 +6307,7 @@
         <v>1.0000000000000001E+46</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" ref="H12:H100" si="5">H10</f>
+        <f t="shared" ref="H12:H102" si="5">H10</f>
         <v>100</v>
       </c>
       <c r="I12" s="16" t="str" cm="1">
@@ -10394,11 +10498,11 @@
         <v>91</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" ref="F100" si="82">H100&amp;I100</f>
+        <f t="shared" ref="F100:F102" si="82">H100&amp;I100</f>
         <v>100한</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" ref="G100" si="83">H100*J100</f>
+        <f t="shared" ref="G100:G102" si="83">H100*J100</f>
         <v>1E+222</v>
       </c>
       <c r="H100" s="17">
@@ -10410,16 +10514,82 @@
         <v>한</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" ref="J100" si="84">VLOOKUP(I100,O:R,4,FALSE)</f>
+        <f t="shared" ref="J100:J102" si="84">VLOOKUP(I100,O:R,4,FALSE)</f>
         <v>1E+220</v>
       </c>
       <c r="K100" s="22">
-        <f t="shared" ref="K100" si="85">L100*0.5</f>
+        <f t="shared" ref="K100:K102" si="85">L100*0.5</f>
         <v>188250</v>
       </c>
       <c r="L100" s="22">
-        <f t="shared" ref="L100" si="86">L99+500+QUOTIENT(E100,15)*1500</f>
+        <f t="shared" ref="L100:L102" si="86">L99+500+QUOTIENT(E100,15)*1500</f>
         <v>376500</v>
+      </c>
+    </row>
+    <row r="101" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E101" s="16">
+        <v>92</v>
+      </c>
+      <c r="F101" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>1혈</v>
+      </c>
+      <c r="G101" s="17">
+        <f t="shared" si="83"/>
+        <v>9.9999999999999997E+223</v>
+      </c>
+      <c r="H101" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I101" s="16" t="str" cm="1">
+        <f t="array" ref="I101">IF(AND(H100&gt;=100,H101&lt;2),INDEX(O:O,MATCH(I100,O:O,0)+1,0),I100)</f>
+        <v>혈</v>
+      </c>
+      <c r="J101" s="16" t="str">
+        <f t="shared" si="84"/>
+        <v>1E+224</v>
+      </c>
+      <c r="K101" s="22">
+        <f t="shared" si="85"/>
+        <v>193000</v>
+      </c>
+      <c r="L101" s="22">
+        <f t="shared" si="86"/>
+        <v>386000</v>
+      </c>
+    </row>
+    <row r="102" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E102" s="16">
+        <v>93</v>
+      </c>
+      <c r="F102" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>100혈</v>
+      </c>
+      <c r="G102" s="17">
+        <f t="shared" si="83"/>
+        <v>9.9999999999999996E+225</v>
+      </c>
+      <c r="H102" s="17">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I102" s="16" t="str" cm="1">
+        <f t="array" ref="I102">IF(AND(H101&gt;=100,H102&lt;2),INDEX(O:O,MATCH(I101,O:O,0)+1,0),I101)</f>
+        <v>혈</v>
+      </c>
+      <c r="J102" s="16" t="str">
+        <f t="shared" si="84"/>
+        <v>1E+224</v>
+      </c>
+      <c r="K102" s="22">
+        <f t="shared" si="85"/>
+        <v>197750</v>
+      </c>
+      <c r="L102" s="22">
+        <f t="shared" si="86"/>
+        <v>395500</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MeditationTower.xlsx
+++ b/Assets/06.Table/MeditationTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBD8C71-6E95-470F-98BF-A14F4847D4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775773EC-B004-411B-A58D-CD4A839FD261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,6 +415,14 @@
   </si>
   <si>
     <t>연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1010,12 +1018,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K78" sqref="K78"/>
-      <selection pane="bottomLeft" activeCell="G89" sqref="G89"/>
+      <selection pane="bottomLeft" activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4588,7 +4596,7 @@
         <v>192000</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:G95" si="65">G68</f>
+        <f t="shared" ref="G69:G97" si="65">G68</f>
         <v>1</v>
       </c>
       <c r="H69" s="2">
@@ -4611,7 +4619,7 @@
         <v>57</v>
       </c>
       <c r="M69">
-        <f t="shared" ref="M69:M95" si="67">M68+200</f>
+        <f t="shared" ref="M69:M97" si="67">M68+200</f>
         <v>15400</v>
       </c>
     </row>
@@ -5100,7 +5108,7 @@
         <v>130750</v>
       </c>
       <c r="E79">
-        <f t="shared" ref="E79:E95" si="86">E78</f>
+        <f t="shared" ref="E79:E97" si="86">E78</f>
         <v>9043</v>
       </c>
       <c r="F79">
@@ -5967,9 +5975,113 @@
         <v>20600</v>
       </c>
     </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1" t="str">
+        <f t="shared" ref="B96:C96" si="120">B95</f>
+        <v>1-1</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="120"/>
+        <v>9043</v>
+      </c>
+      <c r="D96">
+        <f>VLOOKUP(A96,Balance!E:K,7,FALSE)</f>
+        <v>202500</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F96">
+        <f>VLOOKUP(A96,Balance!E:L,8,)</f>
+        <v>405000</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H96" s="2">
+        <f>VLOOKUP(A96,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999992E+227</v>
+      </c>
+      <c r="I96">
+        <f t="shared" ref="I96:K96" si="121">I95</f>
+        <v>1000</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="121"/>
+        <v>8</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="L96" t="s">
+        <v>57</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="67"/>
+        <v>20800</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1" t="str">
+        <f t="shared" ref="B97:C97" si="122">B96</f>
+        <v>1-1</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="122"/>
+        <v>9043</v>
+      </c>
+      <c r="D97">
+        <f>VLOOKUP(A97,Balance!E:K,7,FALSE)</f>
+        <v>207250</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F97">
+        <f>VLOOKUP(A97,Balance!E:L,8,)</f>
+        <v>414500</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H97" s="2">
+        <f>VLOOKUP(A97,Balance!E:K,3,FALSE)</f>
+        <v>9.9999999999999988E+229</v>
+      </c>
+      <c r="I97">
+        <f t="shared" ref="I97:K97" si="123">I96</f>
+        <v>1000</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="123"/>
+        <v>8</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L97" t="s">
+        <v>57</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="67"/>
+        <v>21000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 A2:E95 G13:M95">
+  <conditionalFormatting sqref="G2:N12 A2:E97 G13:M97">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -5981,10 +6093,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:AA102"/>
+  <dimension ref="A1:AA104"/>
   <sheetViews>
-    <sheetView topLeftCell="D92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L98" sqref="L98"/>
+    <sheetView topLeftCell="D83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J103" sqref="J103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6307,7 +6419,7 @@
         <v>1.0000000000000001E+46</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" ref="H12:H102" si="5">H10</f>
+        <f t="shared" ref="H12:H104" si="5">H10</f>
         <v>100</v>
       </c>
       <c r="I12" s="16" t="str" cm="1">
@@ -9332,8 +9444,20 @@
         <v>56</v>
       </c>
       <c r="N65" s="22"/>
-      <c r="Q65" s="11"/>
-      <c r="R65" s="11"/>
+      <c r="O65" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="P65" s="16">
+        <v>232</v>
+      </c>
+      <c r="Q65" s="17">
+        <f t="shared" ref="Q65:Q66" si="41">POWER(10,P65)</f>
+        <v>1.0000000000000001E+232</v>
+      </c>
+      <c r="R65" s="17" t="str">
+        <f t="shared" ref="R65:R66" si="42">RIGHT(Q65,P65)</f>
+        <v>1E+232</v>
+      </c>
       <c r="S65" s="11"/>
       <c r="T65" s="11"/>
       <c r="U65" s="11"/>
@@ -9380,8 +9504,20 @@
         <v>57</v>
       </c>
       <c r="N66" s="22"/>
-      <c r="Q66" s="11"/>
-      <c r="R66" s="11"/>
+      <c r="O66" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="P66" s="16">
+        <v>236</v>
+      </c>
+      <c r="Q66" s="17">
+        <f t="shared" si="41"/>
+        <v>1.0000000000000001E+236</v>
+      </c>
+      <c r="R66" s="17" t="str">
+        <f t="shared" si="42"/>
+        <v>1E+236</v>
+      </c>
       <c r="S66" s="11"/>
       <c r="T66" s="11"/>
       <c r="U66" s="11"/>
@@ -9471,7 +9607,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" ref="F69" si="41">H69&amp;I69</f>
+        <f t="shared" ref="F69" si="43">H69&amp;I69</f>
         <v>1단</v>
       </c>
       <c r="G69" s="17">
@@ -9512,7 +9648,7 @@
         <v>100단</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" ref="G70:G72" si="42">H70*J70</f>
+        <f t="shared" ref="G70:G72" si="44">H70*J70</f>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="H70" s="17">
@@ -9524,15 +9660,15 @@
         <v>단</v>
       </c>
       <c r="J70" s="16" t="str">
-        <f t="shared" ref="J70:J72" si="43">VLOOKUP(I70,O:R,4,FALSE)</f>
+        <f t="shared" ref="J70:J72" si="45">VLOOKUP(I70,O:R,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K70" s="22">
-        <f t="shared" ref="K70:K72" si="44">L70*0.5</f>
+        <f t="shared" ref="K70:K72" si="46">L70*0.5</f>
         <v>76500</v>
       </c>
       <c r="L70" s="22">
-        <f t="shared" ref="L70:L72" si="45">L69+500+QUOTIENT(E70,15)*1500</f>
+        <f t="shared" ref="L70:L72" si="47">L69+500+QUOTIENT(E70,15)*1500</f>
         <v>153000</v>
       </c>
     </row>
@@ -9541,11 +9677,11 @@
         <v>62</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" ref="F71:F72" si="46">H71&amp;I71</f>
+        <f t="shared" ref="F71:F72" si="48">H71&amp;I71</f>
         <v>1절</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+164</v>
       </c>
       <c r="H71" s="17">
@@ -9557,15 +9693,15 @@
         <v>절</v>
       </c>
       <c r="J71" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+164</v>
       </c>
       <c r="K71" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>79750</v>
       </c>
       <c r="L71" s="22">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>159500</v>
       </c>
     </row>
@@ -9574,11 +9710,11 @@
         <v>63</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>100절</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="H72" s="17">
@@ -9590,15 +9726,15 @@
         <v>절</v>
       </c>
       <c r="J72" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+164</v>
       </c>
       <c r="K72" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>83000</v>
       </c>
       <c r="L72" s="22">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>166000</v>
       </c>
     </row>
@@ -9607,11 +9743,11 @@
         <v>64</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F75" si="47">H73&amp;I73</f>
+        <f t="shared" ref="F73:F75" si="49">H73&amp;I73</f>
         <v>1격</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G75" si="48">H73*J73</f>
+        <f t="shared" ref="G73:G75" si="50">H73*J73</f>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="H73" s="17">
@@ -9623,15 +9759,15 @@
         <v>격</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J75" si="49">VLOOKUP(I73,O:R,4,FALSE)</f>
+        <f t="shared" ref="J73:J75" si="51">VLOOKUP(I73,O:R,4,FALSE)</f>
         <v>1E+168</v>
       </c>
       <c r="K73" s="22">
-        <f t="shared" ref="K73:K75" si="50">L73*0.5</f>
+        <f t="shared" ref="K73:K75" si="52">L73*0.5</f>
         <v>86250</v>
       </c>
       <c r="L73" s="22">
-        <f t="shared" ref="L73:L75" si="51">L72+500+QUOTIENT(E73,15)*1500</f>
+        <f t="shared" ref="L73:L75" si="53">L72+500+QUOTIENT(E73,15)*1500</f>
         <v>172500</v>
       </c>
     </row>
@@ -9640,11 +9776,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>100격</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="H74" s="17">
@@ -9656,15 +9792,15 @@
         <v>격</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+168</v>
       </c>
       <c r="K74" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>89500</v>
       </c>
       <c r="L74" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>179000</v>
       </c>
     </row>
@@ -9673,11 +9809,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1창</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="H75" s="17">
@@ -9689,15 +9825,15 @@
         <v>창</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+172</v>
       </c>
       <c r="K75" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>92750</v>
       </c>
       <c r="L75" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>185500</v>
       </c>
     </row>
@@ -9706,11 +9842,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" ref="F76:F80" si="52">H76&amp;I76</f>
+        <f t="shared" ref="F76:F80" si="54">H76&amp;I76</f>
         <v>100창</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" ref="G76:G80" si="53">H76*J76</f>
+        <f t="shared" ref="G76:G80" si="55">H76*J76</f>
         <v>1.0000000000000001E+174</v>
       </c>
       <c r="H76" s="17">
@@ -9722,15 +9858,15 @@
         <v>창</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" ref="J76:J80" si="54">VLOOKUP(I76,O:R,4,FALSE)</f>
+        <f t="shared" ref="J76:J80" si="56">VLOOKUP(I76,O:R,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K76" s="22">
-        <f t="shared" ref="K76:K80" si="55">L76*0.5</f>
+        <f t="shared" ref="K76:K80" si="57">L76*0.5</f>
         <v>96000</v>
       </c>
       <c r="L76" s="22">
-        <f t="shared" ref="L76:L80" si="56">L75+500+QUOTIENT(E76,15)*1500</f>
+        <f t="shared" ref="L76:L80" si="58">L75+500+QUOTIENT(E76,15)*1500</f>
         <v>192000</v>
       </c>
     </row>
@@ -9739,11 +9875,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1공</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+176</v>
       </c>
       <c r="H77" s="17">
@@ -9755,15 +9891,15 @@
         <v>공</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+176</v>
       </c>
       <c r="K77" s="22">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>99250</v>
       </c>
       <c r="L77" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>198500</v>
       </c>
     </row>
@@ -9772,11 +9908,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>100공</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1.0000000000000001E+178</v>
       </c>
       <c r="H78" s="17">
@@ -9788,15 +9924,15 @@
         <v>공</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+176</v>
       </c>
       <c r="K78" s="22">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>102500</v>
       </c>
       <c r="L78" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>205000</v>
       </c>
     </row>
@@ -9805,11 +9941,11 @@
         <v>70</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1채</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+180</v>
       </c>
       <c r="H79" s="17">
@@ -9821,15 +9957,15 @@
         <v>채</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+180</v>
       </c>
       <c r="K79" s="22">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>105750</v>
       </c>
       <c r="L79" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>211500</v>
       </c>
     </row>
@@ -9838,11 +9974,11 @@
         <v>71</v>
       </c>
       <c r="F80" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>100채</v>
       </c>
       <c r="G80" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1.0000000000000001E+182</v>
       </c>
       <c r="H80" s="17">
@@ -9854,15 +9990,15 @@
         <v>채</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+180</v>
       </c>
       <c r="K80" s="22">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>109000</v>
       </c>
       <c r="L80" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>218000</v>
       </c>
     </row>
@@ -9871,11 +10007,11 @@
         <v>72</v>
       </c>
       <c r="F81" s="17" t="str">
-        <f t="shared" ref="F81:F82" si="57">H81&amp;I81</f>
+        <f t="shared" ref="F81:F82" si="59">H81&amp;I81</f>
         <v>1피</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" ref="G81:G82" si="58">H81*J81</f>
+        <f t="shared" ref="G81:G82" si="60">H81*J81</f>
         <v>1E+184</v>
       </c>
       <c r="H81" s="17">
@@ -9887,15 +10023,15 @@
         <v>피</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" ref="J81:J82" si="59">VLOOKUP(I81,O:R,4,FALSE)</f>
+        <f t="shared" ref="J81:J82" si="61">VLOOKUP(I81,O:R,4,FALSE)</f>
         <v>1E+184</v>
       </c>
       <c r="K81" s="22">
-        <f t="shared" ref="K81:K82" si="60">L81*0.5</f>
+        <f t="shared" ref="K81:K82" si="62">L81*0.5</f>
         <v>112250</v>
       </c>
       <c r="L81" s="22">
-        <f t="shared" ref="L81:L82" si="61">L80+500+QUOTIENT(E81,15)*1500</f>
+        <f t="shared" ref="L81:L82" si="63">L80+500+QUOTIENT(E81,15)*1500</f>
         <v>224500</v>
       </c>
     </row>
@@ -9904,11 +10040,11 @@
         <v>73</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>100피</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>9.9999999999999998E+185</v>
       </c>
       <c r="H82" s="17">
@@ -9920,15 +10056,15 @@
         <v>피</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1E+184</v>
       </c>
       <c r="K82" s="22">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>115500</v>
       </c>
       <c r="L82" s="22">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>231000</v>
       </c>
     </row>
@@ -9937,11 +10073,11 @@
         <v>74</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" ref="F83:F86" si="62">H83&amp;I83</f>
+        <f t="shared" ref="F83:F86" si="64">H83&amp;I83</f>
         <v>1동</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" ref="G83:G86" si="63">H83*J83</f>
+        <f t="shared" ref="G83:G86" si="65">H83*J83</f>
         <v>1E+188</v>
       </c>
       <c r="H83" s="17">
@@ -9953,15 +10089,15 @@
         <v>동</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" ref="J83:J86" si="64">VLOOKUP(I83,O:R,4,FALSE)</f>
+        <f t="shared" ref="J83:J86" si="66">VLOOKUP(I83,O:R,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K83" s="22">
-        <f t="shared" ref="K83:K86" si="65">L83*0.5</f>
+        <f t="shared" ref="K83:K86" si="67">L83*0.5</f>
         <v>118750</v>
       </c>
       <c r="L83" s="22">
-        <f t="shared" ref="L83:L86" si="66">L82+500+QUOTIENT(E83,15)*1500</f>
+        <f t="shared" ref="L83:L86" si="68">L82+500+QUOTIENT(E83,15)*1500</f>
         <v>237500</v>
       </c>
     </row>
@@ -9970,11 +10106,11 @@
         <v>75</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>100동</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1.0000000000000001E+190</v>
       </c>
       <c r="H84" s="17">
@@ -9986,15 +10122,15 @@
         <v>동</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+188</v>
       </c>
       <c r="K84" s="22">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>122750</v>
       </c>
       <c r="L84" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>245500</v>
       </c>
     </row>
@@ -10003,11 +10139,11 @@
         <v>76</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1멸</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1E+192</v>
       </c>
       <c r="H85" s="17">
@@ -10019,15 +10155,15 @@
         <v>멸</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+192</v>
       </c>
       <c r="K85" s="22">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>126750</v>
       </c>
       <c r="L85" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>253500</v>
       </c>
     </row>
@@ -10036,11 +10172,11 @@
         <v>77</v>
       </c>
       <c r="F86" s="17" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>100멸</v>
       </c>
       <c r="G86" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1.0000000000000001E+194</v>
       </c>
       <c r="H86" s="17">
@@ -10052,15 +10188,15 @@
         <v>멸</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+192</v>
       </c>
       <c r="K86" s="22">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>130750</v>
       </c>
       <c r="L86" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>261500</v>
       </c>
     </row>
@@ -10069,11 +10205,11 @@
         <v>78</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" ref="F87:F90" si="67">H87&amp;I87</f>
+        <f t="shared" ref="F87:F90" si="69">H87&amp;I87</f>
         <v>1향</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" ref="G87:G90" si="68">H87*J87</f>
+        <f t="shared" ref="G87:G90" si="70">H87*J87</f>
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="H87" s="17">
@@ -10085,15 +10221,15 @@
         <v>향</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" ref="J87:J90" si="69">VLOOKUP(I87,O:R,4,FALSE)</f>
+        <f t="shared" ref="J87:J90" si="71">VLOOKUP(I87,O:R,4,FALSE)</f>
         <v>1E+196</v>
       </c>
       <c r="K87" s="22">
-        <f t="shared" ref="K87:K90" si="70">L87*0.5</f>
+        <f t="shared" ref="K87:K90" si="72">L87*0.5</f>
         <v>134750</v>
       </c>
       <c r="L87" s="22">
-        <f t="shared" ref="L87:L90" si="71">L86+500+QUOTIENT(E87,15)*1500</f>
+        <f t="shared" ref="L87:L90" si="73">L86+500+QUOTIENT(E87,15)*1500</f>
         <v>269500</v>
       </c>
     </row>
@@ -10102,11 +10238,11 @@
         <v>79</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>100향</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>9.9999999999999988E+197</v>
       </c>
       <c r="H88" s="17">
@@ -10118,15 +10254,15 @@
         <v>향</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1E+196</v>
       </c>
       <c r="K88" s="22">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>138750</v>
       </c>
       <c r="L88" s="22">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>277500</v>
       </c>
     </row>
@@ -10135,11 +10271,11 @@
         <v>80</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1증</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>9.9999999999999997E+199</v>
       </c>
       <c r="H89" s="17">
@@ -10151,15 +10287,15 @@
         <v>증</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1E+200</v>
       </c>
       <c r="K89" s="22">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>142750</v>
       </c>
       <c r="L89" s="22">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>285500</v>
       </c>
     </row>
@@ -10168,11 +10304,11 @@
         <v>81</v>
       </c>
       <c r="F90" s="17" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>100증</v>
       </c>
       <c r="G90" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>9.999999999999999E+201</v>
       </c>
       <c r="H90" s="17">
@@ -10184,15 +10320,15 @@
         <v>증</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1E+200</v>
       </c>
       <c r="K90" s="22">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>146750</v>
       </c>
       <c r="L90" s="22">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>293500</v>
       </c>
     </row>
@@ -10201,11 +10337,11 @@
         <v>82</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" ref="F91:F94" si="72">H91&amp;I91</f>
+        <f t="shared" ref="F91:F94" si="74">H91&amp;I91</f>
         <v>1쾌</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" ref="G91:G94" si="73">H91*J91</f>
+        <f t="shared" ref="G91:G94" si="75">H91*J91</f>
         <v>9.9999999999999999E+203</v>
       </c>
       <c r="H91" s="17">
@@ -10217,15 +10353,15 @@
         <v>쾌</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" ref="J91:J94" si="74">VLOOKUP(I91,O:R,4,FALSE)</f>
+        <f t="shared" ref="J91:J94" si="76">VLOOKUP(I91,O:R,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K91" s="22">
-        <f t="shared" ref="K91:K94" si="75">L91*0.5</f>
+        <f t="shared" ref="K91:K94" si="77">L91*0.5</f>
         <v>150750</v>
       </c>
       <c r="L91" s="22">
-        <f t="shared" ref="L91:L94" si="76">L90+500+QUOTIENT(E91,15)*1500</f>
+        <f t="shared" ref="L91:L94" si="78">L90+500+QUOTIENT(E91,15)*1500</f>
         <v>301500</v>
       </c>
     </row>
@@ -10234,11 +10370,11 @@
         <v>83</v>
       </c>
       <c r="F92" s="17" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>100쾌</v>
       </c>
       <c r="G92" s="17">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1E+206</v>
       </c>
       <c r="H92" s="17">
@@ -10250,15 +10386,15 @@
         <v>쾌</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1E+204</v>
       </c>
       <c r="K92" s="22">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>154750</v>
       </c>
       <c r="L92" s="22">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>309500</v>
       </c>
     </row>
@@ -10267,11 +10403,11 @@
         <v>84</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1우</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>9.9999999999999998E+207</v>
       </c>
       <c r="H93" s="17">
@@ -10283,15 +10419,15 @@
         <v>우</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1E+208</v>
       </c>
       <c r="K93" s="22">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>158750</v>
       </c>
       <c r="L93" s="22">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>317500</v>
       </c>
     </row>
@@ -10300,11 +10436,11 @@
         <v>85</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>100우</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>9.9999999999999993E+209</v>
       </c>
       <c r="H94" s="17">
@@ -10316,15 +10452,15 @@
         <v>우</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1E+208</v>
       </c>
       <c r="K94" s="22">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>162750</v>
       </c>
       <c r="L94" s="22">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>325500</v>
       </c>
     </row>
@@ -10333,11 +10469,11 @@
         <v>86</v>
       </c>
       <c r="F95" s="17" t="str">
-        <f t="shared" ref="F95:F99" si="77">H95&amp;I95</f>
+        <f t="shared" ref="F95:F99" si="79">H95&amp;I95</f>
         <v>1팽</v>
       </c>
       <c r="G95" s="17">
-        <f t="shared" ref="G95:G99" si="78">H95*J95</f>
+        <f t="shared" ref="G95:G99" si="80">H95*J95</f>
         <v>9.9999999999999991E+211</v>
       </c>
       <c r="H95" s="17">
@@ -10349,15 +10485,15 @@
         <v>팽</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" ref="J95:J99" si="79">VLOOKUP(I95,O:R,4,FALSE)</f>
+        <f t="shared" ref="J95:J99" si="81">VLOOKUP(I95,O:R,4,FALSE)</f>
         <v>1E+212</v>
       </c>
       <c r="K95" s="22">
-        <f t="shared" ref="K95:K99" si="80">L95*0.5</f>
+        <f t="shared" ref="K95:K99" si="82">L95*0.5</f>
         <v>166750</v>
       </c>
       <c r="L95" s="22">
-        <f t="shared" ref="L95:L99" si="81">L94+500+QUOTIENT(E95,15)*1500</f>
+        <f t="shared" ref="L95:L99" si="83">L94+500+QUOTIENT(E95,15)*1500</f>
         <v>333500</v>
       </c>
     </row>
@@ -10366,11 +10502,11 @@
         <v>87</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>100팽</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>9.9999999999999995E+213</v>
       </c>
       <c r="H96" s="17">
@@ -10382,15 +10518,15 @@
         <v>팽</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1E+212</v>
       </c>
       <c r="K96" s="22">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>170750</v>
       </c>
       <c r="L96" s="22">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>341500</v>
       </c>
     </row>
@@ -10399,11 +10535,11 @@
         <v>88</v>
       </c>
       <c r="F97" s="17" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1관</v>
       </c>
       <c r="G97" s="17">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+216</v>
       </c>
       <c r="H97" s="17">
@@ -10415,15 +10551,15 @@
         <v>관</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1E+216</v>
       </c>
       <c r="K97" s="22">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>174750</v>
       </c>
       <c r="L97" s="22">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>349500</v>
       </c>
     </row>
@@ -10432,11 +10568,11 @@
         <v>89</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>100관</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1.0000000000000001E+218</v>
       </c>
       <c r="H98" s="17">
@@ -10448,15 +10584,15 @@
         <v>관</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1E+216</v>
       </c>
       <c r="K98" s="22">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>178750</v>
       </c>
       <c r="L98" s="22">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>357500</v>
       </c>
     </row>
@@ -10465,11 +10601,11 @@
         <v>90</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1한</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+220</v>
       </c>
       <c r="H99" s="17">
@@ -10481,15 +10617,15 @@
         <v>한</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1E+220</v>
       </c>
       <c r="K99" s="22">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>183500</v>
       </c>
       <c r="L99" s="22">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>367000</v>
       </c>
     </row>
@@ -10498,11 +10634,11 @@
         <v>91</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" ref="F100:F102" si="82">H100&amp;I100</f>
+        <f t="shared" ref="F100:F102" si="84">H100&amp;I100</f>
         <v>100한</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" ref="G100:G102" si="83">H100*J100</f>
+        <f t="shared" ref="G100:G102" si="85">H100*J100</f>
         <v>1E+222</v>
       </c>
       <c r="H100" s="17">
@@ -10514,15 +10650,15 @@
         <v>한</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" ref="J100:J102" si="84">VLOOKUP(I100,O:R,4,FALSE)</f>
+        <f t="shared" ref="J100:J102" si="86">VLOOKUP(I100,O:R,4,FALSE)</f>
         <v>1E+220</v>
       </c>
       <c r="K100" s="22">
-        <f t="shared" ref="K100:K102" si="85">L100*0.5</f>
+        <f t="shared" ref="K100:K102" si="87">L100*0.5</f>
         <v>188250</v>
       </c>
       <c r="L100" s="22">
-        <f t="shared" ref="L100:L102" si="86">L99+500+QUOTIENT(E100,15)*1500</f>
+        <f t="shared" ref="L100:L102" si="88">L99+500+QUOTIENT(E100,15)*1500</f>
         <v>376500</v>
       </c>
     </row>
@@ -10531,11 +10667,11 @@
         <v>92</v>
       </c>
       <c r="F101" s="17" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1혈</v>
       </c>
       <c r="G101" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>9.9999999999999997E+223</v>
       </c>
       <c r="H101" s="17">
@@ -10547,15 +10683,15 @@
         <v>혈</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1E+224</v>
       </c>
       <c r="K101" s="22">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>193000</v>
       </c>
       <c r="L101" s="22">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>386000</v>
       </c>
     </row>
@@ -10564,11 +10700,11 @@
         <v>93</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>100혈</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>9.9999999999999996E+225</v>
       </c>
       <c r="H102" s="17">
@@ -10580,16 +10716,82 @@
         <v>혈</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1E+224</v>
       </c>
       <c r="K102" s="22">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>197750</v>
       </c>
       <c r="L102" s="22">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>395500</v>
+      </c>
+    </row>
+    <row r="103" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E103" s="16">
+        <v>94</v>
+      </c>
+      <c r="F103" s="17" t="str">
+        <f t="shared" ref="F103:F104" si="89">H103&amp;I103</f>
+        <v>1연</v>
+      </c>
+      <c r="G103" s="17">
+        <f t="shared" ref="G103:G104" si="90">H103*J103</f>
+        <v>9.9999999999999992E+227</v>
+      </c>
+      <c r="H103" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I103" s="16" t="str" cm="1">
+        <f t="array" ref="I103">IF(AND(H102&gt;=100,H103&lt;2),INDEX(O:O,MATCH(I102,O:O,0)+1,0),I102)</f>
+        <v>연</v>
+      </c>
+      <c r="J103" s="16" t="str">
+        <f t="shared" ref="J103:J104" si="91">VLOOKUP(I103,O:R,4,FALSE)</f>
+        <v>1E+228</v>
+      </c>
+      <c r="K103" s="22">
+        <f t="shared" ref="K103:K104" si="92">L103*0.5</f>
+        <v>202500</v>
+      </c>
+      <c r="L103" s="22">
+        <f t="shared" ref="L103:L104" si="93">L102+500+QUOTIENT(E103,15)*1500</f>
+        <v>405000</v>
+      </c>
+    </row>
+    <row r="104" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E104" s="16">
+        <v>95</v>
+      </c>
+      <c r="F104" s="17" t="str">
+        <f t="shared" si="89"/>
+        <v>100연</v>
+      </c>
+      <c r="G104" s="17">
+        <f t="shared" si="90"/>
+        <v>9.9999999999999988E+229</v>
+      </c>
+      <c r="H104" s="17">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I104" s="16" t="str" cm="1">
+        <f t="array" ref="I104">IF(AND(H103&gt;=100,H104&lt;2),INDEX(O:O,MATCH(I103,O:O,0)+1,0),I103)</f>
+        <v>연</v>
+      </c>
+      <c r="J104" s="16" t="str">
+        <f t="shared" si="91"/>
+        <v>1E+228</v>
+      </c>
+      <c r="K104" s="22">
+        <f t="shared" si="92"/>
+        <v>207250</v>
+      </c>
+      <c r="L104" s="22">
+        <f t="shared" si="93"/>
+        <v>414500</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MeditationTower.xlsx
+++ b/Assets/06.Table/MeditationTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775773EC-B004-411B-A58D-CD4A839FD261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260F9911-4A4D-4AB1-AF02-AADC6464B18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1018,12 +1018,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O97"/>
+  <dimension ref="A1:O99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K78" sqref="K78"/>
-      <selection pane="bottomLeft" activeCell="A94" sqref="A94"/>
+      <selection pane="bottomLeft" activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4596,7 +4596,7 @@
         <v>192000</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:G97" si="65">G68</f>
+        <f t="shared" ref="G69:G99" si="65">G68</f>
         <v>1</v>
       </c>
       <c r="H69" s="2">
@@ -4619,7 +4619,7 @@
         <v>57</v>
       </c>
       <c r="M69">
-        <f t="shared" ref="M69:M97" si="67">M68+200</f>
+        <f t="shared" ref="M69:M99" si="67">M68+200</f>
         <v>15400</v>
       </c>
     </row>
@@ -5108,7 +5108,7 @@
         <v>130750</v>
       </c>
       <c r="E79">
-        <f t="shared" ref="E79:E97" si="86">E78</f>
+        <f t="shared" ref="E79:E99" si="86">E78</f>
         <v>9043</v>
       </c>
       <c r="F79">
@@ -6079,9 +6079,113 @@
         <v>21000</v>
       </c>
     </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1" t="str">
+        <f t="shared" ref="B98:C98" si="124">B97</f>
+        <v>1-1</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="124"/>
+        <v>9043</v>
+      </c>
+      <c r="D98">
+        <f>VLOOKUP(A98,Balance!E:K,7,FALSE)</f>
+        <v>212000</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F98">
+        <f>VLOOKUP(A98,Balance!E:L,8,)</f>
+        <v>424000</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H98" s="2">
+        <f>VLOOKUP(A98,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+232</v>
+      </c>
+      <c r="I98">
+        <f t="shared" ref="I98:K98" si="125">I97</f>
+        <v>1000</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="125"/>
+        <v>8</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="L98" t="s">
+        <v>57</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="67"/>
+        <v>21200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1" t="str">
+        <f t="shared" ref="B99:C99" si="126">B98</f>
+        <v>1-1</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="126"/>
+        <v>9043</v>
+      </c>
+      <c r="D99">
+        <f>VLOOKUP(A99,Balance!E:K,7,FALSE)</f>
+        <v>216750</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F99">
+        <f>VLOOKUP(A99,Balance!E:L,8,)</f>
+        <v>433500</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H99" s="2">
+        <f>VLOOKUP(A99,Balance!E:K,3,FALSE)</f>
+        <v>1E+234</v>
+      </c>
+      <c r="I99">
+        <f t="shared" ref="I99:K99" si="127">I98</f>
+        <v>1000</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="127"/>
+        <v>8</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="L99" t="s">
+        <v>57</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="67"/>
+        <v>21400</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 A2:E97 G13:M97">
+  <conditionalFormatting sqref="G2:N12 A2:E99 G13:M99">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -6093,10 +6197,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:AA104"/>
+  <dimension ref="A1:AA106"/>
   <sheetViews>
-    <sheetView topLeftCell="D83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J103" sqref="J103"/>
+    <sheetView topLeftCell="D91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6419,7 +6523,7 @@
         <v>1.0000000000000001E+46</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" ref="H12:H104" si="5">H10</f>
+        <f t="shared" ref="H12:H106" si="5">H10</f>
         <v>100</v>
       </c>
       <c r="I12" s="16" t="str" cm="1">
@@ -10733,11 +10837,11 @@
         <v>94</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" ref="F103:F104" si="89">H103&amp;I103</f>
+        <f t="shared" ref="F103:F106" si="89">H103&amp;I103</f>
         <v>1연</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" ref="G103:G104" si="90">H103*J103</f>
+        <f t="shared" ref="G103:G106" si="90">H103*J103</f>
         <v>9.9999999999999992E+227</v>
       </c>
       <c r="H103" s="17">
@@ -10749,15 +10853,15 @@
         <v>연</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" ref="J103:J104" si="91">VLOOKUP(I103,O:R,4,FALSE)</f>
+        <f t="shared" ref="J103:J106" si="91">VLOOKUP(I103,O:R,4,FALSE)</f>
         <v>1E+228</v>
       </c>
       <c r="K103" s="22">
-        <f t="shared" ref="K103:K104" si="92">L103*0.5</f>
+        <f t="shared" ref="K103:K106" si="92">L103*0.5</f>
         <v>202500</v>
       </c>
       <c r="L103" s="22">
-        <f t="shared" ref="L103:L104" si="93">L102+500+QUOTIENT(E103,15)*1500</f>
+        <f t="shared" ref="L103:L106" si="93">L102+500+QUOTIENT(E103,15)*1500</f>
         <v>405000</v>
       </c>
     </row>
@@ -10792,6 +10896,72 @@
       <c r="L104" s="22">
         <f t="shared" si="93"/>
         <v>414500</v>
+      </c>
+    </row>
+    <row r="105" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E105" s="16">
+        <v>96</v>
+      </c>
+      <c r="F105" s="17" t="str">
+        <f t="shared" si="89"/>
+        <v>1난</v>
+      </c>
+      <c r="G105" s="17">
+        <f t="shared" si="90"/>
+        <v>1.0000000000000001E+232</v>
+      </c>
+      <c r="H105" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I105" s="16" t="str" cm="1">
+        <f t="array" ref="I105">IF(AND(H104&gt;=100,H105&lt;2),INDEX(O:O,MATCH(I104,O:O,0)+1,0),I104)</f>
+        <v>난</v>
+      </c>
+      <c r="J105" s="16" t="str">
+        <f t="shared" si="91"/>
+        <v>1E+232</v>
+      </c>
+      <c r="K105" s="22">
+        <f t="shared" si="92"/>
+        <v>212000</v>
+      </c>
+      <c r="L105" s="22">
+        <f t="shared" si="93"/>
+        <v>424000</v>
+      </c>
+    </row>
+    <row r="106" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E106" s="16">
+        <v>97</v>
+      </c>
+      <c r="F106" s="17" t="str">
+        <f t="shared" si="89"/>
+        <v>100난</v>
+      </c>
+      <c r="G106" s="17">
+        <f t="shared" si="90"/>
+        <v>1E+234</v>
+      </c>
+      <c r="H106" s="17">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I106" s="16" t="str" cm="1">
+        <f t="array" ref="I106">IF(AND(H105&gt;=100,H106&lt;2),INDEX(O:O,MATCH(I105,O:O,0)+1,0),I105)</f>
+        <v>난</v>
+      </c>
+      <c r="J106" s="16" t="str">
+        <f t="shared" si="91"/>
+        <v>1E+232</v>
+      </c>
+      <c r="K106" s="22">
+        <f t="shared" si="92"/>
+        <v>216750</v>
+      </c>
+      <c r="L106" s="22">
+        <f t="shared" si="93"/>
+        <v>433500</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MeditationTower.xlsx
+++ b/Assets/06.Table/MeditationTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260F9911-4A4D-4AB1-AF02-AADC6464B18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C293BDB8-4DA4-4F1A-98BC-E810882658A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="94">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -423,6 +423,14 @@
   </si>
   <si>
     <t>군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1018,12 +1026,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O99"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K78" sqref="K78"/>
-      <selection pane="bottomLeft" activeCell="H96" sqref="H96"/>
+      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4596,7 +4604,7 @@
         <v>192000</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:G99" si="65">G68</f>
+        <f t="shared" ref="G69:G101" si="65">G68</f>
         <v>1</v>
       </c>
       <c r="H69" s="2">
@@ -4619,7 +4627,7 @@
         <v>57</v>
       </c>
       <c r="M69">
-        <f t="shared" ref="M69:M99" si="67">M68+200</f>
+        <f t="shared" ref="M69:M101" si="67">M68+200</f>
         <v>15400</v>
       </c>
     </row>
@@ -5108,7 +5116,7 @@
         <v>130750</v>
       </c>
       <c r="E79">
-        <f t="shared" ref="E79:E99" si="86">E78</f>
+        <f t="shared" ref="E79:E101" si="86">E78</f>
         <v>9043</v>
       </c>
       <c r="F79">
@@ -6183,9 +6191,113 @@
         <v>21400</v>
       </c>
     </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1" t="str">
+        <f t="shared" ref="B100:C100" si="128">B99</f>
+        <v>1-1</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="128"/>
+        <v>9043</v>
+      </c>
+      <c r="D100">
+        <f>VLOOKUP(A100,Balance!E:K,7,FALSE)</f>
+        <v>221500</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F100">
+        <f>VLOOKUP(A100,Balance!E:L,8,)</f>
+        <v>443000</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H100" s="2">
+        <f>VLOOKUP(A100,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+236</v>
+      </c>
+      <c r="I100">
+        <f t="shared" ref="I100:K100" si="129">I99</f>
+        <v>1000</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="129"/>
+        <v>8</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+      <c r="L100" t="s">
+        <v>57</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="67"/>
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1" t="str">
+        <f t="shared" ref="B101:C101" si="130">B100</f>
+        <v>1-1</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="130"/>
+        <v>9043</v>
+      </c>
+      <c r="D101">
+        <f>VLOOKUP(A101,Balance!E:K,7,FALSE)</f>
+        <v>226250</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F101">
+        <f>VLOOKUP(A101,Balance!E:L,8,)</f>
+        <v>452500</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H101" s="2">
+        <f>VLOOKUP(A101,Balance!E:K,3,FALSE)</f>
+        <v>1E+238</v>
+      </c>
+      <c r="I101">
+        <f t="shared" ref="I101:K101" si="131">I100</f>
+        <v>1000</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="131"/>
+        <v>8</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+      <c r="L101" t="s">
+        <v>57</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="67"/>
+        <v>21800</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 A2:E99 G13:M99">
+  <conditionalFormatting sqref="G2:N12 A2:E101 G13:M101">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -6197,10 +6309,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:AA106"/>
+  <dimension ref="A1:AA108"/>
   <sheetViews>
-    <sheetView topLeftCell="D91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I105" sqref="I105"/>
+    <sheetView topLeftCell="D87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I107" sqref="I107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6523,7 +6635,7 @@
         <v>1.0000000000000001E+46</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" ref="H12:H106" si="5">H10</f>
+        <f t="shared" ref="H12:H108" si="5">H10</f>
         <v>100</v>
       </c>
       <c r="I12" s="16" t="str" cm="1">
@@ -9668,6 +9780,20 @@
         <v>58</v>
       </c>
       <c r="N67" s="22"/>
+      <c r="O67" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="P67" s="16">
+        <v>240</v>
+      </c>
+      <c r="Q67" s="17">
+        <f t="shared" ref="Q67:Q68" si="43">POWER(10,P67)</f>
+        <v>1E+240</v>
+      </c>
+      <c r="R67" s="17" t="str">
+        <f t="shared" ref="R67:R68" si="44">RIGHT(Q67,P67)</f>
+        <v>1E+240</v>
+      </c>
     </row>
     <row r="68" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E68" s="16">
@@ -9705,13 +9831,27 @@
         <v>59</v>
       </c>
       <c r="N68" s="22"/>
+      <c r="O68" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="P68" s="16">
+        <v>244</v>
+      </c>
+      <c r="Q68" s="17">
+        <f t="shared" si="43"/>
+        <v>1.0000000000000001E+244</v>
+      </c>
+      <c r="R68" s="17" t="str">
+        <f t="shared" si="44"/>
+        <v>1E+244</v>
+      </c>
     </row>
     <row r="69" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E69" s="16">
         <v>60</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" ref="F69" si="43">H69&amp;I69</f>
+        <f t="shared" ref="F69" si="45">H69&amp;I69</f>
         <v>1단</v>
       </c>
       <c r="G69" s="17">
@@ -9752,7 +9892,7 @@
         <v>100단</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" ref="G70:G72" si="44">H70*J70</f>
+        <f t="shared" ref="G70:G72" si="46">H70*J70</f>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="H70" s="17">
@@ -9764,15 +9904,15 @@
         <v>단</v>
       </c>
       <c r="J70" s="16" t="str">
-        <f t="shared" ref="J70:J72" si="45">VLOOKUP(I70,O:R,4,FALSE)</f>
+        <f t="shared" ref="J70:J72" si="47">VLOOKUP(I70,O:R,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K70" s="22">
-        <f t="shared" ref="K70:K72" si="46">L70*0.5</f>
+        <f t="shared" ref="K70:K72" si="48">L70*0.5</f>
         <v>76500</v>
       </c>
       <c r="L70" s="22">
-        <f t="shared" ref="L70:L72" si="47">L69+500+QUOTIENT(E70,15)*1500</f>
+        <f t="shared" ref="L70:L72" si="49">L69+500+QUOTIENT(E70,15)*1500</f>
         <v>153000</v>
       </c>
     </row>
@@ -9781,11 +9921,11 @@
         <v>62</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" ref="F71:F72" si="48">H71&amp;I71</f>
+        <f t="shared" ref="F71:F72" si="50">H71&amp;I71</f>
         <v>1절</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+164</v>
       </c>
       <c r="H71" s="17">
@@ -9797,15 +9937,15 @@
         <v>절</v>
       </c>
       <c r="J71" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+164</v>
       </c>
       <c r="K71" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>79750</v>
       </c>
       <c r="L71" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>159500</v>
       </c>
     </row>
@@ -9814,11 +9954,11 @@
         <v>63</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>100절</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="H72" s="17">
@@ -9830,15 +9970,15 @@
         <v>절</v>
       </c>
       <c r="J72" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+164</v>
       </c>
       <c r="K72" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>83000</v>
       </c>
       <c r="L72" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>166000</v>
       </c>
     </row>
@@ -9847,11 +9987,11 @@
         <v>64</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F75" si="49">H73&amp;I73</f>
+        <f t="shared" ref="F73:F75" si="51">H73&amp;I73</f>
         <v>1격</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G75" si="50">H73*J73</f>
+        <f t="shared" ref="G73:G75" si="52">H73*J73</f>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="H73" s="17">
@@ -9863,15 +10003,15 @@
         <v>격</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J75" si="51">VLOOKUP(I73,O:R,4,FALSE)</f>
+        <f t="shared" ref="J73:J75" si="53">VLOOKUP(I73,O:R,4,FALSE)</f>
         <v>1E+168</v>
       </c>
       <c r="K73" s="22">
-        <f t="shared" ref="K73:K75" si="52">L73*0.5</f>
+        <f t="shared" ref="K73:K75" si="54">L73*0.5</f>
         <v>86250</v>
       </c>
       <c r="L73" s="22">
-        <f t="shared" ref="L73:L75" si="53">L72+500+QUOTIENT(E73,15)*1500</f>
+        <f t="shared" ref="L73:L75" si="55">L72+500+QUOTIENT(E73,15)*1500</f>
         <v>172500</v>
       </c>
     </row>
@@ -9880,11 +10020,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>100격</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="H74" s="17">
@@ -9896,15 +10036,15 @@
         <v>격</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+168</v>
       </c>
       <c r="K74" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>89500</v>
       </c>
       <c r="L74" s="22">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>179000</v>
       </c>
     </row>
@@ -9913,11 +10053,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1창</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="H75" s="17">
@@ -9929,15 +10069,15 @@
         <v>창</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+172</v>
       </c>
       <c r="K75" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>92750</v>
       </c>
       <c r="L75" s="22">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>185500</v>
       </c>
     </row>
@@ -9946,11 +10086,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" ref="F76:F80" si="54">H76&amp;I76</f>
+        <f t="shared" ref="F76:F80" si="56">H76&amp;I76</f>
         <v>100창</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" ref="G76:G80" si="55">H76*J76</f>
+        <f t="shared" ref="G76:G80" si="57">H76*J76</f>
         <v>1.0000000000000001E+174</v>
       </c>
       <c r="H76" s="17">
@@ -9962,15 +10102,15 @@
         <v>창</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" ref="J76:J80" si="56">VLOOKUP(I76,O:R,4,FALSE)</f>
+        <f t="shared" ref="J76:J80" si="58">VLOOKUP(I76,O:R,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K76" s="22">
-        <f t="shared" ref="K76:K80" si="57">L76*0.5</f>
+        <f t="shared" ref="K76:K80" si="59">L76*0.5</f>
         <v>96000</v>
       </c>
       <c r="L76" s="22">
-        <f t="shared" ref="L76:L80" si="58">L75+500+QUOTIENT(E76,15)*1500</f>
+        <f t="shared" ref="L76:L80" si="60">L75+500+QUOTIENT(E76,15)*1500</f>
         <v>192000</v>
       </c>
     </row>
@@ -9979,11 +10119,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1공</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1E+176</v>
       </c>
       <c r="H77" s="17">
@@ -9995,15 +10135,15 @@
         <v>공</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+176</v>
       </c>
       <c r="K77" s="22">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>99250</v>
       </c>
       <c r="L77" s="22">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>198500</v>
       </c>
     </row>
@@ -10012,11 +10152,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>100공</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1.0000000000000001E+178</v>
       </c>
       <c r="H78" s="17">
@@ -10028,15 +10168,15 @@
         <v>공</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+176</v>
       </c>
       <c r="K78" s="22">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>102500</v>
       </c>
       <c r="L78" s="22">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>205000</v>
       </c>
     </row>
@@ -10045,11 +10185,11 @@
         <v>70</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1채</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1E+180</v>
       </c>
       <c r="H79" s="17">
@@ -10061,15 +10201,15 @@
         <v>채</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+180</v>
       </c>
       <c r="K79" s="22">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>105750</v>
       </c>
       <c r="L79" s="22">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>211500</v>
       </c>
     </row>
@@ -10078,11 +10218,11 @@
         <v>71</v>
       </c>
       <c r="F80" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>100채</v>
       </c>
       <c r="G80" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1.0000000000000001E+182</v>
       </c>
       <c r="H80" s="17">
@@ -10094,15 +10234,15 @@
         <v>채</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+180</v>
       </c>
       <c r="K80" s="22">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>109000</v>
       </c>
       <c r="L80" s="22">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>218000</v>
       </c>
     </row>
@@ -10111,11 +10251,11 @@
         <v>72</v>
       </c>
       <c r="F81" s="17" t="str">
-        <f t="shared" ref="F81:F82" si="59">H81&amp;I81</f>
+        <f t="shared" ref="F81:F82" si="61">H81&amp;I81</f>
         <v>1피</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" ref="G81:G82" si="60">H81*J81</f>
+        <f t="shared" ref="G81:G82" si="62">H81*J81</f>
         <v>1E+184</v>
       </c>
       <c r="H81" s="17">
@@ -10127,15 +10267,15 @@
         <v>피</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" ref="J81:J82" si="61">VLOOKUP(I81,O:R,4,FALSE)</f>
+        <f t="shared" ref="J81:J82" si="63">VLOOKUP(I81,O:R,4,FALSE)</f>
         <v>1E+184</v>
       </c>
       <c r="K81" s="22">
-        <f t="shared" ref="K81:K82" si="62">L81*0.5</f>
+        <f t="shared" ref="K81:K82" si="64">L81*0.5</f>
         <v>112250</v>
       </c>
       <c r="L81" s="22">
-        <f t="shared" ref="L81:L82" si="63">L80+500+QUOTIENT(E81,15)*1500</f>
+        <f t="shared" ref="L81:L82" si="65">L80+500+QUOTIENT(E81,15)*1500</f>
         <v>224500</v>
       </c>
     </row>
@@ -10144,11 +10284,11 @@
         <v>73</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>100피</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>9.9999999999999998E+185</v>
       </c>
       <c r="H82" s="17">
@@ -10160,15 +10300,15 @@
         <v>피</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1E+184</v>
       </c>
       <c r="K82" s="22">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>115500</v>
       </c>
       <c r="L82" s="22">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>231000</v>
       </c>
     </row>
@@ -10177,11 +10317,11 @@
         <v>74</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" ref="F83:F86" si="64">H83&amp;I83</f>
+        <f t="shared" ref="F83:F86" si="66">H83&amp;I83</f>
         <v>1동</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" ref="G83:G86" si="65">H83*J83</f>
+        <f t="shared" ref="G83:G86" si="67">H83*J83</f>
         <v>1E+188</v>
       </c>
       <c r="H83" s="17">
@@ -10193,15 +10333,15 @@
         <v>동</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" ref="J83:J86" si="66">VLOOKUP(I83,O:R,4,FALSE)</f>
+        <f t="shared" ref="J83:J86" si="68">VLOOKUP(I83,O:R,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K83" s="22">
-        <f t="shared" ref="K83:K86" si="67">L83*0.5</f>
+        <f t="shared" ref="K83:K86" si="69">L83*0.5</f>
         <v>118750</v>
       </c>
       <c r="L83" s="22">
-        <f t="shared" ref="L83:L86" si="68">L82+500+QUOTIENT(E83,15)*1500</f>
+        <f t="shared" ref="L83:L86" si="70">L82+500+QUOTIENT(E83,15)*1500</f>
         <v>237500</v>
       </c>
     </row>
@@ -10210,11 +10350,11 @@
         <v>75</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>100동</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1.0000000000000001E+190</v>
       </c>
       <c r="H84" s="17">
@@ -10226,15 +10366,15 @@
         <v>동</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1E+188</v>
       </c>
       <c r="K84" s="22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>122750</v>
       </c>
       <c r="L84" s="22">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>245500</v>
       </c>
     </row>
@@ -10243,11 +10383,11 @@
         <v>76</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1멸</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1E+192</v>
       </c>
       <c r="H85" s="17">
@@ -10259,15 +10399,15 @@
         <v>멸</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1E+192</v>
       </c>
       <c r="K85" s="22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>126750</v>
       </c>
       <c r="L85" s="22">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>253500</v>
       </c>
     </row>
@@ -10276,11 +10416,11 @@
         <v>77</v>
       </c>
       <c r="F86" s="17" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>100멸</v>
       </c>
       <c r="G86" s="17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1.0000000000000001E+194</v>
       </c>
       <c r="H86" s="17">
@@ -10292,15 +10432,15 @@
         <v>멸</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1E+192</v>
       </c>
       <c r="K86" s="22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>130750</v>
       </c>
       <c r="L86" s="22">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>261500</v>
       </c>
     </row>
@@ -10309,11 +10449,11 @@
         <v>78</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" ref="F87:F90" si="69">H87&amp;I87</f>
+        <f t="shared" ref="F87:F90" si="71">H87&amp;I87</f>
         <v>1향</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" ref="G87:G90" si="70">H87*J87</f>
+        <f t="shared" ref="G87:G90" si="72">H87*J87</f>
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="H87" s="17">
@@ -10325,15 +10465,15 @@
         <v>향</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" ref="J87:J90" si="71">VLOOKUP(I87,O:R,4,FALSE)</f>
+        <f t="shared" ref="J87:J90" si="73">VLOOKUP(I87,O:R,4,FALSE)</f>
         <v>1E+196</v>
       </c>
       <c r="K87" s="22">
-        <f t="shared" ref="K87:K90" si="72">L87*0.5</f>
+        <f t="shared" ref="K87:K90" si="74">L87*0.5</f>
         <v>134750</v>
       </c>
       <c r="L87" s="22">
-        <f t="shared" ref="L87:L90" si="73">L86+500+QUOTIENT(E87,15)*1500</f>
+        <f t="shared" ref="L87:L90" si="75">L86+500+QUOTIENT(E87,15)*1500</f>
         <v>269500</v>
       </c>
     </row>
@@ -10342,11 +10482,11 @@
         <v>79</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>100향</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>9.9999999999999988E+197</v>
       </c>
       <c r="H88" s="17">
@@ -10358,15 +10498,15 @@
         <v>향</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1E+196</v>
       </c>
       <c r="K88" s="22">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>138750</v>
       </c>
       <c r="L88" s="22">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>277500</v>
       </c>
     </row>
@@ -10375,11 +10515,11 @@
         <v>80</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1증</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>9.9999999999999997E+199</v>
       </c>
       <c r="H89" s="17">
@@ -10391,15 +10531,15 @@
         <v>증</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1E+200</v>
       </c>
       <c r="K89" s="22">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>142750</v>
       </c>
       <c r="L89" s="22">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>285500</v>
       </c>
     </row>
@@ -10408,11 +10548,11 @@
         <v>81</v>
       </c>
       <c r="F90" s="17" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>100증</v>
       </c>
       <c r="G90" s="17">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>9.999999999999999E+201</v>
       </c>
       <c r="H90" s="17">
@@ -10424,15 +10564,15 @@
         <v>증</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1E+200</v>
       </c>
       <c r="K90" s="22">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>146750</v>
       </c>
       <c r="L90" s="22">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>293500</v>
       </c>
     </row>
@@ -10441,11 +10581,11 @@
         <v>82</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" ref="F91:F94" si="74">H91&amp;I91</f>
+        <f t="shared" ref="F91:F94" si="76">H91&amp;I91</f>
         <v>1쾌</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" ref="G91:G94" si="75">H91*J91</f>
+        <f t="shared" ref="G91:G94" si="77">H91*J91</f>
         <v>9.9999999999999999E+203</v>
       </c>
       <c r="H91" s="17">
@@ -10457,15 +10597,15 @@
         <v>쾌</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" ref="J91:J94" si="76">VLOOKUP(I91,O:R,4,FALSE)</f>
+        <f t="shared" ref="J91:J94" si="78">VLOOKUP(I91,O:R,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K91" s="22">
-        <f t="shared" ref="K91:K94" si="77">L91*0.5</f>
+        <f t="shared" ref="K91:K94" si="79">L91*0.5</f>
         <v>150750</v>
       </c>
       <c r="L91" s="22">
-        <f t="shared" ref="L91:L94" si="78">L90+500+QUOTIENT(E91,15)*1500</f>
+        <f t="shared" ref="L91:L94" si="80">L90+500+QUOTIENT(E91,15)*1500</f>
         <v>301500</v>
       </c>
     </row>
@@ -10474,11 +10614,11 @@
         <v>83</v>
       </c>
       <c r="F92" s="17" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>100쾌</v>
       </c>
       <c r="G92" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1E+206</v>
       </c>
       <c r="H92" s="17">
@@ -10490,15 +10630,15 @@
         <v>쾌</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+204</v>
       </c>
       <c r="K92" s="22">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>154750</v>
       </c>
       <c r="L92" s="22">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>309500</v>
       </c>
     </row>
@@ -10507,11 +10647,11 @@
         <v>84</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1우</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>9.9999999999999998E+207</v>
       </c>
       <c r="H93" s="17">
@@ -10523,15 +10663,15 @@
         <v>우</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+208</v>
       </c>
       <c r="K93" s="22">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>158750</v>
       </c>
       <c r="L93" s="22">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>317500</v>
       </c>
     </row>
@@ -10540,11 +10680,11 @@
         <v>85</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>100우</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>9.9999999999999993E+209</v>
       </c>
       <c r="H94" s="17">
@@ -10556,15 +10696,15 @@
         <v>우</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+208</v>
       </c>
       <c r="K94" s="22">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>162750</v>
       </c>
       <c r="L94" s="22">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>325500</v>
       </c>
     </row>
@@ -10573,11 +10713,11 @@
         <v>86</v>
       </c>
       <c r="F95" s="17" t="str">
-        <f t="shared" ref="F95:F99" si="79">H95&amp;I95</f>
+        <f t="shared" ref="F95:F99" si="81">H95&amp;I95</f>
         <v>1팽</v>
       </c>
       <c r="G95" s="17">
-        <f t="shared" ref="G95:G99" si="80">H95*J95</f>
+        <f t="shared" ref="G95:G99" si="82">H95*J95</f>
         <v>9.9999999999999991E+211</v>
       </c>
       <c r="H95" s="17">
@@ -10589,15 +10729,15 @@
         <v>팽</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" ref="J95:J99" si="81">VLOOKUP(I95,O:R,4,FALSE)</f>
+        <f t="shared" ref="J95:J99" si="83">VLOOKUP(I95,O:R,4,FALSE)</f>
         <v>1E+212</v>
       </c>
       <c r="K95" s="22">
-        <f t="shared" ref="K95:K99" si="82">L95*0.5</f>
+        <f t="shared" ref="K95:K99" si="84">L95*0.5</f>
         <v>166750</v>
       </c>
       <c r="L95" s="22">
-        <f t="shared" ref="L95:L99" si="83">L94+500+QUOTIENT(E95,15)*1500</f>
+        <f t="shared" ref="L95:L99" si="85">L94+500+QUOTIENT(E95,15)*1500</f>
         <v>333500</v>
       </c>
     </row>
@@ -10606,11 +10746,11 @@
         <v>87</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>100팽</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>9.9999999999999995E+213</v>
       </c>
       <c r="H96" s="17">
@@ -10622,15 +10762,15 @@
         <v>팽</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1E+212</v>
       </c>
       <c r="K96" s="22">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>170750</v>
       </c>
       <c r="L96" s="22">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>341500</v>
       </c>
     </row>
@@ -10639,11 +10779,11 @@
         <v>88</v>
       </c>
       <c r="F97" s="17" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1관</v>
       </c>
       <c r="G97" s="17">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1E+216</v>
       </c>
       <c r="H97" s="17">
@@ -10655,15 +10795,15 @@
         <v>관</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1E+216</v>
       </c>
       <c r="K97" s="22">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>174750</v>
       </c>
       <c r="L97" s="22">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>349500</v>
       </c>
     </row>
@@ -10672,11 +10812,11 @@
         <v>89</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>100관</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1.0000000000000001E+218</v>
       </c>
       <c r="H98" s="17">
@@ -10688,15 +10828,15 @@
         <v>관</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1E+216</v>
       </c>
       <c r="K98" s="22">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>178750</v>
       </c>
       <c r="L98" s="22">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>357500</v>
       </c>
     </row>
@@ -10705,11 +10845,11 @@
         <v>90</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1한</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1E+220</v>
       </c>
       <c r="H99" s="17">
@@ -10721,15 +10861,15 @@
         <v>한</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1E+220</v>
       </c>
       <c r="K99" s="22">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>183500</v>
       </c>
       <c r="L99" s="22">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>367000</v>
       </c>
     </row>
@@ -10738,11 +10878,11 @@
         <v>91</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" ref="F100:F102" si="84">H100&amp;I100</f>
+        <f t="shared" ref="F100:F102" si="86">H100&amp;I100</f>
         <v>100한</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" ref="G100:G102" si="85">H100*J100</f>
+        <f t="shared" ref="G100:G102" si="87">H100*J100</f>
         <v>1E+222</v>
       </c>
       <c r="H100" s="17">
@@ -10754,15 +10894,15 @@
         <v>한</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" ref="J100:J102" si="86">VLOOKUP(I100,O:R,4,FALSE)</f>
+        <f t="shared" ref="J100:J102" si="88">VLOOKUP(I100,O:R,4,FALSE)</f>
         <v>1E+220</v>
       </c>
       <c r="K100" s="22">
-        <f t="shared" ref="K100:K102" si="87">L100*0.5</f>
+        <f t="shared" ref="K100:K102" si="89">L100*0.5</f>
         <v>188250</v>
       </c>
       <c r="L100" s="22">
-        <f t="shared" ref="L100:L102" si="88">L99+500+QUOTIENT(E100,15)*1500</f>
+        <f t="shared" ref="L100:L102" si="90">L99+500+QUOTIENT(E100,15)*1500</f>
         <v>376500</v>
       </c>
     </row>
@@ -10771,11 +10911,11 @@
         <v>92</v>
       </c>
       <c r="F101" s="17" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1혈</v>
       </c>
       <c r="G101" s="17">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>9.9999999999999997E+223</v>
       </c>
       <c r="H101" s="17">
@@ -10787,15 +10927,15 @@
         <v>혈</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1E+224</v>
       </c>
       <c r="K101" s="22">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>193000</v>
       </c>
       <c r="L101" s="22">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>386000</v>
       </c>
     </row>
@@ -10804,11 +10944,11 @@
         <v>93</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>100혈</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>9.9999999999999996E+225</v>
       </c>
       <c r="H102" s="17">
@@ -10820,15 +10960,15 @@
         <v>혈</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1E+224</v>
       </c>
       <c r="K102" s="22">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>197750</v>
       </c>
       <c r="L102" s="22">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>395500</v>
       </c>
     </row>
@@ -10837,11 +10977,11 @@
         <v>94</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" ref="F103:F106" si="89">H103&amp;I103</f>
+        <f t="shared" ref="F103:F106" si="91">H103&amp;I103</f>
         <v>1연</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" ref="G103:G106" si="90">H103*J103</f>
+        <f t="shared" ref="G103:G106" si="92">H103*J103</f>
         <v>9.9999999999999992E+227</v>
       </c>
       <c r="H103" s="17">
@@ -10853,15 +10993,15 @@
         <v>연</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" ref="J103:J106" si="91">VLOOKUP(I103,O:R,4,FALSE)</f>
+        <f t="shared" ref="J103:J106" si="93">VLOOKUP(I103,O:R,4,FALSE)</f>
         <v>1E+228</v>
       </c>
       <c r="K103" s="22">
-        <f t="shared" ref="K103:K106" si="92">L103*0.5</f>
+        <f t="shared" ref="K103:K106" si="94">L103*0.5</f>
         <v>202500</v>
       </c>
       <c r="L103" s="22">
-        <f t="shared" ref="L103:L106" si="93">L102+500+QUOTIENT(E103,15)*1500</f>
+        <f t="shared" ref="L103:L106" si="95">L102+500+QUOTIENT(E103,15)*1500</f>
         <v>405000</v>
       </c>
     </row>
@@ -10870,11 +11010,11 @@
         <v>95</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>100연</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>9.9999999999999988E+229</v>
       </c>
       <c r="H104" s="17">
@@ -10886,15 +11026,15 @@
         <v>연</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>1E+228</v>
       </c>
       <c r="K104" s="22">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>207250</v>
       </c>
       <c r="L104" s="22">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>414500</v>
       </c>
     </row>
@@ -10903,11 +11043,11 @@
         <v>96</v>
       </c>
       <c r="F105" s="17" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>1난</v>
       </c>
       <c r="G105" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1.0000000000000001E+232</v>
       </c>
       <c r="H105" s="17">
@@ -10919,15 +11059,15 @@
         <v>난</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>1E+232</v>
       </c>
       <c r="K105" s="22">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>212000</v>
       </c>
       <c r="L105" s="22">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>424000</v>
       </c>
     </row>
@@ -10936,11 +11076,11 @@
         <v>97</v>
       </c>
       <c r="F106" s="17" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>100난</v>
       </c>
       <c r="G106" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1E+234</v>
       </c>
       <c r="H106" s="17">
@@ -10952,16 +11092,82 @@
         <v>난</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>1E+232</v>
       </c>
       <c r="K106" s="22">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>216750</v>
       </c>
       <c r="L106" s="22">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>433500</v>
+      </c>
+    </row>
+    <row r="107" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E107" s="16">
+        <v>98</v>
+      </c>
+      <c r="F107" s="17" t="str">
+        <f t="shared" ref="F107:F108" si="96">H107&amp;I107</f>
+        <v>1군</v>
+      </c>
+      <c r="G107" s="17">
+        <f t="shared" ref="G107:G108" si="97">H107*J107</f>
+        <v>1.0000000000000001E+236</v>
+      </c>
+      <c r="H107" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I107" s="16" t="str" cm="1">
+        <f t="array" ref="I107">IF(AND(H106&gt;=100,H107&lt;2),INDEX(O:O,MATCH(I106,O:O,0)+1,0),I106)</f>
+        <v>군</v>
+      </c>
+      <c r="J107" s="16" t="str">
+        <f t="shared" ref="J107:J108" si="98">VLOOKUP(I107,O:R,4,FALSE)</f>
+        <v>1E+236</v>
+      </c>
+      <c r="K107" s="22">
+        <f t="shared" ref="K107:K108" si="99">L107*0.5</f>
+        <v>221500</v>
+      </c>
+      <c r="L107" s="22">
+        <f t="shared" ref="L107:L108" si="100">L106+500+QUOTIENT(E107,15)*1500</f>
+        <v>443000</v>
+      </c>
+    </row>
+    <row r="108" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E108" s="16">
+        <v>99</v>
+      </c>
+      <c r="F108" s="17" t="str">
+        <f t="shared" si="96"/>
+        <v>100군</v>
+      </c>
+      <c r="G108" s="17">
+        <f t="shared" si="97"/>
+        <v>1E+238</v>
+      </c>
+      <c r="H108" s="17">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I108" s="16" t="str" cm="1">
+        <f t="array" ref="I108">IF(AND(H107&gt;=100,H108&lt;2),INDEX(O:O,MATCH(I107,O:O,0)+1,0),I107)</f>
+        <v>군</v>
+      </c>
+      <c r="J108" s="16" t="str">
+        <f t="shared" si="98"/>
+        <v>1E+236</v>
+      </c>
+      <c r="K108" s="22">
+        <f t="shared" si="99"/>
+        <v>226250</v>
+      </c>
+      <c r="L108" s="22">
+        <f t="shared" si="100"/>
+        <v>452500</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MeditationTower.xlsx
+++ b/Assets/06.Table/MeditationTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C293BDB8-4DA4-4F1A-98BC-E810882658A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28F2FBE-85D5-4833-8EF9-72B28727A51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="94">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1026,12 +1026,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K78" sqref="K78"/>
-      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
+      <selection pane="bottomLeft" activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4604,7 +4604,7 @@
         <v>192000</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:G101" si="65">G68</f>
+        <f t="shared" ref="G69:G103" si="65">G68</f>
         <v>1</v>
       </c>
       <c r="H69" s="2">
@@ -4627,7 +4627,7 @@
         <v>57</v>
       </c>
       <c r="M69">
-        <f t="shared" ref="M69:M101" si="67">M68+200</f>
+        <f t="shared" ref="M69:M103" si="67">M68+200</f>
         <v>15400</v>
       </c>
     </row>
@@ -5116,7 +5116,7 @@
         <v>130750</v>
       </c>
       <c r="E79">
-        <f t="shared" ref="E79:E101" si="86">E78</f>
+        <f t="shared" ref="E79:E103" si="86">E78</f>
         <v>9043</v>
       </c>
       <c r="F79">
@@ -6295,9 +6295,113 @@
         <v>21800</v>
       </c>
     </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1" t="str">
+        <f t="shared" ref="B102:C102" si="132">B101</f>
+        <v>1-1</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="132"/>
+        <v>9043</v>
+      </c>
+      <c r="D102">
+        <f>VLOOKUP(A102,Balance!E:K,7,FALSE)</f>
+        <v>231000</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F102">
+        <f>VLOOKUP(A102,Balance!E:L,8,)</f>
+        <v>462000</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H102" s="2">
+        <f>VLOOKUP(A102,Balance!E:K,3,FALSE)</f>
+        <v>1E+240</v>
+      </c>
+      <c r="I102">
+        <f t="shared" ref="I102:K102" si="133">I101</f>
+        <v>1000</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="133"/>
+        <v>8</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="L102" t="s">
+        <v>57</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="67"/>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1" t="str">
+        <f t="shared" ref="B103:C103" si="134">B102</f>
+        <v>1-1</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="134"/>
+        <v>9043</v>
+      </c>
+      <c r="D103">
+        <f>VLOOKUP(A103,Balance!E:K,7,FALSE)</f>
+        <v>235750</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F103">
+        <f>VLOOKUP(A103,Balance!E:L,8,)</f>
+        <v>471500</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H103" s="2">
+        <f>VLOOKUP(A103,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+242</v>
+      </c>
+      <c r="I103">
+        <f t="shared" ref="I103:K103" si="135">I102</f>
+        <v>1000</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="135"/>
+        <v>8</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="L103" t="s">
+        <v>57</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="67"/>
+        <v>22200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 A2:E101 G13:M101">
+  <conditionalFormatting sqref="G2:N12 A2:E103 G13:M103">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -6309,10 +6413,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:AA108"/>
+  <dimension ref="A1:AA110"/>
   <sheetViews>
     <sheetView topLeftCell="D87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I107" sqref="I107"/>
+      <selection activeCell="J108" sqref="J108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6635,7 +6739,7 @@
         <v>1.0000000000000001E+46</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" ref="H12:H108" si="5">H10</f>
+        <f t="shared" ref="H12:H110" si="5">H10</f>
         <v>100</v>
       </c>
       <c r="I12" s="16" t="str" cm="1">
@@ -11109,11 +11213,11 @@
         <v>98</v>
       </c>
       <c r="F107" s="17" t="str">
-        <f t="shared" ref="F107:F108" si="96">H107&amp;I107</f>
+        <f t="shared" ref="F107:F110" si="96">H107&amp;I107</f>
         <v>1군</v>
       </c>
       <c r="G107" s="17">
-        <f t="shared" ref="G107:G108" si="97">H107*J107</f>
+        <f t="shared" ref="G107:G110" si="97">H107*J107</f>
         <v>1.0000000000000001E+236</v>
       </c>
       <c r="H107" s="17">
@@ -11125,15 +11229,15 @@
         <v>군</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" ref="J107:J108" si="98">VLOOKUP(I107,O:R,4,FALSE)</f>
+        <f t="shared" ref="J107:J110" si="98">VLOOKUP(I107,O:R,4,FALSE)</f>
         <v>1E+236</v>
       </c>
       <c r="K107" s="22">
-        <f t="shared" ref="K107:K108" si="99">L107*0.5</f>
+        <f t="shared" ref="K107:K110" si="99">L107*0.5</f>
         <v>221500</v>
       </c>
       <c r="L107" s="22">
-        <f t="shared" ref="L107:L108" si="100">L106+500+QUOTIENT(E107,15)*1500</f>
+        <f t="shared" ref="L107:L110" si="100">L106+500+QUOTIENT(E107,15)*1500</f>
         <v>443000</v>
       </c>
     </row>
@@ -11168,6 +11272,72 @@
       <c r="L108" s="22">
         <f t="shared" si="100"/>
         <v>452500</v>
+      </c>
+    </row>
+    <row r="109" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E109" s="16">
+        <v>100</v>
+      </c>
+      <c r="F109" s="17" t="str">
+        <f t="shared" si="96"/>
+        <v>1결</v>
+      </c>
+      <c r="G109" s="17">
+        <f t="shared" si="97"/>
+        <v>1E+240</v>
+      </c>
+      <c r="H109" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I109" s="16" t="str" cm="1">
+        <f t="array" ref="I109">IF(AND(H108&gt;=100,H109&lt;2),INDEX(O:O,MATCH(I108,O:O,0)+1,0),I108)</f>
+        <v>결</v>
+      </c>
+      <c r="J109" s="16" t="str">
+        <f t="shared" si="98"/>
+        <v>1E+240</v>
+      </c>
+      <c r="K109" s="22">
+        <f t="shared" si="99"/>
+        <v>231000</v>
+      </c>
+      <c r="L109" s="22">
+        <f t="shared" si="100"/>
+        <v>462000</v>
+      </c>
+    </row>
+    <row r="110" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E110" s="16">
+        <v>101</v>
+      </c>
+      <c r="F110" s="17" t="str">
+        <f t="shared" si="96"/>
+        <v>100결</v>
+      </c>
+      <c r="G110" s="17">
+        <f t="shared" si="97"/>
+        <v>1.0000000000000001E+242</v>
+      </c>
+      <c r="H110" s="17">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I110" s="16" t="str" cm="1">
+        <f t="array" ref="I110">IF(AND(H109&gt;=100,H110&lt;2),INDEX(O:O,MATCH(I109,O:O,0)+1,0),I109)</f>
+        <v>결</v>
+      </c>
+      <c r="J110" s="16" t="str">
+        <f t="shared" si="98"/>
+        <v>1E+240</v>
+      </c>
+      <c r="K110" s="22">
+        <f t="shared" si="99"/>
+        <v>235750</v>
+      </c>
+      <c r="L110" s="22">
+        <f t="shared" si="100"/>
+        <v>471500</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MeditationTower.xlsx
+++ b/Assets/06.Table/MeditationTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28F2FBE-85D5-4833-8EF9-72B28727A51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB53BFF1-DF61-4B7D-BEC0-F349E17B2573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="96">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -431,6 +431,14 @@
   </si>
   <si>
     <t>맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1026,12 +1034,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O103"/>
+  <dimension ref="A1:O105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K78" sqref="K78"/>
-      <selection pane="bottomLeft" activeCell="D101" sqref="D101"/>
+      <selection pane="bottomLeft" activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4604,7 +4612,7 @@
         <v>192000</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:G103" si="65">G68</f>
+        <f t="shared" ref="G69:G105" si="65">G68</f>
         <v>1</v>
       </c>
       <c r="H69" s="2">
@@ -4627,7 +4635,7 @@
         <v>57</v>
       </c>
       <c r="M69">
-        <f t="shared" ref="M69:M103" si="67">M68+200</f>
+        <f t="shared" ref="M69:M105" si="67">M68+200</f>
         <v>15400</v>
       </c>
     </row>
@@ -5116,7 +5124,7 @@
         <v>130750</v>
       </c>
       <c r="E79">
-        <f t="shared" ref="E79:E103" si="86">E78</f>
+        <f t="shared" ref="E79:E105" si="86">E78</f>
         <v>9043</v>
       </c>
       <c r="F79">
@@ -6399,9 +6407,113 @@
         <v>22200</v>
       </c>
     </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1" t="str">
+        <f t="shared" ref="B104:C104" si="136">B103</f>
+        <v>1-1</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="136"/>
+        <v>9043</v>
+      </c>
+      <c r="D104">
+        <f>VLOOKUP(A104,Balance!E:K,7,FALSE)</f>
+        <v>240500</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F104">
+        <f>VLOOKUP(A104,Balance!E:L,8,)</f>
+        <v>481000</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H104" s="2">
+        <f>VLOOKUP(A104,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+244</v>
+      </c>
+      <c r="I104">
+        <f t="shared" ref="I104:K104" si="137">I103</f>
+        <v>1000</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="137"/>
+        <v>8</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+      <c r="L104" t="s">
+        <v>57</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="67"/>
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1" t="str">
+        <f t="shared" ref="B105:C105" si="138">B104</f>
+        <v>1-1</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="138"/>
+        <v>9043</v>
+      </c>
+      <c r="D105">
+        <f>VLOOKUP(A105,Balance!E:K,7,FALSE)</f>
+        <v>245250</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F105">
+        <f>VLOOKUP(A105,Balance!E:L,8,)</f>
+        <v>490500</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H105" s="2">
+        <f>VLOOKUP(A105,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+246</v>
+      </c>
+      <c r="I105">
+        <f t="shared" ref="I105:K105" si="139">I104</f>
+        <v>1000</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="139"/>
+        <v>8</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
+      <c r="L105" t="s">
+        <v>57</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="67"/>
+        <v>22600</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 A2:E103 G13:M103">
+  <conditionalFormatting sqref="G2:N12 A2:E105 G13:M105">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -6413,10 +6525,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:AA110"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
-    <sheetView topLeftCell="D87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J108" sqref="J108"/>
+    <sheetView topLeftCell="D94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K112" sqref="K111:K112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6739,7 +6851,7 @@
         <v>1.0000000000000001E+46</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" ref="H12:H110" si="5">H10</f>
+        <f t="shared" ref="H12:H112" si="5">H10</f>
         <v>100</v>
       </c>
       <c r="I12" s="16" t="str" cm="1">
@@ -9986,6 +10098,20 @@
         <v>60</v>
       </c>
       <c r="N69" s="22"/>
+      <c r="O69" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="P69" s="16">
+        <v>248</v>
+      </c>
+      <c r="Q69" s="17">
+        <f t="shared" ref="Q69:Q70" si="46">POWER(10,P69)</f>
+        <v>1E+248</v>
+      </c>
+      <c r="R69" s="17" t="str">
+        <f t="shared" ref="R69:R70" si="47">RIGHT(Q69,P69)</f>
+        <v>1E+248</v>
+      </c>
     </row>
     <row r="70" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E70" s="16">
@@ -9996,7 +10122,7 @@
         <v>100단</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" ref="G70:G72" si="46">H70*J70</f>
+        <f t="shared" ref="G70:G72" si="48">H70*J70</f>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="H70" s="17">
@@ -10008,16 +10134,30 @@
         <v>단</v>
       </c>
       <c r="J70" s="16" t="str">
-        <f t="shared" ref="J70:J72" si="47">VLOOKUP(I70,O:R,4,FALSE)</f>
+        <f t="shared" ref="J70:J72" si="49">VLOOKUP(I70,O:R,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K70" s="22">
-        <f t="shared" ref="K70:K72" si="48">L70*0.5</f>
+        <f t="shared" ref="K70:K72" si="50">L70*0.5</f>
         <v>76500</v>
       </c>
       <c r="L70" s="22">
-        <f t="shared" ref="L70:L72" si="49">L69+500+QUOTIENT(E70,15)*1500</f>
+        <f t="shared" ref="L70:L72" si="51">L69+500+QUOTIENT(E70,15)*1500</f>
         <v>153000</v>
+      </c>
+      <c r="O70" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="P70" s="16">
+        <v>252</v>
+      </c>
+      <c r="Q70" s="17">
+        <f t="shared" si="46"/>
+        <v>1.0000000000000001E+252</v>
+      </c>
+      <c r="R70" s="17" t="str">
+        <f t="shared" si="47"/>
+        <v>1E+252</v>
       </c>
     </row>
     <row r="71" spans="5:27" x14ac:dyDescent="0.3">
@@ -10025,11 +10165,11 @@
         <v>62</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" ref="F71:F72" si="50">H71&amp;I71</f>
+        <f t="shared" ref="F71:F72" si="52">H71&amp;I71</f>
         <v>1절</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+164</v>
       </c>
       <c r="H71" s="17">
@@ -10041,15 +10181,15 @@
         <v>절</v>
       </c>
       <c r="J71" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+164</v>
       </c>
       <c r="K71" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>79750</v>
       </c>
       <c r="L71" s="22">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>159500</v>
       </c>
     </row>
@@ -10058,11 +10198,11 @@
         <v>63</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>100절</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="H72" s="17">
@@ -10074,15 +10214,15 @@
         <v>절</v>
       </c>
       <c r="J72" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+164</v>
       </c>
       <c r="K72" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>83000</v>
       </c>
       <c r="L72" s="22">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>166000</v>
       </c>
     </row>
@@ -10091,11 +10231,11 @@
         <v>64</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F75" si="51">H73&amp;I73</f>
+        <f t="shared" ref="F73:F75" si="53">H73&amp;I73</f>
         <v>1격</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G75" si="52">H73*J73</f>
+        <f t="shared" ref="G73:G75" si="54">H73*J73</f>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="H73" s="17">
@@ -10107,15 +10247,15 @@
         <v>격</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J75" si="53">VLOOKUP(I73,O:R,4,FALSE)</f>
+        <f t="shared" ref="J73:J75" si="55">VLOOKUP(I73,O:R,4,FALSE)</f>
         <v>1E+168</v>
       </c>
       <c r="K73" s="22">
-        <f t="shared" ref="K73:K75" si="54">L73*0.5</f>
+        <f t="shared" ref="K73:K75" si="56">L73*0.5</f>
         <v>86250</v>
       </c>
       <c r="L73" s="22">
-        <f t="shared" ref="L73:L75" si="55">L72+500+QUOTIENT(E73,15)*1500</f>
+        <f t="shared" ref="L73:L75" si="57">L72+500+QUOTIENT(E73,15)*1500</f>
         <v>172500</v>
       </c>
     </row>
@@ -10124,11 +10264,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>100격</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="H74" s="17">
@@ -10140,15 +10280,15 @@
         <v>격</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+168</v>
       </c>
       <c r="K74" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>89500</v>
       </c>
       <c r="L74" s="22">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>179000</v>
       </c>
     </row>
@@ -10157,11 +10297,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1창</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="H75" s="17">
@@ -10173,15 +10313,15 @@
         <v>창</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+172</v>
       </c>
       <c r="K75" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>92750</v>
       </c>
       <c r="L75" s="22">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>185500</v>
       </c>
     </row>
@@ -10190,11 +10330,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" ref="F76:F80" si="56">H76&amp;I76</f>
+        <f t="shared" ref="F76:F80" si="58">H76&amp;I76</f>
         <v>100창</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" ref="G76:G80" si="57">H76*J76</f>
+        <f t="shared" ref="G76:G80" si="59">H76*J76</f>
         <v>1.0000000000000001E+174</v>
       </c>
       <c r="H76" s="17">
@@ -10206,15 +10346,15 @@
         <v>창</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" ref="J76:J80" si="58">VLOOKUP(I76,O:R,4,FALSE)</f>
+        <f t="shared" ref="J76:J80" si="60">VLOOKUP(I76,O:R,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K76" s="22">
-        <f t="shared" ref="K76:K80" si="59">L76*0.5</f>
+        <f t="shared" ref="K76:K80" si="61">L76*0.5</f>
         <v>96000</v>
       </c>
       <c r="L76" s="22">
-        <f t="shared" ref="L76:L80" si="60">L75+500+QUOTIENT(E76,15)*1500</f>
+        <f t="shared" ref="L76:L80" si="62">L75+500+QUOTIENT(E76,15)*1500</f>
         <v>192000</v>
       </c>
     </row>
@@ -10223,11 +10363,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1공</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1E+176</v>
       </c>
       <c r="H77" s="17">
@@ -10239,15 +10379,15 @@
         <v>공</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+176</v>
       </c>
       <c r="K77" s="22">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>99250</v>
       </c>
       <c r="L77" s="22">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>198500</v>
       </c>
     </row>
@@ -10256,11 +10396,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>100공</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1.0000000000000001E+178</v>
       </c>
       <c r="H78" s="17">
@@ -10272,15 +10412,15 @@
         <v>공</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+176</v>
       </c>
       <c r="K78" s="22">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>102500</v>
       </c>
       <c r="L78" s="22">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>205000</v>
       </c>
     </row>
@@ -10289,11 +10429,11 @@
         <v>70</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1채</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1E+180</v>
       </c>
       <c r="H79" s="17">
@@ -10305,15 +10445,15 @@
         <v>채</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+180</v>
       </c>
       <c r="K79" s="22">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>105750</v>
       </c>
       <c r="L79" s="22">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>211500</v>
       </c>
     </row>
@@ -10322,11 +10462,11 @@
         <v>71</v>
       </c>
       <c r="F80" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>100채</v>
       </c>
       <c r="G80" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1.0000000000000001E+182</v>
       </c>
       <c r="H80" s="17">
@@ -10338,15 +10478,15 @@
         <v>채</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+180</v>
       </c>
       <c r="K80" s="22">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>109000</v>
       </c>
       <c r="L80" s="22">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>218000</v>
       </c>
     </row>
@@ -10355,11 +10495,11 @@
         <v>72</v>
       </c>
       <c r="F81" s="17" t="str">
-        <f t="shared" ref="F81:F82" si="61">H81&amp;I81</f>
+        <f t="shared" ref="F81:F82" si="63">H81&amp;I81</f>
         <v>1피</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" ref="G81:G82" si="62">H81*J81</f>
+        <f t="shared" ref="G81:G82" si="64">H81*J81</f>
         <v>1E+184</v>
       </c>
       <c r="H81" s="17">
@@ -10371,15 +10511,15 @@
         <v>피</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" ref="J81:J82" si="63">VLOOKUP(I81,O:R,4,FALSE)</f>
+        <f t="shared" ref="J81:J82" si="65">VLOOKUP(I81,O:R,4,FALSE)</f>
         <v>1E+184</v>
       </c>
       <c r="K81" s="22">
-        <f t="shared" ref="K81:K82" si="64">L81*0.5</f>
+        <f t="shared" ref="K81:K82" si="66">L81*0.5</f>
         <v>112250</v>
       </c>
       <c r="L81" s="22">
-        <f t="shared" ref="L81:L82" si="65">L80+500+QUOTIENT(E81,15)*1500</f>
+        <f t="shared" ref="L81:L82" si="67">L80+500+QUOTIENT(E81,15)*1500</f>
         <v>224500</v>
       </c>
     </row>
@@ -10388,11 +10528,11 @@
         <v>73</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>100피</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>9.9999999999999998E+185</v>
       </c>
       <c r="H82" s="17">
@@ -10404,15 +10544,15 @@
         <v>피</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1E+184</v>
       </c>
       <c r="K82" s="22">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>115500</v>
       </c>
       <c r="L82" s="22">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>231000</v>
       </c>
     </row>
@@ -10421,11 +10561,11 @@
         <v>74</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" ref="F83:F86" si="66">H83&amp;I83</f>
+        <f t="shared" ref="F83:F86" si="68">H83&amp;I83</f>
         <v>1동</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" ref="G83:G86" si="67">H83*J83</f>
+        <f t="shared" ref="G83:G86" si="69">H83*J83</f>
         <v>1E+188</v>
       </c>
       <c r="H83" s="17">
@@ -10437,15 +10577,15 @@
         <v>동</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" ref="J83:J86" si="68">VLOOKUP(I83,O:R,4,FALSE)</f>
+        <f t="shared" ref="J83:J86" si="70">VLOOKUP(I83,O:R,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K83" s="22">
-        <f t="shared" ref="K83:K86" si="69">L83*0.5</f>
+        <f t="shared" ref="K83:K86" si="71">L83*0.5</f>
         <v>118750</v>
       </c>
       <c r="L83" s="22">
-        <f t="shared" ref="L83:L86" si="70">L82+500+QUOTIENT(E83,15)*1500</f>
+        <f t="shared" ref="L83:L86" si="72">L82+500+QUOTIENT(E83,15)*1500</f>
         <v>237500</v>
       </c>
     </row>
@@ -10454,11 +10594,11 @@
         <v>75</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>100동</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1.0000000000000001E+190</v>
       </c>
       <c r="H84" s="17">
@@ -10470,15 +10610,15 @@
         <v>동</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1E+188</v>
       </c>
       <c r="K84" s="22">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>122750</v>
       </c>
       <c r="L84" s="22">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>245500</v>
       </c>
     </row>
@@ -10487,11 +10627,11 @@
         <v>76</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1멸</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1E+192</v>
       </c>
       <c r="H85" s="17">
@@ -10503,15 +10643,15 @@
         <v>멸</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1E+192</v>
       </c>
       <c r="K85" s="22">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>126750</v>
       </c>
       <c r="L85" s="22">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>253500</v>
       </c>
     </row>
@@ -10520,11 +10660,11 @@
         <v>77</v>
       </c>
       <c r="F86" s="17" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>100멸</v>
       </c>
       <c r="G86" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1.0000000000000001E+194</v>
       </c>
       <c r="H86" s="17">
@@ -10536,15 +10676,15 @@
         <v>멸</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1E+192</v>
       </c>
       <c r="K86" s="22">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>130750</v>
       </c>
       <c r="L86" s="22">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>261500</v>
       </c>
     </row>
@@ -10553,11 +10693,11 @@
         <v>78</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" ref="F87:F90" si="71">H87&amp;I87</f>
+        <f t="shared" ref="F87:F90" si="73">H87&amp;I87</f>
         <v>1향</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" ref="G87:G90" si="72">H87*J87</f>
+        <f t="shared" ref="G87:G90" si="74">H87*J87</f>
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="H87" s="17">
@@ -10569,15 +10709,15 @@
         <v>향</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" ref="J87:J90" si="73">VLOOKUP(I87,O:R,4,FALSE)</f>
+        <f t="shared" ref="J87:J90" si="75">VLOOKUP(I87,O:R,4,FALSE)</f>
         <v>1E+196</v>
       </c>
       <c r="K87" s="22">
-        <f t="shared" ref="K87:K90" si="74">L87*0.5</f>
+        <f t="shared" ref="K87:K90" si="76">L87*0.5</f>
         <v>134750</v>
       </c>
       <c r="L87" s="22">
-        <f t="shared" ref="L87:L90" si="75">L86+500+QUOTIENT(E87,15)*1500</f>
+        <f t="shared" ref="L87:L90" si="77">L86+500+QUOTIENT(E87,15)*1500</f>
         <v>269500</v>
       </c>
     </row>
@@ -10586,11 +10726,11 @@
         <v>79</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>100향</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>9.9999999999999988E+197</v>
       </c>
       <c r="H88" s="17">
@@ -10602,15 +10742,15 @@
         <v>향</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1E+196</v>
       </c>
       <c r="K88" s="22">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>138750</v>
       </c>
       <c r="L88" s="22">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>277500</v>
       </c>
     </row>
@@ -10619,11 +10759,11 @@
         <v>80</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1증</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>9.9999999999999997E+199</v>
       </c>
       <c r="H89" s="17">
@@ -10635,15 +10775,15 @@
         <v>증</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1E+200</v>
       </c>
       <c r="K89" s="22">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>142750</v>
       </c>
       <c r="L89" s="22">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>285500</v>
       </c>
     </row>
@@ -10652,11 +10792,11 @@
         <v>81</v>
       </c>
       <c r="F90" s="17" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>100증</v>
       </c>
       <c r="G90" s="17">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>9.999999999999999E+201</v>
       </c>
       <c r="H90" s="17">
@@ -10668,15 +10808,15 @@
         <v>증</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1E+200</v>
       </c>
       <c r="K90" s="22">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>146750</v>
       </c>
       <c r="L90" s="22">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>293500</v>
       </c>
     </row>
@@ -10685,11 +10825,11 @@
         <v>82</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" ref="F91:F94" si="76">H91&amp;I91</f>
+        <f t="shared" ref="F91:F94" si="78">H91&amp;I91</f>
         <v>1쾌</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" ref="G91:G94" si="77">H91*J91</f>
+        <f t="shared" ref="G91:G94" si="79">H91*J91</f>
         <v>9.9999999999999999E+203</v>
       </c>
       <c r="H91" s="17">
@@ -10701,15 +10841,15 @@
         <v>쾌</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" ref="J91:J94" si="78">VLOOKUP(I91,O:R,4,FALSE)</f>
+        <f t="shared" ref="J91:J94" si="80">VLOOKUP(I91,O:R,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K91" s="22">
-        <f t="shared" ref="K91:K94" si="79">L91*0.5</f>
+        <f t="shared" ref="K91:K94" si="81">L91*0.5</f>
         <v>150750</v>
       </c>
       <c r="L91" s="22">
-        <f t="shared" ref="L91:L94" si="80">L90+500+QUOTIENT(E91,15)*1500</f>
+        <f t="shared" ref="L91:L94" si="82">L90+500+QUOTIENT(E91,15)*1500</f>
         <v>301500</v>
       </c>
     </row>
@@ -10718,11 +10858,11 @@
         <v>83</v>
       </c>
       <c r="F92" s="17" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>100쾌</v>
       </c>
       <c r="G92" s="17">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1E+206</v>
       </c>
       <c r="H92" s="17">
@@ -10734,15 +10874,15 @@
         <v>쾌</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+204</v>
       </c>
       <c r="K92" s="22">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>154750</v>
       </c>
       <c r="L92" s="22">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>309500</v>
       </c>
     </row>
@@ -10751,11 +10891,11 @@
         <v>84</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1우</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>9.9999999999999998E+207</v>
       </c>
       <c r="H93" s="17">
@@ -10767,15 +10907,15 @@
         <v>우</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+208</v>
       </c>
       <c r="K93" s="22">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>158750</v>
       </c>
       <c r="L93" s="22">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>317500</v>
       </c>
     </row>
@@ -10784,11 +10924,11 @@
         <v>85</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>100우</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>9.9999999999999993E+209</v>
       </c>
       <c r="H94" s="17">
@@ -10800,15 +10940,15 @@
         <v>우</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+208</v>
       </c>
       <c r="K94" s="22">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>162750</v>
       </c>
       <c r="L94" s="22">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>325500</v>
       </c>
     </row>
@@ -10817,11 +10957,11 @@
         <v>86</v>
       </c>
       <c r="F95" s="17" t="str">
-        <f t="shared" ref="F95:F99" si="81">H95&amp;I95</f>
+        <f t="shared" ref="F95:F99" si="83">H95&amp;I95</f>
         <v>1팽</v>
       </c>
       <c r="G95" s="17">
-        <f t="shared" ref="G95:G99" si="82">H95*J95</f>
+        <f t="shared" ref="G95:G99" si="84">H95*J95</f>
         <v>9.9999999999999991E+211</v>
       </c>
       <c r="H95" s="17">
@@ -10833,15 +10973,15 @@
         <v>팽</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" ref="J95:J99" si="83">VLOOKUP(I95,O:R,4,FALSE)</f>
+        <f t="shared" ref="J95:J99" si="85">VLOOKUP(I95,O:R,4,FALSE)</f>
         <v>1E+212</v>
       </c>
       <c r="K95" s="22">
-        <f t="shared" ref="K95:K99" si="84">L95*0.5</f>
+        <f t="shared" ref="K95:K99" si="86">L95*0.5</f>
         <v>166750</v>
       </c>
       <c r="L95" s="22">
-        <f t="shared" ref="L95:L99" si="85">L94+500+QUOTIENT(E95,15)*1500</f>
+        <f t="shared" ref="L95:L99" si="87">L94+500+QUOTIENT(E95,15)*1500</f>
         <v>333500</v>
       </c>
     </row>
@@ -10850,11 +10990,11 @@
         <v>87</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>100팽</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>9.9999999999999995E+213</v>
       </c>
       <c r="H96" s="17">
@@ -10866,15 +11006,15 @@
         <v>팽</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>1E+212</v>
       </c>
       <c r="K96" s="22">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>170750</v>
       </c>
       <c r="L96" s="22">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>341500</v>
       </c>
     </row>
@@ -10883,11 +11023,11 @@
         <v>88</v>
       </c>
       <c r="F97" s="17" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1관</v>
       </c>
       <c r="G97" s="17">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1E+216</v>
       </c>
       <c r="H97" s="17">
@@ -10899,15 +11039,15 @@
         <v>관</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>1E+216</v>
       </c>
       <c r="K97" s="22">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>174750</v>
       </c>
       <c r="L97" s="22">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>349500</v>
       </c>
     </row>
@@ -10916,11 +11056,11 @@
         <v>89</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>100관</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1.0000000000000001E+218</v>
       </c>
       <c r="H98" s="17">
@@ -10932,15 +11072,15 @@
         <v>관</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>1E+216</v>
       </c>
       <c r="K98" s="22">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>178750</v>
       </c>
       <c r="L98" s="22">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>357500</v>
       </c>
     </row>
@@ -10949,11 +11089,11 @@
         <v>90</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1한</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1E+220</v>
       </c>
       <c r="H99" s="17">
@@ -10965,15 +11105,15 @@
         <v>한</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>1E+220</v>
       </c>
       <c r="K99" s="22">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>183500</v>
       </c>
       <c r="L99" s="22">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>367000</v>
       </c>
     </row>
@@ -10982,11 +11122,11 @@
         <v>91</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" ref="F100:F102" si="86">H100&amp;I100</f>
+        <f t="shared" ref="F100:F102" si="88">H100&amp;I100</f>
         <v>100한</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" ref="G100:G102" si="87">H100*J100</f>
+        <f t="shared" ref="G100:G102" si="89">H100*J100</f>
         <v>1E+222</v>
       </c>
       <c r="H100" s="17">
@@ -10998,15 +11138,15 @@
         <v>한</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" ref="J100:J102" si="88">VLOOKUP(I100,O:R,4,FALSE)</f>
+        <f t="shared" ref="J100:J102" si="90">VLOOKUP(I100,O:R,4,FALSE)</f>
         <v>1E+220</v>
       </c>
       <c r="K100" s="22">
-        <f t="shared" ref="K100:K102" si="89">L100*0.5</f>
+        <f t="shared" ref="K100:K102" si="91">L100*0.5</f>
         <v>188250</v>
       </c>
       <c r="L100" s="22">
-        <f t="shared" ref="L100:L102" si="90">L99+500+QUOTIENT(E100,15)*1500</f>
+        <f t="shared" ref="L100:L102" si="92">L99+500+QUOTIENT(E100,15)*1500</f>
         <v>376500</v>
       </c>
     </row>
@@ -11015,11 +11155,11 @@
         <v>92</v>
       </c>
       <c r="F101" s="17" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1혈</v>
       </c>
       <c r="G101" s="17">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>9.9999999999999997E+223</v>
       </c>
       <c r="H101" s="17">
@@ -11031,15 +11171,15 @@
         <v>혈</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1E+224</v>
       </c>
       <c r="K101" s="22">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>193000</v>
       </c>
       <c r="L101" s="22">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>386000</v>
       </c>
     </row>
@@ -11048,11 +11188,11 @@
         <v>93</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>100혈</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>9.9999999999999996E+225</v>
       </c>
       <c r="H102" s="17">
@@ -11064,15 +11204,15 @@
         <v>혈</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1E+224</v>
       </c>
       <c r="K102" s="22">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>197750</v>
       </c>
       <c r="L102" s="22">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>395500</v>
       </c>
     </row>
@@ -11081,11 +11221,11 @@
         <v>94</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" ref="F103:F106" si="91">H103&amp;I103</f>
+        <f t="shared" ref="F103:F106" si="93">H103&amp;I103</f>
         <v>1연</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" ref="G103:G106" si="92">H103*J103</f>
+        <f t="shared" ref="G103:G106" si="94">H103*J103</f>
         <v>9.9999999999999992E+227</v>
       </c>
       <c r="H103" s="17">
@@ -11097,15 +11237,15 @@
         <v>연</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" ref="J103:J106" si="93">VLOOKUP(I103,O:R,4,FALSE)</f>
+        <f t="shared" ref="J103:J106" si="95">VLOOKUP(I103,O:R,4,FALSE)</f>
         <v>1E+228</v>
       </c>
       <c r="K103" s="22">
-        <f t="shared" ref="K103:K106" si="94">L103*0.5</f>
+        <f t="shared" ref="K103:K106" si="96">L103*0.5</f>
         <v>202500</v>
       </c>
       <c r="L103" s="22">
-        <f t="shared" ref="L103:L106" si="95">L102+500+QUOTIENT(E103,15)*1500</f>
+        <f t="shared" ref="L103:L106" si="97">L102+500+QUOTIENT(E103,15)*1500</f>
         <v>405000</v>
       </c>
     </row>
@@ -11114,11 +11254,11 @@
         <v>95</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>100연</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>9.9999999999999988E+229</v>
       </c>
       <c r="H104" s="17">
@@ -11130,15 +11270,15 @@
         <v>연</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1E+228</v>
       </c>
       <c r="K104" s="22">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>207250</v>
       </c>
       <c r="L104" s="22">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>414500</v>
       </c>
     </row>
@@ -11147,11 +11287,11 @@
         <v>96</v>
       </c>
       <c r="F105" s="17" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>1난</v>
       </c>
       <c r="G105" s="17">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1.0000000000000001E+232</v>
       </c>
       <c r="H105" s="17">
@@ -11163,15 +11303,15 @@
         <v>난</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1E+232</v>
       </c>
       <c r="K105" s="22">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>212000</v>
       </c>
       <c r="L105" s="22">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>424000</v>
       </c>
     </row>
@@ -11180,11 +11320,11 @@
         <v>97</v>
       </c>
       <c r="F106" s="17" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>100난</v>
       </c>
       <c r="G106" s="17">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1E+234</v>
       </c>
       <c r="H106" s="17">
@@ -11196,15 +11336,15 @@
         <v>난</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1E+232</v>
       </c>
       <c r="K106" s="22">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>216750</v>
       </c>
       <c r="L106" s="22">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>433500</v>
       </c>
     </row>
@@ -11213,11 +11353,11 @@
         <v>98</v>
       </c>
       <c r="F107" s="17" t="str">
-        <f t="shared" ref="F107:F110" si="96">H107&amp;I107</f>
+        <f t="shared" ref="F107:F110" si="98">H107&amp;I107</f>
         <v>1군</v>
       </c>
       <c r="G107" s="17">
-        <f t="shared" ref="G107:G110" si="97">H107*J107</f>
+        <f t="shared" ref="G107:G110" si="99">H107*J107</f>
         <v>1.0000000000000001E+236</v>
       </c>
       <c r="H107" s="17">
@@ -11229,15 +11369,15 @@
         <v>군</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" ref="J107:J110" si="98">VLOOKUP(I107,O:R,4,FALSE)</f>
+        <f t="shared" ref="J107:J110" si="100">VLOOKUP(I107,O:R,4,FALSE)</f>
         <v>1E+236</v>
       </c>
       <c r="K107" s="22">
-        <f t="shared" ref="K107:K110" si="99">L107*0.5</f>
+        <f t="shared" ref="K107:K110" si="101">L107*0.5</f>
         <v>221500</v>
       </c>
       <c r="L107" s="22">
-        <f t="shared" ref="L107:L110" si="100">L106+500+QUOTIENT(E107,15)*1500</f>
+        <f t="shared" ref="L107:L110" si="102">L106+500+QUOTIENT(E107,15)*1500</f>
         <v>443000</v>
       </c>
     </row>
@@ -11246,11 +11386,11 @@
         <v>99</v>
       </c>
       <c r="F108" s="17" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>100군</v>
       </c>
       <c r="G108" s="17">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>1E+238</v>
       </c>
       <c r="H108" s="17">
@@ -11262,15 +11402,15 @@
         <v>군</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>1E+236</v>
       </c>
       <c r="K108" s="22">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>226250</v>
       </c>
       <c r="L108" s="22">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>452500</v>
       </c>
     </row>
@@ -11279,11 +11419,11 @@
         <v>100</v>
       </c>
       <c r="F109" s="17" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>1결</v>
       </c>
       <c r="G109" s="17">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>1E+240</v>
       </c>
       <c r="H109" s="17">
@@ -11295,15 +11435,15 @@
         <v>결</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>1E+240</v>
       </c>
       <c r="K109" s="22">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>231000</v>
       </c>
       <c r="L109" s="22">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>462000</v>
       </c>
     </row>
@@ -11312,11 +11452,11 @@
         <v>101</v>
       </c>
       <c r="F110" s="17" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>100결</v>
       </c>
       <c r="G110" s="17">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>1.0000000000000001E+242</v>
       </c>
       <c r="H110" s="17">
@@ -11328,16 +11468,82 @@
         <v>결</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>1E+240</v>
       </c>
       <c r="K110" s="22">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>235750</v>
       </c>
       <c r="L110" s="22">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>471500</v>
+      </c>
+    </row>
+    <row r="111" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E111" s="16">
+        <v>102</v>
+      </c>
+      <c r="F111" s="17" t="str">
+        <f t="shared" ref="F111:F112" si="103">H111&amp;I111</f>
+        <v>1맥</v>
+      </c>
+      <c r="G111" s="17">
+        <f t="shared" ref="G111:G112" si="104">H111*J111</f>
+        <v>1.0000000000000001E+244</v>
+      </c>
+      <c r="H111" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I111" s="16" t="str" cm="1">
+        <f t="array" ref="I111">IF(AND(H110&gt;=100,H111&lt;2),INDEX(O:O,MATCH(I110,O:O,0)+1,0),I110)</f>
+        <v>맥</v>
+      </c>
+      <c r="J111" s="16" t="str">
+        <f t="shared" ref="J111:J112" si="105">VLOOKUP(I111,O:R,4,FALSE)</f>
+        <v>1E+244</v>
+      </c>
+      <c r="K111" s="22">
+        <f t="shared" ref="K111:K112" si="106">L111*0.5</f>
+        <v>240500</v>
+      </c>
+      <c r="L111" s="22">
+        <f t="shared" ref="L111:L112" si="107">L110+500+QUOTIENT(E111,15)*1500</f>
+        <v>481000</v>
+      </c>
+    </row>
+    <row r="112" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E112" s="16">
+        <v>103</v>
+      </c>
+      <c r="F112" s="17" t="str">
+        <f t="shared" si="103"/>
+        <v>100맥</v>
+      </c>
+      <c r="G112" s="17">
+        <f t="shared" si="104"/>
+        <v>1.0000000000000001E+246</v>
+      </c>
+      <c r="H112" s="17">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I112" s="16" t="str" cm="1">
+        <f t="array" ref="I112">IF(AND(H111&gt;=100,H112&lt;2),INDEX(O:O,MATCH(I111,O:O,0)+1,0),I111)</f>
+        <v>맥</v>
+      </c>
+      <c r="J112" s="16" t="str">
+        <f t="shared" si="105"/>
+        <v>1E+244</v>
+      </c>
+      <c r="K112" s="22">
+        <f t="shared" si="106"/>
+        <v>245250</v>
+      </c>
+      <c r="L112" s="22">
+        <f t="shared" si="107"/>
+        <v>490500</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MeditationTower.xlsx
+++ b/Assets/06.Table/MeditationTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB53BFF1-DF61-4B7D-BEC0-F349E17B2573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18419A0B-6B8B-42FE-8A8A-480611B2B077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="96">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1034,12 +1034,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O105"/>
+  <dimension ref="A1:O107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K78" sqref="K78"/>
-      <selection pane="bottomLeft" activeCell="I99" sqref="I99"/>
+      <selection pane="bottomLeft" activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4612,7 +4612,7 @@
         <v>192000</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:G105" si="65">G68</f>
+        <f t="shared" ref="G69:G107" si="65">G68</f>
         <v>1</v>
       </c>
       <c r="H69" s="2">
@@ -4635,7 +4635,7 @@
         <v>57</v>
       </c>
       <c r="M69">
-        <f t="shared" ref="M69:M105" si="67">M68+200</f>
+        <f t="shared" ref="M69:M107" si="67">M68+200</f>
         <v>15400</v>
       </c>
     </row>
@@ -5124,7 +5124,7 @@
         <v>130750</v>
       </c>
       <c r="E79">
-        <f t="shared" ref="E79:E105" si="86">E78</f>
+        <f t="shared" ref="E79:E107" si="86">E78</f>
         <v>9043</v>
       </c>
       <c r="F79">
@@ -6511,9 +6511,113 @@
         <v>22600</v>
       </c>
     </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1" t="str">
+        <f t="shared" ref="B106:C106" si="140">B105</f>
+        <v>1-1</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="140"/>
+        <v>9043</v>
+      </c>
+      <c r="D106">
+        <f>VLOOKUP(A106,Balance!E:K,7,FALSE)</f>
+        <v>250000</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F106">
+        <f>VLOOKUP(A106,Balance!E:L,8,)</f>
+        <v>500000</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H106" s="2">
+        <f>VLOOKUP(A106,Balance!E:K,3,FALSE)</f>
+        <v>1E+248</v>
+      </c>
+      <c r="I106">
+        <f t="shared" ref="I106:K106" si="141">I105</f>
+        <v>1000</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="141"/>
+        <v>8</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="L106" t="s">
+        <v>57</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="67"/>
+        <v>22800</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1" t="str">
+        <f t="shared" ref="B107:C107" si="142">B106</f>
+        <v>1-1</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="142"/>
+        <v>9043</v>
+      </c>
+      <c r="D107">
+        <f>VLOOKUP(A107,Balance!E:K,7,FALSE)</f>
+        <v>255500</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F107">
+        <f>VLOOKUP(A107,Balance!E:L,8,)</f>
+        <v>511000</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H107" s="2">
+        <f>VLOOKUP(A107,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+250</v>
+      </c>
+      <c r="I107">
+        <f t="shared" ref="I107:K107" si="143">I106</f>
+        <v>1000</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="143"/>
+        <v>8</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="L107" t="s">
+        <v>57</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="67"/>
+        <v>23000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 A2:E105 G13:M105">
+  <conditionalFormatting sqref="G2:N12 A2:E107 G13:M107">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -6525,10 +6629,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
-    <sheetView topLeftCell="D94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K112" sqref="K111:K112"/>
+    <sheetView topLeftCell="D97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K111" sqref="K111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6851,7 +6955,7 @@
         <v>1.0000000000000001E+46</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" ref="H12:H112" si="5">H10</f>
+        <f t="shared" ref="H12:H114" si="5">H10</f>
         <v>100</v>
       </c>
       <c r="I12" s="16" t="str" cm="1">
@@ -11485,11 +11589,11 @@
         <v>102</v>
       </c>
       <c r="F111" s="17" t="str">
-        <f t="shared" ref="F111:F112" si="103">H111&amp;I111</f>
+        <f t="shared" ref="F111:F114" si="103">H111&amp;I111</f>
         <v>1맥</v>
       </c>
       <c r="G111" s="17">
-        <f t="shared" ref="G111:G112" si="104">H111*J111</f>
+        <f t="shared" ref="G111:G114" si="104">H111*J111</f>
         <v>1.0000000000000001E+244</v>
       </c>
       <c r="H111" s="17">
@@ -11501,15 +11605,15 @@
         <v>맥</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f t="shared" ref="J111:J112" si="105">VLOOKUP(I111,O:R,4,FALSE)</f>
+        <f t="shared" ref="J111:J114" si="105">VLOOKUP(I111,O:R,4,FALSE)</f>
         <v>1E+244</v>
       </c>
       <c r="K111" s="22">
-        <f t="shared" ref="K111:K112" si="106">L111*0.5</f>
+        <f t="shared" ref="K111:K114" si="106">L111*0.5</f>
         <v>240500</v>
       </c>
       <c r="L111" s="22">
-        <f t="shared" ref="L111:L112" si="107">L110+500+QUOTIENT(E111,15)*1500</f>
+        <f t="shared" ref="L111:L114" si="107">L110+500+QUOTIENT(E111,15)*1500</f>
         <v>481000</v>
       </c>
     </row>
@@ -11544,6 +11648,72 @@
       <c r="L112" s="22">
         <f t="shared" si="107"/>
         <v>490500</v>
+      </c>
+    </row>
+    <row r="113" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E113" s="16">
+        <v>104</v>
+      </c>
+      <c r="F113" s="17" t="str">
+        <f t="shared" si="103"/>
+        <v>1토</v>
+      </c>
+      <c r="G113" s="17">
+        <f t="shared" si="104"/>
+        <v>1E+248</v>
+      </c>
+      <c r="H113" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I113" s="16" t="str" cm="1">
+        <f t="array" ref="I113">IF(AND(H112&gt;=100,H113&lt;2),INDEX(O:O,MATCH(I112,O:O,0)+1,0),I112)</f>
+        <v>토</v>
+      </c>
+      <c r="J113" s="16" t="str">
+        <f t="shared" si="105"/>
+        <v>1E+248</v>
+      </c>
+      <c r="K113" s="22">
+        <f t="shared" si="106"/>
+        <v>250000</v>
+      </c>
+      <c r="L113" s="22">
+        <f t="shared" si="107"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="114" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E114" s="16">
+        <v>105</v>
+      </c>
+      <c r="F114" s="17" t="str">
+        <f t="shared" si="103"/>
+        <v>100토</v>
+      </c>
+      <c r="G114" s="17">
+        <f t="shared" si="104"/>
+        <v>1.0000000000000001E+250</v>
+      </c>
+      <c r="H114" s="17">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I114" s="16" t="str" cm="1">
+        <f t="array" ref="I114">IF(AND(H113&gt;=100,H114&lt;2),INDEX(O:O,MATCH(I113,O:O,0)+1,0),I113)</f>
+        <v>토</v>
+      </c>
+      <c r="J114" s="16" t="str">
+        <f t="shared" si="105"/>
+        <v>1E+248</v>
+      </c>
+      <c r="K114" s="22">
+        <f t="shared" si="106"/>
+        <v>255500</v>
+      </c>
+      <c r="L114" s="22">
+        <f t="shared" si="107"/>
+        <v>511000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MeditationTower.xlsx
+++ b/Assets/06.Table/MeditationTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18419A0B-6B8B-42FE-8A8A-480611B2B077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8531F51-6D8B-425D-BCC9-4CEFDF60CEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="97">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -439,6 +439,10 @@
   </si>
   <si>
     <t>산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1034,12 +1038,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O107"/>
+  <dimension ref="A1:O109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K78" sqref="K78"/>
-      <selection pane="bottomLeft" activeCell="F105" sqref="F105"/>
+      <selection pane="bottomLeft" activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4612,7 +4616,7 @@
         <v>192000</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:G107" si="65">G68</f>
+        <f t="shared" ref="G69:G109" si="65">G68</f>
         <v>1</v>
       </c>
       <c r="H69" s="2">
@@ -4635,7 +4639,7 @@
         <v>57</v>
       </c>
       <c r="M69">
-        <f t="shared" ref="M69:M107" si="67">M68+200</f>
+        <f t="shared" ref="M69:M109" si="67">M68+200</f>
         <v>15400</v>
       </c>
     </row>
@@ -5124,7 +5128,7 @@
         <v>130750</v>
       </c>
       <c r="E79">
-        <f t="shared" ref="E79:E107" si="86">E78</f>
+        <f t="shared" ref="E79:E109" si="86">E78</f>
         <v>9043</v>
       </c>
       <c r="F79">
@@ -6615,9 +6619,113 @@
         <v>23000</v>
       </c>
     </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1" t="str">
+        <f t="shared" ref="B108:C108" si="144">B107</f>
+        <v>1-1</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="144"/>
+        <v>9043</v>
+      </c>
+      <c r="D108">
+        <f>VLOOKUP(A108,Balance!E:K,7,FALSE)</f>
+        <v>261000</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F108">
+        <f>VLOOKUP(A108,Balance!E:L,8,)</f>
+        <v>522000</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H108" s="2">
+        <f>VLOOKUP(A108,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+252</v>
+      </c>
+      <c r="I108">
+        <f t="shared" ref="I108:K108" si="145">I107</f>
+        <v>1000</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="145"/>
+        <v>8</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="L108" t="s">
+        <v>57</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="67"/>
+        <v>23200</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1" t="str">
+        <f t="shared" ref="B109:C109" si="146">B108</f>
+        <v>1-1</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="146"/>
+        <v>9043</v>
+      </c>
+      <c r="D109">
+        <f>VLOOKUP(A109,Balance!E:K,7,FALSE)</f>
+        <v>266500</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F109">
+        <f>VLOOKUP(A109,Balance!E:L,8,)</f>
+        <v>533000</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H109" s="2">
+        <f>VLOOKUP(A109,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+254</v>
+      </c>
+      <c r="I109">
+        <f t="shared" ref="I109:K109" si="147">I108</f>
+        <v>1000</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="147"/>
+        <v>8</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="L109" t="s">
+        <v>57</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="67"/>
+        <v>23400</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 A2:E107 G13:M107">
+  <conditionalFormatting sqref="G2:N12 A2:E109 G13:M109">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -6629,10 +6737,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
-    <sheetView topLeftCell="D97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K111" sqref="K111"/>
+    <sheetView topLeftCell="D95" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I116" sqref="I116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6955,7 +7063,7 @@
         <v>1.0000000000000001E+46</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" ref="H12:H114" si="5">H10</f>
+        <f t="shared" ref="H12:H116" si="5">H10</f>
         <v>100</v>
       </c>
       <c r="I12" s="16" t="str" cm="1">
@@ -10296,6 +10404,20 @@
         <f t="shared" si="51"/>
         <v>159500</v>
       </c>
+      <c r="O71" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="P71" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q71" s="17">
+        <f t="shared" ref="Q71" si="53">POWER(10,P71)</f>
+        <v>1E+256</v>
+      </c>
+      <c r="R71" s="17" t="str">
+        <f t="shared" ref="R71" si="54">RIGHT(Q71,P71)</f>
+        <v>1E+256</v>
+      </c>
     </row>
     <row r="72" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E72" s="16">
@@ -10335,11 +10457,11 @@
         <v>64</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F75" si="53">H73&amp;I73</f>
+        <f t="shared" ref="F73:F75" si="55">H73&amp;I73</f>
         <v>1격</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G75" si="54">H73*J73</f>
+        <f t="shared" ref="G73:G75" si="56">H73*J73</f>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="H73" s="17">
@@ -10351,15 +10473,15 @@
         <v>격</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J75" si="55">VLOOKUP(I73,O:R,4,FALSE)</f>
+        <f t="shared" ref="J73:J75" si="57">VLOOKUP(I73,O:R,4,FALSE)</f>
         <v>1E+168</v>
       </c>
       <c r="K73" s="22">
-        <f t="shared" ref="K73:K75" si="56">L73*0.5</f>
+        <f t="shared" ref="K73:K75" si="58">L73*0.5</f>
         <v>86250</v>
       </c>
       <c r="L73" s="22">
-        <f t="shared" ref="L73:L75" si="57">L72+500+QUOTIENT(E73,15)*1500</f>
+        <f t="shared" ref="L73:L75" si="59">L72+500+QUOTIENT(E73,15)*1500</f>
         <v>172500</v>
       </c>
     </row>
@@ -10368,11 +10490,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>100격</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="H74" s="17">
@@ -10384,15 +10506,15 @@
         <v>격</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1E+168</v>
       </c>
       <c r="K74" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>89500</v>
       </c>
       <c r="L74" s="22">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>179000</v>
       </c>
     </row>
@@ -10401,11 +10523,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1창</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="H75" s="17">
@@ -10417,15 +10539,15 @@
         <v>창</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1E+172</v>
       </c>
       <c r="K75" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>92750</v>
       </c>
       <c r="L75" s="22">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>185500</v>
       </c>
     </row>
@@ -10434,11 +10556,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" ref="F76:F80" si="58">H76&amp;I76</f>
+        <f t="shared" ref="F76:F80" si="60">H76&amp;I76</f>
         <v>100창</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" ref="G76:G80" si="59">H76*J76</f>
+        <f t="shared" ref="G76:G80" si="61">H76*J76</f>
         <v>1.0000000000000001E+174</v>
       </c>
       <c r="H76" s="17">
@@ -10450,15 +10572,15 @@
         <v>창</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" ref="J76:J80" si="60">VLOOKUP(I76,O:R,4,FALSE)</f>
+        <f t="shared" ref="J76:J80" si="62">VLOOKUP(I76,O:R,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K76" s="22">
-        <f t="shared" ref="K76:K80" si="61">L76*0.5</f>
+        <f t="shared" ref="K76:K80" si="63">L76*0.5</f>
         <v>96000</v>
       </c>
       <c r="L76" s="22">
-        <f t="shared" ref="L76:L80" si="62">L75+500+QUOTIENT(E76,15)*1500</f>
+        <f t="shared" ref="L76:L80" si="64">L75+500+QUOTIENT(E76,15)*1500</f>
         <v>192000</v>
       </c>
     </row>
@@ -10467,11 +10589,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1공</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1E+176</v>
       </c>
       <c r="H77" s="17">
@@ -10483,15 +10605,15 @@
         <v>공</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+176</v>
       </c>
       <c r="K77" s="22">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>99250</v>
       </c>
       <c r="L77" s="22">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>198500</v>
       </c>
     </row>
@@ -10500,11 +10622,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>100공</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.0000000000000001E+178</v>
       </c>
       <c r="H78" s="17">
@@ -10516,15 +10638,15 @@
         <v>공</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+176</v>
       </c>
       <c r="K78" s="22">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>102500</v>
       </c>
       <c r="L78" s="22">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>205000</v>
       </c>
     </row>
@@ -10533,11 +10655,11 @@
         <v>70</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1채</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1E+180</v>
       </c>
       <c r="H79" s="17">
@@ -10549,15 +10671,15 @@
         <v>채</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+180</v>
       </c>
       <c r="K79" s="22">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>105750</v>
       </c>
       <c r="L79" s="22">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>211500</v>
       </c>
     </row>
@@ -10566,11 +10688,11 @@
         <v>71</v>
       </c>
       <c r="F80" s="17" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>100채</v>
       </c>
       <c r="G80" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.0000000000000001E+182</v>
       </c>
       <c r="H80" s="17">
@@ -10582,15 +10704,15 @@
         <v>채</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+180</v>
       </c>
       <c r="K80" s="22">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>109000</v>
       </c>
       <c r="L80" s="22">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>218000</v>
       </c>
     </row>
@@ -10599,11 +10721,11 @@
         <v>72</v>
       </c>
       <c r="F81" s="17" t="str">
-        <f t="shared" ref="F81:F82" si="63">H81&amp;I81</f>
+        <f t="shared" ref="F81:F82" si="65">H81&amp;I81</f>
         <v>1피</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" ref="G81:G82" si="64">H81*J81</f>
+        <f t="shared" ref="G81:G82" si="66">H81*J81</f>
         <v>1E+184</v>
       </c>
       <c r="H81" s="17">
@@ -10615,15 +10737,15 @@
         <v>피</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" ref="J81:J82" si="65">VLOOKUP(I81,O:R,4,FALSE)</f>
+        <f t="shared" ref="J81:J82" si="67">VLOOKUP(I81,O:R,4,FALSE)</f>
         <v>1E+184</v>
       </c>
       <c r="K81" s="22">
-        <f t="shared" ref="K81:K82" si="66">L81*0.5</f>
+        <f t="shared" ref="K81:K82" si="68">L81*0.5</f>
         <v>112250</v>
       </c>
       <c r="L81" s="22">
-        <f t="shared" ref="L81:L82" si="67">L80+500+QUOTIENT(E81,15)*1500</f>
+        <f t="shared" ref="L81:L82" si="69">L80+500+QUOTIENT(E81,15)*1500</f>
         <v>224500</v>
       </c>
     </row>
@@ -10632,11 +10754,11 @@
         <v>73</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>100피</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>9.9999999999999998E+185</v>
       </c>
       <c r="H82" s="17">
@@ -10648,15 +10770,15 @@
         <v>피</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1E+184</v>
       </c>
       <c r="K82" s="22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>115500</v>
       </c>
       <c r="L82" s="22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>231000</v>
       </c>
     </row>
@@ -10665,11 +10787,11 @@
         <v>74</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" ref="F83:F86" si="68">H83&amp;I83</f>
+        <f t="shared" ref="F83:F86" si="70">H83&amp;I83</f>
         <v>1동</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" ref="G83:G86" si="69">H83*J83</f>
+        <f t="shared" ref="G83:G86" si="71">H83*J83</f>
         <v>1E+188</v>
       </c>
       <c r="H83" s="17">
@@ -10681,15 +10803,15 @@
         <v>동</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" ref="J83:J86" si="70">VLOOKUP(I83,O:R,4,FALSE)</f>
+        <f t="shared" ref="J83:J86" si="72">VLOOKUP(I83,O:R,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K83" s="22">
-        <f t="shared" ref="K83:K86" si="71">L83*0.5</f>
+        <f t="shared" ref="K83:K86" si="73">L83*0.5</f>
         <v>118750</v>
       </c>
       <c r="L83" s="22">
-        <f t="shared" ref="L83:L86" si="72">L82+500+QUOTIENT(E83,15)*1500</f>
+        <f t="shared" ref="L83:L86" si="74">L82+500+QUOTIENT(E83,15)*1500</f>
         <v>237500</v>
       </c>
     </row>
@@ -10698,11 +10820,11 @@
         <v>75</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>100동</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1.0000000000000001E+190</v>
       </c>
       <c r="H84" s="17">
@@ -10714,15 +10836,15 @@
         <v>동</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1E+188</v>
       </c>
       <c r="K84" s="22">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>122750</v>
       </c>
       <c r="L84" s="22">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>245500</v>
       </c>
     </row>
@@ -10731,11 +10853,11 @@
         <v>76</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1멸</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1E+192</v>
       </c>
       <c r="H85" s="17">
@@ -10747,15 +10869,15 @@
         <v>멸</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1E+192</v>
       </c>
       <c r="K85" s="22">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>126750</v>
       </c>
       <c r="L85" s="22">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>253500</v>
       </c>
     </row>
@@ -10764,11 +10886,11 @@
         <v>77</v>
       </c>
       <c r="F86" s="17" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>100멸</v>
       </c>
       <c r="G86" s="17">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1.0000000000000001E+194</v>
       </c>
       <c r="H86" s="17">
@@ -10780,15 +10902,15 @@
         <v>멸</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1E+192</v>
       </c>
       <c r="K86" s="22">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>130750</v>
       </c>
       <c r="L86" s="22">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>261500</v>
       </c>
     </row>
@@ -10797,11 +10919,11 @@
         <v>78</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" ref="F87:F90" si="73">H87&amp;I87</f>
+        <f t="shared" ref="F87:F90" si="75">H87&amp;I87</f>
         <v>1향</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" ref="G87:G90" si="74">H87*J87</f>
+        <f t="shared" ref="G87:G90" si="76">H87*J87</f>
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="H87" s="17">
@@ -10813,15 +10935,15 @@
         <v>향</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" ref="J87:J90" si="75">VLOOKUP(I87,O:R,4,FALSE)</f>
+        <f t="shared" ref="J87:J90" si="77">VLOOKUP(I87,O:R,4,FALSE)</f>
         <v>1E+196</v>
       </c>
       <c r="K87" s="22">
-        <f t="shared" ref="K87:K90" si="76">L87*0.5</f>
+        <f t="shared" ref="K87:K90" si="78">L87*0.5</f>
         <v>134750</v>
       </c>
       <c r="L87" s="22">
-        <f t="shared" ref="L87:L90" si="77">L86+500+QUOTIENT(E87,15)*1500</f>
+        <f t="shared" ref="L87:L90" si="79">L86+500+QUOTIENT(E87,15)*1500</f>
         <v>269500</v>
       </c>
     </row>
@@ -10830,11 +10952,11 @@
         <v>79</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>100향</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>9.9999999999999988E+197</v>
       </c>
       <c r="H88" s="17">
@@ -10846,15 +10968,15 @@
         <v>향</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1E+196</v>
       </c>
       <c r="K88" s="22">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>138750</v>
       </c>
       <c r="L88" s="22">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>277500</v>
       </c>
     </row>
@@ -10863,11 +10985,11 @@
         <v>80</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1증</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>9.9999999999999997E+199</v>
       </c>
       <c r="H89" s="17">
@@ -10879,15 +11001,15 @@
         <v>증</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1E+200</v>
       </c>
       <c r="K89" s="22">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>142750</v>
       </c>
       <c r="L89" s="22">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>285500</v>
       </c>
     </row>
@@ -10896,11 +11018,11 @@
         <v>81</v>
       </c>
       <c r="F90" s="17" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>100증</v>
       </c>
       <c r="G90" s="17">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>9.999999999999999E+201</v>
       </c>
       <c r="H90" s="17">
@@ -10912,15 +11034,15 @@
         <v>증</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1E+200</v>
       </c>
       <c r="K90" s="22">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>146750</v>
       </c>
       <c r="L90" s="22">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>293500</v>
       </c>
     </row>
@@ -10929,11 +11051,11 @@
         <v>82</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" ref="F91:F94" si="78">H91&amp;I91</f>
+        <f t="shared" ref="F91:F94" si="80">H91&amp;I91</f>
         <v>1쾌</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" ref="G91:G94" si="79">H91*J91</f>
+        <f t="shared" ref="G91:G94" si="81">H91*J91</f>
         <v>9.9999999999999999E+203</v>
       </c>
       <c r="H91" s="17">
@@ -10945,15 +11067,15 @@
         <v>쾌</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" ref="J91:J94" si="80">VLOOKUP(I91,O:R,4,FALSE)</f>
+        <f t="shared" ref="J91:J94" si="82">VLOOKUP(I91,O:R,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K91" s="22">
-        <f t="shared" ref="K91:K94" si="81">L91*0.5</f>
+        <f t="shared" ref="K91:K94" si="83">L91*0.5</f>
         <v>150750</v>
       </c>
       <c r="L91" s="22">
-        <f t="shared" ref="L91:L94" si="82">L90+500+QUOTIENT(E91,15)*1500</f>
+        <f t="shared" ref="L91:L94" si="84">L90+500+QUOTIENT(E91,15)*1500</f>
         <v>301500</v>
       </c>
     </row>
@@ -10962,11 +11084,11 @@
         <v>83</v>
       </c>
       <c r="F92" s="17" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>100쾌</v>
       </c>
       <c r="G92" s="17">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1E+206</v>
       </c>
       <c r="H92" s="17">
@@ -10978,15 +11100,15 @@
         <v>쾌</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1E+204</v>
       </c>
       <c r="K92" s="22">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>154750</v>
       </c>
       <c r="L92" s="22">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>309500</v>
       </c>
     </row>
@@ -10995,11 +11117,11 @@
         <v>84</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1우</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>9.9999999999999998E+207</v>
       </c>
       <c r="H93" s="17">
@@ -11011,15 +11133,15 @@
         <v>우</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1E+208</v>
       </c>
       <c r="K93" s="22">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>158750</v>
       </c>
       <c r="L93" s="22">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>317500</v>
       </c>
     </row>
@@ -11028,11 +11150,11 @@
         <v>85</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>100우</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>9.9999999999999993E+209</v>
       </c>
       <c r="H94" s="17">
@@ -11044,15 +11166,15 @@
         <v>우</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1E+208</v>
       </c>
       <c r="K94" s="22">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>162750</v>
       </c>
       <c r="L94" s="22">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>325500</v>
       </c>
     </row>
@@ -11061,11 +11183,11 @@
         <v>86</v>
       </c>
       <c r="F95" s="17" t="str">
-        <f t="shared" ref="F95:F99" si="83">H95&amp;I95</f>
+        <f t="shared" ref="F95:F99" si="85">H95&amp;I95</f>
         <v>1팽</v>
       </c>
       <c r="G95" s="17">
-        <f t="shared" ref="G95:G99" si="84">H95*J95</f>
+        <f t="shared" ref="G95:G99" si="86">H95*J95</f>
         <v>9.9999999999999991E+211</v>
       </c>
       <c r="H95" s="17">
@@ -11077,15 +11199,15 @@
         <v>팽</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" ref="J95:J99" si="85">VLOOKUP(I95,O:R,4,FALSE)</f>
+        <f t="shared" ref="J95:J99" si="87">VLOOKUP(I95,O:R,4,FALSE)</f>
         <v>1E+212</v>
       </c>
       <c r="K95" s="22">
-        <f t="shared" ref="K95:K99" si="86">L95*0.5</f>
+        <f t="shared" ref="K95:K99" si="88">L95*0.5</f>
         <v>166750</v>
       </c>
       <c r="L95" s="22">
-        <f t="shared" ref="L95:L99" si="87">L94+500+QUOTIENT(E95,15)*1500</f>
+        <f t="shared" ref="L95:L99" si="89">L94+500+QUOTIENT(E95,15)*1500</f>
         <v>333500</v>
       </c>
     </row>
@@ -11094,11 +11216,11 @@
         <v>87</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>100팽</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>9.9999999999999995E+213</v>
       </c>
       <c r="H96" s="17">
@@ -11110,15 +11232,15 @@
         <v>팽</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>1E+212</v>
       </c>
       <c r="K96" s="22">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>170750</v>
       </c>
       <c r="L96" s="22">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>341500</v>
       </c>
     </row>
@@ -11127,11 +11249,11 @@
         <v>88</v>
       </c>
       <c r="F97" s="17" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>1관</v>
       </c>
       <c r="G97" s="17">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1E+216</v>
       </c>
       <c r="H97" s="17">
@@ -11143,15 +11265,15 @@
         <v>관</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>1E+216</v>
       </c>
       <c r="K97" s="22">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>174750</v>
       </c>
       <c r="L97" s="22">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>349500</v>
       </c>
     </row>
@@ -11160,11 +11282,11 @@
         <v>89</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>100관</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1.0000000000000001E+218</v>
       </c>
       <c r="H98" s="17">
@@ -11176,15 +11298,15 @@
         <v>관</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>1E+216</v>
       </c>
       <c r="K98" s="22">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>178750</v>
       </c>
       <c r="L98" s="22">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>357500</v>
       </c>
     </row>
@@ -11193,11 +11315,11 @@
         <v>90</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>1한</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1E+220</v>
       </c>
       <c r="H99" s="17">
@@ -11209,15 +11331,15 @@
         <v>한</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>1E+220</v>
       </c>
       <c r="K99" s="22">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>183500</v>
       </c>
       <c r="L99" s="22">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>367000</v>
       </c>
     </row>
@@ -11226,11 +11348,11 @@
         <v>91</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" ref="F100:F102" si="88">H100&amp;I100</f>
+        <f t="shared" ref="F100:F102" si="90">H100&amp;I100</f>
         <v>100한</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" ref="G100:G102" si="89">H100*J100</f>
+        <f t="shared" ref="G100:G102" si="91">H100*J100</f>
         <v>1E+222</v>
       </c>
       <c r="H100" s="17">
@@ -11242,15 +11364,15 @@
         <v>한</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" ref="J100:J102" si="90">VLOOKUP(I100,O:R,4,FALSE)</f>
+        <f t="shared" ref="J100:J102" si="92">VLOOKUP(I100,O:R,4,FALSE)</f>
         <v>1E+220</v>
       </c>
       <c r="K100" s="22">
-        <f t="shared" ref="K100:K102" si="91">L100*0.5</f>
+        <f t="shared" ref="K100:K102" si="93">L100*0.5</f>
         <v>188250</v>
       </c>
       <c r="L100" s="22">
-        <f t="shared" ref="L100:L102" si="92">L99+500+QUOTIENT(E100,15)*1500</f>
+        <f t="shared" ref="L100:L102" si="94">L99+500+QUOTIENT(E100,15)*1500</f>
         <v>376500</v>
       </c>
     </row>
@@ -11259,11 +11381,11 @@
         <v>92</v>
       </c>
       <c r="F101" s="17" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1혈</v>
       </c>
       <c r="G101" s="17">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>9.9999999999999997E+223</v>
       </c>
       <c r="H101" s="17">
@@ -11275,15 +11397,15 @@
         <v>혈</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1E+224</v>
       </c>
       <c r="K101" s="22">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>193000</v>
       </c>
       <c r="L101" s="22">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>386000</v>
       </c>
     </row>
@@ -11292,11 +11414,11 @@
         <v>93</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>100혈</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>9.9999999999999996E+225</v>
       </c>
       <c r="H102" s="17">
@@ -11308,15 +11430,15 @@
         <v>혈</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1E+224</v>
       </c>
       <c r="K102" s="22">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>197750</v>
       </c>
       <c r="L102" s="22">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>395500</v>
       </c>
     </row>
@@ -11325,11 +11447,11 @@
         <v>94</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" ref="F103:F106" si="93">H103&amp;I103</f>
+        <f t="shared" ref="F103:F106" si="95">H103&amp;I103</f>
         <v>1연</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" ref="G103:G106" si="94">H103*J103</f>
+        <f t="shared" ref="G103:G106" si="96">H103*J103</f>
         <v>9.9999999999999992E+227</v>
       </c>
       <c r="H103" s="17">
@@ -11341,15 +11463,15 @@
         <v>연</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" ref="J103:J106" si="95">VLOOKUP(I103,O:R,4,FALSE)</f>
+        <f t="shared" ref="J103:J106" si="97">VLOOKUP(I103,O:R,4,FALSE)</f>
         <v>1E+228</v>
       </c>
       <c r="K103" s="22">
-        <f t="shared" ref="K103:K106" si="96">L103*0.5</f>
+        <f t="shared" ref="K103:K106" si="98">L103*0.5</f>
         <v>202500</v>
       </c>
       <c r="L103" s="22">
-        <f t="shared" ref="L103:L106" si="97">L102+500+QUOTIENT(E103,15)*1500</f>
+        <f t="shared" ref="L103:L106" si="99">L102+500+QUOTIENT(E103,15)*1500</f>
         <v>405000</v>
       </c>
     </row>
@@ -11358,11 +11480,11 @@
         <v>95</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>100연</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>9.9999999999999988E+229</v>
       </c>
       <c r="H104" s="17">
@@ -11374,15 +11496,15 @@
         <v>연</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>1E+228</v>
       </c>
       <c r="K104" s="22">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>207250</v>
       </c>
       <c r="L104" s="22">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>414500</v>
       </c>
     </row>
@@ -11391,11 +11513,11 @@
         <v>96</v>
       </c>
       <c r="F105" s="17" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1난</v>
       </c>
       <c r="G105" s="17">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1.0000000000000001E+232</v>
       </c>
       <c r="H105" s="17">
@@ -11407,15 +11529,15 @@
         <v>난</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>1E+232</v>
       </c>
       <c r="K105" s="22">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>212000</v>
       </c>
       <c r="L105" s="22">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>424000</v>
       </c>
     </row>
@@ -11424,11 +11546,11 @@
         <v>97</v>
       </c>
       <c r="F106" s="17" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>100난</v>
       </c>
       <c r="G106" s="17">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1E+234</v>
       </c>
       <c r="H106" s="17">
@@ -11440,15 +11562,15 @@
         <v>난</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>1E+232</v>
       </c>
       <c r="K106" s="22">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>216750</v>
       </c>
       <c r="L106" s="22">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>433500</v>
       </c>
     </row>
@@ -11457,11 +11579,11 @@
         <v>98</v>
       </c>
       <c r="F107" s="17" t="str">
-        <f t="shared" ref="F107:F110" si="98">H107&amp;I107</f>
+        <f t="shared" ref="F107:F110" si="100">H107&amp;I107</f>
         <v>1군</v>
       </c>
       <c r="G107" s="17">
-        <f t="shared" ref="G107:G110" si="99">H107*J107</f>
+        <f t="shared" ref="G107:G110" si="101">H107*J107</f>
         <v>1.0000000000000001E+236</v>
       </c>
       <c r="H107" s="17">
@@ -11473,15 +11595,15 @@
         <v>군</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" ref="J107:J110" si="100">VLOOKUP(I107,O:R,4,FALSE)</f>
+        <f t="shared" ref="J107:J110" si="102">VLOOKUP(I107,O:R,4,FALSE)</f>
         <v>1E+236</v>
       </c>
       <c r="K107" s="22">
-        <f t="shared" ref="K107:K110" si="101">L107*0.5</f>
+        <f t="shared" ref="K107:K110" si="103">L107*0.5</f>
         <v>221500</v>
       </c>
       <c r="L107" s="22">
-        <f t="shared" ref="L107:L110" si="102">L106+500+QUOTIENT(E107,15)*1500</f>
+        <f t="shared" ref="L107:L110" si="104">L106+500+QUOTIENT(E107,15)*1500</f>
         <v>443000</v>
       </c>
     </row>
@@ -11490,11 +11612,11 @@
         <v>99</v>
       </c>
       <c r="F108" s="17" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>100군</v>
       </c>
       <c r="G108" s="17">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>1E+238</v>
       </c>
       <c r="H108" s="17">
@@ -11506,15 +11628,15 @@
         <v>군</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>1E+236</v>
       </c>
       <c r="K108" s="22">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>226250</v>
       </c>
       <c r="L108" s="22">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>452500</v>
       </c>
     </row>
@@ -11523,11 +11645,11 @@
         <v>100</v>
       </c>
       <c r="F109" s="17" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>1결</v>
       </c>
       <c r="G109" s="17">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>1E+240</v>
       </c>
       <c r="H109" s="17">
@@ -11539,15 +11661,15 @@
         <v>결</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>1E+240</v>
       </c>
       <c r="K109" s="22">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>231000</v>
       </c>
       <c r="L109" s="22">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>462000</v>
       </c>
     </row>
@@ -11556,11 +11678,11 @@
         <v>101</v>
       </c>
       <c r="F110" s="17" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>100결</v>
       </c>
       <c r="G110" s="17">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>1.0000000000000001E+242</v>
       </c>
       <c r="H110" s="17">
@@ -11572,15 +11694,15 @@
         <v>결</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>1E+240</v>
       </c>
       <c r="K110" s="22">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>235750</v>
       </c>
       <c r="L110" s="22">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>471500</v>
       </c>
     </row>
@@ -11589,11 +11711,11 @@
         <v>102</v>
       </c>
       <c r="F111" s="17" t="str">
-        <f t="shared" ref="F111:F114" si="103">H111&amp;I111</f>
+        <f t="shared" ref="F111:F116" si="105">H111&amp;I111</f>
         <v>1맥</v>
       </c>
       <c r="G111" s="17">
-        <f t="shared" ref="G111:G114" si="104">H111*J111</f>
+        <f t="shared" ref="G111:G116" si="106">H111*J111</f>
         <v>1.0000000000000001E+244</v>
       </c>
       <c r="H111" s="17">
@@ -11605,15 +11727,15 @@
         <v>맥</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f t="shared" ref="J111:J114" si="105">VLOOKUP(I111,O:R,4,FALSE)</f>
+        <f t="shared" ref="J111:J116" si="107">VLOOKUP(I111,O:R,4,FALSE)</f>
         <v>1E+244</v>
       </c>
       <c r="K111" s="22">
-        <f t="shared" ref="K111:K114" si="106">L111*0.5</f>
+        <f t="shared" ref="K111:K116" si="108">L111*0.5</f>
         <v>240500</v>
       </c>
       <c r="L111" s="22">
-        <f t="shared" ref="L111:L114" si="107">L110+500+QUOTIENT(E111,15)*1500</f>
+        <f t="shared" ref="L111:L116" si="109">L110+500+QUOTIENT(E111,15)*1500</f>
         <v>481000</v>
       </c>
     </row>
@@ -11622,11 +11744,11 @@
         <v>103</v>
       </c>
       <c r="F112" s="17" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>100맥</v>
       </c>
       <c r="G112" s="17">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>1.0000000000000001E+246</v>
       </c>
       <c r="H112" s="17">
@@ -11638,15 +11760,15 @@
         <v>맥</v>
       </c>
       <c r="J112" s="16" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>1E+244</v>
       </c>
       <c r="K112" s="22">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>245250</v>
       </c>
       <c r="L112" s="22">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>490500</v>
       </c>
     </row>
@@ -11655,11 +11777,11 @@
         <v>104</v>
       </c>
       <c r="F113" s="17" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>1토</v>
       </c>
       <c r="G113" s="17">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>1E+248</v>
       </c>
       <c r="H113" s="17">
@@ -11671,15 +11793,15 @@
         <v>토</v>
       </c>
       <c r="J113" s="16" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>1E+248</v>
       </c>
       <c r="K113" s="22">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>250000</v>
       </c>
       <c r="L113" s="22">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>500000</v>
       </c>
     </row>
@@ -11688,11 +11810,11 @@
         <v>105</v>
       </c>
       <c r="F114" s="17" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>100토</v>
       </c>
       <c r="G114" s="17">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>1.0000000000000001E+250</v>
       </c>
       <c r="H114" s="17">
@@ -11704,16 +11826,82 @@
         <v>토</v>
       </c>
       <c r="J114" s="16" t="str">
+        <f t="shared" si="107"/>
+        <v>1E+248</v>
+      </c>
+      <c r="K114" s="22">
+        <f t="shared" si="108"/>
+        <v>255500</v>
+      </c>
+      <c r="L114" s="22">
+        <f t="shared" si="109"/>
+        <v>511000</v>
+      </c>
+    </row>
+    <row r="115" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E115" s="16">
+        <v>106</v>
+      </c>
+      <c r="F115" s="17" t="str">
         <f t="shared" si="105"/>
-        <v>1E+248</v>
-      </c>
-      <c r="K114" s="22">
+        <v>1산</v>
+      </c>
+      <c r="G115" s="17">
         <f t="shared" si="106"/>
-        <v>255500</v>
-      </c>
-      <c r="L114" s="22">
+        <v>1.0000000000000001E+252</v>
+      </c>
+      <c r="H115" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I115" s="16" t="str" cm="1">
+        <f t="array" ref="I115">IF(AND(H114&gt;=100,H115&lt;2),INDEX(O:O,MATCH(I114,O:O,0)+1,0),I114)</f>
+        <v>산</v>
+      </c>
+      <c r="J115" s="16" t="str">
         <f t="shared" si="107"/>
-        <v>511000</v>
+        <v>1E+252</v>
+      </c>
+      <c r="K115" s="22">
+        <f t="shared" si="108"/>
+        <v>261000</v>
+      </c>
+      <c r="L115" s="22">
+        <f t="shared" si="109"/>
+        <v>522000</v>
+      </c>
+    </row>
+    <row r="116" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E116" s="16">
+        <v>107</v>
+      </c>
+      <c r="F116" s="17" t="str">
+        <f t="shared" si="105"/>
+        <v>100산</v>
+      </c>
+      <c r="G116" s="17">
+        <f t="shared" si="106"/>
+        <v>1.0000000000000001E+254</v>
+      </c>
+      <c r="H116" s="17">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I116" s="16" t="str" cm="1">
+        <f t="array" ref="I116">IF(AND(H115&gt;=100,H116&lt;2),INDEX(O:O,MATCH(I115,O:O,0)+1,0),I115)</f>
+        <v>산</v>
+      </c>
+      <c r="J116" s="16" t="str">
+        <f t="shared" si="107"/>
+        <v>1E+252</v>
+      </c>
+      <c r="K116" s="22">
+        <f t="shared" si="108"/>
+        <v>266500</v>
+      </c>
+      <c r="L116" s="22">
+        <f t="shared" si="109"/>
+        <v>533000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MeditationTower.xlsx
+++ b/Assets/06.Table/MeditationTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8531F51-6D8B-425D-BCC9-4CEFDF60CEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850C31EF-73CD-440A-BD2C-4F03D4B84AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="101">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -443,6 +443,22 @@
   </si>
   <si>
     <t>강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1038,12 +1054,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O109"/>
+  <dimension ref="A1:O115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K78" sqref="K78"/>
-      <selection pane="bottomLeft" activeCell="J101" sqref="J101"/>
+      <selection pane="bottomLeft" activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4616,7 +4632,7 @@
         <v>192000</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:G109" si="65">G68</f>
+        <f t="shared" ref="G69:G115" si="65">G68</f>
         <v>1</v>
       </c>
       <c r="H69" s="2">
@@ -4639,7 +4655,7 @@
         <v>57</v>
       </c>
       <c r="M69">
-        <f t="shared" ref="M69:M109" si="67">M68+200</f>
+        <f t="shared" ref="M69:M115" si="67">M68+200</f>
         <v>15400</v>
       </c>
     </row>
@@ -5128,7 +5144,7 @@
         <v>130750</v>
       </c>
       <c r="E79">
-        <f t="shared" ref="E79:E109" si="86">E78</f>
+        <f t="shared" ref="E79:E115" si="86">E78</f>
         <v>9043</v>
       </c>
       <c r="F79">
@@ -6723,9 +6739,321 @@
         <v>23400</v>
       </c>
     </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1" t="str">
+        <f t="shared" ref="B110:C110" si="148">B109</f>
+        <v>1-1</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="148"/>
+        <v>9043</v>
+      </c>
+      <c r="D110">
+        <f>VLOOKUP(A110,Balance!E:K,7,FALSE)</f>
+        <v>272000</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F110">
+        <f>VLOOKUP(A110,Balance!E:L,8,)</f>
+        <v>544000</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H110" s="2">
+        <f>VLOOKUP(A110,Balance!E:K,3,FALSE)</f>
+        <v>1E+256</v>
+      </c>
+      <c r="I110">
+        <f t="shared" ref="I110:K110" si="149">I109</f>
+        <v>1000</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="149"/>
+        <v>8</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="149"/>
+        <v>0</v>
+      </c>
+      <c r="L110" t="s">
+        <v>57</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="67"/>
+        <v>23600</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1" t="str">
+        <f t="shared" ref="B111:C111" si="150">B110</f>
+        <v>1-1</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="150"/>
+        <v>9043</v>
+      </c>
+      <c r="D111">
+        <f>VLOOKUP(A111,Balance!E:K,7,FALSE)</f>
+        <v>277500</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F111">
+        <f>VLOOKUP(A111,Balance!E:L,8,)</f>
+        <v>555000</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H111" s="2">
+        <f>VLOOKUP(A111,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+258</v>
+      </c>
+      <c r="I111">
+        <f t="shared" ref="I111:K111" si="151">I110</f>
+        <v>1000</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="151"/>
+        <v>8</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+      <c r="L111" t="s">
+        <v>57</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="67"/>
+        <v>23800</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" s="1" t="str">
+        <f t="shared" ref="B112:C112" si="152">B111</f>
+        <v>1-1</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="152"/>
+        <v>9043</v>
+      </c>
+      <c r="D112">
+        <f>VLOOKUP(A112,Balance!E:K,7,FALSE)</f>
+        <v>283000</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F112">
+        <f>VLOOKUP(A112,Balance!E:L,8,)</f>
+        <v>566000</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H112" s="2">
+        <f>VLOOKUP(A112,Balance!E:K,3,FALSE)</f>
+        <v>1.0000000000000001E+260</v>
+      </c>
+      <c r="I112">
+        <f t="shared" ref="I112:K112" si="153">I111</f>
+        <v>1000</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="153"/>
+        <v>8</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+      <c r="L112" t="s">
+        <v>57</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="67"/>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" s="1" t="str">
+        <f t="shared" ref="B113:C113" si="154">B112</f>
+        <v>1-1</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="154"/>
+        <v>9043</v>
+      </c>
+      <c r="D113">
+        <f>VLOOKUP(A113,Balance!E:K,7,FALSE)</f>
+        <v>288500</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F113">
+        <f>VLOOKUP(A113,Balance!E:L,8,)</f>
+        <v>577000</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H113" s="2">
+        <f>VLOOKUP(A113,Balance!E:K,3,FALSE)</f>
+        <v>1E+262</v>
+      </c>
+      <c r="I113">
+        <f t="shared" ref="I113:K113" si="155">I112</f>
+        <v>1000</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="155"/>
+        <v>8</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+      <c r="L113" t="s">
+        <v>57</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="67"/>
+        <v>24200</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" s="1" t="str">
+        <f t="shared" ref="B114:C114" si="156">B113</f>
+        <v>1-1</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="156"/>
+        <v>9043</v>
+      </c>
+      <c r="D114">
+        <f>VLOOKUP(A114,Balance!E:K,7,FALSE)</f>
+        <v>294000</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F114">
+        <f>VLOOKUP(A114,Balance!E:L,8,)</f>
+        <v>588000</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H114" s="2">
+        <f>VLOOKUP(A114,Balance!E:K,3,FALSE)</f>
+        <v>1E+264</v>
+      </c>
+      <c r="I114">
+        <f t="shared" ref="I114:K114" si="157">I113</f>
+        <v>1000</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="157"/>
+        <v>8</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
+      <c r="L114" t="s">
+        <v>57</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="67"/>
+        <v>24400</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" s="1" t="str">
+        <f t="shared" ref="B115:C115" si="158">B114</f>
+        <v>1-1</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="158"/>
+        <v>9043</v>
+      </c>
+      <c r="D115">
+        <f>VLOOKUP(A115,Balance!E:K,7,FALSE)</f>
+        <v>299500</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="86"/>
+        <v>9043</v>
+      </c>
+      <c r="F115">
+        <f>VLOOKUP(A115,Balance!E:L,8,)</f>
+        <v>599000</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="H115" s="2">
+        <f>VLOOKUP(A115,Balance!E:K,3,FALSE)</f>
+        <v>1E+266</v>
+      </c>
+      <c r="I115">
+        <f t="shared" ref="I115:K115" si="159">I114</f>
+        <v>1000</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="159"/>
+        <v>8</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="159"/>
+        <v>0</v>
+      </c>
+      <c r="L115" t="s">
+        <v>57</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="67"/>
+        <v>24600</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 A2:E109 G13:M109">
+  <conditionalFormatting sqref="G2:N12 A2:E115 G13:M115">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -6737,10 +7065,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA122"/>
   <sheetViews>
-    <sheetView topLeftCell="D95" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I116" sqref="I116"/>
+    <sheetView topLeftCell="D106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H122" sqref="H122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6917,7 +7245,7 @@
         <v>29</v>
       </c>
       <c r="J9" s="16" t="str">
-        <f t="shared" ref="J9:J40" si="0">VLOOKUP(I9,O:R,4,FALSE)</f>
+        <f>VLOOKUP(I9,O:R,4,FALSE)</f>
         <v>1E+40</v>
       </c>
       <c r="K9" s="22">
@@ -6938,7 +7266,7 @@
         <v>8</v>
       </c>
       <c r="Q9" s="17">
-        <f t="shared" ref="Q9:Q38" si="1">POWER(10,P9)</f>
+        <f t="shared" ref="Q9:Q38" si="0">POWER(10,P9)</f>
         <v>100000000</v>
       </c>
       <c r="R9" s="17" t="str">
@@ -6967,11 +7295,11 @@
         <v>정</v>
       </c>
       <c r="J10" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I10,O:R,4,FALSE)</f>
         <v>1E+40</v>
       </c>
       <c r="K10" s="22">
-        <f t="shared" ref="K10:K69" si="2">L10*0.5</f>
+        <f t="shared" ref="K10:K69" si="1">L10*0.5</f>
         <v>750</v>
       </c>
       <c r="L10" s="22">
@@ -6989,7 +7317,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1000000000000</v>
       </c>
       <c r="R10" s="17" t="str">
@@ -7007,7 +7335,7 @@
         <v>1재</v>
       </c>
       <c r="G11" s="17">
-        <f t="shared" ref="G11:G69" si="3">H11*J11</f>
+        <f t="shared" ref="G11:G69" si="2">H11*J11</f>
         <v>1.0000000000000001E+44</v>
       </c>
       <c r="H11" s="17">
@@ -7019,15 +7347,15 @@
         <v>재</v>
       </c>
       <c r="J11" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I11,O:R,4,FALSE)</f>
         <v>1E+44</v>
       </c>
       <c r="K11" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="L11" s="22">
-        <f t="shared" ref="L11:L55" si="4">L10+500+QUOTIENT(E11,15)*1000</f>
+        <f t="shared" ref="L11:L55" si="3">L10+500+QUOTIENT(E11,15)*1000</f>
         <v>2000</v>
       </c>
       <c r="M11" s="16">
@@ -7041,7 +7369,7 @@
         <v>16</v>
       </c>
       <c r="Q11" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+16</v>
       </c>
       <c r="R11" s="17" t="str">
@@ -7059,11 +7387,11 @@
         <v>100재</v>
       </c>
       <c r="G12" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+46</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" ref="H12:H116" si="5">H10</f>
+        <f t="shared" ref="H12:H122" si="4">H10</f>
         <v>100</v>
       </c>
       <c r="I12" s="16" t="str" cm="1">
@@ -7071,15 +7399,15 @@
         <v>재</v>
       </c>
       <c r="J12" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I12,O:R,4,FALSE)</f>
         <v>1E+44</v>
       </c>
       <c r="K12" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1250</v>
       </c>
       <c r="L12" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2500</v>
       </c>
       <c r="M12" s="16">
@@ -7093,11 +7421,11 @@
         <v>20</v>
       </c>
       <c r="Q12" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+20</v>
       </c>
       <c r="R12" s="17" t="str">
-        <f t="shared" ref="R12:R38" si="6">RIGHT(Q12,P12)</f>
+        <f t="shared" ref="R12:R38" si="5">RIGHT(Q12,P12)</f>
         <v>1E+20</v>
       </c>
     </row>
@@ -7111,11 +7439,11 @@
         <v>1극</v>
       </c>
       <c r="G13" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+48</v>
       </c>
       <c r="H13" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I13" s="16" t="str" cm="1">
@@ -7123,15 +7451,15 @@
         <v>극</v>
       </c>
       <c r="J13" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I13,O:R,4,FALSE)</f>
         <v>1E+48</v>
       </c>
       <c r="K13" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1500</v>
       </c>
       <c r="L13" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3000</v>
       </c>
       <c r="M13" s="16">
@@ -7145,11 +7473,11 @@
         <v>24</v>
       </c>
       <c r="Q13" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999998E+23</v>
       </c>
       <c r="R13" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1E+24</v>
       </c>
     </row>
@@ -7159,15 +7487,15 @@
         <v>5</v>
       </c>
       <c r="F14" s="17" t="str">
-        <f t="shared" ref="F14:F29" si="7">H14&amp;I14</f>
+        <f t="shared" ref="F14:F29" si="6">H14&amp;I14</f>
         <v>100극</v>
       </c>
       <c r="G14" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+50</v>
       </c>
       <c r="H14" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I14" s="16" t="str" cm="1">
@@ -7175,15 +7503,15 @@
         <v>극</v>
       </c>
       <c r="J14" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I14,O:R,4,FALSE)</f>
         <v>1E+48</v>
       </c>
       <c r="K14" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1750</v>
       </c>
       <c r="L14" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3500</v>
       </c>
       <c r="M14" s="16">
@@ -7197,11 +7525,11 @@
         <v>28</v>
       </c>
       <c r="Q14" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999996E+27</v>
       </c>
       <c r="R14" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1E+28</v>
       </c>
     </row>
@@ -7219,7 +7547,7 @@
         <v>9.9999999999999999E+51</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I15" s="16" t="str" cm="1">
@@ -7227,15 +7555,15 @@
         <v>항</v>
       </c>
       <c r="J15" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I15,O:R,4,FALSE)</f>
         <v>1E+52</v>
       </c>
       <c r="K15" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="L15" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4000</v>
       </c>
       <c r="M15" s="16">
@@ -7249,11 +7577,11 @@
         <v>32</v>
       </c>
       <c r="Q15" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0000000000000001E+32</v>
       </c>
       <c r="R15" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1E+32</v>
       </c>
     </row>
@@ -7271,7 +7599,7 @@
         <v>1.0000000000000001E+54</v>
       </c>
       <c r="H16" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I16" s="16" t="str" cm="1">
@@ -7279,15 +7607,15 @@
         <v>항</v>
       </c>
       <c r="J16" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I16,O:R,4,FALSE)</f>
         <v>1E+52</v>
       </c>
       <c r="K16" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2250</v>
       </c>
       <c r="L16" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4500</v>
       </c>
       <c r="M16" s="16">
@@ -7301,11 +7629,11 @@
         <v>36</v>
       </c>
       <c r="Q16" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+36</v>
       </c>
       <c r="R16" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1E+36</v>
       </c>
     </row>
@@ -7315,15 +7643,15 @@
         <v>8</v>
       </c>
       <c r="F17" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1아</v>
       </c>
       <c r="G17" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+56</v>
       </c>
       <c r="H17" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I17" s="16" t="str" cm="1">
@@ -7331,15 +7659,15 @@
         <v>아</v>
       </c>
       <c r="J17" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I17,O:R,4,FALSE)</f>
         <v>1E+56</v>
       </c>
       <c r="K17" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
       <c r="L17" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="M17" s="16">
@@ -7353,11 +7681,11 @@
         <v>40</v>
       </c>
       <c r="Q17" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+40</v>
       </c>
       <c r="R17" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1E+40</v>
       </c>
     </row>
@@ -7367,15 +7695,15 @@
         <v>9</v>
       </c>
       <c r="F18" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>100아</v>
       </c>
       <c r="G18" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+58</v>
       </c>
       <c r="H18" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I18" s="16" t="str" cm="1">
@@ -7383,15 +7711,15 @@
         <v>아</v>
       </c>
       <c r="J18" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I18,O:R,4,FALSE)</f>
         <v>1E+56</v>
       </c>
       <c r="K18" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2750</v>
       </c>
       <c r="L18" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5500</v>
       </c>
       <c r="M18" s="16">
@@ -7405,11 +7733,11 @@
         <v>44</v>
       </c>
       <c r="Q18" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0000000000000001E+44</v>
       </c>
       <c r="R18" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1E+44</v>
       </c>
     </row>
@@ -7419,15 +7747,15 @@
         <v>10</v>
       </c>
       <c r="F19" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1나</v>
       </c>
       <c r="G19" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999995E+59</v>
       </c>
       <c r="H19" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I19" s="16" t="str" cm="1">
@@ -7435,15 +7763,15 @@
         <v>나</v>
       </c>
       <c r="J19" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I19,O:R,4,FALSE)</f>
         <v>1E+60</v>
       </c>
       <c r="K19" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="L19" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6000</v>
       </c>
       <c r="M19" s="16">
@@ -7457,11 +7785,11 @@
         <v>48</v>
       </c>
       <c r="Q19" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+48</v>
       </c>
       <c r="R19" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1E+48</v>
       </c>
     </row>
@@ -7471,15 +7799,15 @@
         <v>11</v>
       </c>
       <c r="F20" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>100나</v>
       </c>
       <c r="G20" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999992E+61</v>
       </c>
       <c r="H20" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I20" s="16" t="str" cm="1">
@@ -7487,15 +7815,15 @@
         <v>나</v>
       </c>
       <c r="J20" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I20,O:R,4,FALSE)</f>
         <v>1E+60</v>
       </c>
       <c r="K20" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3250</v>
       </c>
       <c r="L20" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6500</v>
       </c>
       <c r="M20" s="16">
@@ -7509,11 +7837,11 @@
         <v>52</v>
       </c>
       <c r="Q20" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999999E+51</v>
       </c>
       <c r="R20" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1E+52</v>
       </c>
     </row>
@@ -7523,15 +7851,15 @@
         <v>12</v>
       </c>
       <c r="F21" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1불</v>
       </c>
       <c r="G21" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+64</v>
       </c>
       <c r="H21" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I21" s="16" t="str" cm="1">
@@ -7539,15 +7867,15 @@
         <v>불</v>
       </c>
       <c r="J21" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I21,O:R,4,FALSE)</f>
         <v>1E+64</v>
       </c>
       <c r="K21" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3500</v>
       </c>
       <c r="L21" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7000</v>
       </c>
       <c r="M21" s="16">
@@ -7561,11 +7889,11 @@
         <v>56</v>
       </c>
       <c r="Q21" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0000000000000001E+56</v>
       </c>
       <c r="R21" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1E+56</v>
       </c>
     </row>
@@ -7575,15 +7903,15 @@
         <v>13</v>
       </c>
       <c r="F22" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>100불</v>
       </c>
       <c r="G22" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999995E+65</v>
       </c>
       <c r="H22" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I22" s="16" t="str" cm="1">
@@ -7591,15 +7919,15 @@
         <v>불</v>
       </c>
       <c r="J22" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I22,O:R,4,FALSE)</f>
         <v>1E+64</v>
       </c>
       <c r="K22" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3750</v>
       </c>
       <c r="L22" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7500</v>
       </c>
       <c r="M22" s="16">
@@ -7613,11 +7941,11 @@
         <v>60</v>
       </c>
       <c r="Q22" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999995E+59</v>
       </c>
       <c r="R22" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1E+60</v>
       </c>
     </row>
@@ -7626,15 +7954,15 @@
         <v>14</v>
       </c>
       <c r="F23" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1무</v>
       </c>
       <c r="G23" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999995E+67</v>
       </c>
       <c r="H23" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I23" s="16" t="str" cm="1">
@@ -7642,15 +7970,15 @@
         <v>무</v>
       </c>
       <c r="J23" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I23,O:R,4,FALSE)</f>
         <v>1E+68</v>
       </c>
       <c r="K23" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="L23" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8000</v>
       </c>
       <c r="M23" s="16">
@@ -7664,11 +7992,11 @@
         <v>64</v>
       </c>
       <c r="Q23" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+64</v>
       </c>
       <c r="R23" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1E+64</v>
       </c>
     </row>
@@ -7677,15 +8005,15 @@
         <v>15</v>
       </c>
       <c r="F24" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>100무</v>
       </c>
       <c r="G24" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999992E+69</v>
       </c>
       <c r="H24" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I24" s="16" t="str" cm="1">
@@ -7693,15 +8021,15 @@
         <v>무</v>
       </c>
       <c r="J24" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I24,O:R,4,FALSE)</f>
         <v>1E+68</v>
       </c>
       <c r="K24" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4750</v>
       </c>
       <c r="L24" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9500</v>
       </c>
       <c r="M24" s="16">
@@ -7715,11 +8043,11 @@
         <v>68</v>
       </c>
       <c r="Q24" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999995E+67</v>
       </c>
       <c r="R24" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1E+68</v>
       </c>
     </row>
@@ -7728,15 +8056,15 @@
         <v>16</v>
       </c>
       <c r="F25" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1대</v>
       </c>
       <c r="G25" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="H25" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I25" s="16" t="str" cm="1">
@@ -7744,15 +8072,15 @@
         <v>대</v>
       </c>
       <c r="J25" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I25,O:R,4,FALSE)</f>
         <v>1E+72</v>
       </c>
       <c r="K25" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5500</v>
       </c>
       <c r="L25" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11000</v>
       </c>
       <c r="M25" s="16">
@@ -7766,11 +8094,11 @@
         <v>72</v>
       </c>
       <c r="Q25" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="R25" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1E+72</v>
       </c>
     </row>
@@ -7779,15 +8107,15 @@
         <v>17</v>
       </c>
       <c r="F26" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>100대</v>
       </c>
       <c r="G26" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999995E+73</v>
       </c>
       <c r="H26" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I26" s="16" t="str" cm="1">
@@ -7795,15 +8123,15 @@
         <v>대</v>
       </c>
       <c r="J26" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I26,O:R,4,FALSE)</f>
         <v>1E+72</v>
       </c>
       <c r="K26" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6250</v>
       </c>
       <c r="L26" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12500</v>
       </c>
       <c r="M26" s="16">
@@ -7817,11 +8145,11 @@
         <v>76</v>
       </c>
       <c r="Q26" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+76</v>
       </c>
       <c r="R26" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1E+76</v>
       </c>
     </row>
@@ -7830,15 +8158,15 @@
         <v>18</v>
       </c>
       <c r="F27" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1겁</v>
       </c>
       <c r="G27" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+76</v>
       </c>
       <c r="H27" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I27" s="16" t="str" cm="1">
@@ -7846,15 +8174,15 @@
         <v>겁</v>
       </c>
       <c r="J27" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I27,O:R,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="K27" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7000</v>
       </c>
       <c r="L27" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14000</v>
       </c>
       <c r="M27" s="16">
@@ -7868,11 +8196,11 @@
         <v>80</v>
       </c>
       <c r="Q27" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+80</v>
       </c>
       <c r="R27" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1E+80</v>
       </c>
     </row>
@@ -7881,15 +8209,15 @@
         <v>19</v>
       </c>
       <c r="F28" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>100겁</v>
       </c>
       <c r="G28" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+78</v>
       </c>
       <c r="H28" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I28" s="16" t="str" cm="1">
@@ -7897,15 +8225,15 @@
         <v>겁</v>
       </c>
       <c r="J28" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I28,O:R,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="K28" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7750</v>
       </c>
       <c r="L28" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15500</v>
       </c>
       <c r="M28" s="16">
@@ -7919,11 +8247,11 @@
         <v>84</v>
       </c>
       <c r="Q28" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="R28" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1E+84</v>
       </c>
     </row>
@@ -7932,15 +8260,15 @@
         <v>20</v>
       </c>
       <c r="F29" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1업</v>
       </c>
       <c r="G29" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+80</v>
       </c>
       <c r="H29" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I29" s="16" t="str" cm="1">
@@ -7948,15 +8276,15 @@
         <v>업</v>
       </c>
       <c r="J29" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I29,O:R,4,FALSE)</f>
         <v>1E+80</v>
       </c>
       <c r="K29" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8500</v>
       </c>
       <c r="L29" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17000</v>
       </c>
       <c r="M29" s="16">
@@ -7970,11 +8298,11 @@
         <v>88</v>
       </c>
       <c r="Q29" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="R29" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1E+88</v>
       </c>
     </row>
@@ -7987,11 +8315,11 @@
         <v>100업</v>
       </c>
       <c r="G30" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999996E+81</v>
       </c>
       <c r="H30" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I30" s="16" t="str" cm="1">
@@ -7999,15 +8327,15 @@
         <v>업</v>
       </c>
       <c r="J30" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I30,O:R,4,FALSE)</f>
         <v>1E+80</v>
       </c>
       <c r="K30" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9250</v>
       </c>
       <c r="L30" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18500</v>
       </c>
       <c r="M30" s="16">
@@ -8021,11 +8349,11 @@
         <v>92</v>
       </c>
       <c r="Q30" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+92</v>
       </c>
       <c r="R30" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1E+92</v>
       </c>
     </row>
@@ -8034,15 +8362,15 @@
         <v>22</v>
       </c>
       <c r="F31" s="17" t="str">
-        <f t="shared" ref="F31:F67" si="8">H31&amp;I31</f>
+        <f t="shared" ref="F31:F67" si="7">H31&amp;I31</f>
         <v>1긍</v>
       </c>
       <c r="G31" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="H31" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I31" s="16" t="str" cm="1">
@@ -8050,15 +8378,15 @@
         <v>긍</v>
       </c>
       <c r="J31" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I31,O:R,4,FALSE)</f>
         <v>1E+84</v>
       </c>
       <c r="K31" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="L31" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20000</v>
       </c>
       <c r="M31" s="16">
@@ -8072,11 +8400,11 @@
         <v>96</v>
       </c>
       <c r="Q31" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+96</v>
       </c>
       <c r="R31" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1E+96</v>
       </c>
     </row>
@@ -8085,15 +8413,15 @@
         <v>23</v>
       </c>
       <c r="F32" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>100긍</v>
       </c>
       <c r="G32" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+86</v>
       </c>
       <c r="H32" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I32" s="16" t="str" cm="1">
@@ -8101,15 +8429,15 @@
         <v>긍</v>
       </c>
       <c r="J32" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I32,O:R,4,FALSE)</f>
         <v>1E+84</v>
       </c>
       <c r="K32" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10750</v>
       </c>
       <c r="L32" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>21500</v>
       </c>
       <c r="M32" s="16">
@@ -8123,11 +8451,11 @@
         <v>100</v>
       </c>
       <c r="Q32" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+100</v>
       </c>
       <c r="R32" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1E+100</v>
       </c>
     </row>
@@ -8136,15 +8464,15 @@
         <v>24</v>
       </c>
       <c r="F33" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1갈</v>
       </c>
       <c r="G33" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="H33" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I33" s="16" t="str" cm="1">
@@ -8152,15 +8480,15 @@
         <v>갈</v>
       </c>
       <c r="J33" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I33,O:R,4,FALSE)</f>
         <v>1E+88</v>
       </c>
       <c r="K33" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11500</v>
       </c>
       <c r="L33" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23000</v>
       </c>
       <c r="M33" s="16">
@@ -8174,11 +8502,11 @@
         <v>104</v>
       </c>
       <c r="Q33" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+104</v>
       </c>
       <c r="R33" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1E+104</v>
       </c>
       <c r="S33" s="11"/>
@@ -8196,15 +8524,15 @@
         <v>25</v>
       </c>
       <c r="F34" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>100갈</v>
       </c>
       <c r="G34" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999997E+89</v>
       </c>
       <c r="H34" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I34" s="16" t="str" cm="1">
@@ -8212,15 +8540,15 @@
         <v>갈</v>
       </c>
       <c r="J34" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I34,O:R,4,FALSE)</f>
         <v>1E+88</v>
       </c>
       <c r="K34" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12250</v>
       </c>
       <c r="L34" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>24500</v>
       </c>
       <c r="M34" s="16">
@@ -8234,11 +8562,11 @@
         <v>108</v>
       </c>
       <c r="Q34" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+108</v>
       </c>
       <c r="R34" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1E+108</v>
       </c>
       <c r="S34" s="11"/>
@@ -8256,15 +8584,15 @@
         <v>26</v>
       </c>
       <c r="F35" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1라</v>
       </c>
       <c r="G35" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+92</v>
       </c>
       <c r="H35" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I35" s="16" t="str" cm="1">
@@ -8272,15 +8600,15 @@
         <v>라</v>
       </c>
       <c r="J35" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I35,O:R,4,FALSE)</f>
         <v>1E+92</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13000</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>26000</v>
       </c>
       <c r="M35" s="16">
@@ -8294,11 +8622,11 @@
         <v>112</v>
       </c>
       <c r="Q35" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="R35" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1E+112</v>
       </c>
       <c r="S35" s="11"/>
@@ -8316,15 +8644,15 @@
         <v>27</v>
       </c>
       <c r="F36" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>100라</v>
       </c>
       <c r="G36" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+94</v>
       </c>
       <c r="H36" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I36" s="16" t="str" cm="1">
@@ -8332,15 +8660,15 @@
         <v>라</v>
       </c>
       <c r="J36" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I36,O:R,4,FALSE)</f>
         <v>1E+92</v>
       </c>
       <c r="K36" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13750</v>
       </c>
       <c r="L36" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27500</v>
       </c>
       <c r="M36" s="16">
@@ -8354,11 +8682,11 @@
         <v>116</v>
       </c>
       <c r="Q36" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+116</v>
       </c>
       <c r="R36" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1E+116</v>
       </c>
       <c r="S36" s="11"/>
@@ -8376,15 +8704,15 @@
         <v>28</v>
       </c>
       <c r="F37" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1가</v>
       </c>
       <c r="G37" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="H37" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I37" s="16" t="str" cm="1">
@@ -8392,15 +8720,15 @@
         <v>가</v>
       </c>
       <c r="J37" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I37,O:R,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="K37" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14500</v>
       </c>
       <c r="L37" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>29000</v>
       </c>
       <c r="M37" s="16">
@@ -8414,11 +8742,11 @@
         <v>120</v>
       </c>
       <c r="Q37" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="R37" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1E+120</v>
       </c>
       <c r="S37" s="11"/>
@@ -8436,15 +8764,15 @@
         <v>29</v>
       </c>
       <c r="F38" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>100가</v>
       </c>
       <c r="G38" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+98</v>
       </c>
       <c r="H38" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I38" s="16" t="str" cm="1">
@@ -8452,15 +8780,15 @@
         <v>가</v>
       </c>
       <c r="J38" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I38,O:R,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="K38" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15250</v>
       </c>
       <c r="L38" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>30500</v>
       </c>
       <c r="M38" s="16">
@@ -8474,11 +8802,11 @@
         <v>124</v>
       </c>
       <c r="Q38" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="R38" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1E+124</v>
       </c>
       <c r="S38" s="11"/>
@@ -8496,15 +8824,15 @@
         <v>30</v>
       </c>
       <c r="F39" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1언</v>
       </c>
       <c r="G39" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+100</v>
       </c>
       <c r="H39" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I39" s="16" t="str" cm="1">
@@ -8512,15 +8840,15 @@
         <v>언</v>
       </c>
       <c r="J39" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I39,O:R,4,FALSE)</f>
         <v>1E+100</v>
       </c>
       <c r="K39" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16500</v>
       </c>
       <c r="L39" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33000</v>
       </c>
       <c r="M39" s="16">
@@ -8534,11 +8862,11 @@
         <v>128</v>
       </c>
       <c r="Q39" s="17">
-        <f t="shared" ref="Q39" si="9">POWER(10,P39)</f>
+        <f t="shared" ref="Q39" si="8">POWER(10,P39)</f>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="R39" s="17" t="str">
-        <f t="shared" ref="R39" si="10">RIGHT(Q39,P39)</f>
+        <f t="shared" ref="R39" si="9">RIGHT(Q39,P39)</f>
         <v>1E+128</v>
       </c>
       <c r="S39" s="11"/>
@@ -8556,15 +8884,15 @@
         <v>31</v>
       </c>
       <c r="F40" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>100언</v>
       </c>
       <c r="G40" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="H40" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I40" s="16" t="str" cm="1">
@@ -8572,15 +8900,15 @@
         <v>언</v>
       </c>
       <c r="J40" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I40,O:R,4,FALSE)</f>
         <v>1E+100</v>
       </c>
       <c r="K40" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17750</v>
       </c>
       <c r="L40" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>35500</v>
       </c>
       <c r="M40" s="16">
@@ -8594,11 +8922,11 @@
         <v>132</v>
       </c>
       <c r="Q40" s="17">
-        <f t="shared" ref="Q40:Q41" si="11">POWER(10,P40)</f>
+        <f t="shared" ref="Q40:Q41" si="10">POWER(10,P40)</f>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="R40" s="17" t="str">
-        <f t="shared" ref="R40:R41" si="12">RIGHT(Q40,P40)</f>
+        <f t="shared" ref="R40:R41" si="11">RIGHT(Q40,P40)</f>
         <v>1E+132</v>
       </c>
       <c r="S40" s="11"/>
@@ -8616,15 +8944,15 @@
         <v>32</v>
       </c>
       <c r="F41" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1승</v>
       </c>
       <c r="G41" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
       <c r="H41" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I41" s="16" t="str" cm="1">
@@ -8632,15 +8960,15 @@
         <v>승</v>
       </c>
       <c r="J41" s="16" t="str">
-        <f t="shared" ref="J41:J69" si="13">VLOOKUP(I41,O:R,4,FALSE)</f>
+        <f>VLOOKUP(I41,O:R,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="K41" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19000</v>
       </c>
       <c r="L41" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>38000</v>
       </c>
       <c r="M41" s="16">
@@ -8654,11 +8982,11 @@
         <v>136</v>
       </c>
       <c r="Q41" s="17">
+        <f t="shared" si="10"/>
+        <v>1.0000000000000001E+136</v>
+      </c>
+      <c r="R41" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>1.0000000000000001E+136</v>
-      </c>
-      <c r="R41" s="17" t="str">
-        <f t="shared" si="12"/>
         <v>1E+136</v>
       </c>
       <c r="S41" s="11"/>
@@ -8676,15 +9004,15 @@
         <v>33</v>
       </c>
       <c r="F42" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>100승</v>
       </c>
       <c r="G42" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="H42" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I42" s="16" t="str" cm="1">
@@ -8692,15 +9020,15 @@
         <v>승</v>
       </c>
       <c r="J42" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(I42,O:R,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="K42" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20250</v>
       </c>
       <c r="L42" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>40500</v>
       </c>
       <c r="M42" s="16">
@@ -8714,11 +9042,11 @@
         <v>140</v>
       </c>
       <c r="Q42" s="17">
-        <f t="shared" ref="Q42:Q43" si="14">POWER(10,P42)</f>
+        <f t="shared" ref="Q42:Q43" si="12">POWER(10,P42)</f>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="R42" s="17" t="str">
-        <f t="shared" ref="R42:R43" si="15">RIGHT(Q42,P42)</f>
+        <f t="shared" ref="R42:R43" si="13">RIGHT(Q42,P42)</f>
         <v>1E+140</v>
       </c>
       <c r="S42" s="11"/>
@@ -8736,15 +9064,15 @@
         <v>34</v>
       </c>
       <c r="F43" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1마</v>
       </c>
       <c r="G43" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+108</v>
       </c>
       <c r="H43" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I43" s="16" t="str" cm="1">
@@ -8752,15 +9080,15 @@
         <v>마</v>
       </c>
       <c r="J43" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(I43,O:R,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="K43" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21500</v>
       </c>
       <c r="L43" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43000</v>
       </c>
       <c r="M43" s="16">
@@ -8774,11 +9102,11 @@
         <v>144</v>
       </c>
       <c r="Q43" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1E+144</v>
       </c>
       <c r="R43" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>1E+144</v>
       </c>
       <c r="S43" s="11"/>
@@ -8796,15 +9124,15 @@
         <v>35</v>
       </c>
       <c r="F44" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>100마</v>
       </c>
       <c r="G44" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+110</v>
       </c>
       <c r="H44" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I44" s="16" t="str" cm="1">
@@ -8812,15 +9140,15 @@
         <v>마</v>
       </c>
       <c r="J44" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(I44,O:R,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="K44" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22750</v>
       </c>
       <c r="L44" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45500</v>
       </c>
       <c r="M44" s="16">
@@ -8834,11 +9162,11 @@
         <v>148</v>
       </c>
       <c r="Q44" s="17">
-        <f t="shared" ref="Q44:Q45" si="16">POWER(10,P44)</f>
+        <f t="shared" ref="Q44:Q45" si="14">POWER(10,P44)</f>
         <v>1E+148</v>
       </c>
       <c r="R44" s="17" t="str">
-        <f t="shared" ref="R44:R45" si="17">RIGHT(Q44,P44)</f>
+        <f t="shared" ref="R44:R45" si="15">RIGHT(Q44,P44)</f>
         <v>1E+148</v>
       </c>
       <c r="S44" s="11"/>
@@ -8856,15 +9184,15 @@
         <v>36</v>
       </c>
       <c r="F45" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1살</v>
       </c>
       <c r="G45" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="H45" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I45" s="16" t="str" cm="1">
@@ -8872,15 +9200,15 @@
         <v>살</v>
       </c>
       <c r="J45" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(I45,O:R,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="K45" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24000</v>
       </c>
       <c r="L45" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>48000</v>
       </c>
       <c r="M45" s="16">
@@ -8894,11 +9222,11 @@
         <v>152</v>
       </c>
       <c r="Q45" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1E+152</v>
       </c>
       <c r="R45" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1E+152</v>
       </c>
       <c r="S45" s="11"/>
@@ -8916,15 +9244,15 @@
         <v>37</v>
       </c>
       <c r="F46" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>100살</v>
       </c>
       <c r="G46" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="H46" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I46" s="16" t="str" cm="1">
@@ -8932,15 +9260,15 @@
         <v>살</v>
       </c>
       <c r="J46" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(I46,O:R,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="K46" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25250</v>
       </c>
       <c r="L46" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>50500</v>
       </c>
       <c r="M46" s="16">
@@ -8954,11 +9282,11 @@
         <v>156</v>
       </c>
       <c r="Q46" s="17">
-        <f t="shared" ref="Q46:Q47" si="18">POWER(10,P46)</f>
+        <f t="shared" ref="Q46:Q47" si="16">POWER(10,P46)</f>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="R46" s="17" t="str">
-        <f t="shared" ref="R46:R47" si="19">RIGHT(Q46,P46)</f>
+        <f t="shared" ref="R46:R47" si="17">RIGHT(Q46,P46)</f>
         <v>1E+156</v>
       </c>
       <c r="S46" s="11"/>
@@ -8976,15 +9304,15 @@
         <v>38</v>
       </c>
       <c r="F47" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1섬</v>
       </c>
       <c r="G47" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+116</v>
       </c>
       <c r="H47" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I47" s="16" t="str" cm="1">
@@ -8992,15 +9320,15 @@
         <v>섬</v>
       </c>
       <c r="J47" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(I47,O:R,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="K47" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26500</v>
       </c>
       <c r="L47" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>53000</v>
       </c>
       <c r="M47" s="16">
@@ -9014,11 +9342,11 @@
         <v>160</v>
       </c>
       <c r="Q47" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1E+160</v>
       </c>
       <c r="R47" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1E+160</v>
       </c>
       <c r="S47" s="11"/>
@@ -9036,15 +9364,15 @@
         <v>39</v>
       </c>
       <c r="F48" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>100섬</v>
       </c>
       <c r="G48" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="H48" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I48" s="16" t="str" cm="1">
@@ -9052,15 +9380,15 @@
         <v>섬</v>
       </c>
       <c r="J48" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(I48,O:R,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="K48" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27750</v>
       </c>
       <c r="L48" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>55500</v>
       </c>
       <c r="M48" s="16">
@@ -9074,11 +9402,11 @@
         <v>164</v>
       </c>
       <c r="Q48" s="17">
-        <f t="shared" ref="Q48:Q49" si="20">POWER(10,P48)</f>
+        <f t="shared" ref="Q48:Q49" si="18">POWER(10,P48)</f>
         <v>1E+164</v>
       </c>
       <c r="R48" s="17" t="str">
-        <f t="shared" ref="R48:R49" si="21">RIGHT(Q48,P48)</f>
+        <f t="shared" ref="R48:R49" si="19">RIGHT(Q48,P48)</f>
         <v>1E+164</v>
       </c>
       <c r="S48" s="11"/>
@@ -9096,15 +9424,15 @@
         <v>40</v>
       </c>
       <c r="F49" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1찰</v>
       </c>
       <c r="G49" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="H49" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I49" s="16" t="str" cm="1">
@@ -9112,15 +9440,15 @@
         <v>찰</v>
       </c>
       <c r="J49" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(I49,O:R,4,FALSE)</f>
         <v>1E+120</v>
       </c>
       <c r="K49" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>29000</v>
       </c>
       <c r="L49" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>58000</v>
       </c>
       <c r="M49" s="16">
@@ -9134,11 +9462,11 @@
         <v>168</v>
       </c>
       <c r="Q49" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="R49" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>1E+168</v>
       </c>
       <c r="S49" s="11"/>
@@ -9156,15 +9484,15 @@
         <v>41</v>
       </c>
       <c r="F50" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>100찰</v>
       </c>
       <c r="G50" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+122</v>
       </c>
       <c r="H50" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I50" s="16" t="str" cm="1">
@@ -9172,15 +9500,15 @@
         <v>찰</v>
       </c>
       <c r="J50" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(I50,O:R,4,FALSE)</f>
         <v>1E+120</v>
       </c>
       <c r="K50" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30250</v>
       </c>
       <c r="L50" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>60500</v>
       </c>
       <c r="M50" s="16">
@@ -9194,11 +9522,11 @@
         <v>172</v>
       </c>
       <c r="Q50" s="17">
-        <f t="shared" ref="Q50:Q51" si="22">POWER(10,P50)</f>
+        <f t="shared" ref="Q50:Q51" si="20">POWER(10,P50)</f>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="R50" s="17" t="str">
-        <f t="shared" ref="R50:R51" si="23">RIGHT(Q50,P50)</f>
+        <f t="shared" ref="R50:R51" si="21">RIGHT(Q50,P50)</f>
         <v>1E+172</v>
       </c>
       <c r="S50" s="11"/>
@@ -9216,15 +9544,15 @@
         <v>42</v>
       </c>
       <c r="F51" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1교</v>
       </c>
       <c r="G51" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="H51" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I51" s="16" t="str" cm="1">
@@ -9232,15 +9560,15 @@
         <v>교</v>
       </c>
       <c r="J51" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(I51,O:R,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K51" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>31500</v>
       </c>
       <c r="L51" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>63000</v>
       </c>
       <c r="M51" s="16">
@@ -9254,11 +9582,11 @@
         <v>176</v>
       </c>
       <c r="Q51" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>1E+176</v>
       </c>
       <c r="R51" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>1E+176</v>
       </c>
       <c r="S51" s="11"/>
@@ -9276,15 +9604,15 @@
         <v>43</v>
       </c>
       <c r="F52" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>100교</v>
       </c>
       <c r="G52" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="H52" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I52" s="16" t="str" cm="1">
@@ -9292,15 +9620,15 @@
         <v>교</v>
       </c>
       <c r="J52" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(I52,O:R,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K52" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>32750</v>
       </c>
       <c r="L52" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>65500</v>
       </c>
       <c r="M52" s="16">
@@ -9314,11 +9642,11 @@
         <v>180</v>
       </c>
       <c r="Q52" s="17">
-        <f t="shared" ref="Q52:Q53" si="24">POWER(10,P52)</f>
+        <f t="shared" ref="Q52:Q53" si="22">POWER(10,P52)</f>
         <v>1E+180</v>
       </c>
       <c r="R52" s="17" t="str">
-        <f t="shared" ref="R52:R53" si="25">RIGHT(Q52,P52)</f>
+        <f t="shared" ref="R52:R53" si="23">RIGHT(Q52,P52)</f>
         <v>1E+180</v>
       </c>
       <c r="S52" s="11"/>
@@ -9336,15 +9664,15 @@
         <v>44</v>
       </c>
       <c r="F53" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1위</v>
       </c>
       <c r="G53" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="H53" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I53" s="16" t="str" cm="1">
@@ -9352,15 +9680,15 @@
         <v>위</v>
       </c>
       <c r="J53" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(I53,O:R,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="K53" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>34000</v>
       </c>
       <c r="L53" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>68000</v>
       </c>
       <c r="M53" s="16">
@@ -9374,11 +9702,11 @@
         <v>184</v>
       </c>
       <c r="Q53" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>1E+184</v>
       </c>
       <c r="R53" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1E+184</v>
       </c>
       <c r="S53" s="11"/>
@@ -9396,15 +9724,15 @@
         <v>45</v>
       </c>
       <c r="F54" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>100위</v>
       </c>
       <c r="G54" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+130</v>
       </c>
       <c r="H54" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I54" s="16" t="str" cm="1">
@@ -9412,15 +9740,15 @@
         <v>위</v>
       </c>
       <c r="J54" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(I54,O:R,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="K54" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>35750</v>
       </c>
       <c r="L54" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>71500</v>
       </c>
       <c r="M54" s="16">
@@ -9434,11 +9762,11 @@
         <v>188</v>
       </c>
       <c r="Q54" s="17">
-        <f t="shared" ref="Q54" si="26">POWER(10,P54)</f>
+        <f t="shared" ref="Q54" si="24">POWER(10,P54)</f>
         <v>1E+188</v>
       </c>
       <c r="R54" s="17" t="str">
-        <f t="shared" ref="R54" si="27">RIGHT(Q54,P54)</f>
+        <f t="shared" ref="R54" si="25">RIGHT(Q54,P54)</f>
         <v>1E+188</v>
       </c>
       <c r="S54" s="11"/>
@@ -9456,15 +9784,15 @@
         <v>46</v>
       </c>
       <c r="F55" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1설</v>
       </c>
       <c r="G55" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="H55" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I55" s="16" t="str" cm="1">
@@ -9472,15 +9800,15 @@
         <v>설</v>
       </c>
       <c r="J55" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(I55,O:R,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K55" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>37500</v>
       </c>
       <c r="L55" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>75000</v>
       </c>
       <c r="M55" s="16">
@@ -9494,11 +9822,11 @@
         <v>192</v>
       </c>
       <c r="Q55" s="17">
-        <f t="shared" ref="Q55" si="28">POWER(10,P55)</f>
+        <f t="shared" ref="Q55" si="26">POWER(10,P55)</f>
         <v>1E+192</v>
       </c>
       <c r="R55" s="17" t="str">
-        <f t="shared" ref="R55" si="29">RIGHT(Q55,P55)</f>
+        <f t="shared" ref="R55" si="27">RIGHT(Q55,P55)</f>
         <v>1E+192</v>
       </c>
       <c r="S55" s="11"/>
@@ -9516,15 +9844,15 @@
         <v>47</v>
       </c>
       <c r="F56" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>100설</v>
       </c>
       <c r="G56" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="H56" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I56" s="16" t="str" cm="1">
@@ -9532,11 +9860,11 @@
         <v>설</v>
       </c>
       <c r="J56" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(I56,O:R,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K56" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40000</v>
       </c>
       <c r="L56" s="22">
@@ -9555,11 +9883,11 @@
         <v>196</v>
       </c>
       <c r="Q56" s="17">
-        <f t="shared" ref="Q56:Q57" si="30">POWER(10,P56)</f>
+        <f t="shared" ref="Q56:Q57" si="28">POWER(10,P56)</f>
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="R56" s="17" t="str">
-        <f t="shared" ref="R56:R57" si="31">RIGHT(Q56,P56)</f>
+        <f t="shared" ref="R56:R57" si="29">RIGHT(Q56,P56)</f>
         <v>1E+196</v>
       </c>
       <c r="S56" s="11"/>
@@ -9577,15 +9905,15 @@
         <v>48</v>
       </c>
       <c r="F57" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1적</v>
       </c>
       <c r="G57" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="H57" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I57" s="16" t="str" cm="1">
@@ -9593,15 +9921,15 @@
         <v>적</v>
       </c>
       <c r="J57" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(I57,O:R,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="K57" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42500</v>
       </c>
       <c r="L57" s="22">
-        <f t="shared" ref="L57:L69" si="32">L56+500+QUOTIENT(E57,15)*1500</f>
+        <f t="shared" ref="L57:L69" si="30">L56+500+QUOTIENT(E57,15)*1500</f>
         <v>85000</v>
       </c>
       <c r="M57" s="16">
@@ -9615,11 +9943,11 @@
         <v>200</v>
       </c>
       <c r="Q57" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>9.9999999999999997E+199</v>
       </c>
       <c r="R57" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>1E+200</v>
       </c>
       <c r="S57" s="11"/>
@@ -9637,15 +9965,15 @@
         <v>49</v>
       </c>
       <c r="F58" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>100적</v>
       </c>
       <c r="G58" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+138</v>
       </c>
       <c r="H58" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I58" s="16" t="str" cm="1">
@@ -9653,15 +9981,15 @@
         <v>적</v>
       </c>
       <c r="J58" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(I58,O:R,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="K58" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45000</v>
       </c>
       <c r="L58" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>90000</v>
       </c>
       <c r="M58" s="16">
@@ -9675,11 +10003,11 @@
         <v>204</v>
       </c>
       <c r="Q58" s="17">
-        <f t="shared" ref="Q58:Q59" si="33">POWER(10,P58)</f>
+        <f t="shared" ref="Q58:Q59" si="31">POWER(10,P58)</f>
         <v>9.9999999999999999E+203</v>
       </c>
       <c r="R58" s="17" t="str">
-        <f t="shared" ref="R58:R59" si="34">RIGHT(Q58,P58)</f>
+        <f t="shared" ref="R58:R59" si="32">RIGHT(Q58,P58)</f>
         <v>1E+204</v>
       </c>
       <c r="S58" s="11"/>
@@ -9697,15 +10025,15 @@
         <v>50</v>
       </c>
       <c r="F59" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1고</v>
       </c>
       <c r="G59" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="H59" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I59" s="16" t="str" cm="1">
@@ -9713,15 +10041,15 @@
         <v>고</v>
       </c>
       <c r="J59" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(I59,O:R,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K59" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>47500</v>
       </c>
       <c r="L59" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>95000</v>
       </c>
       <c r="M59" s="16">
@@ -9735,11 +10063,11 @@
         <v>208</v>
       </c>
       <c r="Q59" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>9.9999999999999998E+207</v>
       </c>
       <c r="R59" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>1E+208</v>
       </c>
       <c r="S59" s="11"/>
@@ -9757,15 +10085,15 @@
         <v>51</v>
       </c>
       <c r="F60" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>100고</v>
       </c>
       <c r="G60" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H60" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I60" s="16" t="str" cm="1">
@@ -9773,15 +10101,15 @@
         <v>고</v>
       </c>
       <c r="J60" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(I60,O:R,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K60" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50000</v>
       </c>
       <c r="L60" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>100000</v>
       </c>
       <c r="M60" s="16">
@@ -9795,11 +10123,11 @@
         <v>212</v>
       </c>
       <c r="Q60" s="17">
-        <f t="shared" ref="Q60" si="35">POWER(10,P60)</f>
+        <f t="shared" ref="Q60" si="33">POWER(10,P60)</f>
         <v>9.9999999999999991E+211</v>
       </c>
       <c r="R60" s="17" t="str">
-        <f t="shared" ref="R60" si="36">RIGHT(Q60,P60)</f>
+        <f t="shared" ref="R60" si="34">RIGHT(Q60,P60)</f>
         <v>1E+212</v>
       </c>
       <c r="S60" s="11"/>
@@ -9817,15 +10145,15 @@
         <v>52</v>
       </c>
       <c r="F61" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1화</v>
       </c>
       <c r="G61" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+144</v>
       </c>
       <c r="H61" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I61" s="16" t="str" cm="1">
@@ -9833,15 +10161,15 @@
         <v>화</v>
       </c>
       <c r="J61" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(I61,O:R,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="K61" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>52500</v>
       </c>
       <c r="L61" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>105000</v>
       </c>
       <c r="M61" s="16">
@@ -9855,11 +10183,11 @@
         <v>216</v>
       </c>
       <c r="Q61" s="17">
-        <f t="shared" ref="Q61:Q62" si="37">POWER(10,P61)</f>
+        <f t="shared" ref="Q61:Q62" si="35">POWER(10,P61)</f>
         <v>1E+216</v>
       </c>
       <c r="R61" s="17" t="str">
-        <f t="shared" ref="R61:R62" si="38">RIGHT(Q61,P61)</f>
+        <f t="shared" ref="R61:R62" si="36">RIGHT(Q61,P61)</f>
         <v>1E+216</v>
       </c>
       <c r="S61" s="11"/>
@@ -9877,15 +10205,15 @@
         <v>53</v>
       </c>
       <c r="F62" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>100화</v>
       </c>
       <c r="G62" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="H62" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I62" s="16" t="str" cm="1">
@@ -9893,15 +10221,15 @@
         <v>화</v>
       </c>
       <c r="J62" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(I62,O:R,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="K62" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>55000</v>
       </c>
       <c r="L62" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>110000</v>
       </c>
       <c r="M62" s="16">
@@ -9915,11 +10243,11 @@
         <v>220</v>
       </c>
       <c r="Q62" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>1E+220</v>
       </c>
       <c r="R62" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>1E+220</v>
       </c>
       <c r="S62" s="11"/>
@@ -9937,15 +10265,15 @@
         <v>54</v>
       </c>
       <c r="F63" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1명</v>
       </c>
       <c r="G63" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+148</v>
       </c>
       <c r="H63" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I63" s="16" t="str" cm="1">
@@ -9953,15 +10281,15 @@
         <v>명</v>
       </c>
       <c r="J63" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(I63,O:R,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="K63" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>57500</v>
       </c>
       <c r="L63" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>115000</v>
       </c>
       <c r="M63" s="16">
@@ -9975,11 +10303,11 @@
         <v>224</v>
       </c>
       <c r="Q63" s="17">
-        <f t="shared" ref="Q63:Q64" si="39">POWER(10,P63)</f>
+        <f t="shared" ref="Q63:Q64" si="37">POWER(10,P63)</f>
         <v>9.9999999999999997E+223</v>
       </c>
       <c r="R63" s="17" t="str">
-        <f t="shared" ref="R63:R64" si="40">RIGHT(Q63,P63)</f>
+        <f t="shared" ref="R63:R64" si="38">RIGHT(Q63,P63)</f>
         <v>1E+224</v>
       </c>
       <c r="S63" s="11"/>
@@ -9997,15 +10325,15 @@
         <v>55</v>
       </c>
       <c r="F64" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>100명</v>
       </c>
       <c r="G64" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="H64" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I64" s="16" t="str" cm="1">
@@ -10013,15 +10341,15 @@
         <v>명</v>
       </c>
       <c r="J64" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(I64,O:R,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="K64" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>60000</v>
       </c>
       <c r="L64" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>120000</v>
       </c>
       <c r="M64" s="16">
@@ -10035,11 +10363,11 @@
         <v>228</v>
       </c>
       <c r="Q64" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999992E+227</v>
       </c>
       <c r="R64" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>1E+228</v>
       </c>
       <c r="S64" s="11"/>
@@ -10057,15 +10385,15 @@
         <v>56</v>
       </c>
       <c r="F65" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1월</v>
       </c>
       <c r="G65" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+152</v>
       </c>
       <c r="H65" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I65" s="16" t="str" cm="1">
@@ -10073,15 +10401,15 @@
         <v>월</v>
       </c>
       <c r="J65" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(I65,O:R,4,FALSE)</f>
         <v>1E+152</v>
       </c>
       <c r="K65" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>62500</v>
       </c>
       <c r="L65" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>125000</v>
       </c>
       <c r="M65" s="16">
@@ -10095,11 +10423,11 @@
         <v>232</v>
       </c>
       <c r="Q65" s="17">
-        <f t="shared" ref="Q65:Q66" si="41">POWER(10,P65)</f>
+        <f t="shared" ref="Q65:Q66" si="39">POWER(10,P65)</f>
         <v>1.0000000000000001E+232</v>
       </c>
       <c r="R65" s="17" t="str">
-        <f t="shared" ref="R65:R66" si="42">RIGHT(Q65,P65)</f>
+        <f t="shared" ref="R65:R66" si="40">RIGHT(Q65,P65)</f>
         <v>1E+232</v>
       </c>
       <c r="S65" s="11"/>
@@ -10117,15 +10445,15 @@
         <v>57</v>
       </c>
       <c r="F66" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>100월</v>
       </c>
       <c r="G66" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+154</v>
       </c>
       <c r="H66" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I66" s="16" t="str" cm="1">
@@ -10133,15 +10461,15 @@
         <v>월</v>
       </c>
       <c r="J66" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(I66,O:R,4,FALSE)</f>
         <v>1E+152</v>
       </c>
       <c r="K66" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>65000</v>
       </c>
       <c r="L66" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>130000</v>
       </c>
       <c r="M66" s="16">
@@ -10155,11 +10483,11 @@
         <v>236</v>
       </c>
       <c r="Q66" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>1.0000000000000001E+236</v>
       </c>
       <c r="R66" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>1E+236</v>
       </c>
       <c r="S66" s="11"/>
@@ -10177,15 +10505,15 @@
         <v>58</v>
       </c>
       <c r="F67" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1후</v>
       </c>
       <c r="G67" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="H67" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I67" s="16" t="str" cm="1">
@@ -10193,15 +10521,15 @@
         <v>후</v>
       </c>
       <c r="J67" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(I67,O:R,4,FALSE)</f>
         <v>1E+156</v>
       </c>
       <c r="K67" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>67500</v>
       </c>
       <c r="L67" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>135000</v>
       </c>
       <c r="M67" s="16">
@@ -10215,11 +10543,11 @@
         <v>240</v>
       </c>
       <c r="Q67" s="17">
-        <f t="shared" ref="Q67:Q68" si="43">POWER(10,P67)</f>
+        <f t="shared" ref="Q67:Q68" si="41">POWER(10,P67)</f>
         <v>1E+240</v>
       </c>
       <c r="R67" s="17" t="str">
-        <f t="shared" ref="R67:R68" si="44">RIGHT(Q67,P67)</f>
+        <f t="shared" ref="R67:R68" si="42">RIGHT(Q67,P67)</f>
         <v>1E+240</v>
       </c>
     </row>
@@ -10232,11 +10560,11 @@
         <v>100후</v>
       </c>
       <c r="G68" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999995E+157</v>
       </c>
       <c r="H68" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I68" s="16" t="str" cm="1">
@@ -10244,15 +10572,15 @@
         <v>후</v>
       </c>
       <c r="J68" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(I68,O:R,4,FALSE)</f>
         <v>1E+156</v>
       </c>
       <c r="K68" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>70000</v>
       </c>
       <c r="L68" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>140000</v>
       </c>
       <c r="M68" s="16">
@@ -10266,11 +10594,11 @@
         <v>244</v>
       </c>
       <c r="Q68" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>1.0000000000000001E+244</v>
       </c>
       <c r="R68" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>1E+244</v>
       </c>
     </row>
@@ -10279,15 +10607,15 @@
         <v>60</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" ref="F69" si="45">H69&amp;I69</f>
+        <f t="shared" ref="F69" si="43">H69&amp;I69</f>
         <v>1단</v>
       </c>
       <c r="G69" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+160</v>
       </c>
       <c r="H69" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I69" s="16" t="str" cm="1">
@@ -10295,15 +10623,15 @@
         <v>단</v>
       </c>
       <c r="J69" s="16" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(I69,O:R,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K69" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>73250</v>
       </c>
       <c r="L69" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>146500</v>
       </c>
       <c r="M69" s="16">
@@ -10317,11 +10645,11 @@
         <v>248</v>
       </c>
       <c r="Q69" s="17">
-        <f t="shared" ref="Q69:Q70" si="46">POWER(10,P69)</f>
+        <f t="shared" ref="Q69:Q70" si="44">POWER(10,P69)</f>
         <v>1E+248</v>
       </c>
       <c r="R69" s="17" t="str">
-        <f t="shared" ref="R69:R70" si="47">RIGHT(Q69,P69)</f>
+        <f t="shared" ref="R69:R70" si="45">RIGHT(Q69,P69)</f>
         <v>1E+248</v>
       </c>
     </row>
@@ -10334,11 +10662,11 @@
         <v>100단</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" ref="G70:G72" si="48">H70*J70</f>
+        <f t="shared" ref="G70:G72" si="46">H70*J70</f>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="H70" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I70" s="16" t="str" cm="1">
@@ -10346,15 +10674,15 @@
         <v>단</v>
       </c>
       <c r="J70" s="16" t="str">
-        <f t="shared" ref="J70:J72" si="49">VLOOKUP(I70,O:R,4,FALSE)</f>
+        <f>VLOOKUP(I70,O:R,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K70" s="22">
-        <f t="shared" ref="K70:K72" si="50">L70*0.5</f>
+        <f t="shared" ref="K70:K72" si="47">L70*0.5</f>
         <v>76500</v>
       </c>
       <c r="L70" s="22">
-        <f t="shared" ref="L70:L72" si="51">L69+500+QUOTIENT(E70,15)*1500</f>
+        <f t="shared" ref="L70:L72" si="48">L69+500+QUOTIENT(E70,15)*1500</f>
         <v>153000</v>
       </c>
       <c r="O70" s="16" t="s">
@@ -10364,11 +10692,11 @@
         <v>252</v>
       </c>
       <c r="Q70" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>1.0000000000000001E+252</v>
       </c>
       <c r="R70" s="17" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>1E+252</v>
       </c>
     </row>
@@ -10377,15 +10705,15 @@
         <v>62</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" ref="F71:F72" si="52">H71&amp;I71</f>
+        <f t="shared" ref="F71:F72" si="49">H71&amp;I71</f>
         <v>1절</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>1E+164</v>
       </c>
       <c r="H71" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I71" s="16" t="str" cm="1">
@@ -10393,15 +10721,15 @@
         <v>절</v>
       </c>
       <c r="J71" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f>VLOOKUP(I71,O:R,4,FALSE)</f>
         <v>1E+164</v>
       </c>
       <c r="K71" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>79750</v>
       </c>
       <c r="L71" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="48"/>
         <v>159500</v>
       </c>
       <c r="O71" s="16" t="s">
@@ -10411,11 +10739,11 @@
         <v>256</v>
       </c>
       <c r="Q71" s="17">
-        <f t="shared" ref="Q71" si="53">POWER(10,P71)</f>
+        <f t="shared" ref="Q71" si="50">POWER(10,P71)</f>
         <v>1E+256</v>
       </c>
       <c r="R71" s="17" t="str">
-        <f t="shared" ref="R71" si="54">RIGHT(Q71,P71)</f>
+        <f t="shared" ref="R71" si="51">RIGHT(Q71,P71)</f>
         <v>1E+256</v>
       </c>
     </row>
@@ -10424,15 +10752,15 @@
         <v>63</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>100절</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="H72" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I72" s="16" t="str" cm="1">
@@ -10440,16 +10768,30 @@
         <v>절</v>
       </c>
       <c r="J72" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f>VLOOKUP(I72,O:R,4,FALSE)</f>
         <v>1E+164</v>
       </c>
       <c r="K72" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>83000</v>
       </c>
       <c r="L72" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="48"/>
         <v>166000</v>
+      </c>
+      <c r="O72" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="P72" s="16">
+        <v>260</v>
+      </c>
+      <c r="Q72" s="17">
+        <f t="shared" ref="Q72:Q75" si="52">POWER(10,P72)</f>
+        <v>1.0000000000000001E+260</v>
+      </c>
+      <c r="R72" s="17" t="str">
+        <f t="shared" ref="R72:R75" si="53">RIGHT(Q72,P72)</f>
+        <v>1E+260</v>
       </c>
     </row>
     <row r="73" spans="5:27" x14ac:dyDescent="0.3">
@@ -10457,15 +10799,15 @@
         <v>64</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F75" si="55">H73&amp;I73</f>
+        <f t="shared" ref="F73:F75" si="54">H73&amp;I73</f>
         <v>1격</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G75" si="56">H73*J73</f>
+        <f t="shared" ref="G73:G75" si="55">H73*J73</f>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="H73" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I73" s="16" t="str" cm="1">
@@ -10473,16 +10815,30 @@
         <v>격</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J75" si="57">VLOOKUP(I73,O:R,4,FALSE)</f>
+        <f>VLOOKUP(I73,O:R,4,FALSE)</f>
         <v>1E+168</v>
       </c>
       <c r="K73" s="22">
-        <f t="shared" ref="K73:K75" si="58">L73*0.5</f>
+        <f t="shared" ref="K73:K75" si="56">L73*0.5</f>
         <v>86250</v>
       </c>
       <c r="L73" s="22">
-        <f t="shared" ref="L73:L75" si="59">L72+500+QUOTIENT(E73,15)*1500</f>
+        <f t="shared" ref="L73:L75" si="57">L72+500+QUOTIENT(E73,15)*1500</f>
         <v>172500</v>
+      </c>
+      <c r="O73" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="P73" s="16">
+        <v>264</v>
+      </c>
+      <c r="Q73" s="17">
+        <f t="shared" si="52"/>
+        <v>1E+264</v>
+      </c>
+      <c r="R73" s="17" t="str">
+        <f t="shared" si="53"/>
+        <v>1E+264</v>
       </c>
     </row>
     <row r="74" spans="5:27" x14ac:dyDescent="0.3">
@@ -10490,15 +10846,15 @@
         <v>65</v>
       </c>
       <c r="F74" s="17" t="str">
+        <f t="shared" si="54"/>
+        <v>100격</v>
+      </c>
+      <c r="G74" s="17">
         <f t="shared" si="55"/>
-        <v>100격</v>
-      </c>
-      <c r="G74" s="17">
-        <f t="shared" si="56"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="H74" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I74" s="16" t="str" cm="1">
@@ -10506,16 +10862,30 @@
         <v>격</v>
       </c>
       <c r="J74" s="16" t="str">
+        <f>VLOOKUP(I74,O:R,4,FALSE)</f>
+        <v>1E+168</v>
+      </c>
+      <c r="K74" s="22">
+        <f t="shared" si="56"/>
+        <v>89500</v>
+      </c>
+      <c r="L74" s="22">
         <f t="shared" si="57"/>
-        <v>1E+168</v>
-      </c>
-      <c r="K74" s="22">
-        <f t="shared" si="58"/>
-        <v>89500</v>
-      </c>
-      <c r="L74" s="22">
-        <f t="shared" si="59"/>
         <v>179000</v>
+      </c>
+      <c r="O74" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="P74" s="16">
+        <v>268</v>
+      </c>
+      <c r="Q74" s="17">
+        <f t="shared" si="52"/>
+        <v>9.9999999999999997E+267</v>
+      </c>
+      <c r="R74" s="17" t="str">
+        <f t="shared" si="53"/>
+        <v>1E+268</v>
       </c>
     </row>
     <row r="75" spans="5:27" x14ac:dyDescent="0.3">
@@ -10523,15 +10893,15 @@
         <v>66</v>
       </c>
       <c r="F75" s="17" t="str">
+        <f t="shared" si="54"/>
+        <v>1창</v>
+      </c>
+      <c r="G75" s="17">
         <f t="shared" si="55"/>
-        <v>1창</v>
-      </c>
-      <c r="G75" s="17">
-        <f t="shared" si="56"/>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="H75" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I75" s="16" t="str" cm="1">
@@ -10539,16 +10909,30 @@
         <v>창</v>
       </c>
       <c r="J75" s="16" t="str">
+        <f>VLOOKUP(I75,O:R,4,FALSE)</f>
+        <v>1E+172</v>
+      </c>
+      <c r="K75" s="22">
+        <f t="shared" si="56"/>
+        <v>92750</v>
+      </c>
+      <c r="L75" s="22">
         <f t="shared" si="57"/>
-        <v>1E+172</v>
-      </c>
-      <c r="K75" s="22">
-        <f t="shared" si="58"/>
-        <v>92750</v>
-      </c>
-      <c r="L75" s="22">
-        <f t="shared" si="59"/>
         <v>185500</v>
+      </c>
+      <c r="O75" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="P75" s="16">
+        <v>272</v>
+      </c>
+      <c r="Q75" s="17">
+        <f t="shared" si="52"/>
+        <v>1.0000000000000001E+272</v>
+      </c>
+      <c r="R75" s="17" t="str">
+        <f t="shared" si="53"/>
+        <v>1E+272</v>
       </c>
     </row>
     <row r="76" spans="5:27" x14ac:dyDescent="0.3">
@@ -10556,15 +10940,15 @@
         <v>67</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" ref="F76:F80" si="60">H76&amp;I76</f>
+        <f t="shared" ref="F76:F80" si="58">H76&amp;I76</f>
         <v>100창</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" ref="G76:G80" si="61">H76*J76</f>
+        <f t="shared" ref="G76:G80" si="59">H76*J76</f>
         <v>1.0000000000000001E+174</v>
       </c>
       <c r="H76" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I76" s="16" t="str" cm="1">
@@ -10572,15 +10956,15 @@
         <v>창</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" ref="J76:J80" si="62">VLOOKUP(I76,O:R,4,FALSE)</f>
+        <f>VLOOKUP(I76,O:R,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K76" s="22">
-        <f t="shared" ref="K76:K80" si="63">L76*0.5</f>
+        <f t="shared" ref="K76:K80" si="60">L76*0.5</f>
         <v>96000</v>
       </c>
       <c r="L76" s="22">
-        <f t="shared" ref="L76:L80" si="64">L75+500+QUOTIENT(E76,15)*1500</f>
+        <f t="shared" ref="L76:L80" si="61">L75+500+QUOTIENT(E76,15)*1500</f>
         <v>192000</v>
       </c>
     </row>
@@ -10589,15 +10973,15 @@
         <v>68</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>1공</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>1E+176</v>
       </c>
       <c r="H77" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I77" s="16" t="str" cm="1">
@@ -10605,15 +10989,15 @@
         <v>공</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f>VLOOKUP(I77,O:R,4,FALSE)</f>
         <v>1E+176</v>
       </c>
       <c r="K77" s="22">
-        <f t="shared" si="63"/>
+        <f t="shared" si="60"/>
         <v>99250</v>
       </c>
       <c r="L77" s="22">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>198500</v>
       </c>
     </row>
@@ -10622,15 +11006,15 @@
         <v>69</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>100공</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>1.0000000000000001E+178</v>
       </c>
       <c r="H78" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I78" s="16" t="str" cm="1">
@@ -10638,15 +11022,15 @@
         <v>공</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f>VLOOKUP(I78,O:R,4,FALSE)</f>
         <v>1E+176</v>
       </c>
       <c r="K78" s="22">
-        <f t="shared" si="63"/>
+        <f t="shared" si="60"/>
         <v>102500</v>
       </c>
       <c r="L78" s="22">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>205000</v>
       </c>
     </row>
@@ -10655,15 +11039,15 @@
         <v>70</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>1채</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>1E+180</v>
       </c>
       <c r="H79" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I79" s="16" t="str" cm="1">
@@ -10671,15 +11055,15 @@
         <v>채</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f>VLOOKUP(I79,O:R,4,FALSE)</f>
         <v>1E+180</v>
       </c>
       <c r="K79" s="22">
-        <f t="shared" si="63"/>
+        <f t="shared" si="60"/>
         <v>105750</v>
       </c>
       <c r="L79" s="22">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>211500</v>
       </c>
     </row>
@@ -10688,15 +11072,15 @@
         <v>71</v>
       </c>
       <c r="F80" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>100채</v>
       </c>
       <c r="G80" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>1.0000000000000001E+182</v>
       </c>
       <c r="H80" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I80" s="16" t="str" cm="1">
@@ -10704,15 +11088,15 @@
         <v>채</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f>VLOOKUP(I80,O:R,4,FALSE)</f>
         <v>1E+180</v>
       </c>
       <c r="K80" s="22">
-        <f t="shared" si="63"/>
+        <f t="shared" si="60"/>
         <v>109000</v>
       </c>
       <c r="L80" s="22">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>218000</v>
       </c>
     </row>
@@ -10721,15 +11105,15 @@
         <v>72</v>
       </c>
       <c r="F81" s="17" t="str">
-        <f t="shared" ref="F81:F82" si="65">H81&amp;I81</f>
+        <f t="shared" ref="F81:F82" si="62">H81&amp;I81</f>
         <v>1피</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" ref="G81:G82" si="66">H81*J81</f>
+        <f t="shared" ref="G81:G82" si="63">H81*J81</f>
         <v>1E+184</v>
       </c>
       <c r="H81" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I81" s="16" t="str" cm="1">
@@ -10737,15 +11121,15 @@
         <v>피</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" ref="J81:J82" si="67">VLOOKUP(I81,O:R,4,FALSE)</f>
+        <f>VLOOKUP(I81,O:R,4,FALSE)</f>
         <v>1E+184</v>
       </c>
       <c r="K81" s="22">
-        <f t="shared" ref="K81:K82" si="68">L81*0.5</f>
+        <f t="shared" ref="K81:K82" si="64">L81*0.5</f>
         <v>112250</v>
       </c>
       <c r="L81" s="22">
-        <f t="shared" ref="L81:L82" si="69">L80+500+QUOTIENT(E81,15)*1500</f>
+        <f t="shared" ref="L81:L82" si="65">L80+500+QUOTIENT(E81,15)*1500</f>
         <v>224500</v>
       </c>
     </row>
@@ -10754,15 +11138,15 @@
         <v>73</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v>100피</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="63"/>
         <v>9.9999999999999998E+185</v>
       </c>
       <c r="H82" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I82" s="16" t="str" cm="1">
@@ -10770,15 +11154,15 @@
         <v>피</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="67"/>
+        <f>VLOOKUP(I82,O:R,4,FALSE)</f>
         <v>1E+184</v>
       </c>
       <c r="K82" s="22">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>115500</v>
       </c>
       <c r="L82" s="22">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>231000</v>
       </c>
     </row>
@@ -10787,15 +11171,15 @@
         <v>74</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" ref="F83:F86" si="70">H83&amp;I83</f>
+        <f t="shared" ref="F83:F86" si="66">H83&amp;I83</f>
         <v>1동</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" ref="G83:G86" si="71">H83*J83</f>
+        <f t="shared" ref="G83:G86" si="67">H83*J83</f>
         <v>1E+188</v>
       </c>
       <c r="H83" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I83" s="16" t="str" cm="1">
@@ -10803,15 +11187,15 @@
         <v>동</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" ref="J83:J86" si="72">VLOOKUP(I83,O:R,4,FALSE)</f>
+        <f>VLOOKUP(I83,O:R,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K83" s="22">
-        <f t="shared" ref="K83:K86" si="73">L83*0.5</f>
+        <f t="shared" ref="K83:K86" si="68">L83*0.5</f>
         <v>118750</v>
       </c>
       <c r="L83" s="22">
-        <f t="shared" ref="L83:L86" si="74">L82+500+QUOTIENT(E83,15)*1500</f>
+        <f t="shared" ref="L83:L86" si="69">L82+500+QUOTIENT(E83,15)*1500</f>
         <v>237500</v>
       </c>
     </row>
@@ -10820,15 +11204,15 @@
         <v>75</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>100동</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="67"/>
         <v>1.0000000000000001E+190</v>
       </c>
       <c r="H84" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I84" s="16" t="str" cm="1">
@@ -10836,15 +11220,15 @@
         <v>동</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="72"/>
+        <f>VLOOKUP(I84,O:R,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K84" s="22">
-        <f t="shared" si="73"/>
+        <f t="shared" si="68"/>
         <v>122750</v>
       </c>
       <c r="L84" s="22">
-        <f t="shared" si="74"/>
+        <f t="shared" si="69"/>
         <v>245500</v>
       </c>
     </row>
@@ -10853,15 +11237,15 @@
         <v>76</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>1멸</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="67"/>
         <v>1E+192</v>
       </c>
       <c r="H85" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I85" s="16" t="str" cm="1">
@@ -10869,15 +11253,15 @@
         <v>멸</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="72"/>
+        <f>VLOOKUP(I85,O:R,4,FALSE)</f>
         <v>1E+192</v>
       </c>
       <c r="K85" s="22">
-        <f t="shared" si="73"/>
+        <f t="shared" si="68"/>
         <v>126750</v>
       </c>
       <c r="L85" s="22">
-        <f t="shared" si="74"/>
+        <f t="shared" si="69"/>
         <v>253500</v>
       </c>
     </row>
@@ -10886,15 +11270,15 @@
         <v>77</v>
       </c>
       <c r="F86" s="17" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>100멸</v>
       </c>
       <c r="G86" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="67"/>
         <v>1.0000000000000001E+194</v>
       </c>
       <c r="H86" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I86" s="16" t="str" cm="1">
@@ -10902,15 +11286,15 @@
         <v>멸</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="72"/>
+        <f>VLOOKUP(I86,O:R,4,FALSE)</f>
         <v>1E+192</v>
       </c>
       <c r="K86" s="22">
-        <f t="shared" si="73"/>
+        <f t="shared" si="68"/>
         <v>130750</v>
       </c>
       <c r="L86" s="22">
-        <f t="shared" si="74"/>
+        <f t="shared" si="69"/>
         <v>261500</v>
       </c>
     </row>
@@ -10919,15 +11303,15 @@
         <v>78</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" ref="F87:F90" si="75">H87&amp;I87</f>
+        <f t="shared" ref="F87:F90" si="70">H87&amp;I87</f>
         <v>1향</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" ref="G87:G90" si="76">H87*J87</f>
+        <f t="shared" ref="G87:G90" si="71">H87*J87</f>
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="H87" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I87" s="16" t="str" cm="1">
@@ -10935,15 +11319,15 @@
         <v>향</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" ref="J87:J90" si="77">VLOOKUP(I87,O:R,4,FALSE)</f>
+        <f>VLOOKUP(I87,O:R,4,FALSE)</f>
         <v>1E+196</v>
       </c>
       <c r="K87" s="22">
-        <f t="shared" ref="K87:K90" si="78">L87*0.5</f>
+        <f t="shared" ref="K87:K90" si="72">L87*0.5</f>
         <v>134750</v>
       </c>
       <c r="L87" s="22">
-        <f t="shared" ref="L87:L90" si="79">L86+500+QUOTIENT(E87,15)*1500</f>
+        <f t="shared" ref="L87:L90" si="73">L86+500+QUOTIENT(E87,15)*1500</f>
         <v>269500</v>
       </c>
     </row>
@@ -10952,15 +11336,15 @@
         <v>79</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="70"/>
         <v>100향</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="76"/>
+        <f t="shared" si="71"/>
         <v>9.9999999999999988E+197</v>
       </c>
       <c r="H88" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I88" s="16" t="str" cm="1">
@@ -10968,15 +11352,15 @@
         <v>향</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="77"/>
+        <f>VLOOKUP(I88,O:R,4,FALSE)</f>
         <v>1E+196</v>
       </c>
       <c r="K88" s="22">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>138750</v>
       </c>
       <c r="L88" s="22">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>277500</v>
       </c>
     </row>
@@ -10985,15 +11369,15 @@
         <v>80</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="70"/>
         <v>1증</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="76"/>
+        <f t="shared" si="71"/>
         <v>9.9999999999999997E+199</v>
       </c>
       <c r="H89" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I89" s="16" t="str" cm="1">
@@ -11001,15 +11385,15 @@
         <v>증</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="77"/>
+        <f>VLOOKUP(I89,O:R,4,FALSE)</f>
         <v>1E+200</v>
       </c>
       <c r="K89" s="22">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>142750</v>
       </c>
       <c r="L89" s="22">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>285500</v>
       </c>
     </row>
@@ -11018,15 +11402,15 @@
         <v>81</v>
       </c>
       <c r="F90" s="17" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="70"/>
         <v>100증</v>
       </c>
       <c r="G90" s="17">
-        <f t="shared" si="76"/>
+        <f t="shared" si="71"/>
         <v>9.999999999999999E+201</v>
       </c>
       <c r="H90" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I90" s="16" t="str" cm="1">
@@ -11034,15 +11418,15 @@
         <v>증</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="77"/>
+        <f>VLOOKUP(I90,O:R,4,FALSE)</f>
         <v>1E+200</v>
       </c>
       <c r="K90" s="22">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>146750</v>
       </c>
       <c r="L90" s="22">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>293500</v>
       </c>
     </row>
@@ -11051,15 +11435,15 @@
         <v>82</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" ref="F91:F94" si="80">H91&amp;I91</f>
+        <f t="shared" ref="F91:F94" si="74">H91&amp;I91</f>
         <v>1쾌</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" ref="G91:G94" si="81">H91*J91</f>
+        <f t="shared" ref="G91:G94" si="75">H91*J91</f>
         <v>9.9999999999999999E+203</v>
       </c>
       <c r="H91" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I91" s="16" t="str" cm="1">
@@ -11067,15 +11451,15 @@
         <v>쾌</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" ref="J91:J94" si="82">VLOOKUP(I91,O:R,4,FALSE)</f>
+        <f>VLOOKUP(I91,O:R,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K91" s="22">
-        <f t="shared" ref="K91:K94" si="83">L91*0.5</f>
+        <f t="shared" ref="K91:K94" si="76">L91*0.5</f>
         <v>150750</v>
       </c>
       <c r="L91" s="22">
-        <f t="shared" ref="L91:L94" si="84">L90+500+QUOTIENT(E91,15)*1500</f>
+        <f t="shared" ref="L91:L94" si="77">L90+500+QUOTIENT(E91,15)*1500</f>
         <v>301500</v>
       </c>
     </row>
@@ -11084,15 +11468,15 @@
         <v>83</v>
       </c>
       <c r="F92" s="17" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>100쾌</v>
       </c>
       <c r="G92" s="17">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>1E+206</v>
       </c>
       <c r="H92" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I92" s="16" t="str" cm="1">
@@ -11100,15 +11484,15 @@
         <v>쾌</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="82"/>
+        <f>VLOOKUP(I92,O:R,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K92" s="22">
-        <f t="shared" si="83"/>
+        <f t="shared" si="76"/>
         <v>154750</v>
       </c>
       <c r="L92" s="22">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>309500</v>
       </c>
     </row>
@@ -11117,15 +11501,15 @@
         <v>84</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>1우</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>9.9999999999999998E+207</v>
       </c>
       <c r="H93" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I93" s="16" t="str" cm="1">
@@ -11133,15 +11517,15 @@
         <v>우</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="82"/>
+        <f>VLOOKUP(I93,O:R,4,FALSE)</f>
         <v>1E+208</v>
       </c>
       <c r="K93" s="22">
-        <f t="shared" si="83"/>
+        <f t="shared" si="76"/>
         <v>158750</v>
       </c>
       <c r="L93" s="22">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>317500</v>
       </c>
     </row>
@@ -11150,15 +11534,15 @@
         <v>85</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>100우</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>9.9999999999999993E+209</v>
       </c>
       <c r="H94" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I94" s="16" t="str" cm="1">
@@ -11166,15 +11550,15 @@
         <v>우</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="82"/>
+        <f>VLOOKUP(I94,O:R,4,FALSE)</f>
         <v>1E+208</v>
       </c>
       <c r="K94" s="22">
-        <f t="shared" si="83"/>
+        <f t="shared" si="76"/>
         <v>162750</v>
       </c>
       <c r="L94" s="22">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>325500</v>
       </c>
     </row>
@@ -11183,15 +11567,15 @@
         <v>86</v>
       </c>
       <c r="F95" s="17" t="str">
-        <f t="shared" ref="F95:F99" si="85">H95&amp;I95</f>
+        <f t="shared" ref="F95:F99" si="78">H95&amp;I95</f>
         <v>1팽</v>
       </c>
       <c r="G95" s="17">
-        <f t="shared" ref="G95:G99" si="86">H95*J95</f>
+        <f t="shared" ref="G95:G99" si="79">H95*J95</f>
         <v>9.9999999999999991E+211</v>
       </c>
       <c r="H95" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I95" s="16" t="str" cm="1">
@@ -11199,15 +11583,15 @@
         <v>팽</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" ref="J95:J99" si="87">VLOOKUP(I95,O:R,4,FALSE)</f>
+        <f>VLOOKUP(I95,O:R,4,FALSE)</f>
         <v>1E+212</v>
       </c>
       <c r="K95" s="22">
-        <f t="shared" ref="K95:K99" si="88">L95*0.5</f>
+        <f t="shared" ref="K95:K99" si="80">L95*0.5</f>
         <v>166750</v>
       </c>
       <c r="L95" s="22">
-        <f t="shared" ref="L95:L99" si="89">L94+500+QUOTIENT(E95,15)*1500</f>
+        <f t="shared" ref="L95:L99" si="81">L94+500+QUOTIENT(E95,15)*1500</f>
         <v>333500</v>
       </c>
     </row>
@@ -11216,15 +11600,15 @@
         <v>87</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="78"/>
         <v>100팽</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" si="86"/>
+        <f t="shared" si="79"/>
         <v>9.9999999999999995E+213</v>
       </c>
       <c r="H96" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I96" s="16" t="str" cm="1">
@@ -11232,15 +11616,15 @@
         <v>팽</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="87"/>
+        <f>VLOOKUP(I96,O:R,4,FALSE)</f>
         <v>1E+212</v>
       </c>
       <c r="K96" s="22">
-        <f t="shared" si="88"/>
+        <f t="shared" si="80"/>
         <v>170750</v>
       </c>
       <c r="L96" s="22">
-        <f t="shared" si="89"/>
+        <f t="shared" si="81"/>
         <v>341500</v>
       </c>
     </row>
@@ -11249,15 +11633,15 @@
         <v>88</v>
       </c>
       <c r="F97" s="17" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="78"/>
         <v>1관</v>
       </c>
       <c r="G97" s="17">
-        <f t="shared" si="86"/>
+        <f t="shared" si="79"/>
         <v>1E+216</v>
       </c>
       <c r="H97" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I97" s="16" t="str" cm="1">
@@ -11265,15 +11649,15 @@
         <v>관</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="87"/>
+        <f>VLOOKUP(I97,O:R,4,FALSE)</f>
         <v>1E+216</v>
       </c>
       <c r="K97" s="22">
-        <f t="shared" si="88"/>
+        <f t="shared" si="80"/>
         <v>174750</v>
       </c>
       <c r="L97" s="22">
-        <f t="shared" si="89"/>
+        <f t="shared" si="81"/>
         <v>349500</v>
       </c>
     </row>
@@ -11282,15 +11666,15 @@
         <v>89</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="78"/>
         <v>100관</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" si="86"/>
+        <f t="shared" si="79"/>
         <v>1.0000000000000001E+218</v>
       </c>
       <c r="H98" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I98" s="16" t="str" cm="1">
@@ -11298,15 +11682,15 @@
         <v>관</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="87"/>
+        <f>VLOOKUP(I98,O:R,4,FALSE)</f>
         <v>1E+216</v>
       </c>
       <c r="K98" s="22">
-        <f t="shared" si="88"/>
+        <f t="shared" si="80"/>
         <v>178750</v>
       </c>
       <c r="L98" s="22">
-        <f t="shared" si="89"/>
+        <f t="shared" si="81"/>
         <v>357500</v>
       </c>
     </row>
@@ -11315,15 +11699,15 @@
         <v>90</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="78"/>
         <v>1한</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="86"/>
+        <f t="shared" si="79"/>
         <v>1E+220</v>
       </c>
       <c r="H99" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I99" s="16" t="str" cm="1">
@@ -11331,15 +11715,15 @@
         <v>한</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="87"/>
+        <f>VLOOKUP(I99,O:R,4,FALSE)</f>
         <v>1E+220</v>
       </c>
       <c r="K99" s="22">
-        <f t="shared" si="88"/>
+        <f t="shared" si="80"/>
         <v>183500</v>
       </c>
       <c r="L99" s="22">
-        <f t="shared" si="89"/>
+        <f t="shared" si="81"/>
         <v>367000</v>
       </c>
     </row>
@@ -11348,15 +11732,15 @@
         <v>91</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" ref="F100:F102" si="90">H100&amp;I100</f>
+        <f t="shared" ref="F100:F102" si="82">H100&amp;I100</f>
         <v>100한</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" ref="G100:G102" si="91">H100*J100</f>
+        <f t="shared" ref="G100:G102" si="83">H100*J100</f>
         <v>1E+222</v>
       </c>
       <c r="H100" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I100" s="16" t="str" cm="1">
@@ -11364,15 +11748,15 @@
         <v>한</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" ref="J100:J102" si="92">VLOOKUP(I100,O:R,4,FALSE)</f>
+        <f>VLOOKUP(I100,O:R,4,FALSE)</f>
         <v>1E+220</v>
       </c>
       <c r="K100" s="22">
-        <f t="shared" ref="K100:K102" si="93">L100*0.5</f>
+        <f t="shared" ref="K100:K102" si="84">L100*0.5</f>
         <v>188250</v>
       </c>
       <c r="L100" s="22">
-        <f t="shared" ref="L100:L102" si="94">L99+500+QUOTIENT(E100,15)*1500</f>
+        <f t="shared" ref="L100:L102" si="85">L99+500+QUOTIENT(E100,15)*1500</f>
         <v>376500</v>
       </c>
     </row>
@@ -11381,15 +11765,15 @@
         <v>92</v>
       </c>
       <c r="F101" s="17" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="82"/>
         <v>1혈</v>
       </c>
       <c r="G101" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="83"/>
         <v>9.9999999999999997E+223</v>
       </c>
       <c r="H101" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I101" s="16" t="str" cm="1">
@@ -11397,15 +11781,15 @@
         <v>혈</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" si="92"/>
+        <f>VLOOKUP(I101,O:R,4,FALSE)</f>
         <v>1E+224</v>
       </c>
       <c r="K101" s="22">
-        <f t="shared" si="93"/>
+        <f t="shared" si="84"/>
         <v>193000</v>
       </c>
       <c r="L101" s="22">
-        <f t="shared" si="94"/>
+        <f t="shared" si="85"/>
         <v>386000</v>
       </c>
     </row>
@@ -11414,15 +11798,15 @@
         <v>93</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="82"/>
         <v>100혈</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="83"/>
         <v>9.9999999999999996E+225</v>
       </c>
       <c r="H102" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I102" s="16" t="str" cm="1">
@@ -11430,15 +11814,15 @@
         <v>혈</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="92"/>
+        <f>VLOOKUP(I102,O:R,4,FALSE)</f>
         <v>1E+224</v>
       </c>
       <c r="K102" s="22">
-        <f t="shared" si="93"/>
+        <f t="shared" si="84"/>
         <v>197750</v>
       </c>
       <c r="L102" s="22">
-        <f t="shared" si="94"/>
+        <f t="shared" si="85"/>
         <v>395500</v>
       </c>
     </row>
@@ -11447,15 +11831,15 @@
         <v>94</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" ref="F103:F106" si="95">H103&amp;I103</f>
+        <f t="shared" ref="F103:F106" si="86">H103&amp;I103</f>
         <v>1연</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" ref="G103:G106" si="96">H103*J103</f>
+        <f t="shared" ref="G103:G106" si="87">H103*J103</f>
         <v>9.9999999999999992E+227</v>
       </c>
       <c r="H103" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I103" s="16" t="str" cm="1">
@@ -11463,15 +11847,15 @@
         <v>연</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" ref="J103:J106" si="97">VLOOKUP(I103,O:R,4,FALSE)</f>
+        <f>VLOOKUP(I103,O:R,4,FALSE)</f>
         <v>1E+228</v>
       </c>
       <c r="K103" s="22">
-        <f t="shared" ref="K103:K106" si="98">L103*0.5</f>
+        <f t="shared" ref="K103:K106" si="88">L103*0.5</f>
         <v>202500</v>
       </c>
       <c r="L103" s="22">
-        <f t="shared" ref="L103:L106" si="99">L102+500+QUOTIENT(E103,15)*1500</f>
+        <f t="shared" ref="L103:L106" si="89">L102+500+QUOTIENT(E103,15)*1500</f>
         <v>405000</v>
       </c>
     </row>
@@ -11480,15 +11864,15 @@
         <v>95</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="86"/>
         <v>100연</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="96"/>
+        <f t="shared" si="87"/>
         <v>9.9999999999999988E+229</v>
       </c>
       <c r="H104" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I104" s="16" t="str" cm="1">
@@ -11496,15 +11880,15 @@
         <v>연</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="97"/>
+        <f>VLOOKUP(I104,O:R,4,FALSE)</f>
         <v>1E+228</v>
       </c>
       <c r="K104" s="22">
-        <f t="shared" si="98"/>
+        <f t="shared" si="88"/>
         <v>207250</v>
       </c>
       <c r="L104" s="22">
-        <f t="shared" si="99"/>
+        <f t="shared" si="89"/>
         <v>414500</v>
       </c>
     </row>
@@ -11513,15 +11897,15 @@
         <v>96</v>
       </c>
       <c r="F105" s="17" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="86"/>
         <v>1난</v>
       </c>
       <c r="G105" s="17">
-        <f t="shared" si="96"/>
+        <f t="shared" si="87"/>
         <v>1.0000000000000001E+232</v>
       </c>
       <c r="H105" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I105" s="16" t="str" cm="1">
@@ -11529,15 +11913,15 @@
         <v>난</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" si="97"/>
+        <f>VLOOKUP(I105,O:R,4,FALSE)</f>
         <v>1E+232</v>
       </c>
       <c r="K105" s="22">
-        <f t="shared" si="98"/>
+        <f t="shared" si="88"/>
         <v>212000</v>
       </c>
       <c r="L105" s="22">
-        <f t="shared" si="99"/>
+        <f t="shared" si="89"/>
         <v>424000</v>
       </c>
     </row>
@@ -11546,15 +11930,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="17" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="86"/>
         <v>100난</v>
       </c>
       <c r="G106" s="17">
-        <f t="shared" si="96"/>
+        <f t="shared" si="87"/>
         <v>1E+234</v>
       </c>
       <c r="H106" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I106" s="16" t="str" cm="1">
@@ -11562,15 +11946,15 @@
         <v>난</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="97"/>
+        <f>VLOOKUP(I106,O:R,4,FALSE)</f>
         <v>1E+232</v>
       </c>
       <c r="K106" s="22">
-        <f t="shared" si="98"/>
+        <f t="shared" si="88"/>
         <v>216750</v>
       </c>
       <c r="L106" s="22">
-        <f t="shared" si="99"/>
+        <f t="shared" si="89"/>
         <v>433500</v>
       </c>
     </row>
@@ -11579,15 +11963,15 @@
         <v>98</v>
       </c>
       <c r="F107" s="17" t="str">
-        <f t="shared" ref="F107:F110" si="100">H107&amp;I107</f>
+        <f t="shared" ref="F107:F110" si="90">H107&amp;I107</f>
         <v>1군</v>
       </c>
       <c r="G107" s="17">
-        <f t="shared" ref="G107:G110" si="101">H107*J107</f>
+        <f t="shared" ref="G107:G110" si="91">H107*J107</f>
         <v>1.0000000000000001E+236</v>
       </c>
       <c r="H107" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I107" s="16" t="str" cm="1">
@@ -11595,15 +11979,15 @@
         <v>군</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" ref="J107:J110" si="102">VLOOKUP(I107,O:R,4,FALSE)</f>
+        <f>VLOOKUP(I107,O:R,4,FALSE)</f>
         <v>1E+236</v>
       </c>
       <c r="K107" s="22">
-        <f t="shared" ref="K107:K110" si="103">L107*0.5</f>
+        <f t="shared" ref="K107:K110" si="92">L107*0.5</f>
         <v>221500</v>
       </c>
       <c r="L107" s="22">
-        <f t="shared" ref="L107:L110" si="104">L106+500+QUOTIENT(E107,15)*1500</f>
+        <f t="shared" ref="L107:L110" si="93">L106+500+QUOTIENT(E107,15)*1500</f>
         <v>443000</v>
       </c>
     </row>
@@ -11612,15 +11996,15 @@
         <v>99</v>
       </c>
       <c r="F108" s="17" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="90"/>
         <v>100군</v>
       </c>
       <c r="G108" s="17">
-        <f t="shared" si="101"/>
+        <f t="shared" si="91"/>
         <v>1E+238</v>
       </c>
       <c r="H108" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I108" s="16" t="str" cm="1">
@@ -11628,15 +12012,15 @@
         <v>군</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="102"/>
+        <f>VLOOKUP(I108,O:R,4,FALSE)</f>
         <v>1E+236</v>
       </c>
       <c r="K108" s="22">
-        <f t="shared" si="103"/>
+        <f t="shared" si="92"/>
         <v>226250</v>
       </c>
       <c r="L108" s="22">
-        <f t="shared" si="104"/>
+        <f t="shared" si="93"/>
         <v>452500</v>
       </c>
     </row>
@@ -11645,15 +12029,15 @@
         <v>100</v>
       </c>
       <c r="F109" s="17" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="90"/>
         <v>1결</v>
       </c>
       <c r="G109" s="17">
-        <f t="shared" si="101"/>
+        <f t="shared" si="91"/>
         <v>1E+240</v>
       </c>
       <c r="H109" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I109" s="16" t="str" cm="1">
@@ -11661,15 +12045,15 @@
         <v>결</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="102"/>
+        <f>VLOOKUP(I109,O:R,4,FALSE)</f>
         <v>1E+240</v>
       </c>
       <c r="K109" s="22">
-        <f t="shared" si="103"/>
+        <f t="shared" si="92"/>
         <v>231000</v>
       </c>
       <c r="L109" s="22">
-        <f t="shared" si="104"/>
+        <f t="shared" si="93"/>
         <v>462000</v>
       </c>
     </row>
@@ -11678,15 +12062,15 @@
         <v>101</v>
       </c>
       <c r="F110" s="17" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="90"/>
         <v>100결</v>
       </c>
       <c r="G110" s="17">
-        <f t="shared" si="101"/>
+        <f t="shared" si="91"/>
         <v>1.0000000000000001E+242</v>
       </c>
       <c r="H110" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I110" s="16" t="str" cm="1">
@@ -11694,15 +12078,15 @@
         <v>결</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f t="shared" si="102"/>
+        <f>VLOOKUP(I110,O:R,4,FALSE)</f>
         <v>1E+240</v>
       </c>
       <c r="K110" s="22">
-        <f t="shared" si="103"/>
+        <f t="shared" si="92"/>
         <v>235750</v>
       </c>
       <c r="L110" s="22">
-        <f t="shared" si="104"/>
+        <f t="shared" si="93"/>
         <v>471500</v>
       </c>
     </row>
@@ -11711,15 +12095,15 @@
         <v>102</v>
       </c>
       <c r="F111" s="17" t="str">
-        <f t="shared" ref="F111:F116" si="105">H111&amp;I111</f>
+        <f t="shared" ref="F111:F116" si="94">H111&amp;I111</f>
         <v>1맥</v>
       </c>
       <c r="G111" s="17">
-        <f t="shared" ref="G111:G116" si="106">H111*J111</f>
+        <f t="shared" ref="G111:G116" si="95">H111*J111</f>
         <v>1.0000000000000001E+244</v>
       </c>
       <c r="H111" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I111" s="16" t="str" cm="1">
@@ -11727,15 +12111,15 @@
         <v>맥</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f t="shared" ref="J111:J116" si="107">VLOOKUP(I111,O:R,4,FALSE)</f>
+        <f>VLOOKUP(I111,O:R,4,FALSE)</f>
         <v>1E+244</v>
       </c>
       <c r="K111" s="22">
-        <f t="shared" ref="K111:K116" si="108">L111*0.5</f>
+        <f t="shared" ref="K111:K116" si="96">L111*0.5</f>
         <v>240500</v>
       </c>
       <c r="L111" s="22">
-        <f t="shared" ref="L111:L116" si="109">L110+500+QUOTIENT(E111,15)*1500</f>
+        <f t="shared" ref="L111:L116" si="97">L110+500+QUOTIENT(E111,15)*1500</f>
         <v>481000</v>
       </c>
     </row>
@@ -11744,15 +12128,15 @@
         <v>103</v>
       </c>
       <c r="F112" s="17" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="94"/>
         <v>100맥</v>
       </c>
       <c r="G112" s="17">
-        <f t="shared" si="106"/>
+        <f t="shared" si="95"/>
         <v>1.0000000000000001E+246</v>
       </c>
       <c r="H112" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I112" s="16" t="str" cm="1">
@@ -11760,15 +12144,15 @@
         <v>맥</v>
       </c>
       <c r="J112" s="16" t="str">
-        <f t="shared" si="107"/>
+        <f>VLOOKUP(I112,O:R,4,FALSE)</f>
         <v>1E+244</v>
       </c>
       <c r="K112" s="22">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>245250</v>
       </c>
       <c r="L112" s="22">
-        <f t="shared" si="109"/>
+        <f t="shared" si="97"/>
         <v>490500</v>
       </c>
     </row>
@@ -11777,15 +12161,15 @@
         <v>104</v>
       </c>
       <c r="F113" s="17" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="94"/>
         <v>1토</v>
       </c>
       <c r="G113" s="17">
-        <f t="shared" si="106"/>
+        <f t="shared" si="95"/>
         <v>1E+248</v>
       </c>
       <c r="H113" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I113" s="16" t="str" cm="1">
@@ -11793,15 +12177,15 @@
         <v>토</v>
       </c>
       <c r="J113" s="16" t="str">
-        <f t="shared" si="107"/>
+        <f>VLOOKUP(I113,O:R,4,FALSE)</f>
         <v>1E+248</v>
       </c>
       <c r="K113" s="22">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>250000</v>
       </c>
       <c r="L113" s="22">
-        <f t="shared" si="109"/>
+        <f t="shared" si="97"/>
         <v>500000</v>
       </c>
     </row>
@@ -11810,15 +12194,15 @@
         <v>105</v>
       </c>
       <c r="F114" s="17" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="94"/>
         <v>100토</v>
       </c>
       <c r="G114" s="17">
-        <f t="shared" si="106"/>
+        <f t="shared" si="95"/>
         <v>1.0000000000000001E+250</v>
       </c>
       <c r="H114" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I114" s="16" t="str" cm="1">
@@ -11826,15 +12210,15 @@
         <v>토</v>
       </c>
       <c r="J114" s="16" t="str">
-        <f t="shared" si="107"/>
+        <f>VLOOKUP(I114,O:R,4,FALSE)</f>
         <v>1E+248</v>
       </c>
       <c r="K114" s="22">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>255500</v>
       </c>
       <c r="L114" s="22">
-        <f t="shared" si="109"/>
+        <f t="shared" si="97"/>
         <v>511000</v>
       </c>
     </row>
@@ -11843,15 +12227,15 @@
         <v>106</v>
       </c>
       <c r="F115" s="17" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="94"/>
         <v>1산</v>
       </c>
       <c r="G115" s="17">
-        <f t="shared" si="106"/>
+        <f t="shared" si="95"/>
         <v>1.0000000000000001E+252</v>
       </c>
       <c r="H115" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I115" s="16" t="str" cm="1">
@@ -11859,15 +12243,15 @@
         <v>산</v>
       </c>
       <c r="J115" s="16" t="str">
-        <f t="shared" si="107"/>
+        <f>VLOOKUP(I115,O:R,4,FALSE)</f>
         <v>1E+252</v>
       </c>
       <c r="K115" s="22">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>261000</v>
       </c>
       <c r="L115" s="22">
-        <f t="shared" si="109"/>
+        <f t="shared" si="97"/>
         <v>522000</v>
       </c>
     </row>
@@ -11876,15 +12260,15 @@
         <v>107</v>
       </c>
       <c r="F116" s="17" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="94"/>
         <v>100산</v>
       </c>
       <c r="G116" s="17">
-        <f t="shared" si="106"/>
+        <f t="shared" si="95"/>
         <v>1.0000000000000001E+254</v>
       </c>
       <c r="H116" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I116" s="16" t="str" cm="1">
@@ -11892,16 +12276,214 @@
         <v>산</v>
       </c>
       <c r="J116" s="16" t="str">
-        <f t="shared" si="107"/>
+        <f>VLOOKUP(I116,O:R,4,FALSE)</f>
         <v>1E+252</v>
       </c>
       <c r="K116" s="22">
-        <f t="shared" si="108"/>
+        <f t="shared" si="96"/>
         <v>266500</v>
       </c>
       <c r="L116" s="22">
-        <f t="shared" si="109"/>
+        <f t="shared" si="97"/>
         <v>533000</v>
+      </c>
+    </row>
+    <row r="117" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E117" s="16">
+        <v>108</v>
+      </c>
+      <c r="F117" s="17" t="str">
+        <f t="shared" ref="F117:F122" si="98">H117&amp;I117</f>
+        <v>1강</v>
+      </c>
+      <c r="G117" s="17">
+        <f t="shared" ref="G117:G122" si="99">H117*J117</f>
+        <v>1E+256</v>
+      </c>
+      <c r="H117" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I117" s="16" t="str" cm="1">
+        <f t="array" ref="I117">IF(AND(H116&gt;=100,H117&lt;2),INDEX(O:O,MATCH(I116,O:O,0)+1,0),I116)</f>
+        <v>강</v>
+      </c>
+      <c r="J117" s="16" t="str">
+        <f>VLOOKUP(I117,O:R,4,FALSE)</f>
+        <v>1E+256</v>
+      </c>
+      <c r="K117" s="22">
+        <f t="shared" ref="K117:K122" si="100">L117*0.5</f>
+        <v>272000</v>
+      </c>
+      <c r="L117" s="22">
+        <f t="shared" ref="L117:L122" si="101">L116+500+QUOTIENT(E117,15)*1500</f>
+        <v>544000</v>
+      </c>
+    </row>
+    <row r="118" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E118" s="16">
+        <v>109</v>
+      </c>
+      <c r="F118" s="17" t="str">
+        <f t="shared" si="98"/>
+        <v>100강</v>
+      </c>
+      <c r="G118" s="17">
+        <f t="shared" si="99"/>
+        <v>1.0000000000000001E+258</v>
+      </c>
+      <c r="H118" s="17">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="I118" s="16" t="str" cm="1">
+        <f t="array" ref="I118">IF(AND(H117&gt;=100,H118&lt;2),INDEX(O:O,MATCH(I117,O:O,0)+1,0),I117)</f>
+        <v>강</v>
+      </c>
+      <c r="J118" s="16" t="str">
+        <f>VLOOKUP(I118,O:R,4,FALSE)</f>
+        <v>1E+256</v>
+      </c>
+      <c r="K118" s="22">
+        <f t="shared" si="100"/>
+        <v>277500</v>
+      </c>
+      <c r="L118" s="22">
+        <f t="shared" si="101"/>
+        <v>555000</v>
+      </c>
+    </row>
+    <row r="119" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E119" s="16">
+        <v>110</v>
+      </c>
+      <c r="F119" s="17" t="str">
+        <f t="shared" si="98"/>
+        <v>1환</v>
+      </c>
+      <c r="G119" s="17">
+        <f t="shared" si="99"/>
+        <v>1.0000000000000001E+260</v>
+      </c>
+      <c r="H119" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I119" s="16" t="str" cm="1">
+        <f t="array" ref="I119">IF(AND(H118&gt;=100,H119&lt;2),INDEX(O:O,MATCH(I118,O:O,0)+1,0),I118)</f>
+        <v>환</v>
+      </c>
+      <c r="J119" s="16" t="str">
+        <f>VLOOKUP(I119,O:R,4,FALSE)</f>
+        <v>1E+260</v>
+      </c>
+      <c r="K119" s="22">
+        <f t="shared" si="100"/>
+        <v>283000</v>
+      </c>
+      <c r="L119" s="22">
+        <f t="shared" si="101"/>
+        <v>566000</v>
+      </c>
+    </row>
+    <row r="120" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E120" s="16">
+        <v>111</v>
+      </c>
+      <c r="F120" s="17" t="str">
+        <f t="shared" si="98"/>
+        <v>100환</v>
+      </c>
+      <c r="G120" s="17">
+        <f t="shared" si="99"/>
+        <v>1E+262</v>
+      </c>
+      <c r="H120" s="17">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="I120" s="16" t="str" cm="1">
+        <f t="array" ref="I120">IF(AND(H119&gt;=100,H120&lt;2),INDEX(O:O,MATCH(I119,O:O,0)+1,0),I119)</f>
+        <v>환</v>
+      </c>
+      <c r="J120" s="16" t="str">
+        <f>VLOOKUP(I120,O:R,4,FALSE)</f>
+        <v>1E+260</v>
+      </c>
+      <c r="K120" s="22">
+        <f t="shared" si="100"/>
+        <v>288500</v>
+      </c>
+      <c r="L120" s="22">
+        <f t="shared" si="101"/>
+        <v>577000</v>
+      </c>
+    </row>
+    <row r="121" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E121" s="16">
+        <v>112</v>
+      </c>
+      <c r="F121" s="17" t="str">
+        <f t="shared" si="98"/>
+        <v>1종</v>
+      </c>
+      <c r="G121" s="17">
+        <f t="shared" si="99"/>
+        <v>1E+264</v>
+      </c>
+      <c r="H121" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I121" s="16" t="str" cm="1">
+        <f t="array" ref="I121">IF(AND(H120&gt;=100,H121&lt;2),INDEX(O:O,MATCH(I120,O:O,0)+1,0),I120)</f>
+        <v>종</v>
+      </c>
+      <c r="J121" s="16" t="str">
+        <f>VLOOKUP(I121,O:R,4,FALSE)</f>
+        <v>1E+264</v>
+      </c>
+      <c r="K121" s="22">
+        <f t="shared" si="100"/>
+        <v>294000</v>
+      </c>
+      <c r="L121" s="22">
+        <f t="shared" si="101"/>
+        <v>588000</v>
+      </c>
+    </row>
+    <row r="122" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E122" s="16">
+        <v>113</v>
+      </c>
+      <c r="F122" s="17" t="str">
+        <f t="shared" si="98"/>
+        <v>100종</v>
+      </c>
+      <c r="G122" s="17">
+        <f t="shared" si="99"/>
+        <v>1E+266</v>
+      </c>
+      <c r="H122" s="17">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="I122" s="16" t="str" cm="1">
+        <f t="array" ref="I122">IF(AND(H121&gt;=100,H122&lt;2),INDEX(O:O,MATCH(I121,O:O,0)+1,0),I121)</f>
+        <v>종</v>
+      </c>
+      <c r="J122" s="16" t="str">
+        <f>VLOOKUP(I122,O:R,4,FALSE)</f>
+        <v>1E+264</v>
+      </c>
+      <c r="K122" s="22">
+        <f t="shared" si="100"/>
+        <v>299500</v>
+      </c>
+      <c r="L122" s="22">
+        <f t="shared" si="101"/>
+        <v>599000</v>
       </c>
     </row>
   </sheetData>
